--- a/1/О23.02.13.Xlsx
+++ b/1/О23.02.13.Xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="451">
   <si>
     <t>Назва Клієнта</t>
   </si>
@@ -1178,15 +1178,36 @@
     <t>Оброблено</t>
   </si>
   <si>
+    <t>rah=9048014;ot=1673;</t>
+  </si>
+  <si>
     <t>rah=0066070;ot=1879;</t>
   </si>
   <si>
     <t>rah=0506138;ot=1908;</t>
   </si>
   <si>
+    <t>rah=0064009;ot=238,1;</t>
+  </si>
+  <si>
+    <t>rah=9048008;ot=2160,77;</t>
+  </si>
+  <si>
+    <t>rah=0090077;ot=1200;</t>
+  </si>
+  <si>
+    <t>rah=0092045;ot=1082,06;</t>
+  </si>
+  <si>
+    <t>rah=0098026;ot=2000;</t>
+  </si>
+  <si>
     <t>rah=0070069;ot=2254;</t>
   </si>
   <si>
+    <t>rah=0060039;om=283,9;</t>
+  </si>
+  <si>
     <t>rah=0056098;ot=1633;</t>
   </si>
   <si>
@@ -1196,6 +1217,9 @@
     <t>rah=0054006;ot=4079,45;</t>
   </si>
   <si>
+    <t>rah=0064009;ot=2142,9;</t>
+  </si>
+  <si>
     <t>rah=9006153;ot=1240;</t>
   </si>
   <si>
@@ -1208,13 +1232,142 @@
     <t>rah=0092145;ot=1665;</t>
   </si>
   <si>
+    <t>rah=0106036;ot=500;</t>
+  </si>
+  <si>
     <t>rah=0030039;ot=1831;</t>
   </si>
   <si>
+    <t>rah=0207031;ot=1604,75;</t>
+  </si>
+  <si>
     <t>rah=0068053;ot=1331;</t>
   </si>
   <si>
+    <t>rah=0086081;ot=1400;</t>
+  </si>
+  <si>
     <t>rah=0068024;ot=7689,79;</t>
+  </si>
+  <si>
+    <t>rah=0068024;op=58,2;</t>
+  </si>
+  <si>
+    <t>rah=0052069;ot=1039,1;op=100;</t>
+  </si>
+  <si>
+    <t>rah=0088030;ot=857,53;op=100;</t>
+  </si>
+  <si>
+    <t>rah=0098017;ot=2261;</t>
+  </si>
+  <si>
+    <t>rah=9006048;ot=970;</t>
+  </si>
+  <si>
+    <t>rah=9006048;op=14,35;</t>
+  </si>
+  <si>
+    <t>rah=9006048;ot=14;</t>
+  </si>
+  <si>
+    <t>rah=0094017;ot=2214;</t>
+  </si>
+  <si>
+    <t>rah=9155028;ot=1330;</t>
+  </si>
+  <si>
+    <t>rah=0060022;ot=1800;</t>
+  </si>
+  <si>
+    <t>rah=0086060;ot=2393,6;</t>
+  </si>
+  <si>
+    <t>rah=0032017;ot=4000;</t>
+  </si>
+  <si>
+    <t>rah=9006139;ot=781,2;</t>
+  </si>
+  <si>
+    <t>rah=9006139;op=14,6;</t>
+  </si>
+  <si>
+    <t>rah=9006109;ot=663,5;</t>
+  </si>
+  <si>
+    <t>rah=0506007;ot=1444,9;</t>
+  </si>
+  <si>
+    <t>rah=9048175;ot=2581;</t>
+  </si>
+  <si>
+    <t>rah=9155046;ot=1344;</t>
+  </si>
+  <si>
+    <t>rah=0098038;ot=1715,59;</t>
+  </si>
+  <si>
+    <t>rah=9155034;ot=1390;</t>
+  </si>
+  <si>
+    <t>rah=9155034;op=15;</t>
+  </si>
+  <si>
+    <t>rah=0058047;ot=1829;</t>
+  </si>
+  <si>
+    <t>rah=9048059;ot=1683;</t>
+  </si>
+  <si>
+    <t>rah=9048059;op=15;</t>
+  </si>
+  <si>
+    <t>rah=0060064;ot=5000;</t>
+  </si>
+  <si>
+    <t>rah=0030033;ot=2632,42;</t>
+  </si>
+  <si>
+    <t>rah=9006011;ot=412,9;op=87,1;</t>
+  </si>
+  <si>
+    <t>rah=0506005;ot=880;</t>
+  </si>
+  <si>
+    <t>rah=0066035;ot=1500;</t>
+  </si>
+  <si>
+    <t>rah=9155134;op=14,56;</t>
+  </si>
+  <si>
+    <t>rah=9155134;ot=968,22;</t>
+  </si>
+  <si>
+    <t>rah=0054015;ot=800;</t>
+  </si>
+  <si>
+    <t>rah=0062006;ot=740;</t>
+  </si>
+  <si>
+    <t>rah=0064025;ot=2396,5;</t>
+  </si>
+  <si>
+    <t>rah=0066013;ot=843;</t>
+  </si>
+  <si>
+    <t>rah=0058020;ot=2404,36;</t>
+  </si>
+  <si>
+    <t>rah=0207029;op=50;</t>
+  </si>
+  <si>
+    <t>rah=9006151;ot=795;</t>
+  </si>
+  <si>
+    <t>rah=0096047;ot=1400;</t>
+  </si>
+  <si>
+    <t>rah=0054053;ot=1819,47;</t>
   </si>
 </sst>
 </file>
@@ -1859,10 +2012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z115"/>
+  <dimension ref="A1:AA115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -1882,18 +2035,21 @@
     <col min="13" max="13" width="2.83203125" customWidth="1"/>
     <col min="14" max="14" width="0.33203125" customWidth="1"/>
     <col min="15" max="15" width="33.33203125" customWidth="1"/>
-    <col min="16" max="16" width="17.83203125" customWidth="1"/>
+    <col min="16" max="16" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="13.33203125" customWidth="1"/>
     <col min="18" max="18" width="20.6640625" customWidth="1"/>
-    <col min="19" max="19" width="16.33203125" customWidth="1"/>
+    <col min="19" max="19" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.33203125" customWidth="1"/>
     <col min="21" max="21" width="25.1640625" customWidth="1"/>
     <col min="22" max="22" width="1.5" customWidth="1"/>
     <col min="23" max="23" width="18.6640625" customWidth="1"/>
     <col min="24" max="24" width="0.1640625" customWidth="1"/>
+    <col min="25" max="25" width="30" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1925,7 +2081,7 @@
       <c r="W1" s="14"/>
       <c r="X1" s="14"/>
     </row>
-    <row r="2" spans="1:26" ht="0.6" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:27" ht="0.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -1944,7 +2100,7 @@
       <c r="P2" s="13"/>
       <c r="Q2" s="13"/>
     </row>
-    <row r="3" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
         <v>3</v>
       </c>
@@ -1967,7 +2123,7 @@
       <c r="P3" s="13"/>
       <c r="Q3" s="13"/>
     </row>
-    <row r="4" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
         <v>5</v>
       </c>
@@ -1990,7 +2146,7 @@
       <c r="P4" s="13"/>
       <c r="Q4" s="13"/>
     </row>
-    <row r="5" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
         <v>7</v>
       </c>
@@ -2013,7 +2169,7 @@
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
     </row>
-    <row r="6" spans="1:26" ht="14.65" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:27" ht="14.65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
         <v>9</v>
       </c>
@@ -2036,7 +2192,7 @@
       <c r="P6" s="13"/>
       <c r="Q6" s="13"/>
     </row>
-    <row r="7" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
         <v>11</v>
       </c>
@@ -2059,7 +2215,7 @@
       <c r="P7" s="13"/>
       <c r="Q7" s="13"/>
     </row>
-    <row r="8" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
         <v>13</v>
       </c>
@@ -2082,8 +2238,8 @@
       <c r="P8" s="13"/>
       <c r="Q8" s="13"/>
     </row>
-    <row r="9" spans="1:26" ht="27.4" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:27" ht="27.4" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>15</v>
       </c>
@@ -2101,8 +2257,8 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="1:26" ht="7.15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:26" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:27" ht="7.15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:27" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="11" t="s">
         <v>16</v>
       </c>
@@ -2153,7 +2309,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="13" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="7" t="s">
         <v>26</v>
       </c>
@@ -2199,7 +2355,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="14" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="7" t="s">
         <v>34</v>
       </c>
@@ -2241,11 +2397,17 @@
       <c r="U14" s="10"/>
       <c r="V14" s="10"/>
       <c r="W14" s="10"/>
+      <c r="Y14" t="s">
+        <v>387</v>
+      </c>
       <c r="Z14" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA14">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="7" t="s">
         <v>40</v>
       </c>
@@ -2288,13 +2450,16 @@
       <c r="V15" s="10"/>
       <c r="W15" s="10"/>
       <c r="Y15" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Z15" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA15">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="7" t="s">
         <v>43</v>
       </c>
@@ -2337,13 +2502,16 @@
       <c r="V16" s="10"/>
       <c r="W16" s="10"/>
       <c r="Y16" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Z16" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="17" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA16">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="7" t="s">
         <v>46</v>
       </c>
@@ -2389,7 +2557,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="18" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="7" t="s">
         <v>52</v>
       </c>
@@ -2435,7 +2603,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="19" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="7" t="s">
         <v>59</v>
       </c>
@@ -2477,11 +2645,17 @@
       <c r="U19" s="10"/>
       <c r="V19" s="10"/>
       <c r="W19" s="10"/>
+      <c r="Y19" t="s">
+        <v>390</v>
+      </c>
       <c r="Z19" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="20" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA19">
+        <v>238.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="7" t="s">
         <v>62</v>
       </c>
@@ -2523,11 +2697,17 @@
       <c r="U20" s="10"/>
       <c r="V20" s="10"/>
       <c r="W20" s="10"/>
+      <c r="Y20" t="s">
+        <v>391</v>
+      </c>
       <c r="Z20" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="21" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA20">
+        <v>2160.77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="7" t="s">
         <v>65</v>
       </c>
@@ -2569,11 +2749,17 @@
       <c r="U21" s="10"/>
       <c r="V21" s="10"/>
       <c r="W21" s="10"/>
+      <c r="Y21" t="s">
+        <v>392</v>
+      </c>
       <c r="Z21" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="22" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA21">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
         <v>68</v>
       </c>
@@ -2619,7 +2805,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="23" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="7" t="s">
         <v>71</v>
       </c>
@@ -2665,7 +2851,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="7" t="s">
         <v>76</v>
       </c>
@@ -2707,18 +2893,24 @@
       <c r="U24" s="10"/>
       <c r="V24" s="10"/>
       <c r="W24" s="10"/>
+      <c r="Y24" t="s">
+        <v>393</v>
+      </c>
       <c r="Z24" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="25" spans="1:26" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA24">
+        <v>1082.06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W26" s="6" t="s">
         <v>79</v>
       </c>
       <c r="X26" s="6"/>
     </row>
-    <row r="27" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="7" t="s">
         <v>80</v>
       </c>
@@ -2760,11 +2952,17 @@
       <c r="U27" s="10"/>
       <c r="V27" s="10"/>
       <c r="W27" s="10"/>
+      <c r="Y27" t="s">
+        <v>394</v>
+      </c>
       <c r="Z27" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="28" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA27">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>83</v>
       </c>
@@ -2807,13 +3005,16 @@
       <c r="V28" s="10"/>
       <c r="W28" s="10"/>
       <c r="Y28" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="Z28" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="29" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA28">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="7" t="s">
         <v>86</v>
       </c>
@@ -2855,11 +3056,17 @@
       <c r="U29" s="10"/>
       <c r="V29" s="10"/>
       <c r="W29" s="10"/>
+      <c r="Y29" t="s">
+        <v>396</v>
+      </c>
       <c r="Z29" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="30" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA29">
+        <v>283.89999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="7" t="s">
         <v>89</v>
       </c>
@@ -2902,13 +3109,16 @@
       <c r="V30" s="10"/>
       <c r="W30" s="10"/>
       <c r="Y30" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="Z30" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="31" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA30">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="7" t="s">
         <v>92</v>
       </c>
@@ -2951,13 +3161,16 @@
       <c r="V31" s="10"/>
       <c r="W31" s="10"/>
       <c r="Y31" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="Z31" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="32" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA31">
+        <v>4457</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
         <v>95</v>
       </c>
@@ -3000,13 +3213,16 @@
       <c r="V32" s="10"/>
       <c r="W32" s="10"/>
       <c r="Y32" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="Z32" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="33" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA32">
+        <v>4079.45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="7" t="s">
         <v>98</v>
       </c>
@@ -3048,11 +3264,17 @@
       <c r="U33" s="10"/>
       <c r="V33" s="10"/>
       <c r="W33" s="10"/>
+      <c r="Y33" t="s">
+        <v>400</v>
+      </c>
       <c r="Z33" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="34" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA33">
+        <v>2142.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="7" t="s">
         <v>100</v>
       </c>
@@ -3095,13 +3317,16 @@
       <c r="V34" s="10"/>
       <c r="W34" s="10"/>
       <c r="Y34" t="s">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="Z34" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="35" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA34">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="7" t="s">
         <v>103</v>
       </c>
@@ -3144,13 +3369,16 @@
       <c r="V35" s="10"/>
       <c r="W35" s="10"/>
       <c r="Y35" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="Z35" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="36" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA35">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="7" t="s">
         <v>106</v>
       </c>
@@ -3193,13 +3421,16 @@
       <c r="V36" s="10"/>
       <c r="W36" s="10"/>
       <c r="Y36" t="s">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="Z36" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="37" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA36">
+        <v>4234.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="7" t="s">
         <v>109</v>
       </c>
@@ -3242,13 +3473,16 @@
       <c r="V37" s="10"/>
       <c r="W37" s="10"/>
       <c r="Y37" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="Z37" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="38" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA37">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="7" t="s">
         <v>113</v>
       </c>
@@ -3290,11 +3524,17 @@
       <c r="U38" s="10"/>
       <c r="V38" s="10"/>
       <c r="W38" s="10"/>
+      <c r="Y38" t="s">
+        <v>405</v>
+      </c>
       <c r="Z38" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="39" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA38">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="7" t="s">
         <v>116</v>
       </c>
@@ -3337,13 +3577,16 @@
       <c r="V39" s="10"/>
       <c r="W39" s="10"/>
       <c r="Y39" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="Z39" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="40" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA39">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="7" t="s">
         <v>119</v>
       </c>
@@ -3385,11 +3628,17 @@
       <c r="U40" s="10"/>
       <c r="V40" s="10"/>
       <c r="W40" s="10"/>
+      <c r="Y40" t="s">
+        <v>407</v>
+      </c>
       <c r="Z40" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="41" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA40">
+        <v>1604.75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="7" t="s">
         <v>122</v>
       </c>
@@ -3432,13 +3681,16 @@
       <c r="V41" s="10"/>
       <c r="W41" s="10"/>
       <c r="Y41" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="Z41" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="42" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA41">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="7" t="s">
         <v>125</v>
       </c>
@@ -3480,18 +3732,24 @@
       <c r="U42" s="10"/>
       <c r="V42" s="10"/>
       <c r="W42" s="10"/>
+      <c r="Y42" t="s">
+        <v>409</v>
+      </c>
       <c r="Z42" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="43" spans="1:26" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="1:26" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA42">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W44" s="6" t="s">
         <v>128</v>
       </c>
       <c r="X44" s="6"/>
     </row>
-    <row r="45" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="7" t="s">
         <v>129</v>
       </c>
@@ -3534,13 +3792,16 @@
       <c r="V45" s="10"/>
       <c r="W45" s="10"/>
       <c r="Y45" t="s">
-        <v>399</v>
+        <v>410</v>
       </c>
       <c r="Z45" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="46" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AA45">
+        <v>7689.79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="7" t="s">
         <v>133</v>
       </c>
@@ -3582,8 +3843,17 @@
       <c r="U46" s="10"/>
       <c r="V46" s="10"/>
       <c r="W46" s="10"/>
-    </row>
-    <row r="47" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y46" t="s">
+        <v>411</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA46">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="7" t="s">
         <v>136</v>
       </c>
@@ -3625,8 +3895,17 @@
       <c r="U47" s="10"/>
       <c r="V47" s="10"/>
       <c r="W47" s="10"/>
-    </row>
-    <row r="48" spans="1:26" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y47" t="s">
+        <v>412</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA47">
+        <v>1139.0999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="7" t="s">
         <v>142</v>
       </c>
@@ -3668,8 +3947,17 @@
       <c r="U48" s="10"/>
       <c r="V48" s="10"/>
       <c r="W48" s="10"/>
-    </row>
-    <row r="49" spans="1:24" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y48" t="s">
+        <v>413</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA48">
+        <v>957.53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="7" t="s">
         <v>148</v>
       </c>
@@ -3711,8 +3999,17 @@
       <c r="U49" s="10"/>
       <c r="V49" s="10"/>
       <c r="W49" s="10"/>
-    </row>
-    <row r="50" spans="1:24" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y49" t="s">
+        <v>414</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA49">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="7" t="s">
         <v>154</v>
       </c>
@@ -3754,8 +4051,17 @@
       <c r="U50" s="10"/>
       <c r="V50" s="10"/>
       <c r="W50" s="10"/>
-    </row>
-    <row r="51" spans="1:24" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y50" t="s">
+        <v>415</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA50">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="7" t="s">
         <v>160</v>
       </c>
@@ -3797,8 +4103,17 @@
       <c r="U51" s="10"/>
       <c r="V51" s="10"/>
       <c r="W51" s="10"/>
-    </row>
-    <row r="52" spans="1:24" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y51" t="s">
+        <v>416</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA51">
+        <v>14.35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="7" t="s">
         <v>163</v>
       </c>
@@ -3840,8 +4155,17 @@
       <c r="U52" s="10"/>
       <c r="V52" s="10"/>
       <c r="W52" s="10"/>
-    </row>
-    <row r="53" spans="1:24" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y52" t="s">
+        <v>417</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA52">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="7" t="s">
         <v>165</v>
       </c>
@@ -3883,8 +4207,17 @@
       <c r="U53" s="10"/>
       <c r="V53" s="10"/>
       <c r="W53" s="10"/>
-    </row>
-    <row r="54" spans="1:24" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y53" t="s">
+        <v>418</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA53">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="7" t="s">
         <v>171</v>
       </c>
@@ -3926,8 +4259,17 @@
       <c r="U54" s="10"/>
       <c r="V54" s="10"/>
       <c r="W54" s="10"/>
-    </row>
-    <row r="55" spans="1:24" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y54" t="s">
+        <v>419</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA54">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="7" t="s">
         <v>174</v>
       </c>
@@ -3969,8 +4311,17 @@
       <c r="U55" s="10"/>
       <c r="V55" s="10"/>
       <c r="W55" s="10"/>
-    </row>
-    <row r="56" spans="1:24" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y55" t="s">
+        <v>420</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA55">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="7" t="s">
         <v>177</v>
       </c>
@@ -4012,8 +4363,17 @@
       <c r="U56" s="10"/>
       <c r="V56" s="10"/>
       <c r="W56" s="10"/>
-    </row>
-    <row r="57" spans="1:24" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y56" t="s">
+        <v>421</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA56">
+        <v>2393.6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="7" t="s">
         <v>180</v>
       </c>
@@ -4055,8 +4415,17 @@
       <c r="U57" s="10"/>
       <c r="V57" s="10"/>
       <c r="W57" s="10"/>
-    </row>
-    <row r="58" spans="1:24" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y57" t="s">
+        <v>422</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA57">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="7" t="s">
         <v>183</v>
       </c>
@@ -4098,8 +4467,17 @@
       <c r="U58" s="10"/>
       <c r="V58" s="10"/>
       <c r="W58" s="10"/>
-    </row>
-    <row r="59" spans="1:24" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y58" t="s">
+        <v>423</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA58">
+        <v>781.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="7" t="s">
         <v>186</v>
       </c>
@@ -4141,8 +4519,17 @@
       <c r="U59" s="10"/>
       <c r="V59" s="10"/>
       <c r="W59" s="10"/>
-    </row>
-    <row r="60" spans="1:24" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y59" t="s">
+        <v>424</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA59">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="7" t="s">
         <v>189</v>
       </c>
@@ -4184,15 +4571,24 @@
       <c r="U60" s="10"/>
       <c r="V60" s="10"/>
       <c r="W60" s="10"/>
-    </row>
-    <row r="61" spans="1:24" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y60" t="s">
+        <v>425</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA60">
+        <v>663.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W62" s="6" t="s">
         <v>192</v>
       </c>
       <c r="X62" s="6"/>
     </row>
-    <row r="63" spans="1:24" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="7" t="s">
         <v>193</v>
       </c>
@@ -4234,8 +4630,17 @@
       <c r="U63" s="10"/>
       <c r="V63" s="10"/>
       <c r="W63" s="10"/>
-    </row>
-    <row r="64" spans="1:24" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y63" t="s">
+        <v>426</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA63">
+        <v>1444.9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="7" t="s">
         <v>196</v>
       </c>
@@ -4277,8 +4682,17 @@
       <c r="U64" s="10"/>
       <c r="V64" s="10"/>
       <c r="W64" s="10"/>
-    </row>
-    <row r="65" spans="1:24" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y64" t="s">
+        <v>427</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA64">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="7" t="s">
         <v>199</v>
       </c>
@@ -4320,8 +4734,17 @@
       <c r="U65" s="10"/>
       <c r="V65" s="10"/>
       <c r="W65" s="10"/>
-    </row>
-    <row r="66" spans="1:24" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y65" t="s">
+        <v>428</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA65">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="7" t="s">
         <v>202</v>
       </c>
@@ -4363,8 +4786,17 @@
       <c r="U66" s="10"/>
       <c r="V66" s="10"/>
       <c r="W66" s="10"/>
-    </row>
-    <row r="67" spans="1:24" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y66" t="s">
+        <v>429</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA66">
+        <v>1715.59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="7" t="s">
         <v>205</v>
       </c>
@@ -4406,8 +4838,17 @@
       <c r="U67" s="10"/>
       <c r="V67" s="10"/>
       <c r="W67" s="10"/>
-    </row>
-    <row r="68" spans="1:24" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y67" t="s">
+        <v>430</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA67">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="7" t="s">
         <v>208</v>
       </c>
@@ -4449,8 +4890,17 @@
       <c r="U68" s="10"/>
       <c r="V68" s="10"/>
       <c r="W68" s="10"/>
-    </row>
-    <row r="69" spans="1:24" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y68" t="s">
+        <v>431</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA68">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="7" t="s">
         <v>211</v>
       </c>
@@ -4492,8 +4942,17 @@
       <c r="U69" s="10"/>
       <c r="V69" s="10"/>
       <c r="W69" s="10"/>
-    </row>
-    <row r="70" spans="1:24" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y69" t="s">
+        <v>432</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA69">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="7" t="s">
         <v>215</v>
       </c>
@@ -4535,8 +4994,17 @@
       <c r="U70" s="10"/>
       <c r="V70" s="10"/>
       <c r="W70" s="10"/>
-    </row>
-    <row r="71" spans="1:24" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y70" t="s">
+        <v>433</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA70">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="7" t="s">
         <v>218</v>
       </c>
@@ -4578,8 +5046,17 @@
       <c r="U71" s="10"/>
       <c r="V71" s="10"/>
       <c r="W71" s="10"/>
-    </row>
-    <row r="72" spans="1:24" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y71" t="s">
+        <v>434</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA71">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="7" t="s">
         <v>221</v>
       </c>
@@ -4621,8 +5098,11 @@
       <c r="U72" s="10"/>
       <c r="V72" s="10"/>
       <c r="W72" s="10"/>
-    </row>
-    <row r="73" spans="1:24" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z72" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="7" t="s">
         <v>227</v>
       </c>
@@ -4664,8 +5144,11 @@
       <c r="U73" s="10"/>
       <c r="V73" s="10"/>
       <c r="W73" s="10"/>
-    </row>
-    <row r="74" spans="1:24" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z73" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="7" t="s">
         <v>234</v>
       </c>
@@ -4707,8 +5190,17 @@
       <c r="U74" s="10"/>
       <c r="V74" s="10"/>
       <c r="W74" s="10"/>
-    </row>
-    <row r="75" spans="1:24" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y74" t="s">
+        <v>435</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA74">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="7" t="s">
         <v>242</v>
       </c>
@@ -4750,8 +5242,11 @@
       <c r="U75" s="10"/>
       <c r="V75" s="10"/>
       <c r="W75" s="10"/>
-    </row>
-    <row r="76" spans="1:24" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z75" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="7" t="s">
         <v>248</v>
       </c>
@@ -4793,8 +5288,11 @@
       <c r="U76" s="10"/>
       <c r="V76" s="10"/>
       <c r="W76" s="10"/>
-    </row>
-    <row r="77" spans="1:24" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z76" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="7" t="s">
         <v>255</v>
       </c>
@@ -4836,8 +5334,11 @@
       <c r="U77" s="10"/>
       <c r="V77" s="10"/>
       <c r="W77" s="10"/>
-    </row>
-    <row r="78" spans="1:24" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z77" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="7" t="s">
         <v>258</v>
       </c>
@@ -4879,15 +5380,18 @@
       <c r="U78" s="10"/>
       <c r="V78" s="10"/>
       <c r="W78" s="10"/>
-    </row>
-    <row r="79" spans="1:24" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z78" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W80" s="6" t="s">
         <v>261</v>
       </c>
       <c r="X80" s="6"/>
     </row>
-    <row r="81" spans="1:23" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="7" t="s">
         <v>262</v>
       </c>
@@ -4929,8 +5433,17 @@
       <c r="U81" s="10"/>
       <c r="V81" s="10"/>
       <c r="W81" s="10"/>
-    </row>
-    <row r="82" spans="1:23" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y81" t="s">
+        <v>436</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA81">
+        <v>2632.42</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="7" t="s">
         <v>267</v>
       </c>
@@ -4972,8 +5485,17 @@
       <c r="U82" s="10"/>
       <c r="V82" s="10"/>
       <c r="W82" s="10"/>
-    </row>
-    <row r="83" spans="1:23" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y82" t="s">
+        <v>437</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA82">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="7" t="s">
         <v>273</v>
       </c>
@@ -5015,8 +5537,11 @@
       <c r="U83" s="10"/>
       <c r="V83" s="10"/>
       <c r="W83" s="10"/>
-    </row>
-    <row r="84" spans="1:23" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z83" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="7" t="s">
         <v>279</v>
       </c>
@@ -5058,8 +5583,11 @@
       <c r="U84" s="10"/>
       <c r="V84" s="10"/>
       <c r="W84" s="10"/>
-    </row>
-    <row r="85" spans="1:23" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z84" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="7" t="s">
         <v>281</v>
       </c>
@@ -5101,8 +5629,11 @@
       <c r="U85" s="10"/>
       <c r="V85" s="10"/>
       <c r="W85" s="10"/>
-    </row>
-    <row r="86" spans="1:23" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z85" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="7" t="s">
         <v>283</v>
       </c>
@@ -5144,8 +5675,11 @@
       <c r="U86" s="10"/>
       <c r="V86" s="10"/>
       <c r="W86" s="10"/>
-    </row>
-    <row r="87" spans="1:23" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z86" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="7" t="s">
         <v>285</v>
       </c>
@@ -5187,8 +5721,11 @@
       <c r="U87" s="10"/>
       <c r="V87" s="10"/>
       <c r="W87" s="10"/>
-    </row>
-    <row r="88" spans="1:23" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z87" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="7" t="s">
         <v>287</v>
       </c>
@@ -5230,8 +5767,11 @@
       <c r="U88" s="10"/>
       <c r="V88" s="10"/>
       <c r="W88" s="10"/>
-    </row>
-    <row r="89" spans="1:23" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z88" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="7" t="s">
         <v>292</v>
       </c>
@@ -5273,8 +5813,11 @@
       <c r="U89" s="10"/>
       <c r="V89" s="10"/>
       <c r="W89" s="10"/>
-    </row>
-    <row r="90" spans="1:23" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z89" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="7" t="s">
         <v>294</v>
       </c>
@@ -5316,8 +5859,11 @@
       <c r="U90" s="10"/>
       <c r="V90" s="10"/>
       <c r="W90" s="10"/>
-    </row>
-    <row r="91" spans="1:23" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z90" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="7" t="s">
         <v>296</v>
       </c>
@@ -5359,8 +5905,11 @@
       <c r="U91" s="10"/>
       <c r="V91" s="10"/>
       <c r="W91" s="10"/>
-    </row>
-    <row r="92" spans="1:23" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z91" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="7" t="s">
         <v>299</v>
       </c>
@@ -5402,8 +5951,17 @@
       <c r="U92" s="10"/>
       <c r="V92" s="10"/>
       <c r="W92" s="10"/>
-    </row>
-    <row r="93" spans="1:23" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y92" t="s">
+        <v>438</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA92">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="7" t="s">
         <v>305</v>
       </c>
@@ -5445,8 +6003,17 @@
       <c r="U93" s="10"/>
       <c r="V93" s="10"/>
       <c r="W93" s="10"/>
-    </row>
-    <row r="94" spans="1:23" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y93" t="s">
+        <v>439</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA93">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="7" t="s">
         <v>308</v>
       </c>
@@ -5488,8 +6055,17 @@
       <c r="U94" s="10"/>
       <c r="V94" s="10"/>
       <c r="W94" s="10"/>
-    </row>
-    <row r="95" spans="1:23" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y94" t="s">
+        <v>440</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA94">
+        <v>14.56</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="7" t="s">
         <v>314</v>
       </c>
@@ -5531,8 +6107,17 @@
       <c r="U95" s="10"/>
       <c r="V95" s="10"/>
       <c r="W95" s="10"/>
-    </row>
-    <row r="96" spans="1:23" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y95" t="s">
+        <v>441</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA95">
+        <v>968.22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="7" t="s">
         <v>318</v>
       </c>
@@ -5574,15 +6159,24 @@
       <c r="U96" s="10"/>
       <c r="V96" s="10"/>
       <c r="W96" s="10"/>
-    </row>
-    <row r="97" spans="1:24" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y96" t="s">
+        <v>442</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA96">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="W98" s="6" t="s">
         <v>324</v>
       </c>
       <c r="X98" s="6"/>
     </row>
-    <row r="99" spans="1:24" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="7" t="s">
         <v>325</v>
       </c>
@@ -5624,8 +6218,17 @@
       <c r="U99" s="10"/>
       <c r="V99" s="10"/>
       <c r="W99" s="10"/>
-    </row>
-    <row r="100" spans="1:24" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y99" t="s">
+        <v>443</v>
+      </c>
+      <c r="Z99" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA99">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="7" t="s">
         <v>332</v>
       </c>
@@ -5667,8 +6270,17 @@
       <c r="U100" s="10"/>
       <c r="V100" s="10"/>
       <c r="W100" s="10"/>
-    </row>
-    <row r="101" spans="1:24" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y100" t="s">
+        <v>444</v>
+      </c>
+      <c r="Z100" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA100">
+        <v>2396.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="7" t="s">
         <v>338</v>
       </c>
@@ -5710,8 +6322,17 @@
       <c r="U101" s="10"/>
       <c r="V101" s="10"/>
       <c r="W101" s="10"/>
-    </row>
-    <row r="102" spans="1:24" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y101" t="s">
+        <v>445</v>
+      </c>
+      <c r="Z101" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA101">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="7" t="s">
         <v>345</v>
       </c>
@@ -5753,8 +6374,11 @@
       <c r="U102" s="10"/>
       <c r="V102" s="10"/>
       <c r="W102" s="10"/>
-    </row>
-    <row r="103" spans="1:24" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Z102" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="7" t="s">
         <v>351</v>
       </c>
@@ -5796,8 +6420,17 @@
       <c r="U103" s="10"/>
       <c r="V103" s="10"/>
       <c r="W103" s="10"/>
-    </row>
-    <row r="104" spans="1:24" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y103" t="s">
+        <v>446</v>
+      </c>
+      <c r="Z103" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA103">
+        <v>2404.36</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="7" t="s">
         <v>357</v>
       </c>
@@ -5839,8 +6472,17 @@
       <c r="U104" s="10"/>
       <c r="V104" s="10"/>
       <c r="W104" s="10"/>
-    </row>
-    <row r="105" spans="1:24" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y104" t="s">
+        <v>447</v>
+      </c>
+      <c r="Z104" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA104">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="7" t="s">
         <v>363</v>
       </c>
@@ -5882,8 +6524,17 @@
       <c r="U105" s="10"/>
       <c r="V105" s="10"/>
       <c r="W105" s="10"/>
-    </row>
-    <row r="106" spans="1:24" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y105" t="s">
+        <v>448</v>
+      </c>
+      <c r="Z105" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA105">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="7" t="s">
         <v>369</v>
       </c>
@@ -5925,8 +6576,17 @@
       <c r="U106" s="10"/>
       <c r="V106" s="10"/>
       <c r="W106" s="10"/>
-    </row>
-    <row r="107" spans="1:24" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y106" t="s">
+        <v>449</v>
+      </c>
+      <c r="Z106" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA106">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="7" t="s">
         <v>375</v>
       </c>
@@ -5968,17 +6628,26 @@
       <c r="U107" s="10"/>
       <c r="V107" s="10"/>
       <c r="W107" s="10"/>
-    </row>
-    <row r="108" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Y107" t="s">
+        <v>450</v>
+      </c>
+      <c r="Z107" t="s">
+        <v>386</v>
+      </c>
+      <c r="AA107">
+        <v>1819.47</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="6"/>
     </row>
-    <row r="109" spans="1:24" ht="42.6" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" spans="1:24" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" spans="1:27" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="U110" s="5"/>
     </row>
-    <row r="111" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B111" s="3" t="s">
         <v>381</v>
       </c>
@@ -6000,7 +6669,7 @@
       <c r="N111" s="4"/>
       <c r="U111" s="5"/>
     </row>
-    <row r="112" spans="1:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B112" s="3" t="s">
         <v>382</v>
       </c>

--- a/1/О23.02.13.Xlsx
+++ b/1/О23.02.13.Xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="447">
   <si>
     <t>Назва Клієнта</t>
   </si>
@@ -1178,124 +1178,163 @@
     <t>Оброблено</t>
   </si>
   <si>
+    <t>rah=0064009;ot=238,1;</t>
+  </si>
+  <si>
+    <t>rah=0090077;ot=1200;</t>
+  </si>
+  <si>
+    <t>rah=0092045;ot=1082,06;</t>
+  </si>
+  <si>
+    <t>rah=0098026;ot=2000;</t>
+  </si>
+  <si>
+    <t>rah=0060039;om=283,9;</t>
+  </si>
+  <si>
+    <t>rah=0064009;ot=2142,9;</t>
+  </si>
+  <si>
+    <t>rah=0106036;ot=500;</t>
+  </si>
+  <si>
+    <t>rah=0207031;ot=1604,75;</t>
+  </si>
+  <si>
+    <t>rah=0086081;ot=1400;</t>
+  </si>
+  <si>
+    <t>rah=0068024;ot=7689,79;</t>
+  </si>
+  <si>
+    <t>rah=0068024;op=58,2;</t>
+  </si>
+  <si>
+    <t>rah=0098017;ot=2261;</t>
+  </si>
+  <si>
+    <t>rah=9006048;op=14,35;</t>
+  </si>
+  <si>
+    <t>rah=0060022;ot=1800;</t>
+  </si>
+  <si>
+    <t>rah=9006139;ot=781,2;</t>
+  </si>
+  <si>
+    <t>rah=9006139;op=14,6;</t>
+  </si>
+  <si>
+    <t>rah=9006109;ot=663,5;</t>
+  </si>
+  <si>
+    <t>rah=0506007;ot=1444,9;</t>
+  </si>
+  <si>
+    <t>rah=9155034;ot=1390;</t>
+  </si>
+  <si>
+    <t>rah=9155034;op=15;</t>
+  </si>
+  <si>
+    <t>rah=0058047;ot=1829;</t>
+  </si>
+  <si>
+    <t>rah=0506005;ot=880;</t>
+  </si>
+  <si>
+    <t>rah=0066035;ot=1500;</t>
+  </si>
+  <si>
+    <t>rah=9155134;op=14,56;</t>
+  </si>
+  <si>
+    <t>rah=9155134;ot=968,22;</t>
+  </si>
+  <si>
+    <t>rah=0062006;ot=740;</t>
+  </si>
+  <si>
+    <t>rah=0066013;ot=843;</t>
+  </si>
+  <si>
+    <t>rah=0207029;op=50;</t>
+  </si>
+  <si>
+    <t>rah=0096047;ot=1400;</t>
+  </si>
+  <si>
+    <t>rah=0054053;ot=1819,47;</t>
+  </si>
+  <si>
+    <t>rah=0064025;ot=2381,94;op=14,56;</t>
+  </si>
+  <si>
+    <t>rah=0058020;ot=2375,24;op=29,12;</t>
+  </si>
+  <si>
+    <t>rah=9006151;ot=781,26;op=13,74;</t>
+  </si>
+  <si>
+    <t>rah=0066070;ot=1879;</t>
+  </si>
+  <si>
+    <t>rah=0506138;ot=1908;</t>
+  </si>
+  <si>
+    <t>rah=9048008;ot=2131,69;op=29,08;</t>
+  </si>
+  <si>
+    <t>rah=0070069;ot=2254;</t>
+  </si>
+  <si>
+    <t>rah=0056098;ot=1633;</t>
+  </si>
+  <si>
+    <t>rah=0058085;ot=4457;</t>
+  </si>
+  <si>
+    <t>rah=0054006;ot=4079,45;</t>
+  </si>
+  <si>
+    <t>rah=9006153;ot=1240;</t>
+  </si>
+  <si>
+    <t>rah=0076005;ot=1942,04;op=57,96;</t>
+  </si>
+  <si>
+    <t>rah=0108008;ot=4234,2;</t>
+  </si>
+  <si>
+    <t>rah=0092145;ot=1665;</t>
+  </si>
+  <si>
+    <t>rah=0030039;ot=1831;</t>
+  </si>
+  <si>
+    <t>rah=0068053;ot=1331;</t>
+  </si>
+  <si>
     <t>rah=9048014;ot=1673;</t>
   </si>
   <si>
-    <t>rah=0066070;ot=1879;</t>
-  </si>
-  <si>
-    <t>rah=0506138;ot=1908;</t>
-  </si>
-  <si>
-    <t>rah=0064009;ot=238,1;</t>
-  </si>
-  <si>
-    <t>rah=9048008;ot=2160,77;</t>
-  </si>
-  <si>
-    <t>rah=0090077;ot=1200;</t>
-  </si>
-  <si>
-    <t>rah=0092045;ot=1082,06;</t>
-  </si>
-  <si>
-    <t>rah=0098026;ot=2000;</t>
-  </si>
-  <si>
-    <t>rah=0070069;ot=2254;</t>
-  </si>
-  <si>
-    <t>rah=0060039;om=283,9;</t>
-  </si>
-  <si>
-    <t>rah=0056098;ot=1633;</t>
-  </si>
-  <si>
-    <t>rah=0058085;ot=4457;</t>
-  </si>
-  <si>
-    <t>rah=0054006;ot=4079,45;</t>
-  </si>
-  <si>
-    <t>rah=0064009;ot=2142,9;</t>
-  </si>
-  <si>
-    <t>rah=9006153;ot=1240;</t>
-  </si>
-  <si>
-    <t>rah=0076005;ot=2000;</t>
-  </si>
-  <si>
-    <t>rah=0108008;ot=4234,2;</t>
-  </si>
-  <si>
-    <t>rah=0092145;ot=1665;</t>
-  </si>
-  <si>
-    <t>rah=0106036;ot=500;</t>
-  </si>
-  <si>
-    <t>rah=0030039;ot=1831;</t>
-  </si>
-  <si>
-    <t>rah=0207031;ot=1604,75;</t>
-  </si>
-  <si>
-    <t>rah=0068053;ot=1331;</t>
-  </si>
-  <si>
-    <t>rah=0086081;ot=1400;</t>
-  </si>
-  <si>
-    <t>rah=0068024;ot=7689,79;</t>
-  </si>
-  <si>
-    <t>rah=0068024;op=58,2;</t>
-  </si>
-  <si>
-    <t>rah=0052069;ot=1039,1;op=100;</t>
-  </si>
-  <si>
-    <t>rah=0088030;ot=857,53;op=100;</t>
-  </si>
-  <si>
-    <t>rah=0098017;ot=2261;</t>
-  </si>
-  <si>
-    <t>rah=9006048;ot=970;</t>
-  </si>
-  <si>
-    <t>rah=9006048;op=14,35;</t>
-  </si>
-  <si>
-    <t>rah=9006048;ot=14;</t>
+    <t>rah=9006048;ot=969,82;op=0,18;</t>
+  </si>
+  <si>
+    <t>rah=9006048;ot=13,82;op=0,18;</t>
   </si>
   <si>
     <t>rah=0094017;ot=2214;</t>
   </si>
   <si>
-    <t>rah=9155028;ot=1330;</t>
-  </si>
-  <si>
-    <t>rah=0060022;ot=1800;</t>
-  </si>
-  <si>
-    <t>rah=0086060;ot=2393,6;</t>
-  </si>
-  <si>
-    <t>rah=0032017;ot=4000;</t>
-  </si>
-  <si>
-    <t>rah=9006139;ot=781,2;</t>
-  </si>
-  <si>
-    <t>rah=9006139;op=14,6;</t>
-  </si>
-  <si>
-    <t>rah=9006109;ot=663,5;</t>
-  </si>
-  <si>
-    <t>rah=0506007;ot=1444,9;</t>
+    <t>rah=9155028;ot=1329;op=1;</t>
+  </si>
+  <si>
+    <t>rah=0086060;ot=2379,04;op=14,56;</t>
+  </si>
+  <si>
+    <t>rah=0032017;ot=3827,36;op=172,64;</t>
   </si>
   <si>
     <t>rah=9048175;ot=2581;</t>
@@ -1304,70 +1343,19 @@
     <t>rah=9155046;ot=1344;</t>
   </si>
   <si>
-    <t>rah=0098038;ot=1715,59;</t>
-  </si>
-  <si>
-    <t>rah=9155034;ot=1390;</t>
-  </si>
-  <si>
-    <t>rah=9155034;op=15;</t>
-  </si>
-  <si>
-    <t>rah=0058047;ot=1829;</t>
-  </si>
-  <si>
-    <t>rah=9048059;ot=1683;</t>
-  </si>
-  <si>
-    <t>rah=9048059;op=15;</t>
-  </si>
-  <si>
-    <t>rah=0060064;ot=5000;</t>
-  </si>
-  <si>
-    <t>rah=0030033;ot=2632,42;</t>
-  </si>
-  <si>
-    <t>rah=9006011;ot=412,9;op=87,1;</t>
-  </si>
-  <si>
-    <t>rah=0506005;ot=880;</t>
-  </si>
-  <si>
-    <t>rah=0066035;ot=1500;</t>
-  </si>
-  <si>
-    <t>rah=9155134;op=14,56;</t>
-  </si>
-  <si>
-    <t>rah=9155134;ot=968,22;</t>
-  </si>
-  <si>
-    <t>rah=0054015;ot=800;</t>
-  </si>
-  <si>
-    <t>rah=0062006;ot=740;</t>
-  </si>
-  <si>
-    <t>rah=0064025;ot=2396,5;</t>
-  </si>
-  <si>
-    <t>rah=0066013;ot=843;</t>
-  </si>
-  <si>
-    <t>rah=0058020;ot=2404,36;</t>
-  </si>
-  <si>
-    <t>rah=0207029;op=50;</t>
-  </si>
-  <si>
-    <t>rah=9006151;ot=795;</t>
-  </si>
-  <si>
-    <t>rah=0096047;ot=1400;</t>
-  </si>
-  <si>
-    <t>rah=0054053;ot=1819,47;</t>
+    <t>rah=0098038;ot=1512,95;op=202,64;</t>
+  </si>
+  <si>
+    <t>rah=9048059;ot=1668,44;op=14,56;</t>
+  </si>
+  <si>
+    <t>rah=0060064;ot=4990,6;op=9,4;</t>
+  </si>
+  <si>
+    <t>rah=0030033;ot=2617,86;op=14,56;</t>
+  </si>
+  <si>
+    <t>rah=9006011;ot=500;</t>
   </si>
 </sst>
 </file>
@@ -1636,17 +1624,23 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1660,17 +1654,11 @@
     <xf numFmtId="0" fontId="11" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2012,7 +2000,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA115"/>
+  <dimension ref="A1:AB115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <selection activeCell="AA1" sqref="AA1:AA1048576"/>
@@ -2044,361 +2032,368 @@
     <col min="22" max="22" width="1.5" customWidth="1"/>
     <col min="23" max="23" width="18.6640625" customWidth="1"/>
     <col min="24" max="24" width="0.1640625" customWidth="1"/>
-    <col min="25" max="25" width="30" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="33.6640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="14" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-    </row>
-    <row r="2" spans="1:27" ht="0.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-    </row>
-    <row r="3" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+    </row>
+    <row r="2" spans="1:28" ht="0.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+    </row>
+    <row r="3" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-    </row>
-    <row r="4" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+    </row>
+    <row r="4" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-    </row>
-    <row r="5" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+    </row>
+    <row r="5" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-    </row>
-    <row r="6" spans="1:27" ht="14.65" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13" t="s">
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+    </row>
+    <row r="6" spans="1:28" ht="14.65" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-    </row>
-    <row r="7" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13" t="s">
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+    </row>
+    <row r="7" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-    </row>
-    <row r="8" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13" t="s">
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+    </row>
+    <row r="8" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-    </row>
-    <row r="9" spans="1:27" ht="27.4" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+    </row>
+    <row r="9" spans="1:28" ht="27.4" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="4">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6">
         <v>10230.209999999999</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:27" ht="7.15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:27" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="11" t="s">
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:28" ht="7.15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:28" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12" t="s">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12" t="s">
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12" t="s">
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="O12" s="12"/>
+      <c r="O12" s="8"/>
       <c r="P12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q12" s="12" t="s">
+      <c r="Q12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="R12" s="12"/>
+      <c r="R12" s="8"/>
       <c r="S12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T12" s="12" t="s">
+      <c r="T12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-      <c r="W12" s="12"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
       <c r="Y12" t="s">
         <v>384</v>
       </c>
       <c r="Z12" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
+      <c r="AB12" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="8" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9">
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11">
         <v>249.95</v>
       </c>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="8" t="s">
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O13" s="8"/>
+      <c r="O13" s="10"/>
       <c r="P13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Q13" s="8" t="s">
+      <c r="Q13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="R13" s="8"/>
+      <c r="R13" s="10"/>
       <c r="S13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="T13" s="10" t="s">
+      <c r="T13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
       <c r="Z13" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
+      <c r="AB13" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="8" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9">
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11">
         <v>1673</v>
       </c>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="8" t="s">
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O14" s="8"/>
+      <c r="O14" s="10"/>
       <c r="P14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q14" s="8" t="s">
+      <c r="Q14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R14" s="8"/>
+      <c r="R14" s="10"/>
       <c r="S14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="10" t="s">
+      <c r="T14" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
       <c r="Y14" t="s">
-        <v>387</v>
+        <v>433</v>
       </c>
       <c r="Z14" t="s">
         <v>386</v>
@@ -2407,50 +2402,50 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
+    <row r="15" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9">
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11">
         <v>1879</v>
       </c>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="8" t="s">
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O15" s="8"/>
+      <c r="O15" s="10"/>
       <c r="P15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q15" s="8" t="s">
+      <c r="Q15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R15" s="8"/>
+      <c r="R15" s="10"/>
       <c r="S15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T15" s="10" t="s">
+      <c r="T15" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
       <c r="Y15" t="s">
-        <v>388</v>
+        <v>420</v>
       </c>
       <c r="Z15" t="s">
         <v>386</v>
@@ -2459,50 +2454,50 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8" t="s">
+      <c r="D16" s="10"/>
+      <c r="E16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9">
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11">
         <v>1908</v>
       </c>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="8" t="s">
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O16" s="8"/>
+      <c r="O16" s="10"/>
       <c r="P16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q16" s="8" t="s">
+      <c r="Q16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R16" s="8"/>
+      <c r="R16" s="10"/>
       <c r="S16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T16" s="10" t="s">
+      <c r="T16" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
       <c r="Y16" t="s">
-        <v>389</v>
+        <v>421</v>
       </c>
       <c r="Z16" t="s">
         <v>386</v>
@@ -2511,142 +2506,148 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="8" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8" t="s">
+      <c r="D17" s="10"/>
+      <c r="E17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9">
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11">
         <v>4714.96</v>
       </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="8" t="s">
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="O17" s="8"/>
+      <c r="O17" s="10"/>
       <c r="P17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="Q17" s="8" t="s">
+      <c r="Q17" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="R17" s="8"/>
+      <c r="R17" s="10"/>
       <c r="S17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="T17" s="10" t="s">
+      <c r="T17" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
       <c r="Z17" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="18" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="7" t="s">
+      <c r="AB17" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="8" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8" t="s">
+      <c r="D18" s="10"/>
+      <c r="E18" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="9">
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11">
         <v>43.21</v>
       </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="8" t="s">
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="O18" s="8"/>
+      <c r="O18" s="10"/>
       <c r="P18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Q18" s="8" t="s">
+      <c r="Q18" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="R18" s="8"/>
+      <c r="R18" s="10"/>
       <c r="S18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="T18" s="10" t="s">
+      <c r="T18" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
       <c r="Z18" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="19" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7" t="s">
+      <c r="AB18" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="8" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8" t="s">
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9">
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11">
         <v>238.1</v>
       </c>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="8" t="s">
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O19" s="8"/>
+      <c r="O19" s="10"/>
       <c r="P19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q19" s="8" t="s">
+      <c r="Q19" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R19" s="8"/>
+      <c r="R19" s="10"/>
       <c r="S19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T19" s="10" t="s">
+      <c r="T19" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
       <c r="Y19" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="Z19" t="s">
         <v>386</v>
@@ -2655,50 +2656,50 @@
         <v>238.1</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="8" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8" t="s">
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9">
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11">
         <v>2160.77</v>
       </c>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="8" t="s">
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O20" s="8"/>
+      <c r="O20" s="10"/>
       <c r="P20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q20" s="8" t="s">
+      <c r="Q20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R20" s="8"/>
+      <c r="R20" s="10"/>
       <c r="S20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T20" s="10" t="s">
+      <c r="T20" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
       <c r="Y20" t="s">
-        <v>391</v>
+        <v>422</v>
       </c>
       <c r="Z20" t="s">
         <v>386</v>
@@ -2707,50 +2708,50 @@
         <v>2160.77</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="7" t="s">
+    <row r="21" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="8" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8" t="s">
+      <c r="D21" s="10"/>
+      <c r="E21" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9">
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11">
         <v>1200</v>
       </c>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="8" t="s">
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O21" s="8"/>
+      <c r="O21" s="10"/>
       <c r="P21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q21" s="8" t="s">
+      <c r="Q21" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R21" s="8"/>
+      <c r="R21" s="10"/>
       <c r="S21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T21" s="10" t="s">
+      <c r="T21" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
       <c r="Y21" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="Z21" t="s">
         <v>386</v>
@@ -2759,142 +2760,148 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="8" t="s">
+      <c r="B22" s="9"/>
+      <c r="C22" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8" t="s">
+      <c r="D22" s="10"/>
+      <c r="E22" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9">
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11">
         <v>14.56</v>
       </c>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="8" t="s">
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O22" s="8"/>
+      <c r="O22" s="10"/>
       <c r="P22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Q22" s="8" t="s">
+      <c r="Q22" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="R22" s="8"/>
+      <c r="R22" s="10"/>
       <c r="S22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="T22" s="10" t="s">
+      <c r="T22" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
       <c r="Z22" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="23" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="7" t="s">
+      <c r="AB22" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="8" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8" t="s">
+      <c r="D23" s="10"/>
+      <c r="E23" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="9">
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11">
         <v>10025</v>
       </c>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="8" t="s">
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="O23" s="8"/>
+      <c r="O23" s="10"/>
       <c r="P23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q23" s="8" t="s">
+      <c r="Q23" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="R23" s="8"/>
+      <c r="R23" s="10"/>
       <c r="S23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T23" s="10" t="s">
+      <c r="T23" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
       <c r="Z23" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="24" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="7" t="s">
+      <c r="AB23" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="8" t="s">
+      <c r="B24" s="9"/>
+      <c r="C24" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8" t="s">
+      <c r="D24" s="10"/>
+      <c r="E24" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9">
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11">
         <v>1082.06</v>
       </c>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="8" t="s">
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O24" s="8"/>
+      <c r="O24" s="10"/>
       <c r="P24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q24" s="8" t="s">
+      <c r="Q24" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R24" s="8"/>
+      <c r="R24" s="10"/>
       <c r="S24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T24" s="10" t="s">
+      <c r="T24" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
       <c r="Y24" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="Z24" t="s">
         <v>386</v>
@@ -2903,57 +2910,57 @@
         <v>1082.06</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="26" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="W26" s="6" t="s">
+    <row r="25" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W26" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="X26" s="6"/>
-    </row>
-    <row r="27" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="7" t="s">
+      <c r="X26" s="13"/>
+    </row>
+    <row r="27" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="8" t="s">
+      <c r="B27" s="9"/>
+      <c r="C27" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8" t="s">
+      <c r="D27" s="10"/>
+      <c r="E27" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9">
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11">
         <v>2000</v>
       </c>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="8" t="s">
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O27" s="8"/>
+      <c r="O27" s="10"/>
       <c r="P27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q27" s="8" t="s">
+      <c r="Q27" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R27" s="8"/>
+      <c r="R27" s="10"/>
       <c r="S27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T27" s="10" t="s">
+      <c r="T27" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
       <c r="Y27" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="Z27" t="s">
         <v>386</v>
@@ -2962,50 +2969,50 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="8" t="s">
+      <c r="B28" s="9"/>
+      <c r="C28" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8" t="s">
+      <c r="D28" s="10"/>
+      <c r="E28" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9">
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11">
         <v>2254</v>
       </c>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="8" t="s">
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O28" s="8"/>
+      <c r="O28" s="10"/>
       <c r="P28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q28" s="8" t="s">
+      <c r="Q28" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R28" s="8"/>
+      <c r="R28" s="10"/>
       <c r="S28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T28" s="10" t="s">
+      <c r="T28" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
       <c r="Y28" t="s">
-        <v>395</v>
+        <v>423</v>
       </c>
       <c r="Z28" t="s">
         <v>386</v>
@@ -3014,50 +3021,50 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="8" t="s">
+      <c r="B29" s="9"/>
+      <c r="C29" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8" t="s">
+      <c r="D29" s="10"/>
+      <c r="E29" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9">
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11">
         <v>283.89999999999998</v>
       </c>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="8" t="s">
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O29" s="8"/>
+      <c r="O29" s="10"/>
       <c r="P29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q29" s="8" t="s">
+      <c r="Q29" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R29" s="8"/>
+      <c r="R29" s="10"/>
       <c r="S29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="10" t="s">
+      <c r="T29" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
-      <c r="W29" s="10"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
       <c r="Y29" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="Z29" t="s">
         <v>386</v>
@@ -3066,50 +3073,50 @@
         <v>283.89999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="8" t="s">
+      <c r="B30" s="9"/>
+      <c r="C30" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8" t="s">
+      <c r="D30" s="10"/>
+      <c r="E30" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9">
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11">
         <v>1633</v>
       </c>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="8" t="s">
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O30" s="8"/>
+      <c r="O30" s="10"/>
       <c r="P30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q30" s="8" t="s">
+      <c r="Q30" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R30" s="8"/>
+      <c r="R30" s="10"/>
       <c r="S30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T30" s="10" t="s">
+      <c r="T30" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="U30" s="10"/>
-      <c r="V30" s="10"/>
-      <c r="W30" s="10"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
       <c r="Y30" t="s">
-        <v>397</v>
+        <v>424</v>
       </c>
       <c r="Z30" t="s">
         <v>386</v>
@@ -3118,50 +3125,50 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="8" t="s">
+      <c r="B31" s="9"/>
+      <c r="C31" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8" t="s">
+      <c r="D31" s="10"/>
+      <c r="E31" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9">
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11">
         <v>4457</v>
       </c>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="8" t="s">
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O31" s="8"/>
+      <c r="O31" s="10"/>
       <c r="P31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q31" s="8" t="s">
+      <c r="Q31" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R31" s="8"/>
+      <c r="R31" s="10"/>
       <c r="S31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T31" s="10" t="s">
+      <c r="T31" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="U31" s="10"/>
-      <c r="V31" s="10"/>
-      <c r="W31" s="10"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
       <c r="Y31" t="s">
-        <v>398</v>
+        <v>425</v>
       </c>
       <c r="Z31" t="s">
         <v>386</v>
@@ -3170,50 +3177,50 @@
         <v>4457</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="8" t="s">
+      <c r="B32" s="9"/>
+      <c r="C32" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8" t="s">
+      <c r="D32" s="10"/>
+      <c r="E32" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9">
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11">
         <v>4079.45</v>
       </c>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="8" t="s">
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O32" s="8"/>
+      <c r="O32" s="10"/>
       <c r="P32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q32" s="8" t="s">
+      <c r="Q32" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R32" s="8"/>
+      <c r="R32" s="10"/>
       <c r="S32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T32" s="10" t="s">
+      <c r="T32" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="U32" s="10"/>
-      <c r="V32" s="10"/>
-      <c r="W32" s="10"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
       <c r="Y32" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="Z32" t="s">
         <v>386</v>
@@ -3222,50 +3229,50 @@
         <v>4079.45</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="8" t="s">
+      <c r="B33" s="9"/>
+      <c r="C33" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8" t="s">
+      <c r="D33" s="10"/>
+      <c r="E33" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9">
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11">
         <v>2142.9</v>
       </c>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="8" t="s">
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O33" s="8"/>
+      <c r="O33" s="10"/>
       <c r="P33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q33" s="8" t="s">
+      <c r="Q33" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R33" s="8"/>
+      <c r="R33" s="10"/>
       <c r="S33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T33" s="10" t="s">
+      <c r="T33" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="U33" s="10"/>
-      <c r="V33" s="10"/>
-      <c r="W33" s="10"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
       <c r="Y33" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="Z33" t="s">
         <v>386</v>
@@ -3274,50 +3281,50 @@
         <v>2142.9</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="7" t="s">
+    <row r="34" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="8" t="s">
+      <c r="B34" s="9"/>
+      <c r="C34" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8" t="s">
+      <c r="D34" s="10"/>
+      <c r="E34" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9">
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11">
         <v>1240</v>
       </c>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="8" t="s">
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O34" s="8"/>
+      <c r="O34" s="10"/>
       <c r="P34" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q34" s="8" t="s">
+      <c r="Q34" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R34" s="8"/>
+      <c r="R34" s="10"/>
       <c r="S34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T34" s="10" t="s">
+      <c r="T34" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="U34" s="10"/>
-      <c r="V34" s="10"/>
-      <c r="W34" s="10"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
       <c r="Y34" t="s">
-        <v>401</v>
+        <v>427</v>
       </c>
       <c r="Z34" t="s">
         <v>386</v>
@@ -3326,50 +3333,50 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="7" t="s">
+    <row r="35" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="8" t="s">
+      <c r="B35" s="9"/>
+      <c r="C35" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8" t="s">
+      <c r="D35" s="10"/>
+      <c r="E35" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9">
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11">
         <v>2000</v>
       </c>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="8" t="s">
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O35" s="8"/>
+      <c r="O35" s="10"/>
       <c r="P35" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q35" s="8" t="s">
+      <c r="Q35" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R35" s="8"/>
+      <c r="R35" s="10"/>
       <c r="S35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T35" s="10" t="s">
+      <c r="T35" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="U35" s="10"/>
-      <c r="V35" s="10"/>
-      <c r="W35" s="10"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
       <c r="Y35" t="s">
-        <v>402</v>
+        <v>428</v>
       </c>
       <c r="Z35" t="s">
         <v>386</v>
@@ -3378,50 +3385,50 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="7" t="s">
+    <row r="36" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="8" t="s">
+      <c r="B36" s="9"/>
+      <c r="C36" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8" t="s">
+      <c r="D36" s="10"/>
+      <c r="E36" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9">
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11">
         <v>4234.2</v>
       </c>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="8" t="s">
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O36" s="8"/>
+      <c r="O36" s="10"/>
       <c r="P36" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q36" s="8" t="s">
+      <c r="Q36" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R36" s="8"/>
+      <c r="R36" s="10"/>
       <c r="S36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T36" s="10" t="s">
+      <c r="T36" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="U36" s="10"/>
-      <c r="V36" s="10"/>
-      <c r="W36" s="10"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
       <c r="Y36" t="s">
-        <v>403</v>
+        <v>429</v>
       </c>
       <c r="Z36" t="s">
         <v>386</v>
@@ -3430,50 +3437,50 @@
         <v>4234.2</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="7" t="s">
+    <row r="37" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="8" t="s">
+      <c r="B37" s="9"/>
+      <c r="C37" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8" t="s">
+      <c r="D37" s="10"/>
+      <c r="E37" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="9"/>
-      <c r="K37" s="9">
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11">
         <v>1665</v>
       </c>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="8" t="s">
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O37" s="8"/>
+      <c r="O37" s="10"/>
       <c r="P37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q37" s="8" t="s">
+      <c r="Q37" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R37" s="8"/>
+      <c r="R37" s="10"/>
       <c r="S37" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="T37" s="10" t="s">
+      <c r="T37" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="U37" s="10"/>
-      <c r="V37" s="10"/>
-      <c r="W37" s="10"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
       <c r="Y37" t="s">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="Z37" t="s">
         <v>386</v>
@@ -3482,50 +3489,50 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="7" t="s">
+    <row r="38" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8" t="s">
+      <c r="B38" s="9"/>
+      <c r="C38" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8" t="s">
+      <c r="D38" s="10"/>
+      <c r="E38" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-      <c r="J38" s="9"/>
-      <c r="K38" s="9">
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11">
         <v>500</v>
       </c>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="8" t="s">
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O38" s="8"/>
+      <c r="O38" s="10"/>
       <c r="P38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q38" s="8" t="s">
+      <c r="Q38" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R38" s="8"/>
+      <c r="R38" s="10"/>
       <c r="S38" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="T38" s="10" t="s">
+      <c r="T38" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10"/>
-      <c r="W38" s="10"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
       <c r="Y38" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="Z38" t="s">
         <v>386</v>
@@ -3534,50 +3541,50 @@
         <v>500</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="7" t="s">
+    <row r="39" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="8" t="s">
+      <c r="B39" s="9"/>
+      <c r="C39" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8" t="s">
+      <c r="D39" s="10"/>
+      <c r="E39" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9">
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11">
         <v>1831</v>
       </c>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="8" t="s">
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O39" s="8"/>
+      <c r="O39" s="10"/>
       <c r="P39" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q39" s="8" t="s">
+      <c r="Q39" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R39" s="8"/>
+      <c r="R39" s="10"/>
       <c r="S39" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="T39" s="10" t="s">
+      <c r="T39" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="U39" s="10"/>
-      <c r="V39" s="10"/>
-      <c r="W39" s="10"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
       <c r="Y39" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="Z39" t="s">
         <v>386</v>
@@ -3586,50 +3593,50 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="7" t="s">
+    <row r="40" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="8" t="s">
+      <c r="B40" s="9"/>
+      <c r="C40" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8" t="s">
+      <c r="D40" s="10"/>
+      <c r="E40" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-      <c r="J40" s="9"/>
-      <c r="K40" s="9">
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11">
         <v>1604.75</v>
       </c>
-      <c r="L40" s="9"/>
-      <c r="M40" s="9"/>
-      <c r="N40" s="8" t="s">
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O40" s="8"/>
+      <c r="O40" s="10"/>
       <c r="P40" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q40" s="8" t="s">
+      <c r="Q40" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R40" s="8"/>
+      <c r="R40" s="10"/>
       <c r="S40" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="T40" s="10" t="s">
+      <c r="T40" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="U40" s="10"/>
-      <c r="V40" s="10"/>
-      <c r="W40" s="10"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
       <c r="Y40" t="s">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="Z40" t="s">
         <v>386</v>
@@ -3638,50 +3645,50 @@
         <v>1604.75</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="7" t="s">
+    <row r="41" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="8" t="s">
+      <c r="B41" s="9"/>
+      <c r="C41" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8" t="s">
+      <c r="D41" s="10"/>
+      <c r="E41" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9">
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11">
         <v>1331</v>
       </c>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="8" t="s">
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O41" s="8"/>
+      <c r="O41" s="10"/>
       <c r="P41" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q41" s="8" t="s">
+      <c r="Q41" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R41" s="8"/>
+      <c r="R41" s="10"/>
       <c r="S41" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="T41" s="10" t="s">
+      <c r="T41" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="U41" s="10"/>
-      <c r="V41" s="10"/>
-      <c r="W41" s="10"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
       <c r="Y41" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="Z41" t="s">
         <v>386</v>
@@ -3690,50 +3697,50 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="7" t="s">
+    <row r="42" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="8" t="s">
+      <c r="B42" s="9"/>
+      <c r="C42" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8" t="s">
+      <c r="D42" s="10"/>
+      <c r="E42" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
-      <c r="J42" s="9"/>
-      <c r="K42" s="9">
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11">
         <v>1400</v>
       </c>
-      <c r="L42" s="9"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="8" t="s">
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O42" s="8"/>
+      <c r="O42" s="10"/>
       <c r="P42" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q42" s="8" t="s">
+      <c r="Q42" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R42" s="8"/>
+      <c r="R42" s="10"/>
       <c r="S42" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="T42" s="10" t="s">
+      <c r="T42" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="U42" s="10"/>
-      <c r="V42" s="10"/>
-      <c r="W42" s="10"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
       <c r="Y42" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="Z42" t="s">
         <v>386</v>
@@ -3742,57 +3749,57 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="W44" s="6" t="s">
+    <row r="43" spans="1:28" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W44" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="X44" s="6"/>
-    </row>
-    <row r="45" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="7" t="s">
+      <c r="X44" s="13"/>
+    </row>
+    <row r="45" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="8" t="s">
+      <c r="B45" s="9"/>
+      <c r="C45" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8" t="s">
+      <c r="D45" s="10"/>
+      <c r="E45" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9">
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11">
         <v>7689.79</v>
       </c>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="8" t="s">
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O45" s="8"/>
+      <c r="O45" s="10"/>
       <c r="P45" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q45" s="8" t="s">
+      <c r="Q45" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R45" s="8"/>
+      <c r="R45" s="10"/>
       <c r="S45" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="T45" s="10" t="s">
+      <c r="T45" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="U45" s="10"/>
-      <c r="V45" s="10"/>
-      <c r="W45" s="10"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
       <c r="Y45" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="Z45" t="s">
         <v>386</v>
@@ -3801,50 +3808,50 @@
         <v>7689.79</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="7" t="s">
+    <row r="46" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B46" s="7"/>
-      <c r="C46" s="8" t="s">
+      <c r="B46" s="9"/>
+      <c r="C46" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8" t="s">
+      <c r="D46" s="10"/>
+      <c r="E46" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9">
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11">
         <v>58.2</v>
       </c>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="8" t="s">
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O46" s="8"/>
+      <c r="O46" s="10"/>
       <c r="P46" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q46" s="8" t="s">
+      <c r="Q46" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R46" s="8"/>
+      <c r="R46" s="10"/>
       <c r="S46" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="T46" s="10" t="s">
+      <c r="T46" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="U46" s="10"/>
-      <c r="V46" s="10"/>
-      <c r="W46" s="10"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+      <c r="W46" s="12"/>
       <c r="Y46" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="Z46" t="s">
         <v>386</v>
@@ -3853,154 +3860,145 @@
         <v>58.2</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="7" t="s">
+    <row r="47" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B47" s="7"/>
-      <c r="C47" s="8" t="s">
+      <c r="B47" s="9"/>
+      <c r="C47" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8" t="s">
+      <c r="D47" s="10"/>
+      <c r="E47" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9">
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11">
         <v>1139.0999999999999</v>
       </c>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="8" t="s">
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="O47" s="8"/>
+      <c r="O47" s="10"/>
       <c r="P47" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="Q47" s="8" t="s">
+      <c r="Q47" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="R47" s="8"/>
+      <c r="R47" s="10"/>
       <c r="S47" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="T47" s="10" t="s">
+      <c r="T47" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="U47" s="10"/>
-      <c r="V47" s="10"/>
-      <c r="W47" s="10"/>
-      <c r="Y47" t="s">
-        <v>412</v>
-      </c>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
       <c r="Z47" t="s">
         <v>386</v>
       </c>
-      <c r="AA47">
-        <v>1139.0999999999999</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="7" t="s">
+    </row>
+    <row r="48" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B48" s="7"/>
-      <c r="C48" s="8" t="s">
+      <c r="B48" s="9"/>
+      <c r="C48" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8" t="s">
+      <c r="D48" s="10"/>
+      <c r="E48" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
-      <c r="J48" s="9"/>
-      <c r="K48" s="9">
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11">
         <v>957.53</v>
       </c>
-      <c r="L48" s="9"/>
-      <c r="M48" s="9"/>
-      <c r="N48" s="8" t="s">
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="O48" s="8"/>
+      <c r="O48" s="10"/>
       <c r="P48" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="Q48" s="8" t="s">
+      <c r="Q48" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="R48" s="8"/>
+      <c r="R48" s="10"/>
       <c r="S48" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="T48" s="10" t="s">
+      <c r="T48" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="U48" s="10"/>
-      <c r="V48" s="10"/>
-      <c r="W48" s="10"/>
-      <c r="Y48" t="s">
-        <v>413</v>
-      </c>
+      <c r="U48" s="12"/>
+      <c r="V48" s="12"/>
+      <c r="W48" s="12"/>
       <c r="Z48" t="s">
         <v>386</v>
       </c>
-      <c r="AA48">
-        <v>957.53</v>
+      <c r="AB48" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="49" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B49" s="7"/>
-      <c r="C49" s="8" t="s">
+      <c r="B49" s="9"/>
+      <c r="C49" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8" t="s">
+      <c r="D49" s="10"/>
+      <c r="E49" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
-      <c r="J49" s="9"/>
-      <c r="K49" s="9">
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11">
         <v>2261</v>
       </c>
-      <c r="L49" s="9"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="8" t="s">
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="O49" s="8"/>
+      <c r="O49" s="10"/>
       <c r="P49" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="Q49" s="8" t="s">
+      <c r="Q49" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="R49" s="8"/>
+      <c r="R49" s="10"/>
       <c r="S49" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="T49" s="10" t="s">
+      <c r="T49" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="U49" s="10"/>
-      <c r="V49" s="10"/>
-      <c r="W49" s="10"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
+      <c r="W49" s="12"/>
       <c r="Y49" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="Z49" t="s">
         <v>386</v>
@@ -4010,49 +4008,49 @@
       </c>
     </row>
     <row r="50" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B50" s="7"/>
-      <c r="C50" s="8" t="s">
+      <c r="B50" s="9"/>
+      <c r="C50" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8" t="s">
+      <c r="D50" s="10"/>
+      <c r="E50" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9">
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11">
         <v>970</v>
       </c>
-      <c r="L50" s="9"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="8" t="s">
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="O50" s="8"/>
+      <c r="O50" s="10"/>
       <c r="P50" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="Q50" s="8" t="s">
+      <c r="Q50" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="R50" s="8"/>
+      <c r="R50" s="10"/>
       <c r="S50" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="T50" s="10" t="s">
+      <c r="T50" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="U50" s="10"/>
-      <c r="V50" s="10"/>
-      <c r="W50" s="10"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="12"/>
+      <c r="W50" s="12"/>
       <c r="Y50" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="Z50" t="s">
         <v>386</v>
@@ -4062,49 +4060,49 @@
       </c>
     </row>
     <row r="51" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B51" s="7"/>
-      <c r="C51" s="8" t="s">
+      <c r="B51" s="9"/>
+      <c r="C51" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8" t="s">
+      <c r="D51" s="10"/>
+      <c r="E51" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9">
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11">
         <v>14.35</v>
       </c>
-      <c r="L51" s="9"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="8" t="s">
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="O51" s="8"/>
+      <c r="O51" s="10"/>
       <c r="P51" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="Q51" s="8" t="s">
+      <c r="Q51" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="R51" s="8"/>
+      <c r="R51" s="10"/>
       <c r="S51" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="T51" s="10" t="s">
+      <c r="T51" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="U51" s="10"/>
-      <c r="V51" s="10"/>
-      <c r="W51" s="10"/>
+      <c r="U51" s="12"/>
+      <c r="V51" s="12"/>
+      <c r="W51" s="12"/>
       <c r="Y51" t="s">
-        <v>416</v>
+        <v>399</v>
       </c>
       <c r="Z51" t="s">
         <v>386</v>
@@ -4114,49 +4112,49 @@
       </c>
     </row>
     <row r="52" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B52" s="7"/>
-      <c r="C52" s="8" t="s">
+      <c r="B52" s="9"/>
+      <c r="C52" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8" t="s">
+      <c r="D52" s="10"/>
+      <c r="E52" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
-      <c r="J52" s="9"/>
-      <c r="K52" s="9">
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11">
         <v>14</v>
       </c>
-      <c r="L52" s="9"/>
-      <c r="M52" s="9"/>
-      <c r="N52" s="8" t="s">
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="O52" s="8"/>
+      <c r="O52" s="10"/>
       <c r="P52" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="Q52" s="8" t="s">
+      <c r="Q52" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="R52" s="8"/>
+      <c r="R52" s="10"/>
       <c r="S52" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="T52" s="10" t="s">
+      <c r="T52" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="U52" s="10"/>
-      <c r="V52" s="10"/>
-      <c r="W52" s="10"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
+      <c r="W52" s="12"/>
       <c r="Y52" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="Z52" t="s">
         <v>386</v>
@@ -4166,49 +4164,49 @@
       </c>
     </row>
     <row r="53" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B53" s="7"/>
-      <c r="C53" s="8" t="s">
+      <c r="B53" s="9"/>
+      <c r="C53" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8" t="s">
+      <c r="D53" s="10"/>
+      <c r="E53" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
-      <c r="J53" s="9"/>
-      <c r="K53" s="9">
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11">
         <v>2214</v>
       </c>
-      <c r="L53" s="9"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="8" t="s">
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="O53" s="8"/>
+      <c r="O53" s="10"/>
       <c r="P53" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="Q53" s="8" t="s">
+      <c r="Q53" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="R53" s="8"/>
+      <c r="R53" s="10"/>
       <c r="S53" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="T53" s="10" t="s">
+      <c r="T53" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="U53" s="10"/>
-      <c r="V53" s="10"/>
-      <c r="W53" s="10"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="12"/>
+      <c r="W53" s="12"/>
       <c r="Y53" t="s">
-        <v>418</v>
+        <v>436</v>
       </c>
       <c r="Z53" t="s">
         <v>386</v>
@@ -4218,49 +4216,49 @@
       </c>
     </row>
     <row r="54" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B54" s="7"/>
-      <c r="C54" s="8" t="s">
+      <c r="B54" s="9"/>
+      <c r="C54" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8" t="s">
+      <c r="D54" s="10"/>
+      <c r="E54" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
-      <c r="J54" s="9"/>
-      <c r="K54" s="9">
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11">
         <v>1316.7</v>
       </c>
-      <c r="L54" s="9"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="8" t="s">
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="O54" s="8"/>
+      <c r="O54" s="10"/>
       <c r="P54" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="Q54" s="8" t="s">
+      <c r="Q54" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="R54" s="8"/>
+      <c r="R54" s="10"/>
       <c r="S54" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="T54" s="10" t="s">
+      <c r="T54" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="U54" s="10"/>
-      <c r="V54" s="10"/>
-      <c r="W54" s="10"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="12"/>
       <c r="Y54" t="s">
-        <v>419</v>
+        <v>437</v>
       </c>
       <c r="Z54" t="s">
         <v>386</v>
@@ -4270,49 +4268,49 @@
       </c>
     </row>
     <row r="55" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B55" s="7"/>
-      <c r="C55" s="8" t="s">
+      <c r="B55" s="9"/>
+      <c r="C55" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8" t="s">
+      <c r="D55" s="10"/>
+      <c r="E55" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
-      <c r="J55" s="9"/>
-      <c r="K55" s="9">
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11">
         <v>1782</v>
       </c>
-      <c r="L55" s="9"/>
-      <c r="M55" s="9"/>
-      <c r="N55" s="8" t="s">
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="O55" s="8"/>
+      <c r="O55" s="10"/>
       <c r="P55" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="Q55" s="8" t="s">
+      <c r="Q55" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="R55" s="8"/>
+      <c r="R55" s="10"/>
       <c r="S55" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="T55" s="10" t="s">
+      <c r="T55" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="U55" s="10"/>
-      <c r="V55" s="10"/>
-      <c r="W55" s="10"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
+      <c r="W55" s="12"/>
       <c r="Y55" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="Z55" t="s">
         <v>386</v>
@@ -4322,49 +4320,49 @@
       </c>
     </row>
     <row r="56" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B56" s="7"/>
-      <c r="C56" s="8" t="s">
+      <c r="B56" s="9"/>
+      <c r="C56" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8" t="s">
+      <c r="D56" s="10"/>
+      <c r="E56" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
-      <c r="J56" s="9"/>
-      <c r="K56" s="9">
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11">
         <v>2369.66</v>
       </c>
-      <c r="L56" s="9"/>
-      <c r="M56" s="9"/>
-      <c r="N56" s="8" t="s">
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="O56" s="8"/>
+      <c r="O56" s="10"/>
       <c r="P56" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="Q56" s="8" t="s">
+      <c r="Q56" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="R56" s="8"/>
+      <c r="R56" s="10"/>
       <c r="S56" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="T56" s="10" t="s">
+      <c r="T56" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="U56" s="10"/>
-      <c r="V56" s="10"/>
-      <c r="W56" s="10"/>
+      <c r="U56" s="12"/>
+      <c r="V56" s="12"/>
+      <c r="W56" s="12"/>
       <c r="Y56" t="s">
-        <v>421</v>
+        <v>438</v>
       </c>
       <c r="Z56" t="s">
         <v>386</v>
@@ -4374,49 +4372,49 @@
       </c>
     </row>
     <row r="57" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B57" s="7"/>
-      <c r="C57" s="8" t="s">
+      <c r="B57" s="9"/>
+      <c r="C57" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8" t="s">
+      <c r="D57" s="10"/>
+      <c r="E57" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
-      <c r="J57" s="9"/>
-      <c r="K57" s="9">
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11">
         <v>3960</v>
       </c>
-      <c r="L57" s="9"/>
-      <c r="M57" s="9"/>
-      <c r="N57" s="8" t="s">
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="O57" s="8"/>
+      <c r="O57" s="10"/>
       <c r="P57" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="Q57" s="8" t="s">
+      <c r="Q57" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="R57" s="8"/>
+      <c r="R57" s="10"/>
       <c r="S57" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="T57" s="10" t="s">
+      <c r="T57" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="U57" s="10"/>
-      <c r="V57" s="10"/>
-      <c r="W57" s="10"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="12"/>
+      <c r="W57" s="12"/>
       <c r="Y57" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="Z57" t="s">
         <v>386</v>
@@ -4426,49 +4424,49 @@
       </c>
     </row>
     <row r="58" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B58" s="7"/>
-      <c r="C58" s="8" t="s">
+      <c r="B58" s="9"/>
+      <c r="C58" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8" t="s">
+      <c r="D58" s="10"/>
+      <c r="E58" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
-      <c r="J58" s="9"/>
-      <c r="K58" s="9">
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11">
         <v>773.39</v>
       </c>
-      <c r="L58" s="9"/>
-      <c r="M58" s="9"/>
-      <c r="N58" s="8" t="s">
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="O58" s="8"/>
+      <c r="O58" s="10"/>
       <c r="P58" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="Q58" s="8" t="s">
+      <c r="Q58" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="R58" s="8"/>
+      <c r="R58" s="10"/>
       <c r="S58" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="T58" s="10" t="s">
+      <c r="T58" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="U58" s="10"/>
-      <c r="V58" s="10"/>
-      <c r="W58" s="10"/>
+      <c r="U58" s="12"/>
+      <c r="V58" s="12"/>
+      <c r="W58" s="12"/>
       <c r="Y58" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="Z58" t="s">
         <v>386</v>
@@ -4478,49 +4476,49 @@
       </c>
     </row>
     <row r="59" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="8" t="s">
+      <c r="B59" s="9"/>
+      <c r="C59" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8" t="s">
+      <c r="D59" s="10"/>
+      <c r="E59" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
-      <c r="J59" s="9"/>
-      <c r="K59" s="9">
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11">
         <v>14.45</v>
       </c>
-      <c r="L59" s="9"/>
-      <c r="M59" s="9"/>
-      <c r="N59" s="8" t="s">
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="O59" s="8"/>
+      <c r="O59" s="10"/>
       <c r="P59" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="Q59" s="8" t="s">
+      <c r="Q59" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="R59" s="8"/>
+      <c r="R59" s="10"/>
       <c r="S59" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="T59" s="10" t="s">
+      <c r="T59" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="U59" s="10"/>
-      <c r="V59" s="10"/>
-      <c r="W59" s="10"/>
+      <c r="U59" s="12"/>
+      <c r="V59" s="12"/>
+      <c r="W59" s="12"/>
       <c r="Y59" t="s">
-        <v>424</v>
+        <v>402</v>
       </c>
       <c r="Z59" t="s">
         <v>386</v>
@@ -4530,49 +4528,49 @@
       </c>
     </row>
     <row r="60" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="B60" s="7"/>
-      <c r="C60" s="8" t="s">
+      <c r="B60" s="9"/>
+      <c r="C60" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8" t="s">
+      <c r="D60" s="10"/>
+      <c r="E60" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
-      <c r="J60" s="9"/>
-      <c r="K60" s="9">
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11">
         <v>656.86</v>
       </c>
-      <c r="L60" s="9"/>
-      <c r="M60" s="9"/>
-      <c r="N60" s="8" t="s">
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="O60" s="8"/>
+      <c r="O60" s="10"/>
       <c r="P60" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="Q60" s="8" t="s">
+      <c r="Q60" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="R60" s="8"/>
+      <c r="R60" s="10"/>
       <c r="S60" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="T60" s="10" t="s">
+      <c r="T60" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="U60" s="10"/>
-      <c r="V60" s="10"/>
-      <c r="W60" s="10"/>
+      <c r="U60" s="12"/>
+      <c r="V60" s="12"/>
+      <c r="W60" s="12"/>
       <c r="Y60" t="s">
-        <v>425</v>
+        <v>403</v>
       </c>
       <c r="Z60" t="s">
         <v>386</v>
@@ -4583,55 +4581,55 @@
     </row>
     <row r="61" spans="1:27" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="62" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="W62" s="6" t="s">
+      <c r="W62" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="X62" s="6"/>
+      <c r="X62" s="13"/>
     </row>
     <row r="63" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B63" s="7"/>
-      <c r="C63" s="8" t="s">
+      <c r="B63" s="9"/>
+      <c r="C63" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8" t="s">
+      <c r="D63" s="10"/>
+      <c r="E63" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
-      <c r="J63" s="9"/>
-      <c r="K63" s="9">
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11">
         <v>1430.45</v>
       </c>
-      <c r="L63" s="9"/>
-      <c r="M63" s="9"/>
-      <c r="N63" s="8" t="s">
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="O63" s="8"/>
+      <c r="O63" s="10"/>
       <c r="P63" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="Q63" s="8" t="s">
+      <c r="Q63" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="R63" s="8"/>
+      <c r="R63" s="10"/>
       <c r="S63" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="T63" s="10" t="s">
+      <c r="T63" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="U63" s="10"/>
-      <c r="V63" s="10"/>
-      <c r="W63" s="10"/>
+      <c r="U63" s="12"/>
+      <c r="V63" s="12"/>
+      <c r="W63" s="12"/>
       <c r="Y63" t="s">
-        <v>426</v>
+        <v>404</v>
       </c>
       <c r="Z63" t="s">
         <v>386</v>
@@ -4641,49 +4639,49 @@
       </c>
     </row>
     <row r="64" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="B64" s="7"/>
-      <c r="C64" s="8" t="s">
+      <c r="B64" s="9"/>
+      <c r="C64" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8" t="s">
+      <c r="D64" s="10"/>
+      <c r="E64" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F64" s="8"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
-      <c r="J64" s="9"/>
-      <c r="K64" s="9">
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11">
         <v>2555.19</v>
       </c>
-      <c r="L64" s="9"/>
-      <c r="M64" s="9"/>
-      <c r="N64" s="8" t="s">
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="O64" s="8"/>
+      <c r="O64" s="10"/>
       <c r="P64" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="Q64" s="8" t="s">
+      <c r="Q64" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="R64" s="8"/>
+      <c r="R64" s="10"/>
       <c r="S64" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="T64" s="10" t="s">
+      <c r="T64" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="U64" s="10"/>
-      <c r="V64" s="10"/>
-      <c r="W64" s="10"/>
+      <c r="U64" s="12"/>
+      <c r="V64" s="12"/>
+      <c r="W64" s="12"/>
       <c r="Y64" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="Z64" t="s">
         <v>386</v>
@@ -4692,50 +4690,50 @@
         <v>2581</v>
       </c>
     </row>
-    <row r="65" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="7" t="s">
+    <row r="65" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B65" s="7"/>
-      <c r="C65" s="8" t="s">
+      <c r="B65" s="9"/>
+      <c r="C65" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8" t="s">
+      <c r="D65" s="10"/>
+      <c r="E65" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F65" s="8"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="9"/>
-      <c r="K65" s="9">
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11">
         <v>1330.56</v>
       </c>
-      <c r="L65" s="9"/>
-      <c r="M65" s="9"/>
-      <c r="N65" s="8" t="s">
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="O65" s="8"/>
+      <c r="O65" s="10"/>
       <c r="P65" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="Q65" s="8" t="s">
+      <c r="Q65" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="R65" s="8"/>
+      <c r="R65" s="10"/>
       <c r="S65" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="T65" s="10" t="s">
+      <c r="T65" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="U65" s="10"/>
-      <c r="V65" s="10"/>
-      <c r="W65" s="10"/>
+      <c r="U65" s="12"/>
+      <c r="V65" s="12"/>
+      <c r="W65" s="12"/>
       <c r="Y65" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="Z65" t="s">
         <v>386</v>
@@ -4744,102 +4742,102 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="7" t="s">
+    <row r="66" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B66" s="7"/>
-      <c r="C66" s="8" t="s">
+      <c r="B66" s="9"/>
+      <c r="C66" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8" t="s">
+      <c r="D66" s="10"/>
+      <c r="E66" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F66" s="8"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
-      <c r="J66" s="9"/>
-      <c r="K66" s="9">
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11">
         <v>1698.43</v>
       </c>
-      <c r="L66" s="9"/>
-      <c r="M66" s="9"/>
-      <c r="N66" s="8" t="s">
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="O66" s="8"/>
+      <c r="O66" s="10"/>
       <c r="P66" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="Q66" s="8" t="s">
+      <c r="Q66" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="R66" s="8"/>
+      <c r="R66" s="10"/>
       <c r="S66" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="T66" s="10" t="s">
+      <c r="T66" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="U66" s="10"/>
-      <c r="V66" s="10"/>
-      <c r="W66" s="10"/>
+      <c r="U66" s="12"/>
+      <c r="V66" s="12"/>
+      <c r="W66" s="12"/>
       <c r="Y66" t="s">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="Z66" t="s">
         <v>386</v>
       </c>
       <c r="AA66">
-        <v>1715.59</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="7" t="s">
+        <v>1715.5899999999997</v>
+      </c>
+    </row>
+    <row r="67" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B67" s="7"/>
-      <c r="C67" s="8" t="s">
+      <c r="B67" s="9"/>
+      <c r="C67" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8" t="s">
+      <c r="D67" s="10"/>
+      <c r="E67" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
-      <c r="J67" s="9"/>
-      <c r="K67" s="9">
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11">
         <v>1376.1</v>
       </c>
-      <c r="L67" s="9"/>
-      <c r="M67" s="9"/>
-      <c r="N67" s="8" t="s">
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="O67" s="8"/>
+      <c r="O67" s="10"/>
       <c r="P67" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="Q67" s="8" t="s">
+      <c r="Q67" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="R67" s="8"/>
+      <c r="R67" s="10"/>
       <c r="S67" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="T67" s="10" t="s">
+      <c r="T67" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="U67" s="10"/>
-      <c r="V67" s="10"/>
-      <c r="W67" s="10"/>
+      <c r="U67" s="12"/>
+      <c r="V67" s="12"/>
+      <c r="W67" s="12"/>
       <c r="Y67" t="s">
-        <v>430</v>
+        <v>405</v>
       </c>
       <c r="Z67" t="s">
         <v>386</v>
@@ -4848,50 +4846,50 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="68" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="7" t="s">
+    <row r="68" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="B68" s="7"/>
-      <c r="C68" s="8" t="s">
+      <c r="B68" s="9"/>
+      <c r="C68" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8" t="s">
+      <c r="D68" s="10"/>
+      <c r="E68" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F68" s="8"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
-      <c r="J68" s="9"/>
-      <c r="K68" s="9">
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11">
         <v>14.85</v>
       </c>
-      <c r="L68" s="9"/>
-      <c r="M68" s="9"/>
-      <c r="N68" s="8" t="s">
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="O68" s="8"/>
+      <c r="O68" s="10"/>
       <c r="P68" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="Q68" s="8" t="s">
+      <c r="Q68" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="R68" s="8"/>
+      <c r="R68" s="10"/>
       <c r="S68" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="T68" s="10" t="s">
+      <c r="T68" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="U68" s="10"/>
-      <c r="V68" s="10"/>
-      <c r="W68" s="10"/>
+      <c r="U68" s="12"/>
+      <c r="V68" s="12"/>
+      <c r="W68" s="12"/>
       <c r="Y68" t="s">
-        <v>431</v>
+        <v>406</v>
       </c>
       <c r="Z68" t="s">
         <v>386</v>
@@ -4900,50 +4898,50 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="7" t="s">
+    <row r="69" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="B69" s="7"/>
-      <c r="C69" s="8" t="s">
+      <c r="B69" s="9"/>
+      <c r="C69" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8" t="s">
+      <c r="D69" s="10"/>
+      <c r="E69" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
-      <c r="J69" s="9"/>
-      <c r="K69" s="9">
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11">
         <v>1810.71</v>
       </c>
-      <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="8" t="s">
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="O69" s="8"/>
+      <c r="O69" s="10"/>
       <c r="P69" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="Q69" s="8" t="s">
+      <c r="Q69" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="R69" s="8"/>
+      <c r="R69" s="10"/>
       <c r="S69" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="T69" s="10" t="s">
+      <c r="T69" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="U69" s="10"/>
-      <c r="V69" s="10"/>
-      <c r="W69" s="10"/>
+      <c r="U69" s="12"/>
+      <c r="V69" s="12"/>
+      <c r="W69" s="12"/>
       <c r="Y69" t="s">
-        <v>432</v>
+        <v>407</v>
       </c>
       <c r="Z69" t="s">
         <v>386</v>
@@ -4952,50 +4950,50 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="70" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="7" t="s">
+    <row r="70" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="B70" s="7"/>
-      <c r="C70" s="8" t="s">
+      <c r="B70" s="9"/>
+      <c r="C70" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8" t="s">
+      <c r="D70" s="10"/>
+      <c r="E70" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
-      <c r="J70" s="9"/>
-      <c r="K70" s="9">
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11">
         <v>1666.17</v>
       </c>
-      <c r="L70" s="9"/>
-      <c r="M70" s="9"/>
-      <c r="N70" s="8" t="s">
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="O70" s="8"/>
+      <c r="O70" s="10"/>
       <c r="P70" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="Q70" s="8" t="s">
+      <c r="Q70" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="R70" s="8"/>
+      <c r="R70" s="10"/>
       <c r="S70" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="T70" s="10" t="s">
+      <c r="T70" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="U70" s="10"/>
-      <c r="V70" s="10"/>
-      <c r="W70" s="10"/>
+      <c r="U70" s="12"/>
+      <c r="V70" s="12"/>
+      <c r="W70" s="12"/>
       <c r="Y70" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="Z70" t="s">
         <v>386</v>
@@ -5004,194 +5002,194 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="71" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="7" t="s">
+    <row r="71" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="B71" s="7"/>
-      <c r="C71" s="8" t="s">
+      <c r="B71" s="9"/>
+      <c r="C71" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8" t="s">
+      <c r="D71" s="10"/>
+      <c r="E71" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F71" s="8"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
-      <c r="J71" s="9"/>
-      <c r="K71" s="9">
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11">
         <v>14.85</v>
       </c>
-      <c r="L71" s="9"/>
-      <c r="M71" s="9"/>
-      <c r="N71" s="8" t="s">
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="O71" s="8"/>
+      <c r="O71" s="10"/>
       <c r="P71" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="Q71" s="8" t="s">
+      <c r="Q71" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="R71" s="8"/>
+      <c r="R71" s="10"/>
       <c r="S71" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="T71" s="10" t="s">
+      <c r="T71" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="U71" s="10"/>
-      <c r="V71" s="10"/>
-      <c r="W71" s="10"/>
-      <c r="Y71" t="s">
-        <v>434</v>
-      </c>
+      <c r="U71" s="12"/>
+      <c r="V71" s="12"/>
+      <c r="W71" s="12"/>
       <c r="Z71" t="s">
         <v>386</v>
       </c>
-      <c r="AA71">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="7" t="s">
+    </row>
+    <row r="72" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="B72" s="7"/>
-      <c r="C72" s="8" t="s">
+      <c r="B72" s="9"/>
+      <c r="C72" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8" t="s">
+      <c r="D72" s="10"/>
+      <c r="E72" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F72" s="8"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="9">
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="11">
         <v>50125</v>
       </c>
-      <c r="I72" s="9"/>
-      <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
-      <c r="L72" s="9"/>
-      <c r="M72" s="9"/>
-      <c r="N72" s="8" t="s">
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="O72" s="8"/>
+      <c r="O72" s="10"/>
       <c r="P72" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="Q72" s="8" t="s">
+      <c r="Q72" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="R72" s="8"/>
+      <c r="R72" s="10"/>
       <c r="S72" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="T72" s="10" t="s">
+      <c r="T72" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="U72" s="10"/>
-      <c r="V72" s="10"/>
-      <c r="W72" s="10"/>
+      <c r="U72" s="12"/>
+      <c r="V72" s="12"/>
+      <c r="W72" s="12"/>
       <c r="Z72" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="73" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="7" t="s">
+      <c r="AB72" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="73" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="B73" s="7"/>
-      <c r="C73" s="8" t="s">
+      <c r="B73" s="9"/>
+      <c r="C73" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8" t="s">
+      <c r="D73" s="10"/>
+      <c r="E73" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="F73" s="8"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="9">
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="11">
         <v>200</v>
       </c>
-      <c r="I73" s="9"/>
-      <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
-      <c r="L73" s="9"/>
-      <c r="M73" s="9"/>
-      <c r="N73" s="8" t="s">
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="O73" s="8"/>
+      <c r="O73" s="10"/>
       <c r="P73" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="Q73" s="8" t="s">
+      <c r="Q73" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="R73" s="8"/>
+      <c r="R73" s="10"/>
       <c r="S73" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="T73" s="10" t="s">
+      <c r="T73" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="U73" s="10"/>
-      <c r="V73" s="10"/>
-      <c r="W73" s="10"/>
+      <c r="U73" s="12"/>
+      <c r="V73" s="12"/>
+      <c r="W73" s="12"/>
       <c r="Z73" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="74" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="7" t="s">
+      <c r="AB73" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="74" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B74" s="7"/>
-      <c r="C74" s="8" t="s">
+      <c r="B74" s="9"/>
+      <c r="C74" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8" t="s">
+      <c r="D74" s="10"/>
+      <c r="E74" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="F74" s="8"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
-      <c r="K74" s="9">
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11">
         <v>5000</v>
       </c>
-      <c r="L74" s="9"/>
-      <c r="M74" s="9"/>
-      <c r="N74" s="8" t="s">
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="O74" s="8"/>
+      <c r="O74" s="10"/>
       <c r="P74" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="Q74" s="8" t="s">
+      <c r="Q74" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="R74" s="8"/>
+      <c r="R74" s="10"/>
       <c r="S74" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="T74" s="10" t="s">
+      <c r="T74" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="U74" s="10"/>
-      <c r="V74" s="10"/>
-      <c r="W74" s="10"/>
+      <c r="U74" s="12"/>
+      <c r="V74" s="12"/>
+      <c r="W74" s="12"/>
       <c r="Y74" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="Z74" t="s">
         <v>386</v>
@@ -5200,241 +5198,253 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="75" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="7" t="s">
+    <row r="75" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="B75" s="7"/>
-      <c r="C75" s="8" t="s">
+      <c r="B75" s="9"/>
+      <c r="C75" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8" t="s">
+      <c r="D75" s="10"/>
+      <c r="E75" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="F75" s="8"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="9">
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="11">
         <v>15000</v>
       </c>
-      <c r="I75" s="9"/>
-      <c r="J75" s="9"/>
-      <c r="K75" s="9"/>
-      <c r="L75" s="9"/>
-      <c r="M75" s="9"/>
-      <c r="N75" s="8" t="s">
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="O75" s="8"/>
+      <c r="O75" s="10"/>
       <c r="P75" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="Q75" s="8" t="s">
+      <c r="Q75" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="R75" s="8"/>
+      <c r="R75" s="10"/>
       <c r="S75" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="T75" s="10" t="s">
+      <c r="T75" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="U75" s="10"/>
-      <c r="V75" s="10"/>
-      <c r="W75" s="10"/>
+      <c r="U75" s="12"/>
+      <c r="V75" s="12"/>
+      <c r="W75" s="12"/>
       <c r="Z75" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="76" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="7" t="s">
+      <c r="AB75" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="76" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="B76" s="7"/>
-      <c r="C76" s="8" t="s">
+      <c r="B76" s="9"/>
+      <c r="C76" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8" t="s">
+      <c r="D76" s="10"/>
+      <c r="E76" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
-      <c r="J76" s="9"/>
-      <c r="K76" s="9">
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11">
         <v>122798.08</v>
       </c>
-      <c r="L76" s="9"/>
-      <c r="M76" s="9"/>
-      <c r="N76" s="8" t="s">
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="O76" s="8"/>
+      <c r="O76" s="10"/>
       <c r="P76" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="Q76" s="8" t="s">
+      <c r="Q76" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="R76" s="8"/>
+      <c r="R76" s="10"/>
       <c r="S76" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="T76" s="10" t="s">
+      <c r="T76" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="U76" s="10"/>
-      <c r="V76" s="10"/>
-      <c r="W76" s="10"/>
+      <c r="U76" s="12"/>
+      <c r="V76" s="12"/>
+      <c r="W76" s="12"/>
       <c r="Z76" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="77" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="7" t="s">
+      <c r="AB76" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="77" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="B77" s="7"/>
-      <c r="C77" s="8" t="s">
+      <c r="B77" s="9"/>
+      <c r="C77" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8" t="s">
+      <c r="D77" s="10"/>
+      <c r="E77" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="F77" s="8"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
-      <c r="J77" s="9"/>
-      <c r="K77" s="9">
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11">
         <v>119908.71</v>
       </c>
-      <c r="L77" s="9"/>
-      <c r="M77" s="9"/>
-      <c r="N77" s="8" t="s">
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="O77" s="8"/>
+      <c r="O77" s="10"/>
       <c r="P77" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="Q77" s="8" t="s">
+      <c r="Q77" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="R77" s="8"/>
+      <c r="R77" s="10"/>
       <c r="S77" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="T77" s="10" t="s">
+      <c r="T77" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="U77" s="10"/>
-      <c r="V77" s="10"/>
-      <c r="W77" s="10"/>
+      <c r="U77" s="12"/>
+      <c r="V77" s="12"/>
+      <c r="W77" s="12"/>
       <c r="Z77" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="78" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="7" t="s">
+      <c r="AB77" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="78" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="B78" s="7"/>
-      <c r="C78" s="8" t="s">
+      <c r="B78" s="9"/>
+      <c r="C78" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8" t="s">
+      <c r="D78" s="10"/>
+      <c r="E78" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
-      <c r="J78" s="9"/>
-      <c r="K78" s="9">
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11">
         <v>100542.42</v>
       </c>
-      <c r="L78" s="9"/>
-      <c r="M78" s="9"/>
-      <c r="N78" s="8" t="s">
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="10" t="s">
         <v>250</v>
       </c>
-      <c r="O78" s="8"/>
+      <c r="O78" s="10"/>
       <c r="P78" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="Q78" s="8" t="s">
+      <c r="Q78" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="R78" s="8"/>
+      <c r="R78" s="10"/>
       <c r="S78" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="T78" s="10" t="s">
+      <c r="T78" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="U78" s="10"/>
-      <c r="V78" s="10"/>
-      <c r="W78" s="10"/>
+      <c r="U78" s="12"/>
+      <c r="V78" s="12"/>
+      <c r="W78" s="12"/>
       <c r="Z78" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="79" spans="1:27" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="W80" s="6" t="s">
+      <c r="AB78" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="79" spans="1:28" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="W80" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="X80" s="6"/>
-    </row>
-    <row r="81" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="7" t="s">
+      <c r="X80" s="13"/>
+    </row>
+    <row r="81" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="B81" s="7"/>
-      <c r="C81" s="8" t="s">
+      <c r="B81" s="9"/>
+      <c r="C81" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8" t="s">
+      <c r="D81" s="10"/>
+      <c r="E81" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
-      <c r="J81" s="9"/>
-      <c r="K81" s="9">
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11">
         <v>2632.42</v>
       </c>
-      <c r="L81" s="9"/>
-      <c r="M81" s="9"/>
-      <c r="N81" s="8" t="s">
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="O81" s="8"/>
+      <c r="O81" s="10"/>
       <c r="P81" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="Q81" s="8" t="s">
+      <c r="Q81" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="R81" s="8"/>
+      <c r="R81" s="10"/>
       <c r="S81" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="T81" s="10" t="s">
+      <c r="T81" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="U81" s="10"/>
-      <c r="V81" s="10"/>
-      <c r="W81" s="10"/>
+      <c r="U81" s="12"/>
+      <c r="V81" s="12"/>
+      <c r="W81" s="12"/>
       <c r="Y81" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="Z81" t="s">
         <v>386</v>
@@ -5443,50 +5453,50 @@
         <v>2632.42</v>
       </c>
     </row>
-    <row r="82" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="7" t="s">
+    <row r="82" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B82" s="7"/>
-      <c r="C82" s="8" t="s">
+      <c r="B82" s="9"/>
+      <c r="C82" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8" t="s">
+      <c r="D82" s="10"/>
+      <c r="E82" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
-      <c r="J82" s="9"/>
-      <c r="K82" s="9">
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11">
         <v>500</v>
       </c>
-      <c r="L82" s="9"/>
-      <c r="M82" s="9"/>
-      <c r="N82" s="8" t="s">
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="O82" s="8"/>
+      <c r="O82" s="10"/>
       <c r="P82" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="Q82" s="8" t="s">
+      <c r="Q82" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="R82" s="8"/>
+      <c r="R82" s="10"/>
       <c r="S82" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="T82" s="10" t="s">
+      <c r="T82" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="U82" s="10"/>
-      <c r="V82" s="10"/>
-      <c r="W82" s="10"/>
+      <c r="U82" s="12"/>
+      <c r="V82" s="12"/>
+      <c r="W82" s="12"/>
       <c r="Y82" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="Z82" t="s">
         <v>386</v>
@@ -5495,464 +5505,491 @@
         <v>500</v>
       </c>
     </row>
-    <row r="83" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="7" t="s">
+    <row r="83" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="B83" s="7"/>
-      <c r="C83" s="8" t="s">
+      <c r="B83" s="9"/>
+      <c r="C83" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8" t="s">
+      <c r="D83" s="10"/>
+      <c r="E83" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="9">
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="11">
         <v>16000</v>
       </c>
-      <c r="I83" s="9"/>
-      <c r="J83" s="9"/>
-      <c r="K83" s="9"/>
-      <c r="L83" s="9"/>
-      <c r="M83" s="9"/>
-      <c r="N83" s="8" t="s">
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="O83" s="8"/>
+      <c r="O83" s="10"/>
       <c r="P83" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="Q83" s="8" t="s">
+      <c r="Q83" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="R83" s="8"/>
+      <c r="R83" s="10"/>
       <c r="S83" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="T83" s="10" t="s">
+      <c r="T83" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="U83" s="10"/>
-      <c r="V83" s="10"/>
-      <c r="W83" s="10"/>
+      <c r="U83" s="12"/>
+      <c r="V83" s="12"/>
+      <c r="W83" s="12"/>
       <c r="Z83" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="84" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="7" t="s">
+      <c r="AB83" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="84" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="B84" s="7"/>
-      <c r="C84" s="8" t="s">
+      <c r="B84" s="9"/>
+      <c r="C84" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8" t="s">
+      <c r="D84" s="10"/>
+      <c r="E84" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="9">
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="11">
         <v>10000</v>
       </c>
-      <c r="I84" s="9"/>
-      <c r="J84" s="9"/>
-      <c r="K84" s="9"/>
-      <c r="L84" s="9"/>
-      <c r="M84" s="9"/>
-      <c r="N84" s="8" t="s">
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="O84" s="8"/>
+      <c r="O84" s="10"/>
       <c r="P84" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="Q84" s="8" t="s">
+      <c r="Q84" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="R84" s="8"/>
+      <c r="R84" s="10"/>
       <c r="S84" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="T84" s="10" t="s">
+      <c r="T84" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="U84" s="10"/>
-      <c r="V84" s="10"/>
-      <c r="W84" s="10"/>
+      <c r="U84" s="12"/>
+      <c r="V84" s="12"/>
+      <c r="W84" s="12"/>
       <c r="Z84" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="85" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="7" t="s">
+      <c r="AB84" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="85" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="B85" s="7"/>
-      <c r="C85" s="8" t="s">
+      <c r="B85" s="9"/>
+      <c r="C85" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8" t="s">
+      <c r="D85" s="10"/>
+      <c r="E85" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="9">
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="11">
         <v>1000</v>
       </c>
-      <c r="I85" s="9"/>
-      <c r="J85" s="9"/>
-      <c r="K85" s="9"/>
-      <c r="L85" s="9"/>
-      <c r="M85" s="9"/>
-      <c r="N85" s="8" t="s">
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="O85" s="8"/>
+      <c r="O85" s="10"/>
       <c r="P85" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="Q85" s="8" t="s">
+      <c r="Q85" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="R85" s="8"/>
+      <c r="R85" s="10"/>
       <c r="S85" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="T85" s="10" t="s">
+      <c r="T85" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="U85" s="10"/>
-      <c r="V85" s="10"/>
-      <c r="W85" s="10"/>
+      <c r="U85" s="12"/>
+      <c r="V85" s="12"/>
+      <c r="W85" s="12"/>
       <c r="Z85" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="86" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="7" t="s">
+      <c r="AB85" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="86" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="B86" s="7"/>
-      <c r="C86" s="8" t="s">
+      <c r="B86" s="9"/>
+      <c r="C86" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8" t="s">
+      <c r="D86" s="10"/>
+      <c r="E86" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="9">
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="11">
         <v>3200</v>
       </c>
-      <c r="I86" s="9"/>
-      <c r="J86" s="9"/>
-      <c r="K86" s="9"/>
-      <c r="L86" s="9"/>
-      <c r="M86" s="9"/>
-      <c r="N86" s="8" t="s">
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="O86" s="8"/>
+      <c r="O86" s="10"/>
       <c r="P86" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="Q86" s="8" t="s">
+      <c r="Q86" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="R86" s="8"/>
+      <c r="R86" s="10"/>
       <c r="S86" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="T86" s="10" t="s">
+      <c r="T86" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="U86" s="10"/>
-      <c r="V86" s="10"/>
-      <c r="W86" s="10"/>
+      <c r="U86" s="12"/>
+      <c r="V86" s="12"/>
+      <c r="W86" s="12"/>
       <c r="Z86" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="87" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="7" t="s">
+      <c r="AB86" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="87" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="B87" s="7"/>
-      <c r="C87" s="8" t="s">
+      <c r="B87" s="9"/>
+      <c r="C87" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8" t="s">
+      <c r="D87" s="10"/>
+      <c r="E87" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="9">
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="11">
         <v>2300</v>
       </c>
-      <c r="I87" s="9"/>
-      <c r="J87" s="9"/>
-      <c r="K87" s="9"/>
-      <c r="L87" s="9"/>
-      <c r="M87" s="9"/>
-      <c r="N87" s="8" t="s">
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="O87" s="8"/>
+      <c r="O87" s="10"/>
       <c r="P87" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="Q87" s="8" t="s">
+      <c r="Q87" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="R87" s="8"/>
+      <c r="R87" s="10"/>
       <c r="S87" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="T87" s="10" t="s">
+      <c r="T87" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="U87" s="10"/>
-      <c r="V87" s="10"/>
-      <c r="W87" s="10"/>
+      <c r="U87" s="12"/>
+      <c r="V87" s="12"/>
+      <c r="W87" s="12"/>
       <c r="Z87" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="88" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="7" t="s">
+      <c r="AB87" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="88" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="B88" s="7"/>
-      <c r="C88" s="8" t="s">
+      <c r="B88" s="9"/>
+      <c r="C88" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8" t="s">
+      <c r="D88" s="10"/>
+      <c r="E88" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="9">
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="11">
         <v>230500</v>
       </c>
-      <c r="I88" s="9"/>
-      <c r="J88" s="9"/>
-      <c r="K88" s="9"/>
-      <c r="L88" s="9"/>
-      <c r="M88" s="9"/>
-      <c r="N88" s="8" t="s">
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="O88" s="8"/>
+      <c r="O88" s="10"/>
       <c r="P88" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="Q88" s="8" t="s">
+      <c r="Q88" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="R88" s="8"/>
+      <c r="R88" s="10"/>
       <c r="S88" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="T88" s="10" t="s">
+      <c r="T88" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="U88" s="10"/>
-      <c r="V88" s="10"/>
-      <c r="W88" s="10"/>
+      <c r="U88" s="12"/>
+      <c r="V88" s="12"/>
+      <c r="W88" s="12"/>
       <c r="Z88" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="89" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="7" t="s">
+      <c r="AB88" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="89" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="B89" s="7"/>
-      <c r="C89" s="8" t="s">
+      <c r="B89" s="9"/>
+      <c r="C89" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8" t="s">
+      <c r="D89" s="10"/>
+      <c r="E89" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="9">
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="11">
         <v>1800</v>
       </c>
-      <c r="I89" s="9"/>
-      <c r="J89" s="9"/>
-      <c r="K89" s="9"/>
-      <c r="L89" s="9"/>
-      <c r="M89" s="9"/>
-      <c r="N89" s="8" t="s">
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="11"/>
+      <c r="N89" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="O89" s="8"/>
+      <c r="O89" s="10"/>
       <c r="P89" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="Q89" s="8" t="s">
+      <c r="Q89" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="R89" s="8"/>
+      <c r="R89" s="10"/>
       <c r="S89" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="T89" s="10" t="s">
+      <c r="T89" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="U89" s="10"/>
-      <c r="V89" s="10"/>
-      <c r="W89" s="10"/>
+      <c r="U89" s="12"/>
+      <c r="V89" s="12"/>
+      <c r="W89" s="12"/>
       <c r="Z89" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="90" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="7" t="s">
+      <c r="AB89" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="90" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="B90" s="7"/>
-      <c r="C90" s="8" t="s">
+      <c r="B90" s="9"/>
+      <c r="C90" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8" t="s">
+      <c r="D90" s="10"/>
+      <c r="E90" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="9">
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="11">
         <v>27000</v>
       </c>
-      <c r="I90" s="9"/>
-      <c r="J90" s="9"/>
-      <c r="K90" s="9"/>
-      <c r="L90" s="9"/>
-      <c r="M90" s="9"/>
-      <c r="N90" s="8" t="s">
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="11"/>
+      <c r="N90" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="O90" s="8"/>
+      <c r="O90" s="10"/>
       <c r="P90" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="Q90" s="8" t="s">
+      <c r="Q90" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="R90" s="8"/>
+      <c r="R90" s="10"/>
       <c r="S90" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="T90" s="10" t="s">
+      <c r="T90" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="U90" s="10"/>
-      <c r="V90" s="10"/>
-      <c r="W90" s="10"/>
+      <c r="U90" s="12"/>
+      <c r="V90" s="12"/>
+      <c r="W90" s="12"/>
       <c r="Z90" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="91" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="7" t="s">
+      <c r="AB90" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="B91" s="7"/>
-      <c r="C91" s="8" t="s">
+      <c r="B91" s="9"/>
+      <c r="C91" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8" t="s">
+      <c r="D91" s="10"/>
+      <c r="E91" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="9">
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="11">
         <v>96240</v>
       </c>
-      <c r="I91" s="9"/>
-      <c r="J91" s="9"/>
-      <c r="K91" s="9"/>
-      <c r="L91" s="9"/>
-      <c r="M91" s="9"/>
-      <c r="N91" s="8" t="s">
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="11"/>
+      <c r="N91" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="O91" s="8"/>
+      <c r="O91" s="10"/>
       <c r="P91" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="Q91" s="8" t="s">
+      <c r="Q91" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="R91" s="8"/>
+      <c r="R91" s="10"/>
       <c r="S91" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="T91" s="10" t="s">
+      <c r="T91" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="U91" s="10"/>
-      <c r="V91" s="10"/>
-      <c r="W91" s="10"/>
+      <c r="U91" s="12"/>
+      <c r="V91" s="12"/>
+      <c r="W91" s="12"/>
       <c r="Z91" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="92" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="7" t="s">
+      <c r="AB91" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="92" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="B92" s="7"/>
-      <c r="C92" s="8" t="s">
+      <c r="B92" s="9"/>
+      <c r="C92" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8" t="s">
+      <c r="D92" s="10"/>
+      <c r="E92" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="9"/>
-      <c r="J92" s="9"/>
-      <c r="K92" s="9">
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11">
         <v>871.2</v>
       </c>
-      <c r="L92" s="9"/>
-      <c r="M92" s="9"/>
-      <c r="N92" s="8" t="s">
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
+      <c r="N92" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="O92" s="8"/>
+      <c r="O92" s="10"/>
       <c r="P92" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="Q92" s="8" t="s">
+      <c r="Q92" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="R92" s="8"/>
+      <c r="R92" s="10"/>
       <c r="S92" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="T92" s="10" t="s">
+      <c r="T92" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="U92" s="10"/>
-      <c r="V92" s="10"/>
-      <c r="W92" s="10"/>
+      <c r="U92" s="12"/>
+      <c r="V92" s="12"/>
+      <c r="W92" s="12"/>
       <c r="Y92" t="s">
-        <v>438</v>
+        <v>408</v>
       </c>
       <c r="Z92" t="s">
         <v>386</v>
@@ -5961,50 +5998,50 @@
         <v>880</v>
       </c>
     </row>
-    <row r="93" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="7" t="s">
+    <row r="93" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="B93" s="7"/>
-      <c r="C93" s="8" t="s">
+      <c r="B93" s="9"/>
+      <c r="C93" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8" t="s">
+      <c r="D93" s="10"/>
+      <c r="E93" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="9"/>
-      <c r="J93" s="9"/>
-      <c r="K93" s="9">
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="11">
         <v>1485</v>
       </c>
-      <c r="L93" s="9"/>
-      <c r="M93" s="9"/>
-      <c r="N93" s="8" t="s">
+      <c r="L93" s="11"/>
+      <c r="M93" s="11"/>
+      <c r="N93" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="O93" s="8"/>
+      <c r="O93" s="10"/>
       <c r="P93" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="Q93" s="8" t="s">
+      <c r="Q93" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="R93" s="8"/>
+      <c r="R93" s="10"/>
       <c r="S93" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="T93" s="10" t="s">
+      <c r="T93" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="U93" s="10"/>
-      <c r="V93" s="10"/>
-      <c r="W93" s="10"/>
+      <c r="U93" s="12"/>
+      <c r="V93" s="12"/>
+      <c r="W93" s="12"/>
       <c r="Y93" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="Z93" t="s">
         <v>386</v>
@@ -6013,50 +6050,50 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="94" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="7" t="s">
+    <row r="94" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="B94" s="7"/>
-      <c r="C94" s="8" t="s">
+      <c r="B94" s="9"/>
+      <c r="C94" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8" t="s">
+      <c r="D94" s="10"/>
+      <c r="E94" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="9"/>
-      <c r="I94" s="9"/>
-      <c r="J94" s="9"/>
-      <c r="K94" s="9">
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="11">
         <v>14.56</v>
       </c>
-      <c r="L94" s="9"/>
-      <c r="M94" s="9"/>
-      <c r="N94" s="8" t="s">
+      <c r="L94" s="11"/>
+      <c r="M94" s="11"/>
+      <c r="N94" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="O94" s="8"/>
+      <c r="O94" s="10"/>
       <c r="P94" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="Q94" s="8" t="s">
+      <c r="Q94" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="R94" s="8"/>
+      <c r="R94" s="10"/>
       <c r="S94" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="T94" s="10" t="s">
+      <c r="T94" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="U94" s="10"/>
-      <c r="V94" s="10"/>
-      <c r="W94" s="10"/>
+      <c r="U94" s="12"/>
+      <c r="V94" s="12"/>
+      <c r="W94" s="12"/>
       <c r="Y94" t="s">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="Z94" t="s">
         <v>386</v>
@@ -6065,50 +6102,50 @@
         <v>14.56</v>
       </c>
     </row>
-    <row r="95" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="7" t="s">
+    <row r="95" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="B95" s="7"/>
-      <c r="C95" s="8" t="s">
+      <c r="B95" s="9"/>
+      <c r="C95" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8" t="s">
+      <c r="D95" s="10"/>
+      <c r="E95" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="9"/>
-      <c r="I95" s="9"/>
-      <c r="J95" s="9"/>
-      <c r="K95" s="9">
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="11">
         <v>968.22</v>
       </c>
-      <c r="L95" s="9"/>
-      <c r="M95" s="9"/>
-      <c r="N95" s="8" t="s">
+      <c r="L95" s="11"/>
+      <c r="M95" s="11"/>
+      <c r="N95" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="O95" s="8"/>
+      <c r="O95" s="10"/>
       <c r="P95" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="Q95" s="8" t="s">
+      <c r="Q95" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="R95" s="8"/>
+      <c r="R95" s="10"/>
       <c r="S95" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="T95" s="10" t="s">
+      <c r="T95" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="U95" s="10"/>
-      <c r="V95" s="10"/>
-      <c r="W95" s="10"/>
+      <c r="U95" s="12"/>
+      <c r="V95" s="12"/>
+      <c r="W95" s="12"/>
       <c r="Y95" t="s">
-        <v>441</v>
+        <v>411</v>
       </c>
       <c r="Z95" t="s">
         <v>386</v>
@@ -6117,109 +6154,103 @@
         <v>968.22</v>
       </c>
     </row>
-    <row r="96" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="7" t="s">
+    <row r="96" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="B96" s="7"/>
-      <c r="C96" s="8" t="s">
+      <c r="B96" s="9"/>
+      <c r="C96" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8" t="s">
+      <c r="D96" s="10"/>
+      <c r="E96" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="9"/>
-      <c r="I96" s="9"/>
-      <c r="J96" s="9"/>
-      <c r="K96" s="9">
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="11">
         <v>800</v>
       </c>
-      <c r="L96" s="9"/>
-      <c r="M96" s="9"/>
-      <c r="N96" s="8" t="s">
+      <c r="L96" s="11"/>
+      <c r="M96" s="11"/>
+      <c r="N96" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="O96" s="8"/>
+      <c r="O96" s="10"/>
       <c r="P96" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="Q96" s="8" t="s">
+      <c r="Q96" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="R96" s="8"/>
+      <c r="R96" s="10"/>
       <c r="S96" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="T96" s="10" t="s">
+      <c r="T96" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="U96" s="10"/>
-      <c r="V96" s="10"/>
-      <c r="W96" s="10"/>
-      <c r="Y96" t="s">
-        <v>442</v>
-      </c>
+      <c r="U96" s="12"/>
+      <c r="V96" s="12"/>
+      <c r="W96" s="12"/>
       <c r="Z96" t="s">
         <v>386</v>
-      </c>
-      <c r="AA96">
-        <v>800</v>
       </c>
     </row>
     <row r="97" spans="1:27" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="98" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="W98" s="6" t="s">
+      <c r="W98" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="X98" s="6"/>
+      <c r="X98" s="13"/>
     </row>
     <row r="99" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="7" t="s">
+      <c r="A99" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="B99" s="7"/>
-      <c r="C99" s="8" t="s">
+      <c r="B99" s="9"/>
+      <c r="C99" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8" t="s">
+      <c r="D99" s="10"/>
+      <c r="E99" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="F99" s="8"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="9"/>
-      <c r="I99" s="9"/>
-      <c r="J99" s="9"/>
-      <c r="K99" s="9">
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="11">
         <v>740</v>
       </c>
-      <c r="L99" s="9"/>
-      <c r="M99" s="9"/>
-      <c r="N99" s="8" t="s">
+      <c r="L99" s="11"/>
+      <c r="M99" s="11"/>
+      <c r="N99" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="O99" s="8"/>
+      <c r="O99" s="10"/>
       <c r="P99" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="Q99" s="8" t="s">
+      <c r="Q99" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="R99" s="8"/>
+      <c r="R99" s="10"/>
       <c r="S99" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="T99" s="10" t="s">
+      <c r="T99" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="U99" s="10"/>
-      <c r="V99" s="10"/>
-      <c r="W99" s="10"/>
+      <c r="U99" s="12"/>
+      <c r="V99" s="12"/>
+      <c r="W99" s="12"/>
       <c r="Y99" t="s">
-        <v>443</v>
+        <v>412</v>
       </c>
       <c r="Z99" t="s">
         <v>386</v>
@@ -6229,49 +6260,49 @@
       </c>
     </row>
     <row r="100" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="7" t="s">
+      <c r="A100" s="9" t="s">
         <v>332</v>
       </c>
-      <c r="B100" s="7"/>
-      <c r="C100" s="8" t="s">
+      <c r="B100" s="9"/>
+      <c r="C100" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8" t="s">
+      <c r="D100" s="10"/>
+      <c r="E100" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="F100" s="8"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="9"/>
-      <c r="I100" s="9"/>
-      <c r="J100" s="9"/>
-      <c r="K100" s="9">
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="11">
         <v>2396.5</v>
       </c>
-      <c r="L100" s="9"/>
-      <c r="M100" s="9"/>
-      <c r="N100" s="8" t="s">
+      <c r="L100" s="11"/>
+      <c r="M100" s="11"/>
+      <c r="N100" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="O100" s="8"/>
+      <c r="O100" s="10"/>
       <c r="P100" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="Q100" s="8" t="s">
+      <c r="Q100" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="R100" s="8"/>
+      <c r="R100" s="10"/>
       <c r="S100" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="T100" s="10" t="s">
+      <c r="T100" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="U100" s="10"/>
-      <c r="V100" s="10"/>
-      <c r="W100" s="10"/>
+      <c r="U100" s="12"/>
+      <c r="V100" s="12"/>
+      <c r="W100" s="12"/>
       <c r="Y100" t="s">
-        <v>444</v>
+        <v>417</v>
       </c>
       <c r="Z100" t="s">
         <v>386</v>
@@ -6281,49 +6312,49 @@
       </c>
     </row>
     <row r="101" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="7" t="s">
+      <c r="A101" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="B101" s="7"/>
-      <c r="C101" s="8" t="s">
+      <c r="B101" s="9"/>
+      <c r="C101" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8" t="s">
+      <c r="D101" s="10"/>
+      <c r="E101" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="F101" s="8"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="9"/>
-      <c r="I101" s="9"/>
-      <c r="J101" s="9"/>
-      <c r="K101" s="9">
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="11">
         <v>843</v>
       </c>
-      <c r="L101" s="9"/>
-      <c r="M101" s="9"/>
-      <c r="N101" s="8" t="s">
+      <c r="L101" s="11"/>
+      <c r="M101" s="11"/>
+      <c r="N101" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="O101" s="8"/>
+      <c r="O101" s="10"/>
       <c r="P101" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="Q101" s="8" t="s">
+      <c r="Q101" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="R101" s="8"/>
+      <c r="R101" s="10"/>
       <c r="S101" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="T101" s="10" t="s">
+      <c r="T101" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="U101" s="10"/>
-      <c r="V101" s="10"/>
-      <c r="W101" s="10"/>
+      <c r="U101" s="12"/>
+      <c r="V101" s="12"/>
+      <c r="W101" s="12"/>
       <c r="Y101" t="s">
-        <v>445</v>
+        <v>413</v>
       </c>
       <c r="Z101" t="s">
         <v>386</v>
@@ -6333,95 +6364,95 @@
       </c>
     </row>
     <row r="102" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="7" t="s">
+      <c r="A102" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="B102" s="7"/>
-      <c r="C102" s="8" t="s">
+      <c r="B102" s="9"/>
+      <c r="C102" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8" t="s">
+      <c r="D102" s="10"/>
+      <c r="E102" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="9"/>
-      <c r="I102" s="9"/>
-      <c r="J102" s="9"/>
-      <c r="K102" s="9">
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="11">
         <v>2041</v>
       </c>
-      <c r="L102" s="9"/>
-      <c r="M102" s="9"/>
-      <c r="N102" s="8" t="s">
+      <c r="L102" s="11"/>
+      <c r="M102" s="11"/>
+      <c r="N102" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="O102" s="8"/>
+      <c r="O102" s="10"/>
       <c r="P102" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="Q102" s="8" t="s">
+      <c r="Q102" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="R102" s="8"/>
+      <c r="R102" s="10"/>
       <c r="S102" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="T102" s="10" t="s">
+      <c r="T102" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="U102" s="10"/>
-      <c r="V102" s="10"/>
-      <c r="W102" s="10"/>
+      <c r="U102" s="12"/>
+      <c r="V102" s="12"/>
+      <c r="W102" s="12"/>
       <c r="Z102" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="103" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="7" t="s">
+      <c r="A103" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="B103" s="7"/>
-      <c r="C103" s="8" t="s">
+      <c r="B103" s="9"/>
+      <c r="C103" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8" t="s">
+      <c r="D103" s="10"/>
+      <c r="E103" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="F103" s="8"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="9"/>
-      <c r="I103" s="9"/>
-      <c r="J103" s="9"/>
-      <c r="K103" s="9">
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="11">
         <v>2404.36</v>
       </c>
-      <c r="L103" s="9"/>
-      <c r="M103" s="9"/>
-      <c r="N103" s="8" t="s">
+      <c r="L103" s="11"/>
+      <c r="M103" s="11"/>
+      <c r="N103" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="O103" s="8"/>
+      <c r="O103" s="10"/>
       <c r="P103" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="Q103" s="8" t="s">
+      <c r="Q103" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="R103" s="8"/>
+      <c r="R103" s="10"/>
       <c r="S103" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="T103" s="10" t="s">
+      <c r="T103" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="U103" s="10"/>
-      <c r="V103" s="10"/>
-      <c r="W103" s="10"/>
+      <c r="U103" s="12"/>
+      <c r="V103" s="12"/>
+      <c r="W103" s="12"/>
       <c r="Y103" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="Z103" t="s">
         <v>386</v>
@@ -6431,49 +6462,49 @@
       </c>
     </row>
     <row r="104" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="7" t="s">
+      <c r="A104" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="B104" s="7"/>
-      <c r="C104" s="8" t="s">
+      <c r="B104" s="9"/>
+      <c r="C104" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8" t="s">
+      <c r="D104" s="10"/>
+      <c r="E104" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="F104" s="8"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="9"/>
-      <c r="I104" s="9"/>
-      <c r="J104" s="9"/>
-      <c r="K104" s="9">
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="11">
         <v>50</v>
       </c>
-      <c r="L104" s="9"/>
-      <c r="M104" s="9"/>
-      <c r="N104" s="8" t="s">
+      <c r="L104" s="11"/>
+      <c r="M104" s="11"/>
+      <c r="N104" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="O104" s="8"/>
+      <c r="O104" s="10"/>
       <c r="P104" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="Q104" s="8" t="s">
+      <c r="Q104" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="R104" s="8"/>
+      <c r="R104" s="10"/>
       <c r="S104" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="T104" s="10" t="s">
+      <c r="T104" s="12" t="s">
         <v>362</v>
       </c>
-      <c r="U104" s="10"/>
-      <c r="V104" s="10"/>
-      <c r="W104" s="10"/>
+      <c r="U104" s="12"/>
+      <c r="V104" s="12"/>
+      <c r="W104" s="12"/>
       <c r="Y104" t="s">
-        <v>447</v>
+        <v>414</v>
       </c>
       <c r="Z104" t="s">
         <v>386</v>
@@ -6483,49 +6514,49 @@
       </c>
     </row>
     <row r="105" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="7" t="s">
+      <c r="A105" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="B105" s="7"/>
-      <c r="C105" s="8" t="s">
+      <c r="B105" s="9"/>
+      <c r="C105" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8" t="s">
+      <c r="D105" s="10"/>
+      <c r="E105" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="F105" s="8"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="9"/>
-      <c r="I105" s="9"/>
-      <c r="J105" s="9"/>
-      <c r="K105" s="9">
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11"/>
+      <c r="J105" s="11"/>
+      <c r="K105" s="11">
         <v>795</v>
       </c>
-      <c r="L105" s="9"/>
-      <c r="M105" s="9"/>
-      <c r="N105" s="8" t="s">
+      <c r="L105" s="11"/>
+      <c r="M105" s="11"/>
+      <c r="N105" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="O105" s="8"/>
+      <c r="O105" s="10"/>
       <c r="P105" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="Q105" s="8" t="s">
+      <c r="Q105" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="R105" s="8"/>
+      <c r="R105" s="10"/>
       <c r="S105" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="T105" s="10" t="s">
+      <c r="T105" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="U105" s="10"/>
-      <c r="V105" s="10"/>
-      <c r="W105" s="10"/>
+      <c r="U105" s="12"/>
+      <c r="V105" s="12"/>
+      <c r="W105" s="12"/>
       <c r="Y105" t="s">
-        <v>448</v>
+        <v>419</v>
       </c>
       <c r="Z105" t="s">
         <v>386</v>
@@ -6535,49 +6566,49 @@
       </c>
     </row>
     <row r="106" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="7" t="s">
+      <c r="A106" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="B106" s="7"/>
-      <c r="C106" s="8" t="s">
+      <c r="B106" s="9"/>
+      <c r="C106" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="D106" s="8"/>
-      <c r="E106" s="8" t="s">
+      <c r="D106" s="10"/>
+      <c r="E106" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="F106" s="8"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="9"/>
-      <c r="I106" s="9"/>
-      <c r="J106" s="9"/>
-      <c r="K106" s="9">
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11"/>
+      <c r="J106" s="11"/>
+      <c r="K106" s="11">
         <v>1400</v>
       </c>
-      <c r="L106" s="9"/>
-      <c r="M106" s="9"/>
-      <c r="N106" s="8" t="s">
+      <c r="L106" s="11"/>
+      <c r="M106" s="11"/>
+      <c r="N106" s="10" t="s">
         <v>371</v>
       </c>
-      <c r="O106" s="8"/>
+      <c r="O106" s="10"/>
       <c r="P106" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="Q106" s="8" t="s">
+      <c r="Q106" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="R106" s="8"/>
+      <c r="R106" s="10"/>
       <c r="S106" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="T106" s="10" t="s">
+      <c r="T106" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="U106" s="10"/>
-      <c r="V106" s="10"/>
-      <c r="W106" s="10"/>
+      <c r="U106" s="12"/>
+      <c r="V106" s="12"/>
+      <c r="W106" s="12"/>
       <c r="Y106" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="Z106" t="s">
         <v>386</v>
@@ -6587,49 +6618,49 @@
       </c>
     </row>
     <row r="107" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="7" t="s">
+      <c r="A107" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="B107" s="7"/>
-      <c r="C107" s="8" t="s">
+      <c r="B107" s="9"/>
+      <c r="C107" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="D107" s="8"/>
-      <c r="E107" s="8" t="s">
+      <c r="D107" s="10"/>
+      <c r="E107" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="F107" s="8"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="9"/>
-      <c r="I107" s="9"/>
-      <c r="J107" s="9"/>
-      <c r="K107" s="9">
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="11">
         <v>1819.47</v>
       </c>
-      <c r="L107" s="9"/>
-      <c r="M107" s="9"/>
-      <c r="N107" s="8" t="s">
+      <c r="L107" s="11"/>
+      <c r="M107" s="11"/>
+      <c r="N107" s="10" t="s">
         <v>377</v>
       </c>
-      <c r="O107" s="8"/>
+      <c r="O107" s="10"/>
       <c r="P107" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="Q107" s="8" t="s">
+      <c r="Q107" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="R107" s="8"/>
+      <c r="R107" s="10"/>
       <c r="S107" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="T107" s="10" t="s">
+      <c r="T107" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="U107" s="10"/>
-      <c r="V107" s="10"/>
-      <c r="W107" s="10"/>
+      <c r="U107" s="12"/>
+      <c r="V107" s="12"/>
+      <c r="W107" s="12"/>
       <c r="Y107" t="s">
-        <v>450</v>
+        <v>416</v>
       </c>
       <c r="Z107" t="s">
         <v>386</v>
@@ -6639,771 +6670,68 @@
       </c>
     </row>
     <row r="108" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="6"/>
-      <c r="B108" s="6"/>
-      <c r="C108" s="6"/>
+      <c r="A108" s="13"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="13"/>
     </row>
     <row r="109" spans="1:27" ht="42.6" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="110" spans="1:27" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="U110" s="5"/>
+      <c r="U110" s="14"/>
     </row>
     <row r="111" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="4">
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="6">
         <v>463433.21</v>
       </c>
-      <c r="J111" s="4"/>
-      <c r="K111" s="4"/>
-      <c r="L111" s="4">
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+      <c r="L111" s="6">
         <v>453874.88</v>
       </c>
-      <c r="M111" s="4"/>
-      <c r="N111" s="4"/>
-      <c r="U111" s="5"/>
+      <c r="M111" s="6"/>
+      <c r="N111" s="6"/>
+      <c r="U111" s="14"/>
     </row>
     <row r="112" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="3"/>
-      <c r="I112" s="4">
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="6">
         <v>671.88</v>
       </c>
-      <c r="J112" s="4"/>
-      <c r="K112" s="4"/>
-      <c r="L112" s="3"/>
-      <c r="M112" s="3"/>
-      <c r="N112" s="3"/>
-      <c r="U112" s="5"/>
+      <c r="J112" s="6"/>
+      <c r="K112" s="6"/>
+      <c r="L112" s="5"/>
+      <c r="M112" s="5"/>
+      <c r="N112" s="5"/>
+      <c r="U112" s="14"/>
     </row>
     <row r="113" spans="21:24" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="U113" s="5"/>
+      <c r="U113" s="14"/>
     </row>
     <row r="114" spans="21:24" ht="176.65" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="115" spans="21:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="W115" s="6" t="s">
+      <c r="W115" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="X115" s="6"/>
+      <c r="X115" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="720">
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="F1:Q2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:Q3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:Q4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:Q5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:Q6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:Q7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F8:Q8"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="T15:W15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="T16:W16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="T19:W19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="T20:W20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="T21:W21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="T22:W22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="T23:W23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="T27:W27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="T29:W29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="T30:W30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="T31:W31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="T32:W32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="T33:W33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="T34:W34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="T35:W35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="T36:W36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="T37:W37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="T38:W38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="T39:W39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="T40:W40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="T41:W41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="T42:W42"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="T46:W46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="T47:W47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="T48:W48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="T49:W49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="T50:W50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="T51:W51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="T52:W52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="T53:W53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="T54:W54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="K55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="T55:W55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="T56:W56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="T57:W57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="K58:M58"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="T58:W58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="K59:M59"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="T59:W59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="K60:M60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="T60:W60"/>
-    <mergeCell ref="W62:X62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="T63:W63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="K64:M64"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="T64:W64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="K65:M65"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="T65:W65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="T66:W66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="K67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="Q67:R67"/>
-    <mergeCell ref="T67:W67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="K68:M68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="Q68:R68"/>
-    <mergeCell ref="T68:W68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="K69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="T69:W69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="K70:M70"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="Q70:R70"/>
-    <mergeCell ref="T70:W70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="K71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="Q71:R71"/>
-    <mergeCell ref="T71:W71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="Q72:R72"/>
-    <mergeCell ref="T72:W72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="Q73:R73"/>
-    <mergeCell ref="T73:W73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="K74:M74"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="Q74:R74"/>
-    <mergeCell ref="T74:W74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="Q75:R75"/>
-    <mergeCell ref="T75:W75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="K76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="Q76:R76"/>
-    <mergeCell ref="T76:W76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="K77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="Q77:R77"/>
-    <mergeCell ref="T77:W77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="K78:M78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="Q78:R78"/>
-    <mergeCell ref="T78:W78"/>
-    <mergeCell ref="W80:X80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="K81:M81"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="Q81:R81"/>
-    <mergeCell ref="T81:W81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="K82:M82"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="Q82:R82"/>
-    <mergeCell ref="T82:W82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="K83:M83"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="Q83:R83"/>
-    <mergeCell ref="T83:W83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="K84:M84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="Q84:R84"/>
-    <mergeCell ref="T84:W84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="K85:M85"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="Q85:R85"/>
-    <mergeCell ref="T85:W85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="Q86:R86"/>
-    <mergeCell ref="T86:W86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="Q87:R87"/>
-    <mergeCell ref="T87:W87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="K88:M88"/>
-    <mergeCell ref="N88:O88"/>
-    <mergeCell ref="Q88:R88"/>
-    <mergeCell ref="T88:W88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="K89:M89"/>
-    <mergeCell ref="N89:O89"/>
-    <mergeCell ref="Q89:R89"/>
-    <mergeCell ref="T89:W89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="H90:J90"/>
-    <mergeCell ref="K90:M90"/>
-    <mergeCell ref="N90:O90"/>
-    <mergeCell ref="Q90:R90"/>
-    <mergeCell ref="T90:W90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="K91:M91"/>
-    <mergeCell ref="N91:O91"/>
-    <mergeCell ref="Q91:R91"/>
-    <mergeCell ref="T91:W91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="K92:M92"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="Q92:R92"/>
-    <mergeCell ref="T92:W92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="H93:J93"/>
-    <mergeCell ref="K93:M93"/>
-    <mergeCell ref="N93:O93"/>
-    <mergeCell ref="Q93:R93"/>
-    <mergeCell ref="T93:W93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="H94:J94"/>
-    <mergeCell ref="K94:M94"/>
-    <mergeCell ref="N94:O94"/>
-    <mergeCell ref="Q94:R94"/>
-    <mergeCell ref="T94:W94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="H95:J95"/>
-    <mergeCell ref="K95:M95"/>
-    <mergeCell ref="N95:O95"/>
-    <mergeCell ref="Q95:R95"/>
-    <mergeCell ref="T95:W95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="H96:J96"/>
-    <mergeCell ref="K96:M96"/>
-    <mergeCell ref="N96:O96"/>
-    <mergeCell ref="Q96:R96"/>
-    <mergeCell ref="T96:W96"/>
-    <mergeCell ref="W98:X98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="H99:J99"/>
-    <mergeCell ref="K99:M99"/>
-    <mergeCell ref="N99:O99"/>
-    <mergeCell ref="Q99:R99"/>
-    <mergeCell ref="T99:W99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="H100:J100"/>
-    <mergeCell ref="K100:M100"/>
-    <mergeCell ref="N100:O100"/>
-    <mergeCell ref="Q100:R100"/>
-    <mergeCell ref="T100:W100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="H101:J101"/>
-    <mergeCell ref="K101:M101"/>
-    <mergeCell ref="N101:O101"/>
-    <mergeCell ref="Q101:R101"/>
-    <mergeCell ref="T101:W101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="K102:M102"/>
-    <mergeCell ref="N102:O102"/>
-    <mergeCell ref="Q102:R102"/>
-    <mergeCell ref="T102:W102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="H103:J103"/>
-    <mergeCell ref="K103:M103"/>
-    <mergeCell ref="N103:O103"/>
-    <mergeCell ref="Q103:R103"/>
-    <mergeCell ref="T103:W103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="E104:G104"/>
-    <mergeCell ref="H104:J104"/>
-    <mergeCell ref="K104:M104"/>
-    <mergeCell ref="N104:O104"/>
-    <mergeCell ref="Q104:R104"/>
-    <mergeCell ref="T104:W104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="E105:G105"/>
-    <mergeCell ref="H105:J105"/>
-    <mergeCell ref="K105:M105"/>
-    <mergeCell ref="N105:O105"/>
-    <mergeCell ref="Q105:R105"/>
-    <mergeCell ref="T105:W105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="E106:G106"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="K106:M106"/>
-    <mergeCell ref="N106:O106"/>
-    <mergeCell ref="Q106:R106"/>
-    <mergeCell ref="T106:W106"/>
     <mergeCell ref="B111:H111"/>
     <mergeCell ref="I111:K111"/>
     <mergeCell ref="L111:N111"/>
@@ -7421,6 +6749,709 @@
     <mergeCell ref="Q107:R107"/>
     <mergeCell ref="T107:W107"/>
     <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E105:G105"/>
+    <mergeCell ref="H105:J105"/>
+    <mergeCell ref="K105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="Q105:R105"/>
+    <mergeCell ref="T105:W105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="E106:G106"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="K106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="Q106:R106"/>
+    <mergeCell ref="T106:W106"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="H103:J103"/>
+    <mergeCell ref="K103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="Q103:R103"/>
+    <mergeCell ref="T103:W103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="E104:G104"/>
+    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="K104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="Q104:R104"/>
+    <mergeCell ref="T104:W104"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="K101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="Q101:R101"/>
+    <mergeCell ref="T101:W101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="K102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="Q102:R102"/>
+    <mergeCell ref="T102:W102"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="H99:J99"/>
+    <mergeCell ref="K99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="Q99:R99"/>
+    <mergeCell ref="T99:W99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="K100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="Q100:R100"/>
+    <mergeCell ref="T100:W100"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="K96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="Q96:R96"/>
+    <mergeCell ref="T96:W96"/>
+    <mergeCell ref="W98:X98"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="K94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="Q94:R94"/>
+    <mergeCell ref="T94:W94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="K95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="Q95:R95"/>
+    <mergeCell ref="T95:W95"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="K92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="Q92:R92"/>
+    <mergeCell ref="T92:W92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="K93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="Q93:R93"/>
+    <mergeCell ref="T93:W93"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="K90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="Q90:R90"/>
+    <mergeCell ref="T90:W90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="K91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="Q91:R91"/>
+    <mergeCell ref="T91:W91"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="K88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="Q88:R88"/>
+    <mergeCell ref="T88:W88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="K89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="Q89:R89"/>
+    <mergeCell ref="T89:W89"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="Q86:R86"/>
+    <mergeCell ref="T86:W86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="Q87:R87"/>
+    <mergeCell ref="T87:W87"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="K84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="Q84:R84"/>
+    <mergeCell ref="T84:W84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="K85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="Q85:R85"/>
+    <mergeCell ref="T85:W85"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="K82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="Q82:R82"/>
+    <mergeCell ref="T82:W82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="K83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="Q83:R83"/>
+    <mergeCell ref="T83:W83"/>
+    <mergeCell ref="W80:X80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="K81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="Q81:R81"/>
+    <mergeCell ref="T81:W81"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="K77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="Q77:R77"/>
+    <mergeCell ref="T77:W77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="K78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="Q78:R78"/>
+    <mergeCell ref="T78:W78"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="Q75:R75"/>
+    <mergeCell ref="T75:W75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="K76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="Q76:R76"/>
+    <mergeCell ref="T76:W76"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="Q73:R73"/>
+    <mergeCell ref="T73:W73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="Q74:R74"/>
+    <mergeCell ref="T74:W74"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="T71:W71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="Q72:R72"/>
+    <mergeCell ref="T72:W72"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="T69:W69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="Q70:R70"/>
+    <mergeCell ref="T70:W70"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="K67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="Q67:R67"/>
+    <mergeCell ref="T67:W67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="K68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="Q68:R68"/>
+    <mergeCell ref="T68:W68"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="K65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="T65:W65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="T66:W66"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="T63:W63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="K64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="T64:W64"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="K60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="T60:W60"/>
+    <mergeCell ref="W62:X62"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="K58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="T58:W58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="K59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="T59:W59"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="T56:W56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="T57:W57"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="T54:W54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="T55:W55"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="T52:W52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="T53:W53"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="T50:W50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="T51:W51"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="T48:W48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="T49:W49"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="T46:W46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="T47:W47"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="T41:W41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="T42:W42"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="T39:W39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="T37:W37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="T38:W38"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="T35:W35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="T36:W36"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="T33:W33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="T34:W34"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="T32:W32"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="T29:W29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="T30:W30"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="T27:W27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="T22:W22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="T21:W21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="T16:W16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:Q6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:Q7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:Q8"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="F1:Q2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:Q3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:Q4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:Q5"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/1/О23.02.13.Xlsx
+++ b/1/О23.02.13.Xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="439">
   <si>
     <t>Назва Клієнта</t>
   </si>
@@ -1217,12 +1217,6 @@
     <t>rah=0058047;ot=1829;</t>
   </si>
   <si>
-    <t>rah=0506005;ot=880;</t>
-  </si>
-  <si>
-    <t>rah=0066035;ot=1500;</t>
-  </si>
-  <si>
     <t>rah=9155134;op=14,56;</t>
   </si>
   <si>
@@ -1244,9 +1238,6 @@
     <t>rah=0054053;ot=1819,47;</t>
   </si>
   <si>
-    <t>rah=9006011;ot=500;</t>
-  </si>
-  <si>
     <t>rah=0064009;ot=238,1;</t>
   </si>
   <si>
@@ -1281,12 +1272,6 @@
   </si>
   <si>
     <t>rah=9048059;ot=1683;</t>
-  </si>
-  <si>
-    <t>rah=0060064;ot=5000;</t>
-  </si>
-  <si>
-    <t>rah=0030033;ot=2632,42;</t>
   </si>
   <si>
     <t>rah=0064025;ot=2396,5;</t>
@@ -1618,17 +1603,23 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1642,17 +1633,11 @@
     <xf numFmtId="0" fontId="11" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2033,258 +2018,258 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="15" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
     </row>
     <row r="2" spans="1:28" ht="0.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="1:28" ht="14.65" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="1:28" ht="27.4" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="10" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7">
         <v>10230.209999999999</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:28" ht="7.15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:28" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13" t="s">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13" t="s">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13" t="s">
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O12" s="13"/>
+      <c r="O12" s="9"/>
       <c r="P12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q12" s="13" t="s">
+      <c r="Q12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R12" s="13"/>
+      <c r="R12" s="9"/>
       <c r="S12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T12" s="13" t="s">
+      <c r="T12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
       <c r="Y12" t="s">
         <v>381</v>
       </c>
@@ -2296,47 +2281,47 @@
       </c>
     </row>
     <row r="13" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="11"/>
+      <c r="E13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10">
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12">
         <v>249.95</v>
       </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="9" t="s">
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O13" s="9"/>
+      <c r="O13" s="11"/>
       <c r="P13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Q13" s="9" t="s">
+      <c r="Q13" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="R13" s="9"/>
+      <c r="R13" s="11"/>
       <c r="S13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="T13" s="11" t="s">
+      <c r="T13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
       <c r="Z13" t="s">
         <v>383</v>
       </c>
@@ -2345,49 +2330,49 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="11"/>
+      <c r="E14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10">
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12">
         <v>1673</v>
       </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="9" t="s">
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O14" s="9"/>
+      <c r="O14" s="11"/>
       <c r="P14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q14" s="9" t="s">
+      <c r="Q14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R14" s="9"/>
+      <c r="R14" s="11"/>
       <c r="S14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="11" t="s">
+      <c r="T14" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
       <c r="Y14" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="Z14" t="s">
         <v>383</v>
@@ -2397,49 +2382,49 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9" t="s">
+      <c r="D15" s="11"/>
+      <c r="E15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10">
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12">
         <v>1673</v>
       </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="9" t="s">
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O15" s="9"/>
+      <c r="O15" s="11"/>
       <c r="P15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q15" s="9" t="s">
+      <c r="Q15" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R15" s="9"/>
+      <c r="R15" s="11"/>
       <c r="S15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T15" s="11" t="s">
+      <c r="T15" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
       <c r="Y15" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="Z15" t="s">
         <v>383</v>
@@ -2449,49 +2434,49 @@
       </c>
     </row>
     <row r="16" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
+      <c r="D16" s="11"/>
+      <c r="E16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10">
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12">
         <v>1908</v>
       </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="9" t="s">
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O16" s="9"/>
+      <c r="O16" s="11"/>
       <c r="P16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q16" s="9" t="s">
+      <c r="Q16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R16" s="9"/>
+      <c r="R16" s="11"/>
       <c r="S16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T16" s="11" t="s">
+      <c r="T16" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
       <c r="Y16" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="Z16" t="s">
         <v>383</v>
@@ -2501,47 +2486,47 @@
       </c>
     </row>
     <row r="17" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9" t="s">
+      <c r="D17" s="11"/>
+      <c r="E17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10">
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12">
         <v>4714.96</v>
       </c>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="9" t="s">
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="O17" s="9"/>
+      <c r="O17" s="11"/>
       <c r="P17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Q17" s="9" t="s">
+      <c r="Q17" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="R17" s="9"/>
+      <c r="R17" s="11"/>
       <c r="S17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="T17" s="11" t="s">
+      <c r="T17" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
       <c r="Z17" t="s">
         <v>383</v>
       </c>
@@ -2550,47 +2535,47 @@
       </c>
     </row>
     <row r="18" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9" t="s">
+      <c r="D18" s="11"/>
+      <c r="E18" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10">
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12">
         <v>43.21</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="9" t="s">
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="O18" s="9"/>
+      <c r="O18" s="11"/>
       <c r="P18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Q18" s="9" t="s">
+      <c r="Q18" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="R18" s="9"/>
+      <c r="R18" s="11"/>
       <c r="S18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="T18" s="11" t="s">
+      <c r="T18" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
       <c r="Z18" t="s">
         <v>383</v>
       </c>
@@ -2599,49 +2584,49 @@
       </c>
     </row>
     <row r="19" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9" t="s">
+      <c r="D19" s="11"/>
+      <c r="E19" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10">
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12">
         <v>238.1</v>
       </c>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="9" t="s">
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O19" s="9"/>
+      <c r="O19" s="11"/>
       <c r="P19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q19" s="9" t="s">
+      <c r="Q19" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R19" s="9"/>
+      <c r="R19" s="11"/>
       <c r="S19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T19" s="11" t="s">
+      <c r="T19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
       <c r="Y19" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="Z19" t="s">
         <v>383</v>
@@ -2651,49 +2636,49 @@
       </c>
     </row>
     <row r="20" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9" t="s">
+      <c r="D20" s="11"/>
+      <c r="E20" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10">
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12">
         <v>2160.77</v>
       </c>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="9" t="s">
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O20" s="9"/>
+      <c r="O20" s="11"/>
       <c r="P20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q20" s="9" t="s">
+      <c r="Q20" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R20" s="9"/>
+      <c r="R20" s="11"/>
       <c r="S20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T20" s="11" t="s">
+      <c r="T20" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
       <c r="Y20" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="Z20" t="s">
         <v>383</v>
@@ -2703,49 +2688,49 @@
       </c>
     </row>
     <row r="21" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9" t="s">
+      <c r="D21" s="11"/>
+      <c r="E21" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10">
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12">
         <v>1200</v>
       </c>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="9" t="s">
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O21" s="9"/>
+      <c r="O21" s="11"/>
       <c r="P21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q21" s="9" t="s">
+      <c r="Q21" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R21" s="9"/>
+      <c r="R21" s="11"/>
       <c r="S21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T21" s="11" t="s">
+      <c r="T21" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
       <c r="Y21" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="Z21" t="s">
         <v>383</v>
@@ -2755,47 +2740,47 @@
       </c>
     </row>
     <row r="22" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9" t="s">
+      <c r="B22" s="10"/>
+      <c r="C22" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9" t="s">
+      <c r="D22" s="11"/>
+      <c r="E22" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10">
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12">
         <v>14.56</v>
       </c>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="9" t="s">
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O22" s="9"/>
+      <c r="O22" s="11"/>
       <c r="P22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Q22" s="9" t="s">
+      <c r="Q22" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="R22" s="9"/>
+      <c r="R22" s="11"/>
       <c r="S22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="T22" s="11" t="s">
+      <c r="T22" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
       <c r="Z22" t="s">
         <v>383</v>
       </c>
@@ -2804,47 +2789,47 @@
       </c>
     </row>
     <row r="23" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9" t="s">
+      <c r="D23" s="11"/>
+      <c r="E23" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="10">
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12">
         <v>10025</v>
       </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="9" t="s">
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="O23" s="9"/>
+      <c r="O23" s="11"/>
       <c r="P23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q23" s="9" t="s">
+      <c r="Q23" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="R23" s="9"/>
+      <c r="R23" s="11"/>
       <c r="S23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T23" s="11" t="s">
+      <c r="T23" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
       <c r="Z23" t="s">
         <v>383</v>
       </c>
@@ -2853,49 +2838,49 @@
       </c>
     </row>
     <row r="24" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9" t="s">
+      <c r="B24" s="10"/>
+      <c r="C24" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9" t="s">
+      <c r="D24" s="11"/>
+      <c r="E24" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10">
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12">
         <v>1082.06</v>
       </c>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="9" t="s">
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O24" s="9"/>
+      <c r="O24" s="11"/>
       <c r="P24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q24" s="9" t="s">
+      <c r="Q24" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R24" s="9"/>
+      <c r="R24" s="11"/>
       <c r="S24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T24" s="11" t="s">
+      <c r="T24" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
       <c r="Y24" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="Z24" t="s">
         <v>383</v>
@@ -2906,55 +2891,55 @@
     </row>
     <row r="25" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="26" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="W26" s="7" t="s">
+      <c r="W26" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="X26" s="7"/>
+      <c r="X26" s="14"/>
     </row>
     <row r="27" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9" t="s">
+      <c r="B27" s="10"/>
+      <c r="C27" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9" t="s">
+      <c r="D27" s="11"/>
+      <c r="E27" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10">
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12">
         <v>2000</v>
       </c>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="9" t="s">
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O27" s="9"/>
+      <c r="O27" s="11"/>
       <c r="P27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q27" s="9" t="s">
+      <c r="Q27" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R27" s="9"/>
+      <c r="R27" s="11"/>
       <c r="S27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T27" s="11" t="s">
+      <c r="T27" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
       <c r="Y27" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="Z27" t="s">
         <v>383</v>
@@ -2964,49 +2949,49 @@
       </c>
     </row>
     <row r="28" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9" t="s">
+      <c r="B28" s="10"/>
+      <c r="C28" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9" t="s">
+      <c r="D28" s="11"/>
+      <c r="E28" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10">
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12">
         <v>2254</v>
       </c>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="9" t="s">
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O28" s="9"/>
+      <c r="O28" s="11"/>
       <c r="P28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q28" s="9" t="s">
+      <c r="Q28" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R28" s="9"/>
+      <c r="R28" s="11"/>
       <c r="S28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T28" s="11" t="s">
+      <c r="T28" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
       <c r="Y28" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="Z28" t="s">
         <v>383</v>
@@ -3016,47 +3001,47 @@
       </c>
     </row>
     <row r="29" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9" t="s">
+      <c r="B29" s="10"/>
+      <c r="C29" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
+      <c r="D29" s="11"/>
+      <c r="E29" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10">
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12">
         <v>283.89999999999998</v>
       </c>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="9" t="s">
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O29" s="9"/>
+      <c r="O29" s="11"/>
       <c r="P29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q29" s="9" t="s">
+      <c r="Q29" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R29" s="9"/>
+      <c r="R29" s="11"/>
       <c r="S29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="11" t="s">
+      <c r="T29" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
       <c r="Y29" t="s">
         <v>384</v>
       </c>
@@ -3068,49 +3053,49 @@
       </c>
     </row>
     <row r="30" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9" t="s">
+      <c r="B30" s="10"/>
+      <c r="C30" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9" t="s">
+      <c r="D30" s="11"/>
+      <c r="E30" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10">
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12">
         <v>1633</v>
       </c>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="9" t="s">
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O30" s="9"/>
+      <c r="O30" s="11"/>
       <c r="P30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q30" s="9" t="s">
+      <c r="Q30" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R30" s="9"/>
+      <c r="R30" s="11"/>
       <c r="S30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T30" s="11" t="s">
+      <c r="T30" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
       <c r="Y30" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="Z30" t="s">
         <v>383</v>
@@ -3120,49 +3105,49 @@
       </c>
     </row>
     <row r="31" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9" t="s">
+      <c r="B31" s="10"/>
+      <c r="C31" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
+      <c r="D31" s="11"/>
+      <c r="E31" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10">
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12">
         <v>4457</v>
       </c>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="9" t="s">
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O31" s="9"/>
+      <c r="O31" s="11"/>
       <c r="P31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q31" s="9" t="s">
+      <c r="Q31" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R31" s="9"/>
+      <c r="R31" s="11"/>
       <c r="S31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T31" s="11" t="s">
+      <c r="T31" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
       <c r="Y31" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="Z31" t="s">
         <v>383</v>
@@ -3172,49 +3157,49 @@
       </c>
     </row>
     <row r="32" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9" t="s">
+      <c r="B32" s="10"/>
+      <c r="C32" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9" t="s">
+      <c r="D32" s="11"/>
+      <c r="E32" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10">
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12">
         <v>4079.45</v>
       </c>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="9" t="s">
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O32" s="9"/>
+      <c r="O32" s="11"/>
       <c r="P32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q32" s="9" t="s">
+      <c r="Q32" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R32" s="9"/>
+      <c r="R32" s="11"/>
       <c r="S32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T32" s="11" t="s">
+      <c r="T32" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
       <c r="Y32" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="Z32" t="s">
         <v>383</v>
@@ -3224,47 +3209,47 @@
       </c>
     </row>
     <row r="33" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="9" t="s">
+      <c r="B33" s="10"/>
+      <c r="C33" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9" t="s">
+      <c r="D33" s="11"/>
+      <c r="E33" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10">
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12">
         <v>2142.9</v>
       </c>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="9" t="s">
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O33" s="9"/>
+      <c r="O33" s="11"/>
       <c r="P33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q33" s="9" t="s">
+      <c r="Q33" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R33" s="9"/>
+      <c r="R33" s="11"/>
       <c r="S33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T33" s="11" t="s">
+      <c r="T33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
       <c r="Y33" t="s">
         <v>385</v>
       </c>
@@ -3276,49 +3261,49 @@
       </c>
     </row>
     <row r="34" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="9" t="s">
+      <c r="B34" s="10"/>
+      <c r="C34" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9" t="s">
+      <c r="D34" s="11"/>
+      <c r="E34" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10">
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12">
         <v>1240</v>
       </c>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="9" t="s">
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O34" s="9"/>
+      <c r="O34" s="11"/>
       <c r="P34" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q34" s="9" t="s">
+      <c r="Q34" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R34" s="9"/>
+      <c r="R34" s="11"/>
       <c r="S34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T34" s="11" t="s">
+      <c r="T34" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
       <c r="Y34" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="Z34" t="s">
         <v>383</v>
@@ -3328,49 +3313,49 @@
       </c>
     </row>
     <row r="35" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="9" t="s">
+      <c r="B35" s="10"/>
+      <c r="C35" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9" t="s">
+      <c r="D35" s="11"/>
+      <c r="E35" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10">
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12">
         <v>2000</v>
       </c>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="9" t="s">
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O35" s="9"/>
+      <c r="O35" s="11"/>
       <c r="P35" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q35" s="9" t="s">
+      <c r="Q35" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R35" s="9"/>
+      <c r="R35" s="11"/>
       <c r="S35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T35" s="11" t="s">
+      <c r="T35" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="11"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
       <c r="Y35" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="Z35" t="s">
         <v>383</v>
@@ -3380,49 +3365,49 @@
       </c>
     </row>
     <row r="36" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="9" t="s">
+      <c r="B36" s="10"/>
+      <c r="C36" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9" t="s">
+      <c r="D36" s="11"/>
+      <c r="E36" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10">
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12">
         <v>4234.2</v>
       </c>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="9" t="s">
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O36" s="9"/>
+      <c r="O36" s="11"/>
       <c r="P36" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q36" s="9" t="s">
+      <c r="Q36" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R36" s="9"/>
+      <c r="R36" s="11"/>
       <c r="S36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T36" s="11" t="s">
+      <c r="T36" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="U36" s="11"/>
-      <c r="V36" s="11"/>
-      <c r="W36" s="11"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
       <c r="Y36" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="Z36" t="s">
         <v>383</v>
@@ -3432,49 +3417,49 @@
       </c>
     </row>
     <row r="37" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="9" t="s">
+      <c r="B37" s="10"/>
+      <c r="C37" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9" t="s">
+      <c r="D37" s="11"/>
+      <c r="E37" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10">
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12">
         <v>1665</v>
       </c>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="9" t="s">
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O37" s="9"/>
+      <c r="O37" s="11"/>
       <c r="P37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q37" s="9" t="s">
+      <c r="Q37" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R37" s="9"/>
+      <c r="R37" s="11"/>
       <c r="S37" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T37" s="11" t="s">
+      <c r="T37" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="U37" s="11"/>
-      <c r="V37" s="11"/>
-      <c r="W37" s="11"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="13"/>
       <c r="Y37" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="Z37" t="s">
         <v>383</v>
@@ -3484,47 +3469,47 @@
       </c>
     </row>
     <row r="38" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="9" t="s">
+      <c r="B38" s="10"/>
+      <c r="C38" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9" t="s">
+      <c r="D38" s="11"/>
+      <c r="E38" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10">
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12">
         <v>500</v>
       </c>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="9" t="s">
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O38" s="9"/>
+      <c r="O38" s="11"/>
       <c r="P38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q38" s="9" t="s">
+      <c r="Q38" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R38" s="9"/>
+      <c r="R38" s="11"/>
       <c r="S38" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T38" s="11" t="s">
+      <c r="T38" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="U38" s="11"/>
-      <c r="V38" s="11"/>
-      <c r="W38" s="11"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
       <c r="Y38" t="s">
         <v>386</v>
       </c>
@@ -3536,49 +3521,49 @@
       </c>
     </row>
     <row r="39" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="9" t="s">
+      <c r="B39" s="10"/>
+      <c r="C39" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9" t="s">
+      <c r="D39" s="11"/>
+      <c r="E39" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10">
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12">
         <v>1831</v>
       </c>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="9" t="s">
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O39" s="9"/>
+      <c r="O39" s="11"/>
       <c r="P39" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q39" s="9" t="s">
+      <c r="Q39" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R39" s="9"/>
+      <c r="R39" s="11"/>
       <c r="S39" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T39" s="11" t="s">
+      <c r="T39" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="U39" s="11"/>
-      <c r="V39" s="11"/>
-      <c r="W39" s="11"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
       <c r="Y39" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="Z39" t="s">
         <v>383</v>
@@ -3588,47 +3573,47 @@
       </c>
     </row>
     <row r="40" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="9" t="s">
+      <c r="B40" s="10"/>
+      <c r="C40" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9" t="s">
+      <c r="D40" s="11"/>
+      <c r="E40" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10">
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12">
         <v>1604.75</v>
       </c>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="9" t="s">
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O40" s="9"/>
+      <c r="O40" s="11"/>
       <c r="P40" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q40" s="9" t="s">
+      <c r="Q40" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R40" s="9"/>
+      <c r="R40" s="11"/>
       <c r="S40" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T40" s="11" t="s">
+      <c r="T40" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="U40" s="11"/>
-      <c r="V40" s="11"/>
-      <c r="W40" s="11"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="13"/>
       <c r="Y40" t="s">
         <v>387</v>
       </c>
@@ -3640,49 +3625,49 @@
       </c>
     </row>
     <row r="41" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="9" t="s">
+      <c r="B41" s="10"/>
+      <c r="C41" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9" t="s">
+      <c r="D41" s="11"/>
+      <c r="E41" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10">
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12">
         <v>1331</v>
       </c>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="9" t="s">
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O41" s="9"/>
+      <c r="O41" s="11"/>
       <c r="P41" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q41" s="9" t="s">
+      <c r="Q41" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R41" s="9"/>
+      <c r="R41" s="11"/>
       <c r="S41" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T41" s="11" t="s">
+      <c r="T41" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="U41" s="11"/>
-      <c r="V41" s="11"/>
-      <c r="W41" s="11"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+      <c r="W41" s="13"/>
       <c r="Y41" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="Z41" t="s">
         <v>383</v>
@@ -3692,47 +3677,47 @@
       </c>
     </row>
     <row r="42" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="9" t="s">
+      <c r="B42" s="10"/>
+      <c r="C42" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9" t="s">
+      <c r="D42" s="11"/>
+      <c r="E42" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10">
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12">
         <v>1400</v>
       </c>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="9" t="s">
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O42" s="9"/>
+      <c r="O42" s="11"/>
       <c r="P42" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q42" s="9" t="s">
+      <c r="Q42" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R42" s="9"/>
+      <c r="R42" s="11"/>
       <c r="S42" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T42" s="11" t="s">
+      <c r="T42" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="U42" s="11"/>
-      <c r="V42" s="11"/>
-      <c r="W42" s="11"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="13"/>
+      <c r="W42" s="13"/>
       <c r="Y42" t="s">
         <v>388</v>
       </c>
@@ -3745,55 +3730,55 @@
     </row>
     <row r="43" spans="1:28" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="44" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="W44" s="7" t="s">
+      <c r="W44" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="X44" s="7"/>
+      <c r="X44" s="14"/>
     </row>
     <row r="45" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="9" t="s">
+      <c r="B45" s="10"/>
+      <c r="C45" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9" t="s">
+      <c r="D45" s="11"/>
+      <c r="E45" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10">
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12">
         <v>7689.79</v>
       </c>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="9" t="s">
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O45" s="9"/>
+      <c r="O45" s="11"/>
       <c r="P45" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q45" s="9" t="s">
+      <c r="Q45" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R45" s="9"/>
+      <c r="R45" s="11"/>
       <c r="S45" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T45" s="11" t="s">
+      <c r="T45" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="U45" s="11"/>
-      <c r="V45" s="11"/>
-      <c r="W45" s="11"/>
+      <c r="U45" s="13"/>
+      <c r="V45" s="13"/>
+      <c r="W45" s="13"/>
       <c r="Y45" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="Z45" t="s">
         <v>383</v>
@@ -3803,47 +3788,47 @@
       </c>
     </row>
     <row r="46" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="9" t="s">
+      <c r="B46" s="10"/>
+      <c r="C46" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9" t="s">
+      <c r="D46" s="11"/>
+      <c r="E46" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10">
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12">
         <v>58.2</v>
       </c>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="9" t="s">
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O46" s="9"/>
+      <c r="O46" s="11"/>
       <c r="P46" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q46" s="9" t="s">
+      <c r="Q46" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R46" s="9"/>
+      <c r="R46" s="11"/>
       <c r="S46" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T46" s="11" t="s">
+      <c r="T46" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="U46" s="11"/>
-      <c r="V46" s="11"/>
-      <c r="W46" s="11"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="13"/>
+      <c r="W46" s="13"/>
       <c r="Y46" t="s">
         <v>389</v>
       </c>
@@ -3855,49 +3840,49 @@
       </c>
     </row>
     <row r="47" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="9" t="s">
+      <c r="B47" s="10"/>
+      <c r="C47" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9" t="s">
+      <c r="D47" s="11"/>
+      <c r="E47" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10">
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12">
         <v>1139.0999999999999</v>
       </c>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="9" t="s">
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="O47" s="9"/>
+      <c r="O47" s="11"/>
       <c r="P47" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="Q47" s="9" t="s">
+      <c r="Q47" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="R47" s="9"/>
+      <c r="R47" s="11"/>
       <c r="S47" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T47" s="11" t="s">
+      <c r="T47" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="U47" s="11"/>
-      <c r="V47" s="11"/>
-      <c r="W47" s="11"/>
+      <c r="U47" s="13"/>
+      <c r="V47" s="13"/>
+      <c r="W47" s="13"/>
       <c r="Y47" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="Z47" t="s">
         <v>383</v>
@@ -3907,47 +3892,47 @@
       </c>
     </row>
     <row r="48" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="9" t="s">
+      <c r="B48" s="10"/>
+      <c r="C48" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9" t="s">
+      <c r="D48" s="11"/>
+      <c r="E48" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10">
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12">
         <v>957.53</v>
       </c>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="9" t="s">
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="O48" s="9"/>
+      <c r="O48" s="11"/>
       <c r="P48" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q48" s="9" t="s">
+      <c r="Q48" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="R48" s="9"/>
+      <c r="R48" s="11"/>
       <c r="S48" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T48" s="11" t="s">
+      <c r="T48" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="U48" s="11"/>
-      <c r="V48" s="11"/>
-      <c r="W48" s="11"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13"/>
       <c r="Z48" t="s">
         <v>383</v>
       </c>
@@ -3956,47 +3941,47 @@
       </c>
     </row>
     <row r="49" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="9" t="s">
+      <c r="B49" s="10"/>
+      <c r="C49" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9" t="s">
+      <c r="D49" s="11"/>
+      <c r="E49" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10">
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12">
         <v>2261</v>
       </c>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="9" t="s">
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="O49" s="9"/>
+      <c r="O49" s="11"/>
       <c r="P49" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="Q49" s="9" t="s">
+      <c r="Q49" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="R49" s="9"/>
+      <c r="R49" s="11"/>
       <c r="S49" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T49" s="11" t="s">
+      <c r="T49" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="U49" s="11"/>
-      <c r="V49" s="11"/>
-      <c r="W49" s="11"/>
+      <c r="U49" s="13"/>
+      <c r="V49" s="13"/>
+      <c r="W49" s="13"/>
       <c r="Y49" t="s">
         <v>390</v>
       </c>
@@ -4008,49 +3993,49 @@
       </c>
     </row>
     <row r="50" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="9" t="s">
+      <c r="B50" s="10"/>
+      <c r="C50" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9" t="s">
+      <c r="D50" s="11"/>
+      <c r="E50" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10">
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12">
         <v>970</v>
       </c>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="9" t="s">
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="O50" s="9"/>
+      <c r="O50" s="11"/>
       <c r="P50" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Q50" s="9" t="s">
+      <c r="Q50" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="R50" s="9"/>
+      <c r="R50" s="11"/>
       <c r="S50" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T50" s="11" t="s">
+      <c r="T50" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="U50" s="11"/>
-      <c r="V50" s="11"/>
-      <c r="W50" s="11"/>
+      <c r="U50" s="13"/>
+      <c r="V50" s="13"/>
+      <c r="W50" s="13"/>
       <c r="Y50" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="Z50" t="s">
         <v>383</v>
@@ -4060,47 +4045,47 @@
       </c>
     </row>
     <row r="51" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="9" t="s">
+      <c r="B51" s="10"/>
+      <c r="C51" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9" t="s">
+      <c r="D51" s="11"/>
+      <c r="E51" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10">
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12">
         <v>14.35</v>
       </c>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="9" t="s">
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="O51" s="9"/>
+      <c r="O51" s="11"/>
       <c r="P51" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Q51" s="9" t="s">
+      <c r="Q51" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="R51" s="9"/>
+      <c r="R51" s="11"/>
       <c r="S51" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T51" s="11" t="s">
+      <c r="T51" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="U51" s="11"/>
-      <c r="V51" s="11"/>
-      <c r="W51" s="11"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="13"/>
+      <c r="W51" s="13"/>
       <c r="Y51" t="s">
         <v>391</v>
       </c>
@@ -4112,49 +4097,49 @@
       </c>
     </row>
     <row r="52" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="9" t="s">
+      <c r="B52" s="10"/>
+      <c r="C52" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9" t="s">
+      <c r="D52" s="11"/>
+      <c r="E52" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10">
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12">
         <v>14</v>
       </c>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="9" t="s">
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="O52" s="9"/>
+      <c r="O52" s="11"/>
       <c r="P52" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Q52" s="9" t="s">
+      <c r="Q52" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="R52" s="9"/>
+      <c r="R52" s="11"/>
       <c r="S52" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T52" s="11" t="s">
+      <c r="T52" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="U52" s="11"/>
-      <c r="V52" s="11"/>
-      <c r="W52" s="11"/>
+      <c r="U52" s="13"/>
+      <c r="V52" s="13"/>
+      <c r="W52" s="13"/>
       <c r="Y52" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="Z52" t="s">
         <v>383</v>
@@ -4164,49 +4149,49 @@
       </c>
     </row>
     <row r="53" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="9" t="s">
+      <c r="B53" s="10"/>
+      <c r="C53" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9" t="s">
+      <c r="D53" s="11"/>
+      <c r="E53" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10">
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12">
         <v>2214</v>
       </c>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="9" t="s">
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="O53" s="9"/>
+      <c r="O53" s="11"/>
       <c r="P53" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="Q53" s="9" t="s">
+      <c r="Q53" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="R53" s="9"/>
+      <c r="R53" s="11"/>
       <c r="S53" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T53" s="11" t="s">
+      <c r="T53" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="U53" s="11"/>
-      <c r="V53" s="11"/>
-      <c r="W53" s="11"/>
+      <c r="U53" s="13"/>
+      <c r="V53" s="13"/>
+      <c r="W53" s="13"/>
       <c r="Y53" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="Z53" t="s">
         <v>383</v>
@@ -4216,49 +4201,49 @@
       </c>
     </row>
     <row r="54" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="9" t="s">
+      <c r="B54" s="10"/>
+      <c r="C54" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9" t="s">
+      <c r="D54" s="11"/>
+      <c r="E54" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10">
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12">
         <v>1316.7</v>
       </c>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="9" t="s">
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="O54" s="9"/>
+      <c r="O54" s="11"/>
       <c r="P54" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q54" s="9" t="s">
+      <c r="Q54" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="R54" s="9"/>
+      <c r="R54" s="11"/>
       <c r="S54" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T54" s="11" t="s">
+      <c r="T54" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="U54" s="11"/>
-      <c r="V54" s="11"/>
-      <c r="W54" s="11"/>
+      <c r="U54" s="13"/>
+      <c r="V54" s="13"/>
+      <c r="W54" s="13"/>
       <c r="Y54" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="Z54" t="s">
         <v>383</v>
@@ -4268,47 +4253,47 @@
       </c>
     </row>
     <row r="55" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="9" t="s">
+      <c r="B55" s="10"/>
+      <c r="C55" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9" t="s">
+      <c r="D55" s="11"/>
+      <c r="E55" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10">
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12">
         <v>1782</v>
       </c>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="9" t="s">
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="O55" s="9"/>
+      <c r="O55" s="11"/>
       <c r="P55" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q55" s="9" t="s">
+      <c r="Q55" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="R55" s="9"/>
+      <c r="R55" s="11"/>
       <c r="S55" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T55" s="11" t="s">
+      <c r="T55" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="U55" s="11"/>
-      <c r="V55" s="11"/>
-      <c r="W55" s="11"/>
+      <c r="U55" s="13"/>
+      <c r="V55" s="13"/>
+      <c r="W55" s="13"/>
       <c r="Y55" t="s">
         <v>392</v>
       </c>
@@ -4320,49 +4305,49 @@
       </c>
     </row>
     <row r="56" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="9" t="s">
+      <c r="B56" s="10"/>
+      <c r="C56" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9" t="s">
+      <c r="D56" s="11"/>
+      <c r="E56" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10">
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12">
         <v>2369.66</v>
       </c>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="9" t="s">
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="O56" s="9"/>
+      <c r="O56" s="11"/>
       <c r="P56" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q56" s="9" t="s">
+      <c r="Q56" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="R56" s="9"/>
+      <c r="R56" s="11"/>
       <c r="S56" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T56" s="11" t="s">
+      <c r="T56" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="U56" s="11"/>
-      <c r="V56" s="11"/>
-      <c r="W56" s="11"/>
+      <c r="U56" s="13"/>
+      <c r="V56" s="13"/>
+      <c r="W56" s="13"/>
       <c r="Y56" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="Z56" t="s">
         <v>383</v>
@@ -4372,49 +4357,49 @@
       </c>
     </row>
     <row r="57" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="9" t="s">
+      <c r="B57" s="10"/>
+      <c r="C57" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9" t="s">
+      <c r="D57" s="11"/>
+      <c r="E57" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10">
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12">
         <v>3960</v>
       </c>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="9" t="s">
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="O57" s="9"/>
+      <c r="O57" s="11"/>
       <c r="P57" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q57" s="9" t="s">
+      <c r="Q57" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="R57" s="9"/>
+      <c r="R57" s="11"/>
       <c r="S57" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T57" s="11" t="s">
+      <c r="T57" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="U57" s="11"/>
-      <c r="V57" s="11"/>
-      <c r="W57" s="11"/>
+      <c r="U57" s="13"/>
+      <c r="V57" s="13"/>
+      <c r="W57" s="13"/>
       <c r="Y57" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Z57" t="s">
         <v>383</v>
@@ -4424,47 +4409,47 @@
       </c>
     </row>
     <row r="58" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="9" t="s">
+      <c r="B58" s="10"/>
+      <c r="C58" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9" t="s">
+      <c r="D58" s="11"/>
+      <c r="E58" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10">
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12">
         <v>773.39</v>
       </c>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="9" t="s">
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="O58" s="9"/>
+      <c r="O58" s="11"/>
       <c r="P58" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q58" s="9" t="s">
+      <c r="Q58" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="R58" s="9"/>
+      <c r="R58" s="11"/>
       <c r="S58" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T58" s="11" t="s">
+      <c r="T58" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="U58" s="11"/>
-      <c r="V58" s="11"/>
-      <c r="W58" s="11"/>
+      <c r="U58" s="13"/>
+      <c r="V58" s="13"/>
+      <c r="W58" s="13"/>
       <c r="Y58" t="s">
         <v>393</v>
       </c>
@@ -4476,47 +4461,47 @@
       </c>
     </row>
     <row r="59" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="9" t="s">
+      <c r="B59" s="10"/>
+      <c r="C59" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9" t="s">
+      <c r="D59" s="11"/>
+      <c r="E59" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10">
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12">
         <v>14.45</v>
       </c>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="9" t="s">
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="O59" s="9"/>
+      <c r="O59" s="11"/>
       <c r="P59" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q59" s="9" t="s">
+      <c r="Q59" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="R59" s="9"/>
+      <c r="R59" s="11"/>
       <c r="S59" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T59" s="11" t="s">
+      <c r="T59" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="U59" s="11"/>
-      <c r="V59" s="11"/>
-      <c r="W59" s="11"/>
+      <c r="U59" s="13"/>
+      <c r="V59" s="13"/>
+      <c r="W59" s="13"/>
       <c r="Y59" t="s">
         <v>394</v>
       </c>
@@ -4528,47 +4513,47 @@
       </c>
     </row>
     <row r="60" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="9" t="s">
+      <c r="B60" s="10"/>
+      <c r="C60" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9" t="s">
+      <c r="D60" s="11"/>
+      <c r="E60" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10">
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12">
         <v>656.86</v>
       </c>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="9" t="s">
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="O60" s="9"/>
+      <c r="O60" s="11"/>
       <c r="P60" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q60" s="9" t="s">
+      <c r="Q60" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="R60" s="9"/>
+      <c r="R60" s="11"/>
       <c r="S60" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T60" s="11" t="s">
+      <c r="T60" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="U60" s="11"/>
-      <c r="V60" s="11"/>
-      <c r="W60" s="11"/>
+      <c r="U60" s="13"/>
+      <c r="V60" s="13"/>
+      <c r="W60" s="13"/>
       <c r="Y60" t="s">
         <v>395</v>
       </c>
@@ -4581,53 +4566,53 @@
     </row>
     <row r="61" spans="1:27" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="62" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="W62" s="7" t="s">
+      <c r="W62" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="X62" s="7"/>
+      <c r="X62" s="14"/>
     </row>
     <row r="63" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="9" t="s">
+      <c r="B63" s="10"/>
+      <c r="C63" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9" t="s">
+      <c r="D63" s="11"/>
+      <c r="E63" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10">
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12">
         <v>1430.45</v>
       </c>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="9" t="s">
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="O63" s="9"/>
+      <c r="O63" s="11"/>
       <c r="P63" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q63" s="9" t="s">
+      <c r="Q63" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="R63" s="9"/>
+      <c r="R63" s="11"/>
       <c r="S63" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T63" s="11" t="s">
+      <c r="T63" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="U63" s="11"/>
-      <c r="V63" s="11"/>
-      <c r="W63" s="11"/>
+      <c r="U63" s="13"/>
+      <c r="V63" s="13"/>
+      <c r="W63" s="13"/>
       <c r="Y63" t="s">
         <v>396</v>
       </c>
@@ -4639,49 +4624,49 @@
       </c>
     </row>
     <row r="64" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="9" t="s">
+      <c r="B64" s="10"/>
+      <c r="C64" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9" t="s">
+      <c r="D64" s="11"/>
+      <c r="E64" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10">
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12">
         <v>2555.19</v>
       </c>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="9" t="s">
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="O64" s="9"/>
+      <c r="O64" s="11"/>
       <c r="P64" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q64" s="9" t="s">
+      <c r="Q64" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="R64" s="9"/>
+      <c r="R64" s="11"/>
       <c r="S64" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T64" s="11" t="s">
+      <c r="T64" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="U64" s="11"/>
-      <c r="V64" s="11"/>
-      <c r="W64" s="11"/>
+      <c r="U64" s="13"/>
+      <c r="V64" s="13"/>
+      <c r="W64" s="13"/>
       <c r="Y64" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="Z64" t="s">
         <v>383</v>
@@ -4691,49 +4676,49 @@
       </c>
     </row>
     <row r="65" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="9" t="s">
+      <c r="B65" s="10"/>
+      <c r="C65" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9" t="s">
+      <c r="D65" s="11"/>
+      <c r="E65" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10">
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12">
         <v>1330.56</v>
       </c>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="9" t="s">
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="O65" s="9"/>
+      <c r="O65" s="11"/>
       <c r="P65" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q65" s="9" t="s">
+      <c r="Q65" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="R65" s="9"/>
+      <c r="R65" s="11"/>
       <c r="S65" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T65" s="11" t="s">
+      <c r="T65" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="U65" s="11"/>
-      <c r="V65" s="11"/>
-      <c r="W65" s="11"/>
+      <c r="U65" s="13"/>
+      <c r="V65" s="13"/>
+      <c r="W65" s="13"/>
       <c r="Y65" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="Z65" t="s">
         <v>383</v>
@@ -4743,49 +4728,49 @@
       </c>
     </row>
     <row r="66" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="B66" s="8"/>
-      <c r="C66" s="9" t="s">
+      <c r="B66" s="10"/>
+      <c r="C66" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9" t="s">
+      <c r="D66" s="11"/>
+      <c r="E66" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10">
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12">
         <v>1698.43</v>
       </c>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="9" t="s">
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="O66" s="9"/>
+      <c r="O66" s="11"/>
       <c r="P66" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q66" s="9" t="s">
+      <c r="Q66" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="R66" s="9"/>
+      <c r="R66" s="11"/>
       <c r="S66" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T66" s="11" t="s">
+      <c r="T66" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="U66" s="11"/>
-      <c r="V66" s="11"/>
-      <c r="W66" s="11"/>
+      <c r="U66" s="13"/>
+      <c r="V66" s="13"/>
+      <c r="W66" s="13"/>
       <c r="Y66" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="Z66" t="s">
         <v>383</v>
@@ -4795,47 +4780,47 @@
       </c>
     </row>
     <row r="67" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="9" t="s">
+      <c r="B67" s="10"/>
+      <c r="C67" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9" t="s">
+      <c r="D67" s="11"/>
+      <c r="E67" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10">
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12">
         <v>1376.1</v>
       </c>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="9" t="s">
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="O67" s="9"/>
+      <c r="O67" s="11"/>
       <c r="P67" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q67" s="9" t="s">
+      <c r="Q67" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="R67" s="9"/>
+      <c r="R67" s="11"/>
       <c r="S67" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T67" s="11" t="s">
+      <c r="T67" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="U67" s="11"/>
-      <c r="V67" s="11"/>
-      <c r="W67" s="11"/>
+      <c r="U67" s="13"/>
+      <c r="V67" s="13"/>
+      <c r="W67" s="13"/>
       <c r="Y67" t="s">
         <v>397</v>
       </c>
@@ -4847,47 +4832,47 @@
       </c>
     </row>
     <row r="68" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="B68" s="8"/>
-      <c r="C68" s="9" t="s">
+      <c r="B68" s="10"/>
+      <c r="C68" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9" t="s">
+      <c r="D68" s="11"/>
+      <c r="E68" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10">
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12">
         <v>14.85</v>
       </c>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="9" t="s">
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="O68" s="9"/>
+      <c r="O68" s="11"/>
       <c r="P68" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q68" s="9" t="s">
+      <c r="Q68" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="R68" s="9"/>
+      <c r="R68" s="11"/>
       <c r="S68" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T68" s="11" t="s">
+      <c r="T68" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="U68" s="11"/>
-      <c r="V68" s="11"/>
-      <c r="W68" s="11"/>
+      <c r="U68" s="13"/>
+      <c r="V68" s="13"/>
+      <c r="W68" s="13"/>
       <c r="Y68" t="s">
         <v>398</v>
       </c>
@@ -4899,47 +4884,47 @@
       </c>
     </row>
     <row r="69" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="9" t="s">
+      <c r="B69" s="10"/>
+      <c r="C69" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9" t="s">
+      <c r="D69" s="11"/>
+      <c r="E69" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10">
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12">
         <v>1810.71</v>
       </c>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="9" t="s">
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="O69" s="9"/>
+      <c r="O69" s="11"/>
       <c r="P69" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q69" s="9" t="s">
+      <c r="Q69" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="R69" s="9"/>
+      <c r="R69" s="11"/>
       <c r="S69" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="T69" s="11" t="s">
+      <c r="T69" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="U69" s="11"/>
-      <c r="V69" s="11"/>
-      <c r="W69" s="11"/>
+      <c r="U69" s="13"/>
+      <c r="V69" s="13"/>
+      <c r="W69" s="13"/>
       <c r="Y69" t="s">
         <v>399</v>
       </c>
@@ -4951,49 +4936,49 @@
       </c>
     </row>
     <row r="70" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="9" t="s">
+      <c r="B70" s="10"/>
+      <c r="C70" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9" t="s">
+      <c r="D70" s="11"/>
+      <c r="E70" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10">
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12">
         <v>1666.17</v>
       </c>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10"/>
-      <c r="N70" s="9" t="s">
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="O70" s="9"/>
+      <c r="O70" s="11"/>
       <c r="P70" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q70" s="9" t="s">
+      <c r="Q70" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="R70" s="9"/>
+      <c r="R70" s="11"/>
       <c r="S70" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="T70" s="11" t="s">
+      <c r="T70" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="U70" s="11"/>
-      <c r="V70" s="11"/>
-      <c r="W70" s="11"/>
+      <c r="U70" s="13"/>
+      <c r="V70" s="13"/>
+      <c r="W70" s="13"/>
       <c r="Y70" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="Z70" t="s">
         <v>383</v>
@@ -5003,90 +4988,93 @@
       </c>
     </row>
     <row r="71" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="9" t="s">
+      <c r="B71" s="10"/>
+      <c r="C71" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9" t="s">
+      <c r="D71" s="11"/>
+      <c r="E71" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10">
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12">
         <v>14.85</v>
       </c>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="9" t="s">
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="O71" s="9"/>
+      <c r="O71" s="11"/>
       <c r="P71" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q71" s="9" t="s">
+      <c r="Q71" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="R71" s="9"/>
+      <c r="R71" s="11"/>
       <c r="S71" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="T71" s="11" t="s">
+      <c r="T71" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="U71" s="11"/>
-      <c r="V71" s="11"/>
-      <c r="W71" s="11"/>
+      <c r="U71" s="13"/>
+      <c r="V71" s="13"/>
+      <c r="W71" s="13"/>
+      <c r="Z71" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="72" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="9" t="s">
+      <c r="B72" s="10"/>
+      <c r="C72" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9" t="s">
+      <c r="D72" s="11"/>
+      <c r="E72" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="10">
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="12">
         <v>50125</v>
       </c>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="9" t="s">
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="O72" s="9"/>
+      <c r="O72" s="11"/>
       <c r="P72" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="Q72" s="9" t="s">
+      <c r="Q72" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="R72" s="9"/>
+      <c r="R72" s="11"/>
       <c r="S72" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="T72" s="11" t="s">
+      <c r="T72" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="U72" s="11"/>
-      <c r="V72" s="11"/>
-      <c r="W72" s="11"/>
+      <c r="U72" s="13"/>
+      <c r="V72" s="13"/>
+      <c r="W72" s="13"/>
       <c r="Z72" t="s">
         <v>383</v>
       </c>
@@ -5095,47 +5083,47 @@
       </c>
     </row>
     <row r="73" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="9" t="s">
+      <c r="B73" s="10"/>
+      <c r="C73" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9" t="s">
+      <c r="D73" s="11"/>
+      <c r="E73" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="10">
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="12">
         <v>200</v>
       </c>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="10"/>
-      <c r="N73" s="9" t="s">
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="O73" s="9"/>
+      <c r="O73" s="11"/>
       <c r="P73" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="Q73" s="9" t="s">
+      <c r="Q73" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="R73" s="9"/>
+      <c r="R73" s="11"/>
       <c r="S73" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="T73" s="11" t="s">
+      <c r="T73" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="U73" s="11"/>
-      <c r="V73" s="11"/>
-      <c r="W73" s="11"/>
+      <c r="U73" s="13"/>
+      <c r="V73" s="13"/>
+      <c r="W73" s="13"/>
       <c r="Z73" t="s">
         <v>383</v>
       </c>
@@ -5144,96 +5132,93 @@
       </c>
     </row>
     <row r="74" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="9" t="s">
+      <c r="B74" s="10"/>
+      <c r="C74" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9" t="s">
+      <c r="D74" s="11"/>
+      <c r="E74" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10">
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12">
         <v>5000</v>
       </c>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="9" t="s">
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="O74" s="9"/>
+      <c r="O74" s="11"/>
       <c r="P74" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="Q74" s="9" t="s">
+      <c r="Q74" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="R74" s="9"/>
+      <c r="R74" s="11"/>
       <c r="S74" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="T74" s="11" t="s">
+      <c r="T74" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="U74" s="11"/>
-      <c r="V74" s="11"/>
-      <c r="W74" s="11"/>
-      <c r="Y74" t="s">
-        <v>422</v>
-      </c>
-      <c r="AA74">
-        <v>5000</v>
+      <c r="U74" s="13"/>
+      <c r="V74" s="13"/>
+      <c r="W74" s="13"/>
+      <c r="Z74" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="75" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B75" s="8"/>
-      <c r="C75" s="9" t="s">
+      <c r="B75" s="10"/>
+      <c r="C75" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9" t="s">
+      <c r="D75" s="11"/>
+      <c r="E75" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="10">
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="12">
         <v>15000</v>
       </c>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="10"/>
-      <c r="N75" s="9" t="s">
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="O75" s="9"/>
+      <c r="O75" s="11"/>
       <c r="P75" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="Q75" s="9" t="s">
+      <c r="Q75" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="R75" s="9"/>
+      <c r="R75" s="11"/>
       <c r="S75" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="T75" s="11" t="s">
+      <c r="T75" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="U75" s="11"/>
-      <c r="V75" s="11"/>
-      <c r="W75" s="11"/>
+      <c r="U75" s="13"/>
+      <c r="V75" s="13"/>
+      <c r="W75" s="13"/>
       <c r="Z75" t="s">
         <v>383</v>
       </c>
@@ -5242,47 +5227,47 @@
       </c>
     </row>
     <row r="76" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="B76" s="8"/>
-      <c r="C76" s="9" t="s">
+      <c r="B76" s="10"/>
+      <c r="C76" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9" t="s">
+      <c r="D76" s="11"/>
+      <c r="E76" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10">
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12">
         <v>122798.08</v>
       </c>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="9" t="s">
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="O76" s="9"/>
+      <c r="O76" s="11"/>
       <c r="P76" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="Q76" s="9" t="s">
+      <c r="Q76" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="R76" s="9"/>
+      <c r="R76" s="11"/>
       <c r="S76" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="T76" s="11" t="s">
+      <c r="T76" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="U76" s="11"/>
-      <c r="V76" s="11"/>
-      <c r="W76" s="11"/>
+      <c r="U76" s="13"/>
+      <c r="V76" s="13"/>
+      <c r="W76" s="13"/>
       <c r="Z76" t="s">
         <v>383</v>
       </c>
@@ -5291,47 +5276,47 @@
       </c>
     </row>
     <row r="77" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="B77" s="8"/>
-      <c r="C77" s="9" t="s">
+      <c r="B77" s="10"/>
+      <c r="C77" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9" t="s">
+      <c r="D77" s="11"/>
+      <c r="E77" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="10"/>
-      <c r="K77" s="10">
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12">
         <v>119908.71</v>
       </c>
-      <c r="L77" s="10"/>
-      <c r="M77" s="10"/>
-      <c r="N77" s="9" t="s">
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="O77" s="9"/>
+      <c r="O77" s="11"/>
       <c r="P77" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="Q77" s="9" t="s">
+      <c r="Q77" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="R77" s="9"/>
+      <c r="R77" s="11"/>
       <c r="S77" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="T77" s="11" t="s">
+      <c r="T77" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="U77" s="11"/>
-      <c r="V77" s="11"/>
-      <c r="W77" s="11"/>
+      <c r="U77" s="13"/>
+      <c r="V77" s="13"/>
+      <c r="W77" s="13"/>
       <c r="Z77" t="s">
         <v>383</v>
       </c>
@@ -5340,47 +5325,47 @@
       </c>
     </row>
     <row r="78" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="8" t="s">
+      <c r="A78" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="B78" s="8"/>
-      <c r="C78" s="9" t="s">
+      <c r="B78" s="10"/>
+      <c r="C78" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9" t="s">
+      <c r="D78" s="11"/>
+      <c r="E78" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="10">
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12">
         <v>100542.42</v>
       </c>
-      <c r="L78" s="10"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="9" t="s">
+      <c r="L78" s="12"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="O78" s="9"/>
+      <c r="O78" s="11"/>
       <c r="P78" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="Q78" s="9" t="s">
+      <c r="Q78" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="R78" s="9"/>
+      <c r="R78" s="11"/>
       <c r="S78" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="T78" s="11" t="s">
+      <c r="T78" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="U78" s="11"/>
-      <c r="V78" s="11"/>
-      <c r="W78" s="11"/>
+      <c r="U78" s="13"/>
+      <c r="V78" s="13"/>
+      <c r="W78" s="13"/>
       <c r="Z78" t="s">
         <v>383</v>
       </c>
@@ -5390,151 +5375,145 @@
     </row>
     <row r="79" spans="1:28" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="80" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="W80" s="7" t="s">
+      <c r="W80" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="X80" s="7"/>
+      <c r="X80" s="14"/>
     </row>
     <row r="81" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="B81" s="8"/>
-      <c r="C81" s="9" t="s">
+      <c r="B81" s="10"/>
+      <c r="C81" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9" t="s">
+      <c r="D81" s="11"/>
+      <c r="E81" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="10"/>
-      <c r="K81" s="10">
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12">
         <v>2632.42</v>
       </c>
-      <c r="L81" s="10"/>
-      <c r="M81" s="10"/>
-      <c r="N81" s="9" t="s">
+      <c r="L81" s="12"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="O81" s="9"/>
+      <c r="O81" s="11"/>
       <c r="P81" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="Q81" s="9" t="s">
+      <c r="Q81" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="R81" s="9"/>
+      <c r="R81" s="11"/>
       <c r="S81" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="T81" s="11" t="s">
+      <c r="T81" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="U81" s="11"/>
-      <c r="V81" s="11"/>
-      <c r="W81" s="11"/>
-      <c r="Y81" t="s">
-        <v>423</v>
-      </c>
-      <c r="AA81">
-        <v>2632.42</v>
+      <c r="U81" s="13"/>
+      <c r="V81" s="13"/>
+      <c r="W81" s="13"/>
+      <c r="Z81" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="82" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="8" t="s">
+      <c r="A82" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B82" s="8"/>
-      <c r="C82" s="9" t="s">
+      <c r="B82" s="10"/>
+      <c r="C82" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9" t="s">
+      <c r="D82" s="11"/>
+      <c r="E82" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="10"/>
-      <c r="K82" s="10">
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12">
         <v>500</v>
       </c>
-      <c r="L82" s="10"/>
-      <c r="M82" s="10"/>
-      <c r="N82" s="9" t="s">
+      <c r="L82" s="12"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="O82" s="9"/>
+      <c r="O82" s="11"/>
       <c r="P82" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="Q82" s="9" t="s">
+      <c r="Q82" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="R82" s="9"/>
+      <c r="R82" s="11"/>
       <c r="S82" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="T82" s="11" t="s">
+      <c r="T82" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="U82" s="11"/>
-      <c r="V82" s="11"/>
-      <c r="W82" s="11"/>
-      <c r="Y82" t="s">
-        <v>409</v>
-      </c>
-      <c r="AA82">
-        <v>500</v>
+      <c r="U82" s="13"/>
+      <c r="V82" s="13"/>
+      <c r="W82" s="13"/>
+      <c r="Z82" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="83" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="B83" s="8"/>
-      <c r="C83" s="9" t="s">
+      <c r="B83" s="10"/>
+      <c r="C83" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9" t="s">
+      <c r="D83" s="11"/>
+      <c r="E83" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="10">
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="12">
         <v>16000</v>
       </c>
-      <c r="I83" s="10"/>
-      <c r="J83" s="10"/>
-      <c r="K83" s="10"/>
-      <c r="L83" s="10"/>
-      <c r="M83" s="10"/>
-      <c r="N83" s="9" t="s">
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="O83" s="9"/>
+      <c r="O83" s="11"/>
       <c r="P83" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="Q83" s="9" t="s">
+      <c r="Q83" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="R83" s="9"/>
+      <c r="R83" s="11"/>
       <c r="S83" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="T83" s="11" t="s">
+      <c r="T83" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="U83" s="11"/>
-      <c r="V83" s="11"/>
-      <c r="W83" s="11"/>
+      <c r="U83" s="13"/>
+      <c r="V83" s="13"/>
+      <c r="W83" s="13"/>
       <c r="Z83" t="s">
         <v>383</v>
       </c>
@@ -5543,47 +5522,47 @@
       </c>
     </row>
     <row r="84" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="B84" s="8"/>
-      <c r="C84" s="9" t="s">
+      <c r="B84" s="10"/>
+      <c r="C84" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9" t="s">
+      <c r="D84" s="11"/>
+      <c r="E84" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="10">
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="12">
         <v>10000</v>
       </c>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10"/>
-      <c r="K84" s="10"/>
-      <c r="L84" s="10"/>
-      <c r="M84" s="10"/>
-      <c r="N84" s="9" t="s">
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="O84" s="9"/>
+      <c r="O84" s="11"/>
       <c r="P84" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="Q84" s="9" t="s">
+      <c r="Q84" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="R84" s="9"/>
+      <c r="R84" s="11"/>
       <c r="S84" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="T84" s="11" t="s">
+      <c r="T84" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="U84" s="11"/>
-      <c r="V84" s="11"/>
-      <c r="W84" s="11"/>
+      <c r="U84" s="13"/>
+      <c r="V84" s="13"/>
+      <c r="W84" s="13"/>
       <c r="Z84" t="s">
         <v>383</v>
       </c>
@@ -5592,47 +5571,47 @@
       </c>
     </row>
     <row r="85" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="B85" s="8"/>
-      <c r="C85" s="9" t="s">
+      <c r="B85" s="10"/>
+      <c r="C85" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9" t="s">
+      <c r="D85" s="11"/>
+      <c r="E85" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="10">
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="12">
         <v>1000</v>
       </c>
-      <c r="I85" s="10"/>
-      <c r="J85" s="10"/>
-      <c r="K85" s="10"/>
-      <c r="L85" s="10"/>
-      <c r="M85" s="10"/>
-      <c r="N85" s="9" t="s">
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="O85" s="9"/>
+      <c r="O85" s="11"/>
       <c r="P85" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="Q85" s="9" t="s">
+      <c r="Q85" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="R85" s="9"/>
+      <c r="R85" s="11"/>
       <c r="S85" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="T85" s="11" t="s">
+      <c r="T85" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="U85" s="11"/>
-      <c r="V85" s="11"/>
-      <c r="W85" s="11"/>
+      <c r="U85" s="13"/>
+      <c r="V85" s="13"/>
+      <c r="W85" s="13"/>
       <c r="Z85" t="s">
         <v>383</v>
       </c>
@@ -5641,47 +5620,47 @@
       </c>
     </row>
     <row r="86" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="B86" s="8"/>
-      <c r="C86" s="9" t="s">
+      <c r="B86" s="10"/>
+      <c r="C86" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9" t="s">
+      <c r="D86" s="11"/>
+      <c r="E86" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="10">
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="12">
         <v>3200</v>
       </c>
-      <c r="I86" s="10"/>
-      <c r="J86" s="10"/>
-      <c r="K86" s="10"/>
-      <c r="L86" s="10"/>
-      <c r="M86" s="10"/>
-      <c r="N86" s="9" t="s">
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="12"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="O86" s="9"/>
+      <c r="O86" s="11"/>
       <c r="P86" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="Q86" s="9" t="s">
+      <c r="Q86" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="R86" s="9"/>
+      <c r="R86" s="11"/>
       <c r="S86" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="T86" s="11" t="s">
+      <c r="T86" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="U86" s="11"/>
-      <c r="V86" s="11"/>
-      <c r="W86" s="11"/>
+      <c r="U86" s="13"/>
+      <c r="V86" s="13"/>
+      <c r="W86" s="13"/>
       <c r="Z86" t="s">
         <v>383</v>
       </c>
@@ -5690,47 +5669,47 @@
       </c>
     </row>
     <row r="87" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="8" t="s">
+      <c r="A87" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="B87" s="8"/>
-      <c r="C87" s="9" t="s">
+      <c r="B87" s="10"/>
+      <c r="C87" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9" t="s">
+      <c r="D87" s="11"/>
+      <c r="E87" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="10">
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="12">
         <v>2300</v>
       </c>
-      <c r="I87" s="10"/>
-      <c r="J87" s="10"/>
-      <c r="K87" s="10"/>
-      <c r="L87" s="10"/>
-      <c r="M87" s="10"/>
-      <c r="N87" s="9" t="s">
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="12"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="O87" s="9"/>
+      <c r="O87" s="11"/>
       <c r="P87" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="Q87" s="9" t="s">
+      <c r="Q87" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="R87" s="9"/>
+      <c r="R87" s="11"/>
       <c r="S87" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="T87" s="11" t="s">
+      <c r="T87" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="U87" s="11"/>
-      <c r="V87" s="11"/>
-      <c r="W87" s="11"/>
+      <c r="U87" s="13"/>
+      <c r="V87" s="13"/>
+      <c r="W87" s="13"/>
       <c r="Z87" t="s">
         <v>383</v>
       </c>
@@ -5739,47 +5718,47 @@
       </c>
     </row>
     <row r="88" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="8" t="s">
+      <c r="A88" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B88" s="8"/>
-      <c r="C88" s="9" t="s">
+      <c r="B88" s="10"/>
+      <c r="C88" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9" t="s">
+      <c r="D88" s="11"/>
+      <c r="E88" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="10">
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="12">
         <v>230500</v>
       </c>
-      <c r="I88" s="10"/>
-      <c r="J88" s="10"/>
-      <c r="K88" s="10"/>
-      <c r="L88" s="10"/>
-      <c r="M88" s="10"/>
-      <c r="N88" s="9" t="s">
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="O88" s="9"/>
+      <c r="O88" s="11"/>
       <c r="P88" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="Q88" s="9" t="s">
+      <c r="Q88" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="R88" s="9"/>
+      <c r="R88" s="11"/>
       <c r="S88" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="T88" s="11" t="s">
+      <c r="T88" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="U88" s="11"/>
-      <c r="V88" s="11"/>
-      <c r="W88" s="11"/>
+      <c r="U88" s="13"/>
+      <c r="V88" s="13"/>
+      <c r="W88" s="13"/>
       <c r="Z88" t="s">
         <v>383</v>
       </c>
@@ -5788,47 +5767,47 @@
       </c>
     </row>
     <row r="89" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B89" s="8"/>
-      <c r="C89" s="9" t="s">
+      <c r="B89" s="10"/>
+      <c r="C89" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9" t="s">
+      <c r="D89" s="11"/>
+      <c r="E89" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="10">
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="12">
         <v>1800</v>
       </c>
-      <c r="I89" s="10"/>
-      <c r="J89" s="10"/>
-      <c r="K89" s="10"/>
-      <c r="L89" s="10"/>
-      <c r="M89" s="10"/>
-      <c r="N89" s="9" t="s">
+      <c r="I89" s="12"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="12"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="O89" s="9"/>
+      <c r="O89" s="11"/>
       <c r="P89" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="Q89" s="9" t="s">
+      <c r="Q89" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="R89" s="9"/>
+      <c r="R89" s="11"/>
       <c r="S89" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="T89" s="11" t="s">
+      <c r="T89" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="U89" s="11"/>
-      <c r="V89" s="11"/>
-      <c r="W89" s="11"/>
+      <c r="U89" s="13"/>
+      <c r="V89" s="13"/>
+      <c r="W89" s="13"/>
       <c r="Z89" t="s">
         <v>383</v>
       </c>
@@ -5837,47 +5816,47 @@
       </c>
     </row>
     <row r="90" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="8" t="s">
+      <c r="A90" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="B90" s="8"/>
-      <c r="C90" s="9" t="s">
+      <c r="B90" s="10"/>
+      <c r="C90" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9" t="s">
+      <c r="D90" s="11"/>
+      <c r="E90" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="10">
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="12">
         <v>27000</v>
       </c>
-      <c r="I90" s="10"/>
-      <c r="J90" s="10"/>
-      <c r="K90" s="10"/>
-      <c r="L90" s="10"/>
-      <c r="M90" s="10"/>
-      <c r="N90" s="9" t="s">
+      <c r="I90" s="12"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="12"/>
+      <c r="L90" s="12"/>
+      <c r="M90" s="12"/>
+      <c r="N90" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="O90" s="9"/>
+      <c r="O90" s="11"/>
       <c r="P90" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="Q90" s="9" t="s">
+      <c r="Q90" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="R90" s="9"/>
+      <c r="R90" s="11"/>
       <c r="S90" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="T90" s="11" t="s">
+      <c r="T90" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="U90" s="11"/>
-      <c r="V90" s="11"/>
-      <c r="W90" s="11"/>
+      <c r="U90" s="13"/>
+      <c r="V90" s="13"/>
+      <c r="W90" s="13"/>
       <c r="Z90" t="s">
         <v>383</v>
       </c>
@@ -5886,47 +5865,47 @@
       </c>
     </row>
     <row r="91" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="9" t="s">
+      <c r="B91" s="10"/>
+      <c r="C91" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9" t="s">
+      <c r="D91" s="11"/>
+      <c r="E91" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="10">
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="12">
         <v>96240</v>
       </c>
-      <c r="I91" s="10"/>
-      <c r="J91" s="10"/>
-      <c r="K91" s="10"/>
-      <c r="L91" s="10"/>
-      <c r="M91" s="10"/>
-      <c r="N91" s="9" t="s">
+      <c r="I91" s="12"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="12"/>
+      <c r="M91" s="12"/>
+      <c r="N91" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="O91" s="9"/>
+      <c r="O91" s="11"/>
       <c r="P91" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="Q91" s="9" t="s">
+      <c r="Q91" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="R91" s="9"/>
+      <c r="R91" s="11"/>
       <c r="S91" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="T91" s="11" t="s">
+      <c r="T91" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="U91" s="11"/>
-      <c r="V91" s="11"/>
-      <c r="W91" s="11"/>
+      <c r="U91" s="13"/>
+      <c r="V91" s="13"/>
+      <c r="W91" s="13"/>
       <c r="Z91" t="s">
         <v>383</v>
       </c>
@@ -5935,243 +5914,234 @@
       </c>
     </row>
     <row r="92" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="8" t="s">
+      <c r="A92" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="B92" s="8"/>
-      <c r="C92" s="9" t="s">
+      <c r="B92" s="10"/>
+      <c r="C92" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9" t="s">
+      <c r="D92" s="11"/>
+      <c r="E92" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="10"/>
-      <c r="I92" s="10"/>
-      <c r="J92" s="10"/>
-      <c r="K92" s="10">
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12">
         <v>871.2</v>
       </c>
-      <c r="L92" s="10"/>
-      <c r="M92" s="10"/>
-      <c r="N92" s="9" t="s">
+      <c r="L92" s="12"/>
+      <c r="M92" s="12"/>
+      <c r="N92" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="O92" s="9"/>
+      <c r="O92" s="11"/>
       <c r="P92" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="Q92" s="9" t="s">
+      <c r="Q92" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="R92" s="9"/>
+      <c r="R92" s="11"/>
       <c r="S92" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="T92" s="11" t="s">
+      <c r="T92" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="U92" s="11"/>
-      <c r="V92" s="11"/>
-      <c r="W92" s="11"/>
-      <c r="Y92" t="s">
-        <v>400</v>
-      </c>
-      <c r="AA92">
-        <v>880</v>
+      <c r="U92" s="13"/>
+      <c r="V92" s="13"/>
+      <c r="W92" s="13"/>
+      <c r="Z92" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="93" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="8" t="s">
+      <c r="A93" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="B93" s="8"/>
-      <c r="C93" s="9" t="s">
+      <c r="B93" s="10"/>
+      <c r="C93" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9" t="s">
+      <c r="D93" s="11"/>
+      <c r="E93" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="10"/>
-      <c r="I93" s="10"/>
-      <c r="J93" s="10"/>
-      <c r="K93" s="10">
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12">
         <v>1485</v>
       </c>
-      <c r="L93" s="10"/>
-      <c r="M93" s="10"/>
-      <c r="N93" s="9" t="s">
+      <c r="L93" s="12"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="O93" s="9"/>
+      <c r="O93" s="11"/>
       <c r="P93" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="Q93" s="9" t="s">
+      <c r="Q93" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="R93" s="9"/>
+      <c r="R93" s="11"/>
       <c r="S93" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="T93" s="11" t="s">
+      <c r="T93" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="U93" s="11"/>
-      <c r="V93" s="11"/>
-      <c r="W93" s="11"/>
-      <c r="Y93" t="s">
-        <v>401</v>
-      </c>
-      <c r="AA93">
-        <v>1500</v>
-      </c>
+      <c r="U93" s="13"/>
+      <c r="V93" s="13"/>
+      <c r="W93" s="13"/>
     </row>
     <row r="94" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="8" t="s">
+      <c r="A94" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="B94" s="8"/>
-      <c r="C94" s="9" t="s">
+      <c r="B94" s="10"/>
+      <c r="C94" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9" t="s">
+      <c r="D94" s="11"/>
+      <c r="E94" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="10"/>
-      <c r="I94" s="10"/>
-      <c r="J94" s="10"/>
-      <c r="K94" s="10">
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="12">
         <v>14.56</v>
       </c>
-      <c r="L94" s="10"/>
-      <c r="M94" s="10"/>
-      <c r="N94" s="9" t="s">
+      <c r="L94" s="12"/>
+      <c r="M94" s="12"/>
+      <c r="N94" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="O94" s="9"/>
+      <c r="O94" s="11"/>
       <c r="P94" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="Q94" s="9" t="s">
+      <c r="Q94" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="R94" s="9"/>
+      <c r="R94" s="11"/>
       <c r="S94" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="T94" s="11" t="s">
+      <c r="T94" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="U94" s="11"/>
-      <c r="V94" s="11"/>
-      <c r="W94" s="11"/>
+      <c r="U94" s="13"/>
+      <c r="V94" s="13"/>
+      <c r="W94" s="13"/>
       <c r="Y94" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="AA94">
         <v>14.56</v>
       </c>
     </row>
     <row r="95" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="8" t="s">
+      <c r="A95" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="B95" s="8"/>
-      <c r="C95" s="9" t="s">
+      <c r="B95" s="10"/>
+      <c r="C95" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9" t="s">
+      <c r="D95" s="11"/>
+      <c r="E95" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="10"/>
-      <c r="I95" s="10"/>
-      <c r="J95" s="10"/>
-      <c r="K95" s="10">
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="12">
         <v>968.22</v>
       </c>
-      <c r="L95" s="10"/>
-      <c r="M95" s="10"/>
-      <c r="N95" s="9" t="s">
+      <c r="L95" s="12"/>
+      <c r="M95" s="12"/>
+      <c r="N95" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="O95" s="9"/>
+      <c r="O95" s="11"/>
       <c r="P95" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="Q95" s="9" t="s">
+      <c r="Q95" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="R95" s="9"/>
+      <c r="R95" s="11"/>
       <c r="S95" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="T95" s="11" t="s">
+      <c r="T95" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="U95" s="11"/>
-      <c r="V95" s="11"/>
-      <c r="W95" s="11"/>
+      <c r="U95" s="13"/>
+      <c r="V95" s="13"/>
+      <c r="W95" s="13"/>
       <c r="Y95" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="AA95">
         <v>968.22</v>
       </c>
     </row>
     <row r="96" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="8" t="s">
+      <c r="A96" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="B96" s="8"/>
-      <c r="C96" s="9" t="s">
+      <c r="B96" s="10"/>
+      <c r="C96" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9" t="s">
+      <c r="D96" s="11"/>
+      <c r="E96" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="10"/>
-      <c r="I96" s="10"/>
-      <c r="J96" s="10"/>
-      <c r="K96" s="10">
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12">
         <v>800</v>
       </c>
-      <c r="L96" s="10"/>
-      <c r="M96" s="10"/>
-      <c r="N96" s="9" t="s">
+      <c r="L96" s="12"/>
+      <c r="M96" s="12"/>
+      <c r="N96" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="O96" s="9"/>
+      <c r="O96" s="11"/>
       <c r="P96" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="Q96" s="9" t="s">
+      <c r="Q96" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="R96" s="9"/>
+      <c r="R96" s="11"/>
       <c r="S96" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="T96" s="11" t="s">
+      <c r="T96" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="U96" s="11"/>
-      <c r="V96" s="11"/>
-      <c r="W96" s="11"/>
+      <c r="U96" s="13"/>
+      <c r="V96" s="13"/>
+      <c r="W96" s="13"/>
       <c r="Z96" t="s">
         <v>383</v>
       </c>
@@ -6181,200 +6151,200 @@
     </row>
     <row r="97" spans="1:28" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="98" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="W98" s="7" t="s">
+      <c r="W98" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="X98" s="7"/>
+      <c r="X98" s="14"/>
     </row>
     <row r="99" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="8" t="s">
+      <c r="A99" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="B99" s="8"/>
-      <c r="C99" s="9" t="s">
+      <c r="B99" s="10"/>
+      <c r="C99" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9" t="s">
+      <c r="D99" s="11"/>
+      <c r="E99" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="10"/>
-      <c r="I99" s="10"/>
-      <c r="J99" s="10"/>
-      <c r="K99" s="10">
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="12">
         <v>740</v>
       </c>
-      <c r="L99" s="10"/>
-      <c r="M99" s="10"/>
-      <c r="N99" s="9" t="s">
+      <c r="L99" s="12"/>
+      <c r="M99" s="12"/>
+      <c r="N99" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="O99" s="9"/>
+      <c r="O99" s="11"/>
       <c r="P99" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="Q99" s="9" t="s">
+      <c r="Q99" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="R99" s="9"/>
+      <c r="R99" s="11"/>
       <c r="S99" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="T99" s="11" t="s">
+      <c r="T99" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="U99" s="11"/>
-      <c r="V99" s="11"/>
-      <c r="W99" s="11"/>
+      <c r="U99" s="13"/>
+      <c r="V99" s="13"/>
+      <c r="W99" s="13"/>
       <c r="Y99" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="AA99">
         <v>740</v>
       </c>
     </row>
     <row r="100" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="8" t="s">
+      <c r="A100" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="B100" s="8"/>
-      <c r="C100" s="9" t="s">
+      <c r="B100" s="10"/>
+      <c r="C100" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9" t="s">
+      <c r="D100" s="11"/>
+      <c r="E100" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="10"/>
-      <c r="I100" s="10"/>
-      <c r="J100" s="10"/>
-      <c r="K100" s="10">
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="12">
         <v>2396.5</v>
       </c>
-      <c r="L100" s="10"/>
-      <c r="M100" s="10"/>
-      <c r="N100" s="9" t="s">
+      <c r="L100" s="12"/>
+      <c r="M100" s="12"/>
+      <c r="N100" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="O100" s="9"/>
+      <c r="O100" s="11"/>
       <c r="P100" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="Q100" s="9" t="s">
+      <c r="Q100" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="R100" s="9"/>
+      <c r="R100" s="11"/>
       <c r="S100" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="T100" s="11" t="s">
+      <c r="T100" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="U100" s="11"/>
-      <c r="V100" s="11"/>
-      <c r="W100" s="11"/>
+      <c r="U100" s="13"/>
+      <c r="V100" s="13"/>
+      <c r="W100" s="13"/>
       <c r="Y100" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="AA100">
         <v>2396.5</v>
       </c>
     </row>
     <row r="101" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="8" t="s">
+      <c r="A101" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="B101" s="8"/>
-      <c r="C101" s="9" t="s">
+      <c r="B101" s="10"/>
+      <c r="C101" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9" t="s">
+      <c r="D101" s="11"/>
+      <c r="E101" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="10"/>
-      <c r="I101" s="10"/>
-      <c r="J101" s="10"/>
-      <c r="K101" s="10">
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="12">
         <v>843</v>
       </c>
-      <c r="L101" s="10"/>
-      <c r="M101" s="10"/>
-      <c r="N101" s="9" t="s">
+      <c r="L101" s="12"/>
+      <c r="M101" s="12"/>
+      <c r="N101" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="O101" s="9"/>
+      <c r="O101" s="11"/>
       <c r="P101" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="Q101" s="9" t="s">
+      <c r="Q101" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="R101" s="9"/>
+      <c r="R101" s="11"/>
       <c r="S101" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="T101" s="11" t="s">
+      <c r="T101" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="U101" s="11"/>
-      <c r="V101" s="11"/>
-      <c r="W101" s="11"/>
+      <c r="U101" s="13"/>
+      <c r="V101" s="13"/>
+      <c r="W101" s="13"/>
       <c r="Y101" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="AA101">
         <v>843</v>
       </c>
     </row>
     <row r="102" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="8" t="s">
+      <c r="A102" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="B102" s="8"/>
-      <c r="C102" s="9" t="s">
+      <c r="B102" s="10"/>
+      <c r="C102" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9" t="s">
+      <c r="D102" s="11"/>
+      <c r="E102" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="10"/>
-      <c r="I102" s="10"/>
-      <c r="J102" s="10"/>
-      <c r="K102" s="10">
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12">
         <v>2041</v>
       </c>
-      <c r="L102" s="10"/>
-      <c r="M102" s="10"/>
-      <c r="N102" s="9" t="s">
+      <c r="L102" s="12"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="O102" s="9"/>
+      <c r="O102" s="11"/>
       <c r="P102" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="Q102" s="9" t="s">
+      <c r="Q102" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="R102" s="9"/>
+      <c r="R102" s="11"/>
       <c r="S102" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="T102" s="11" t="s">
+      <c r="T102" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="U102" s="11"/>
-      <c r="V102" s="11"/>
-      <c r="W102" s="11"/>
+      <c r="U102" s="13"/>
+      <c r="V102" s="13"/>
+      <c r="W102" s="13"/>
       <c r="Z102" t="s">
         <v>383</v>
       </c>
@@ -6383,1016 +6353,313 @@
       </c>
     </row>
     <row r="103" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="8" t="s">
+      <c r="A103" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="B103" s="8"/>
-      <c r="C103" s="9" t="s">
+      <c r="B103" s="10"/>
+      <c r="C103" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9" t="s">
+      <c r="D103" s="11"/>
+      <c r="E103" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="10"/>
-      <c r="I103" s="10"/>
-      <c r="J103" s="10"/>
-      <c r="K103" s="10">
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="12">
         <v>2404.36</v>
       </c>
-      <c r="L103" s="10"/>
-      <c r="M103" s="10"/>
-      <c r="N103" s="9" t="s">
+      <c r="L103" s="12"/>
+      <c r="M103" s="12"/>
+      <c r="N103" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="O103" s="9"/>
+      <c r="O103" s="11"/>
       <c r="P103" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="Q103" s="9" t="s">
+      <c r="Q103" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="R103" s="9"/>
+      <c r="R103" s="11"/>
       <c r="S103" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="T103" s="11" t="s">
+      <c r="T103" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="U103" s="11"/>
-      <c r="V103" s="11"/>
-      <c r="W103" s="11"/>
+      <c r="U103" s="13"/>
+      <c r="V103" s="13"/>
+      <c r="W103" s="13"/>
       <c r="Y103" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="AA103">
         <v>2404.36</v>
       </c>
     </row>
     <row r="104" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="8" t="s">
+      <c r="A104" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="B104" s="8"/>
-      <c r="C104" s="9" t="s">
+      <c r="B104" s="10"/>
+      <c r="C104" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9" t="s">
+      <c r="D104" s="11"/>
+      <c r="E104" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="10"/>
-      <c r="I104" s="10"/>
-      <c r="J104" s="10"/>
-      <c r="K104" s="10">
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="12">
         <v>50</v>
       </c>
-      <c r="L104" s="10"/>
-      <c r="M104" s="10"/>
-      <c r="N104" s="9" t="s">
+      <c r="L104" s="12"/>
+      <c r="M104" s="12"/>
+      <c r="N104" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="O104" s="9"/>
+      <c r="O104" s="11"/>
       <c r="P104" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="Q104" s="9" t="s">
+      <c r="Q104" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="R104" s="9"/>
+      <c r="R104" s="11"/>
       <c r="S104" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="T104" s="11" t="s">
+      <c r="T104" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="U104" s="11"/>
-      <c r="V104" s="11"/>
-      <c r="W104" s="11"/>
+      <c r="U104" s="13"/>
+      <c r="V104" s="13"/>
+      <c r="W104" s="13"/>
       <c r="Y104" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AA104">
         <v>50</v>
       </c>
     </row>
     <row r="105" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="8" t="s">
+      <c r="A105" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="B105" s="8"/>
-      <c r="C105" s="9" t="s">
+      <c r="B105" s="10"/>
+      <c r="C105" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9" t="s">
+      <c r="D105" s="11"/>
+      <c r="E105" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="10"/>
-      <c r="I105" s="10"/>
-      <c r="J105" s="10"/>
-      <c r="K105" s="10">
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="12">
         <v>795</v>
       </c>
-      <c r="L105" s="10"/>
-      <c r="M105" s="10"/>
-      <c r="N105" s="9" t="s">
+      <c r="L105" s="12"/>
+      <c r="M105" s="12"/>
+      <c r="N105" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="O105" s="9"/>
+      <c r="O105" s="11"/>
       <c r="P105" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="Q105" s="9" t="s">
+      <c r="Q105" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="R105" s="9"/>
+      <c r="R105" s="11"/>
       <c r="S105" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="T105" s="11" t="s">
+      <c r="T105" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="U105" s="11"/>
-      <c r="V105" s="11"/>
-      <c r="W105" s="11"/>
+      <c r="U105" s="13"/>
+      <c r="V105" s="13"/>
+      <c r="W105" s="13"/>
       <c r="Y105" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="AA105">
         <v>795</v>
       </c>
     </row>
     <row r="106" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="8" t="s">
+      <c r="A106" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="B106" s="8"/>
-      <c r="C106" s="9" t="s">
+      <c r="B106" s="10"/>
+      <c r="C106" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9" t="s">
+      <c r="D106" s="11"/>
+      <c r="E106" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="10"/>
-      <c r="I106" s="10"/>
-      <c r="J106" s="10"/>
-      <c r="K106" s="10">
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="12">
         <v>1400</v>
       </c>
-      <c r="L106" s="10"/>
-      <c r="M106" s="10"/>
-      <c r="N106" s="9" t="s">
+      <c r="L106" s="12"/>
+      <c r="M106" s="12"/>
+      <c r="N106" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="O106" s="9"/>
+      <c r="O106" s="11"/>
       <c r="P106" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="Q106" s="9" t="s">
+      <c r="Q106" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="R106" s="9"/>
+      <c r="R106" s="11"/>
       <c r="S106" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="T106" s="11" t="s">
+      <c r="T106" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="U106" s="11"/>
-      <c r="V106" s="11"/>
-      <c r="W106" s="11"/>
+      <c r="U106" s="13"/>
+      <c r="V106" s="13"/>
+      <c r="W106" s="13"/>
       <c r="Y106" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AA106">
         <v>1400</v>
       </c>
     </row>
     <row r="107" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="8" t="s">
+      <c r="A107" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="B107" s="8"/>
-      <c r="C107" s="9" t="s">
+      <c r="B107" s="10"/>
+      <c r="C107" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9" t="s">
+      <c r="D107" s="11"/>
+      <c r="E107" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="10"/>
-      <c r="I107" s="10"/>
-      <c r="J107" s="10"/>
-      <c r="K107" s="10">
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="12">
         <v>1819.47</v>
       </c>
-      <c r="L107" s="10"/>
-      <c r="M107" s="10"/>
-      <c r="N107" s="9" t="s">
+      <c r="L107" s="12"/>
+      <c r="M107" s="12"/>
+      <c r="N107" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="O107" s="9"/>
+      <c r="O107" s="11"/>
       <c r="P107" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="Q107" s="9" t="s">
+      <c r="Q107" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="R107" s="9"/>
+      <c r="R107" s="11"/>
       <c r="S107" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="T107" s="11" t="s">
+      <c r="T107" s="13" t="s">
         <v>377</v>
       </c>
-      <c r="U107" s="11"/>
-      <c r="V107" s="11"/>
-      <c r="W107" s="11"/>
+      <c r="U107" s="13"/>
+      <c r="V107" s="13"/>
+      <c r="W107" s="13"/>
       <c r="Y107" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AA107">
         <v>1819.47</v>
       </c>
     </row>
     <row r="108" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="7"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
+      <c r="A108" s="14"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
     </row>
     <row r="109" spans="1:28" ht="42.6" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="110" spans="1:28" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="U110" s="6"/>
+      <c r="U110" s="15"/>
     </row>
     <row r="111" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
-      <c r="I111" s="5">
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="7">
         <v>463433.21</v>
       </c>
-      <c r="J111" s="5"/>
-      <c r="K111" s="5"/>
-      <c r="L111" s="5">
+      <c r="J111" s="7"/>
+      <c r="K111" s="7"/>
+      <c r="L111" s="7">
         <v>453874.88</v>
       </c>
-      <c r="M111" s="5"/>
-      <c r="N111" s="5"/>
-      <c r="U111" s="6"/>
+      <c r="M111" s="7"/>
+      <c r="N111" s="7"/>
+      <c r="U111" s="15"/>
     </row>
     <row r="112" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
-      <c r="I112" s="5">
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="7">
         <v>671.88</v>
       </c>
-      <c r="J112" s="5"/>
-      <c r="K112" s="5"/>
-      <c r="L112" s="4"/>
-      <c r="M112" s="4"/>
-      <c r="N112" s="4"/>
-      <c r="U112" s="6"/>
+      <c r="J112" s="7"/>
+      <c r="K112" s="7"/>
+      <c r="L112" s="6"/>
+      <c r="M112" s="6"/>
+      <c r="N112" s="6"/>
+      <c r="U112" s="15"/>
     </row>
     <row r="113" spans="21:24" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="U113" s="6"/>
+      <c r="U113" s="15"/>
     </row>
     <row r="114" spans="21:24" ht="176.65" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="115" spans="21:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="W115" s="7" t="s">
+      <c r="W115" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="X115" s="7"/>
+      <c r="X115" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="720">
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="F1:Q2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:Q3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:Q4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:Q5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:Q6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:Q7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F8:Q8"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="T15:W15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="T16:W16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="T19:W19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="T20:W20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="T21:W21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="T22:W22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="T23:W23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="T27:W27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="T29:W29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="T30:W30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="T31:W31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="T32:W32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="T33:W33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="T34:W34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="T35:W35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="T36:W36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="T37:W37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="T38:W38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="T39:W39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="T40:W40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="T41:W41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="T42:W42"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="T46:W46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="T47:W47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="T48:W48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="T49:W49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="T50:W50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="T51:W51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="T52:W52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="T53:W53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="T54:W54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="K55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="T55:W55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="T56:W56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="T57:W57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="K58:M58"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="T58:W58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="K59:M59"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="T59:W59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="K60:M60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="T60:W60"/>
-    <mergeCell ref="W62:X62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="T63:W63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="K64:M64"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="T64:W64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="K65:M65"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="T65:W65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="T66:W66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="K67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="Q67:R67"/>
-    <mergeCell ref="T67:W67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="K68:M68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="Q68:R68"/>
-    <mergeCell ref="T68:W68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="K69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="T69:W69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="K70:M70"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="Q70:R70"/>
-    <mergeCell ref="T70:W70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="K71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="Q71:R71"/>
-    <mergeCell ref="T71:W71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="Q72:R72"/>
-    <mergeCell ref="T72:W72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="Q73:R73"/>
-    <mergeCell ref="T73:W73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="K74:M74"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="Q74:R74"/>
-    <mergeCell ref="T74:W74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="Q75:R75"/>
-    <mergeCell ref="T75:W75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="K76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="Q76:R76"/>
-    <mergeCell ref="T76:W76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="K77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="Q77:R77"/>
-    <mergeCell ref="T77:W77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="K78:M78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="Q78:R78"/>
-    <mergeCell ref="T78:W78"/>
-    <mergeCell ref="W80:X80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="K81:M81"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="Q81:R81"/>
-    <mergeCell ref="T81:W81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="K82:M82"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="Q82:R82"/>
-    <mergeCell ref="T82:W82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="K83:M83"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="Q83:R83"/>
-    <mergeCell ref="T83:W83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="K84:M84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="Q84:R84"/>
-    <mergeCell ref="T84:W84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="K85:M85"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="Q85:R85"/>
-    <mergeCell ref="T85:W85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="Q86:R86"/>
-    <mergeCell ref="T86:W86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="Q87:R87"/>
-    <mergeCell ref="T87:W87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="K88:M88"/>
-    <mergeCell ref="N88:O88"/>
-    <mergeCell ref="Q88:R88"/>
-    <mergeCell ref="T88:W88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="K89:M89"/>
-    <mergeCell ref="N89:O89"/>
-    <mergeCell ref="Q89:R89"/>
-    <mergeCell ref="T89:W89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="H90:J90"/>
-    <mergeCell ref="K90:M90"/>
-    <mergeCell ref="N90:O90"/>
-    <mergeCell ref="Q90:R90"/>
-    <mergeCell ref="T90:W90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="K91:M91"/>
-    <mergeCell ref="N91:O91"/>
-    <mergeCell ref="Q91:R91"/>
-    <mergeCell ref="T91:W91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="K92:M92"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="Q92:R92"/>
-    <mergeCell ref="T92:W92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="H93:J93"/>
-    <mergeCell ref="K93:M93"/>
-    <mergeCell ref="N93:O93"/>
-    <mergeCell ref="Q93:R93"/>
-    <mergeCell ref="T93:W93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="H94:J94"/>
-    <mergeCell ref="K94:M94"/>
-    <mergeCell ref="N94:O94"/>
-    <mergeCell ref="Q94:R94"/>
-    <mergeCell ref="T94:W94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="H95:J95"/>
-    <mergeCell ref="K95:M95"/>
-    <mergeCell ref="N95:O95"/>
-    <mergeCell ref="Q95:R95"/>
-    <mergeCell ref="T95:W95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="H96:J96"/>
-    <mergeCell ref="K96:M96"/>
-    <mergeCell ref="N96:O96"/>
-    <mergeCell ref="Q96:R96"/>
-    <mergeCell ref="T96:W96"/>
-    <mergeCell ref="W98:X98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="H99:J99"/>
-    <mergeCell ref="K99:M99"/>
-    <mergeCell ref="N99:O99"/>
-    <mergeCell ref="Q99:R99"/>
-    <mergeCell ref="T99:W99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="H100:J100"/>
-    <mergeCell ref="K100:M100"/>
-    <mergeCell ref="N100:O100"/>
-    <mergeCell ref="Q100:R100"/>
-    <mergeCell ref="T100:W100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="H101:J101"/>
-    <mergeCell ref="K101:M101"/>
-    <mergeCell ref="N101:O101"/>
-    <mergeCell ref="Q101:R101"/>
-    <mergeCell ref="T101:W101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="K102:M102"/>
-    <mergeCell ref="N102:O102"/>
-    <mergeCell ref="Q102:R102"/>
-    <mergeCell ref="T102:W102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="H103:J103"/>
-    <mergeCell ref="K103:M103"/>
-    <mergeCell ref="N103:O103"/>
-    <mergeCell ref="Q103:R103"/>
-    <mergeCell ref="T103:W103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="E104:G104"/>
-    <mergeCell ref="H104:J104"/>
-    <mergeCell ref="K104:M104"/>
-    <mergeCell ref="N104:O104"/>
-    <mergeCell ref="Q104:R104"/>
-    <mergeCell ref="T104:W104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="E105:G105"/>
-    <mergeCell ref="H105:J105"/>
-    <mergeCell ref="K105:M105"/>
-    <mergeCell ref="N105:O105"/>
-    <mergeCell ref="Q105:R105"/>
-    <mergeCell ref="T105:W105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="E106:G106"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="K106:M106"/>
-    <mergeCell ref="N106:O106"/>
-    <mergeCell ref="Q106:R106"/>
-    <mergeCell ref="T106:W106"/>
     <mergeCell ref="B111:H111"/>
     <mergeCell ref="I111:K111"/>
     <mergeCell ref="L111:N111"/>
@@ -7410,6 +6677,709 @@
     <mergeCell ref="Q107:R107"/>
     <mergeCell ref="T107:W107"/>
     <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E105:G105"/>
+    <mergeCell ref="H105:J105"/>
+    <mergeCell ref="K105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="Q105:R105"/>
+    <mergeCell ref="T105:W105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="E106:G106"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="K106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="Q106:R106"/>
+    <mergeCell ref="T106:W106"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="H103:J103"/>
+    <mergeCell ref="K103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="Q103:R103"/>
+    <mergeCell ref="T103:W103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="E104:G104"/>
+    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="K104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="Q104:R104"/>
+    <mergeCell ref="T104:W104"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="K101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="Q101:R101"/>
+    <mergeCell ref="T101:W101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="K102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="Q102:R102"/>
+    <mergeCell ref="T102:W102"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="H99:J99"/>
+    <mergeCell ref="K99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="Q99:R99"/>
+    <mergeCell ref="T99:W99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="K100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="Q100:R100"/>
+    <mergeCell ref="T100:W100"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="K96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="Q96:R96"/>
+    <mergeCell ref="T96:W96"/>
+    <mergeCell ref="W98:X98"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="K94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="Q94:R94"/>
+    <mergeCell ref="T94:W94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="K95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="Q95:R95"/>
+    <mergeCell ref="T95:W95"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="K92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="Q92:R92"/>
+    <mergeCell ref="T92:W92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="K93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="Q93:R93"/>
+    <mergeCell ref="T93:W93"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="K90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="Q90:R90"/>
+    <mergeCell ref="T90:W90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="K91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="Q91:R91"/>
+    <mergeCell ref="T91:W91"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="K88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="Q88:R88"/>
+    <mergeCell ref="T88:W88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="K89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="Q89:R89"/>
+    <mergeCell ref="T89:W89"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="Q86:R86"/>
+    <mergeCell ref="T86:W86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="Q87:R87"/>
+    <mergeCell ref="T87:W87"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="K84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="Q84:R84"/>
+    <mergeCell ref="T84:W84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="K85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="Q85:R85"/>
+    <mergeCell ref="T85:W85"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="K82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="Q82:R82"/>
+    <mergeCell ref="T82:W82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="K83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="Q83:R83"/>
+    <mergeCell ref="T83:W83"/>
+    <mergeCell ref="W80:X80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="K81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="Q81:R81"/>
+    <mergeCell ref="T81:W81"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="K77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="Q77:R77"/>
+    <mergeCell ref="T77:W77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="K78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="Q78:R78"/>
+    <mergeCell ref="T78:W78"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="Q75:R75"/>
+    <mergeCell ref="T75:W75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="K76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="Q76:R76"/>
+    <mergeCell ref="T76:W76"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="Q73:R73"/>
+    <mergeCell ref="T73:W73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="Q74:R74"/>
+    <mergeCell ref="T74:W74"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="T71:W71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="Q72:R72"/>
+    <mergeCell ref="T72:W72"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="T69:W69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="Q70:R70"/>
+    <mergeCell ref="T70:W70"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="K67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="Q67:R67"/>
+    <mergeCell ref="T67:W67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="K68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="Q68:R68"/>
+    <mergeCell ref="T68:W68"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="K65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="T65:W65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="T66:W66"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="T63:W63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="K64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="T64:W64"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="K60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="T60:W60"/>
+    <mergeCell ref="W62:X62"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="K58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="T58:W58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="K59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="T59:W59"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="T56:W56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="T57:W57"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="T54:W54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="T55:W55"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="T52:W52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="T53:W53"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="T50:W50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="T51:W51"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="T48:W48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="T49:W49"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="T46:W46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="T47:W47"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="T41:W41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="T42:W42"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="T39:W39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="T37:W37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="T38:W38"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="T35:W35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="T36:W36"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="T33:W33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="T34:W34"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="T32:W32"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="T29:W29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="T30:W30"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="T27:W27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="T22:W22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="T21:W21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="T16:W16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:Q6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:Q7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:Q8"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="F1:Q2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:Q3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:Q4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:Q5"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/1/О23.02.13.Xlsx
+++ b/1/О23.02.13.Xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="443">
   <si>
     <t>Назва Клієнта</t>
   </si>
@@ -1202,42 +1202,138 @@
     <t>rah=9006139;op=14,6;</t>
   </si>
   <si>
+    <t>rah=0506007;ot=1444,9;</t>
+  </si>
+  <si>
+    <t>rah=9155034;ot=1390;</t>
+  </si>
+  <si>
+    <t>rah=9155034;op=15;</t>
+  </si>
+  <si>
+    <t>rah=0506005;ot=880;</t>
+  </si>
+  <si>
+    <t>rah=9155134;op=14,56;</t>
+  </si>
+  <si>
+    <t>rah=9155134;ot=968,22;</t>
+  </si>
+  <si>
+    <t>rah=0207029;op=50;</t>
+  </si>
+  <si>
+    <t>rah=0090077;ot=1200;</t>
+  </si>
+  <si>
+    <t>rah=0092045;ot=1082,06;</t>
+  </si>
+  <si>
+    <t>rah=0098026;ot=2000;</t>
+  </si>
+  <si>
+    <t>rah=9048014;ot=1673;</t>
+  </si>
+  <si>
+    <t>rah=9006048;ot=14;</t>
+  </si>
+  <si>
+    <t>rah=0506138;ot=1908;</t>
+  </si>
+  <si>
+    <t>rah=0070069;ot=2254;</t>
+  </si>
+  <si>
+    <t>rah=0056098;ot=1633;</t>
+  </si>
+  <si>
+    <t>rah=0058085;ot=4457;</t>
+  </si>
+  <si>
+    <t>rah=0054006;ot=4079,45;</t>
+  </si>
+  <si>
+    <t>rah=9006153;ot=1240;</t>
+  </si>
+  <si>
+    <t>rah=0076005;ot=2000;</t>
+  </si>
+  <si>
+    <t>rah=0108008;ot=4234,2;</t>
+  </si>
+  <si>
+    <t>rah=0092145;ot=1665;</t>
+  </si>
+  <si>
+    <t>rah=0030039;ot=1831;</t>
+  </si>
+  <si>
+    <t>rah=0068053;ot=1331;</t>
+  </si>
+  <si>
+    <t>rah=0068024;ot=7689,79;</t>
+  </si>
+  <si>
+    <t>rah=9006048;ot=970;</t>
+  </si>
+  <si>
+    <t>rah=0094017;ot=2214;</t>
+  </si>
+  <si>
+    <t>rah=9048175;ot=2581;</t>
+  </si>
+  <si>
+    <t>rah=9155046;ot=1344;</t>
+  </si>
+  <si>
+    <t>rah=0060064;ot=5000;</t>
+  </si>
+  <si>
+    <t>rah=0030033;ot=2632,42;</t>
+  </si>
+  <si>
+    <t>rah=0064025;ot=2396,5;</t>
+  </si>
+  <si>
+    <t>rah=0058020;ot=2404,36;</t>
+  </si>
+  <si>
+    <t>rah=9006151;ot=795;</t>
+  </si>
+  <si>
+    <t>rah=0064009;ot=238,1;</t>
+  </si>
+  <si>
+    <t>rah=9048008;ot=2160,77;</t>
+  </si>
+  <si>
+    <t>rah=9155028;ot=1330;</t>
+  </si>
+  <si>
+    <t>rah=0086060;ot=2393,6;</t>
+  </si>
+  <si>
+    <t>rah=0032017;ot=4000;</t>
+  </si>
+  <si>
     <t>rah=9006109;ot=663,5;</t>
   </si>
   <si>
-    <t>rah=0506007;ot=1444,9;</t>
-  </si>
-  <si>
-    <t>rah=9155034;ot=1390;</t>
-  </si>
-  <si>
-    <t>rah=9155034;op=15;</t>
+    <t>rah=0098038;ot=1715,59;</t>
   </si>
   <si>
     <t>rah=0058047;ot=1829;</t>
   </si>
   <si>
-    <t>rah=0506005;ot=880;</t>
+    <t>rah=9048059;ot=1683;</t>
   </si>
   <si>
     <t>rah=0066035;ot=1500;</t>
   </si>
   <si>
-    <t>rah=9155134;op=14,56;</t>
-  </si>
-  <si>
-    <t>rah=9155134;ot=968,22;</t>
-  </si>
-  <si>
     <t>rah=0062006;ot=740;</t>
   </si>
   <si>
-    <t>rah=0066013;ot=843;</t>
-  </si>
-  <si>
-    <t>rah=0207029;op=50;</t>
-  </si>
-  <si>
     <t>rah=0096047;ot=1400;</t>
   </si>
   <si>
@@ -1247,106 +1343,7 @@
     <t>rah=9006011;ot=500;</t>
   </si>
   <si>
-    <t>rah=0064009;ot=238,1;</t>
-  </si>
-  <si>
-    <t>rah=0090077;ot=1200;</t>
-  </si>
-  <si>
-    <t>rah=0092045;ot=1082,06;</t>
-  </si>
-  <si>
-    <t>rah=0098026;ot=2000;</t>
-  </si>
-  <si>
-    <t>rah=9048014;ot=1673;</t>
-  </si>
-  <si>
-    <t>rah=9006048;ot=14;</t>
-  </si>
-  <si>
-    <t>rah=9048008;ot=2160,77;</t>
-  </si>
-  <si>
-    <t>rah=9155028;ot=1330;</t>
-  </si>
-  <si>
-    <t>rah=0086060;ot=2393,6;</t>
-  </si>
-  <si>
-    <t>rah=0032017;ot=4000;</t>
-  </si>
-  <si>
-    <t>rah=0098038;ot=1715,59;</t>
-  </si>
-  <si>
-    <t>rah=9048059;ot=1683;</t>
-  </si>
-  <si>
-    <t>rah=0060064;ot=5000;</t>
-  </si>
-  <si>
-    <t>rah=0030033;ot=2632,42;</t>
-  </si>
-  <si>
-    <t>rah=0064025;ot=2396,5;</t>
-  </si>
-  <si>
-    <t>rah=0058020;ot=2404,36;</t>
-  </si>
-  <si>
-    <t>rah=9006151;ot=795;</t>
-  </si>
-  <si>
-    <t>rah=0506138;ot=1879;op=29;</t>
-  </si>
-  <si>
-    <t>rah=0070069;ot=2224,88;op=29,12;</t>
-  </si>
-  <si>
-    <t>rah=0056098;ot=1603,56;op=29,44;</t>
-  </si>
-  <si>
-    <t>rah=0058085;ot=4239,8;op=217,2;</t>
-  </si>
-  <si>
-    <t>rah=0054006;ot=4021,21;op=58,24;</t>
-  </si>
-  <si>
-    <t>rah=9006153;ot=1222,59;op=17,41;</t>
-  </si>
-  <si>
-    <t>rah=0076005;ot=1782,8;op=217,2;</t>
-  </si>
-  <si>
-    <t>rah=0108008;ot=4074,76;op=159,44;</t>
-  </si>
-  <si>
-    <t>rah=0092145;ot=1635,88;op=29,12;</t>
-  </si>
-  <si>
-    <t>rah=0030039;ot=1801,52;op=29,48;</t>
-  </si>
-  <si>
-    <t>rah=0068053;ot=1307,39;op=23,61;</t>
-  </si>
-  <si>
-    <t>rah=0068024;ot=7675,23;op=14,56;</t>
-  </si>
-  <si>
-    <t>rah=0052069;ot=1109,98;op=29,12;</t>
-  </si>
-  <si>
-    <t>rah=9006048;ot=955,26;op=14,74;</t>
-  </si>
-  <si>
-    <t>rah=0094017;ot=2185,59;op=28,41;</t>
-  </si>
-  <si>
-    <t>rah=9048175;ot=2551,88;op=29,12;</t>
-  </si>
-  <si>
-    <t>rah=9155046;ot=1314,96;op=29,04;</t>
+    <t>rah=0066013;ot=813,88;op=29,12;</t>
   </si>
 </sst>
 </file>
@@ -1618,17 +1615,23 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1642,17 +1645,11 @@
     <xf numFmtId="0" fontId="11" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2026,265 +2023,265 @@
     <col min="22" max="22" width="1.5" customWidth="1"/>
     <col min="23" max="23" width="18.6640625" customWidth="1"/>
     <col min="24" max="24" width="0.1640625" customWidth="1"/>
-    <col min="25" max="25" width="33.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="31.6640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="15" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
     </row>
     <row r="2" spans="1:28" ht="0.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="1:28" ht="14.65" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
     </row>
     <row r="8" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
     </row>
     <row r="9" spans="1:28" ht="27.4" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="10" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="7">
         <v>10230.209999999999</v>
       </c>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
     </row>
     <row r="11" spans="1:28" ht="7.15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:28" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13" t="s">
+      <c r="B12" s="8"/>
+      <c r="C12" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13" t="s">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13" t="s">
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13" t="s">
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13" t="s">
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="O12" s="13"/>
+      <c r="O12" s="9"/>
       <c r="P12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q12" s="13" t="s">
+      <c r="Q12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="R12" s="13"/>
+      <c r="R12" s="9"/>
       <c r="S12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T12" s="13" t="s">
+      <c r="T12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
       <c r="Y12" t="s">
         <v>381</v>
       </c>
@@ -2296,47 +2293,47 @@
       </c>
     </row>
     <row r="13" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="11"/>
+      <c r="E13" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10">
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12">
         <v>249.95</v>
       </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="9" t="s">
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O13" s="9"/>
+      <c r="O13" s="11"/>
       <c r="P13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Q13" s="9" t="s">
+      <c r="Q13" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="R13" s="9"/>
+      <c r="R13" s="11"/>
       <c r="S13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="T13" s="11" t="s">
+      <c r="T13" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="U13" s="11"/>
-      <c r="V13" s="11"/>
-      <c r="W13" s="11"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
       <c r="Z13" t="s">
         <v>383</v>
       </c>
@@ -2345,49 +2342,49 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="11"/>
+      <c r="E14" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10">
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12">
         <v>1673</v>
       </c>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="9" t="s">
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O14" s="9"/>
+      <c r="O14" s="11"/>
       <c r="P14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q14" s="9" t="s">
+      <c r="Q14" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R14" s="9"/>
+      <c r="R14" s="11"/>
       <c r="S14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="11" t="s">
+      <c r="T14" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
       <c r="Y14" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="Z14" t="s">
         <v>383</v>
@@ -2397,49 +2394,49 @@
       </c>
     </row>
     <row r="15" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="10"/>
+      <c r="C15" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9" t="s">
+      <c r="D15" s="11"/>
+      <c r="E15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10">
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12">
         <v>1673</v>
       </c>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="9" t="s">
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O15" s="9"/>
+      <c r="O15" s="11"/>
       <c r="P15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q15" s="9" t="s">
+      <c r="Q15" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R15" s="9"/>
+      <c r="R15" s="11"/>
       <c r="S15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T15" s="11" t="s">
+      <c r="T15" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
       <c r="Y15" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="Z15" t="s">
         <v>383</v>
@@ -2449,49 +2446,49 @@
       </c>
     </row>
     <row r="16" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="10"/>
+      <c r="C16" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
+      <c r="D16" s="11"/>
+      <c r="E16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10">
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12">
         <v>1908</v>
       </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="9" t="s">
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O16" s="9"/>
+      <c r="O16" s="11"/>
       <c r="P16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q16" s="9" t="s">
+      <c r="Q16" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R16" s="9"/>
+      <c r="R16" s="11"/>
       <c r="S16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T16" s="11" t="s">
+      <c r="T16" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="U16" s="11"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="11"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
       <c r="Y16" t="s">
-        <v>427</v>
+        <v>407</v>
       </c>
       <c r="Z16" t="s">
         <v>383</v>
@@ -2501,47 +2498,47 @@
       </c>
     </row>
     <row r="17" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="9" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9" t="s">
+      <c r="D17" s="11"/>
+      <c r="E17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10">
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12">
         <v>4714.96</v>
       </c>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="9" t="s">
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="O17" s="9"/>
+      <c r="O17" s="11"/>
       <c r="P17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Q17" s="9" t="s">
+      <c r="Q17" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="R17" s="9"/>
+      <c r="R17" s="11"/>
       <c r="S17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="T17" s="11" t="s">
+      <c r="T17" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
       <c r="Z17" t="s">
         <v>383</v>
       </c>
@@ -2550,47 +2547,47 @@
       </c>
     </row>
     <row r="18" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9" t="s">
+      <c r="D18" s="11"/>
+      <c r="E18" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="10">
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12">
         <v>43.21</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="9" t="s">
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="O18" s="9"/>
+      <c r="O18" s="11"/>
       <c r="P18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Q18" s="9" t="s">
+      <c r="Q18" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="R18" s="9"/>
+      <c r="R18" s="11"/>
       <c r="S18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="T18" s="11" t="s">
+      <c r="T18" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
       <c r="Z18" t="s">
         <v>383</v>
       </c>
@@ -2599,49 +2596,49 @@
       </c>
     </row>
     <row r="19" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9" t="s">
+      <c r="D19" s="11"/>
+      <c r="E19" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10">
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12">
         <v>238.1</v>
       </c>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="9" t="s">
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O19" s="9"/>
+      <c r="O19" s="11"/>
       <c r="P19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q19" s="9" t="s">
+      <c r="Q19" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R19" s="9"/>
+      <c r="R19" s="11"/>
       <c r="S19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T19" s="11" t="s">
+      <c r="T19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
       <c r="Y19" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
       <c r="Z19" t="s">
         <v>383</v>
@@ -2651,49 +2648,49 @@
       </c>
     </row>
     <row r="20" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9" t="s">
+      <c r="D20" s="11"/>
+      <c r="E20" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10">
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12">
         <v>2160.77</v>
       </c>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="9" t="s">
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O20" s="9"/>
+      <c r="O20" s="11"/>
       <c r="P20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q20" s="9" t="s">
+      <c r="Q20" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R20" s="9"/>
+      <c r="R20" s="11"/>
       <c r="S20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T20" s="11" t="s">
+      <c r="T20" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
       <c r="Y20" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
       <c r="Z20" t="s">
         <v>383</v>
@@ -2703,49 +2700,49 @@
       </c>
     </row>
     <row r="21" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9" t="s">
+      <c r="D21" s="11"/>
+      <c r="E21" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10">
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12">
         <v>1200</v>
       </c>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="9" t="s">
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O21" s="9"/>
+      <c r="O21" s="11"/>
       <c r="P21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q21" s="9" t="s">
+      <c r="Q21" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R21" s="9"/>
+      <c r="R21" s="11"/>
       <c r="S21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T21" s="11" t="s">
+      <c r="T21" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13"/>
       <c r="Y21" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="Z21" t="s">
         <v>383</v>
@@ -2755,47 +2752,47 @@
       </c>
     </row>
     <row r="22" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="9" t="s">
+      <c r="B22" s="10"/>
+      <c r="C22" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9" t="s">
+      <c r="D22" s="11"/>
+      <c r="E22" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10">
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12">
         <v>14.56</v>
       </c>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="9" t="s">
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O22" s="9"/>
+      <c r="O22" s="11"/>
       <c r="P22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Q22" s="9" t="s">
+      <c r="Q22" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="R22" s="9"/>
+      <c r="R22" s="11"/>
       <c r="S22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="T22" s="11" t="s">
+      <c r="T22" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+      <c r="W22" s="13"/>
       <c r="Z22" t="s">
         <v>383</v>
       </c>
@@ -2804,47 +2801,47 @@
       </c>
     </row>
     <row r="23" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="9" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9" t="s">
+      <c r="D23" s="11"/>
+      <c r="E23" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="10">
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12">
         <v>10025</v>
       </c>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="9" t="s">
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="O23" s="9"/>
+      <c r="O23" s="11"/>
       <c r="P23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q23" s="9" t="s">
+      <c r="Q23" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="R23" s="9"/>
+      <c r="R23" s="11"/>
       <c r="S23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T23" s="11" t="s">
+      <c r="T23" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
       <c r="Z23" t="s">
         <v>383</v>
       </c>
@@ -2853,49 +2850,49 @@
       </c>
     </row>
     <row r="24" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="9" t="s">
+      <c r="B24" s="10"/>
+      <c r="C24" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9" t="s">
+      <c r="D24" s="11"/>
+      <c r="E24" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10">
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12">
         <v>1082.06</v>
       </c>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="9" t="s">
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O24" s="9"/>
+      <c r="O24" s="11"/>
       <c r="P24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q24" s="9" t="s">
+      <c r="Q24" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R24" s="9"/>
+      <c r="R24" s="11"/>
       <c r="S24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T24" s="11" t="s">
+      <c r="T24" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
       <c r="Y24" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="Z24" t="s">
         <v>383</v>
@@ -2906,55 +2903,55 @@
     </row>
     <row r="25" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="26" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="W26" s="7" t="s">
+      <c r="W26" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="X26" s="7"/>
+      <c r="X26" s="14"/>
     </row>
     <row r="27" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="9" t="s">
+      <c r="B27" s="10"/>
+      <c r="C27" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9" t="s">
+      <c r="D27" s="11"/>
+      <c r="E27" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10">
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12">
         <v>2000</v>
       </c>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="9" t="s">
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O27" s="9"/>
+      <c r="O27" s="11"/>
       <c r="P27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q27" s="9" t="s">
+      <c r="Q27" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R27" s="9"/>
+      <c r="R27" s="11"/>
       <c r="S27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T27" s="11" t="s">
+      <c r="T27" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
       <c r="Y27" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="Z27" t="s">
         <v>383</v>
@@ -2964,49 +2961,49 @@
       </c>
     </row>
     <row r="28" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="9" t="s">
+      <c r="B28" s="10"/>
+      <c r="C28" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9" t="s">
+      <c r="D28" s="11"/>
+      <c r="E28" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10">
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12">
         <v>2254</v>
       </c>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="9" t="s">
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O28" s="9"/>
+      <c r="O28" s="11"/>
       <c r="P28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q28" s="9" t="s">
+      <c r="Q28" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R28" s="9"/>
+      <c r="R28" s="11"/>
       <c r="S28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T28" s="11" t="s">
+      <c r="T28" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
       <c r="Y28" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="Z28" t="s">
         <v>383</v>
@@ -3016,47 +3013,47 @@
       </c>
     </row>
     <row r="29" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="9" t="s">
+      <c r="B29" s="10"/>
+      <c r="C29" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9" t="s">
+      <c r="D29" s="11"/>
+      <c r="E29" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10">
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12">
         <v>283.89999999999998</v>
       </c>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="9" t="s">
+      <c r="L29" s="12"/>
+      <c r="M29" s="12"/>
+      <c r="N29" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O29" s="9"/>
+      <c r="O29" s="11"/>
       <c r="P29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q29" s="9" t="s">
+      <c r="Q29" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R29" s="9"/>
+      <c r="R29" s="11"/>
       <c r="S29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="11" t="s">
+      <c r="T29" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
       <c r="Y29" t="s">
         <v>384</v>
       </c>
@@ -3068,49 +3065,49 @@
       </c>
     </row>
     <row r="30" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9" t="s">
+      <c r="B30" s="10"/>
+      <c r="C30" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9" t="s">
+      <c r="D30" s="11"/>
+      <c r="E30" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10">
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="12"/>
+      <c r="K30" s="12">
         <v>1633</v>
       </c>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="9" t="s">
+      <c r="L30" s="12"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O30" s="9"/>
+      <c r="O30" s="11"/>
       <c r="P30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q30" s="9" t="s">
+      <c r="Q30" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R30" s="9"/>
+      <c r="R30" s="11"/>
       <c r="S30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T30" s="11" t="s">
+      <c r="T30" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
       <c r="Y30" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="Z30" t="s">
         <v>383</v>
@@ -3120,49 +3117,49 @@
       </c>
     </row>
     <row r="31" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="8"/>
-      <c r="C31" s="9" t="s">
+      <c r="B31" s="10"/>
+      <c r="C31" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9" t="s">
+      <c r="D31" s="11"/>
+      <c r="E31" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10">
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12">
         <v>4457</v>
       </c>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="9" t="s">
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O31" s="9"/>
+      <c r="O31" s="11"/>
       <c r="P31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q31" s="9" t="s">
+      <c r="Q31" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R31" s="9"/>
+      <c r="R31" s="11"/>
       <c r="S31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T31" s="11" t="s">
+      <c r="T31" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
       <c r="Y31" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="Z31" t="s">
         <v>383</v>
@@ -3172,49 +3169,49 @@
       </c>
     </row>
     <row r="32" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="8"/>
-      <c r="C32" s="9" t="s">
+      <c r="B32" s="10"/>
+      <c r="C32" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9" t="s">
+      <c r="D32" s="11"/>
+      <c r="E32" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10">
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12">
         <v>4079.45</v>
       </c>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="9" t="s">
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O32" s="9"/>
+      <c r="O32" s="11"/>
       <c r="P32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q32" s="9" t="s">
+      <c r="Q32" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R32" s="9"/>
+      <c r="R32" s="11"/>
       <c r="S32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T32" s="11" t="s">
+      <c r="T32" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
       <c r="Y32" t="s">
-        <v>431</v>
+        <v>411</v>
       </c>
       <c r="Z32" t="s">
         <v>383</v>
@@ -3224,47 +3221,47 @@
       </c>
     </row>
     <row r="33" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="8"/>
-      <c r="C33" s="9" t="s">
+      <c r="B33" s="10"/>
+      <c r="C33" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9" t="s">
+      <c r="D33" s="11"/>
+      <c r="E33" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10">
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="12">
         <v>2142.9</v>
       </c>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="9" t="s">
+      <c r="L33" s="12"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O33" s="9"/>
+      <c r="O33" s="11"/>
       <c r="P33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q33" s="9" t="s">
+      <c r="Q33" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R33" s="9"/>
+      <c r="R33" s="11"/>
       <c r="S33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T33" s="11" t="s">
+      <c r="T33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
       <c r="Y33" t="s">
         <v>385</v>
       </c>
@@ -3276,49 +3273,49 @@
       </c>
     </row>
     <row r="34" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="8"/>
-      <c r="C34" s="9" t="s">
+      <c r="B34" s="10"/>
+      <c r="C34" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9" t="s">
+      <c r="D34" s="11"/>
+      <c r="E34" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10">
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12">
         <v>1240</v>
       </c>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="9" t="s">
+      <c r="L34" s="12"/>
+      <c r="M34" s="12"/>
+      <c r="N34" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O34" s="9"/>
+      <c r="O34" s="11"/>
       <c r="P34" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q34" s="9" t="s">
+      <c r="Q34" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R34" s="9"/>
+      <c r="R34" s="11"/>
       <c r="S34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T34" s="11" t="s">
+      <c r="T34" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
       <c r="Y34" t="s">
-        <v>432</v>
+        <v>412</v>
       </c>
       <c r="Z34" t="s">
         <v>383</v>
@@ -3328,49 +3325,49 @@
       </c>
     </row>
     <row r="35" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="8"/>
-      <c r="C35" s="9" t="s">
+      <c r="B35" s="10"/>
+      <c r="C35" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9" t="s">
+      <c r="D35" s="11"/>
+      <c r="E35" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10">
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12">
         <v>2000</v>
       </c>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="9" t="s">
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O35" s="9"/>
+      <c r="O35" s="11"/>
       <c r="P35" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q35" s="9" t="s">
+      <c r="Q35" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R35" s="9"/>
+      <c r="R35" s="11"/>
       <c r="S35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T35" s="11" t="s">
+      <c r="T35" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="11"/>
+      <c r="U35" s="13"/>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
       <c r="Y35" t="s">
-        <v>433</v>
+        <v>413</v>
       </c>
       <c r="Z35" t="s">
         <v>383</v>
@@ -3380,49 +3377,49 @@
       </c>
     </row>
     <row r="36" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="9" t="s">
+      <c r="B36" s="10"/>
+      <c r="C36" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9" t="s">
+      <c r="D36" s="11"/>
+      <c r="E36" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10">
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12">
         <v>4234.2</v>
       </c>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="9" t="s">
+      <c r="L36" s="12"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O36" s="9"/>
+      <c r="O36" s="11"/>
       <c r="P36" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q36" s="9" t="s">
+      <c r="Q36" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R36" s="9"/>
+      <c r="R36" s="11"/>
       <c r="S36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T36" s="11" t="s">
+      <c r="T36" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="U36" s="11"/>
-      <c r="V36" s="11"/>
-      <c r="W36" s="11"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="13"/>
+      <c r="W36" s="13"/>
       <c r="Y36" t="s">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="Z36" t="s">
         <v>383</v>
@@ -3432,49 +3429,49 @@
       </c>
     </row>
     <row r="37" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="9" t="s">
+      <c r="B37" s="10"/>
+      <c r="C37" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9" t="s">
+      <c r="D37" s="11"/>
+      <c r="E37" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10">
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12">
         <v>1665</v>
       </c>
-      <c r="L37" s="10"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="9" t="s">
+      <c r="L37" s="12"/>
+      <c r="M37" s="12"/>
+      <c r="N37" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O37" s="9"/>
+      <c r="O37" s="11"/>
       <c r="P37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q37" s="9" t="s">
+      <c r="Q37" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R37" s="9"/>
+      <c r="R37" s="11"/>
       <c r="S37" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T37" s="11" t="s">
+      <c r="T37" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="U37" s="11"/>
-      <c r="V37" s="11"/>
-      <c r="W37" s="11"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="13"/>
       <c r="Y37" t="s">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="Z37" t="s">
         <v>383</v>
@@ -3484,47 +3481,47 @@
       </c>
     </row>
     <row r="38" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="8"/>
-      <c r="C38" s="9" t="s">
+      <c r="B38" s="10"/>
+      <c r="C38" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9" t="s">
+      <c r="D38" s="11"/>
+      <c r="E38" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10">
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12">
         <v>500</v>
       </c>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="9" t="s">
+      <c r="L38" s="12"/>
+      <c r="M38" s="12"/>
+      <c r="N38" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O38" s="9"/>
+      <c r="O38" s="11"/>
       <c r="P38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q38" s="9" t="s">
+      <c r="Q38" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R38" s="9"/>
+      <c r="R38" s="11"/>
       <c r="S38" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T38" s="11" t="s">
+      <c r="T38" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="U38" s="11"/>
-      <c r="V38" s="11"/>
-      <c r="W38" s="11"/>
+      <c r="U38" s="13"/>
+      <c r="V38" s="13"/>
+      <c r="W38" s="13"/>
       <c r="Y38" t="s">
         <v>386</v>
       </c>
@@ -3536,49 +3533,49 @@
       </c>
     </row>
     <row r="39" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="8"/>
-      <c r="C39" s="9" t="s">
+      <c r="B39" s="10"/>
+      <c r="C39" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9" t="s">
+      <c r="D39" s="11"/>
+      <c r="E39" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10">
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+      <c r="K39" s="12">
         <v>1831</v>
       </c>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="9" t="s">
+      <c r="L39" s="12"/>
+      <c r="M39" s="12"/>
+      <c r="N39" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O39" s="9"/>
+      <c r="O39" s="11"/>
       <c r="P39" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q39" s="9" t="s">
+      <c r="Q39" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R39" s="9"/>
+      <c r="R39" s="11"/>
       <c r="S39" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T39" s="11" t="s">
+      <c r="T39" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="U39" s="11"/>
-      <c r="V39" s="11"/>
-      <c r="W39" s="11"/>
+      <c r="U39" s="13"/>
+      <c r="V39" s="13"/>
+      <c r="W39" s="13"/>
       <c r="Y39" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
       <c r="Z39" t="s">
         <v>383</v>
@@ -3588,47 +3585,47 @@
       </c>
     </row>
     <row r="40" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="8"/>
-      <c r="C40" s="9" t="s">
+      <c r="B40" s="10"/>
+      <c r="C40" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9" t="s">
+      <c r="D40" s="11"/>
+      <c r="E40" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10">
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12">
         <v>1604.75</v>
       </c>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="9" t="s">
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O40" s="9"/>
+      <c r="O40" s="11"/>
       <c r="P40" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q40" s="9" t="s">
+      <c r="Q40" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R40" s="9"/>
+      <c r="R40" s="11"/>
       <c r="S40" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T40" s="11" t="s">
+      <c r="T40" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="U40" s="11"/>
-      <c r="V40" s="11"/>
-      <c r="W40" s="11"/>
+      <c r="U40" s="13"/>
+      <c r="V40" s="13"/>
+      <c r="W40" s="13"/>
       <c r="Y40" t="s">
         <v>387</v>
       </c>
@@ -3640,49 +3637,49 @@
       </c>
     </row>
     <row r="41" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B41" s="8"/>
-      <c r="C41" s="9" t="s">
+      <c r="B41" s="10"/>
+      <c r="C41" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9" t="s">
+      <c r="D41" s="11"/>
+      <c r="E41" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10">
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12">
         <v>1331</v>
       </c>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="9" t="s">
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O41" s="9"/>
+      <c r="O41" s="11"/>
       <c r="P41" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q41" s="9" t="s">
+      <c r="Q41" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R41" s="9"/>
+      <c r="R41" s="11"/>
       <c r="S41" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T41" s="11" t="s">
+      <c r="T41" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="U41" s="11"/>
-      <c r="V41" s="11"/>
-      <c r="W41" s="11"/>
+      <c r="U41" s="13"/>
+      <c r="V41" s="13"/>
+      <c r="W41" s="13"/>
       <c r="Y41" t="s">
-        <v>437</v>
+        <v>417</v>
       </c>
       <c r="Z41" t="s">
         <v>383</v>
@@ -3692,47 +3689,47 @@
       </c>
     </row>
     <row r="42" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="9" t="s">
+      <c r="B42" s="10"/>
+      <c r="C42" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9" t="s">
+      <c r="D42" s="11"/>
+      <c r="E42" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10">
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12">
         <v>1400</v>
       </c>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="9" t="s">
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O42" s="9"/>
+      <c r="O42" s="11"/>
       <c r="P42" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q42" s="9" t="s">
+      <c r="Q42" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R42" s="9"/>
+      <c r="R42" s="11"/>
       <c r="S42" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T42" s="11" t="s">
+      <c r="T42" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="U42" s="11"/>
-      <c r="V42" s="11"/>
-      <c r="W42" s="11"/>
+      <c r="U42" s="13"/>
+      <c r="V42" s="13"/>
+      <c r="W42" s="13"/>
       <c r="Y42" t="s">
         <v>388</v>
       </c>
@@ -3745,55 +3742,55 @@
     </row>
     <row r="43" spans="1:28" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="44" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="W44" s="7" t="s">
+      <c r="W44" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="X44" s="7"/>
+      <c r="X44" s="14"/>
     </row>
     <row r="45" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="9" t="s">
+      <c r="B45" s="10"/>
+      <c r="C45" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9" t="s">
+      <c r="D45" s="11"/>
+      <c r="E45" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10">
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12">
         <v>7689.79</v>
       </c>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="9" t="s">
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O45" s="9"/>
+      <c r="O45" s="11"/>
       <c r="P45" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q45" s="9" t="s">
+      <c r="Q45" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R45" s="9"/>
+      <c r="R45" s="11"/>
       <c r="S45" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T45" s="11" t="s">
+      <c r="T45" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="U45" s="11"/>
-      <c r="V45" s="11"/>
-      <c r="W45" s="11"/>
+      <c r="U45" s="13"/>
+      <c r="V45" s="13"/>
+      <c r="W45" s="13"/>
       <c r="Y45" t="s">
-        <v>438</v>
+        <v>418</v>
       </c>
       <c r="Z45" t="s">
         <v>383</v>
@@ -3803,47 +3800,47 @@
       </c>
     </row>
     <row r="46" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="9" t="s">
+      <c r="B46" s="10"/>
+      <c r="C46" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9" t="s">
+      <c r="D46" s="11"/>
+      <c r="E46" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10">
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12">
         <v>58.2</v>
       </c>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="9" t="s">
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O46" s="9"/>
+      <c r="O46" s="11"/>
       <c r="P46" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q46" s="9" t="s">
+      <c r="Q46" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="R46" s="9"/>
+      <c r="R46" s="11"/>
       <c r="S46" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T46" s="11" t="s">
+      <c r="T46" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="U46" s="11"/>
-      <c r="V46" s="11"/>
-      <c r="W46" s="11"/>
+      <c r="U46" s="13"/>
+      <c r="V46" s="13"/>
+      <c r="W46" s="13"/>
       <c r="Y46" t="s">
         <v>389</v>
       </c>
@@ -3855,99 +3852,96 @@
       </c>
     </row>
     <row r="47" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B47" s="8"/>
-      <c r="C47" s="9" t="s">
+      <c r="B47" s="10"/>
+      <c r="C47" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9" t="s">
+      <c r="D47" s="11"/>
+      <c r="E47" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10">
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12">
         <v>1139.0999999999999</v>
       </c>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="9" t="s">
+      <c r="L47" s="12"/>
+      <c r="M47" s="12"/>
+      <c r="N47" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="O47" s="9"/>
+      <c r="O47" s="11"/>
       <c r="P47" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="Q47" s="9" t="s">
+      <c r="Q47" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="R47" s="9"/>
+      <c r="R47" s="11"/>
       <c r="S47" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T47" s="11" t="s">
+      <c r="T47" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="U47" s="11"/>
-      <c r="V47" s="11"/>
-      <c r="W47" s="11"/>
-      <c r="Y47" t="s">
-        <v>439</v>
-      </c>
+      <c r="U47" s="13"/>
+      <c r="V47" s="13"/>
+      <c r="W47" s="13"/>
       <c r="Z47" t="s">
         <v>383</v>
       </c>
-      <c r="AA47">
-        <v>1139.0999999999999</v>
+      <c r="AB47" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="48" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="B48" s="8"/>
-      <c r="C48" s="9" t="s">
+      <c r="B48" s="10"/>
+      <c r="C48" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9" t="s">
+      <c r="D48" s="11"/>
+      <c r="E48" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10">
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12">
         <v>957.53</v>
       </c>
-      <c r="L48" s="10"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="9" t="s">
+      <c r="L48" s="12"/>
+      <c r="M48" s="12"/>
+      <c r="N48" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="O48" s="9"/>
+      <c r="O48" s="11"/>
       <c r="P48" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q48" s="9" t="s">
+      <c r="Q48" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="R48" s="9"/>
+      <c r="R48" s="11"/>
       <c r="S48" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T48" s="11" t="s">
+      <c r="T48" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="U48" s="11"/>
-      <c r="V48" s="11"/>
-      <c r="W48" s="11"/>
+      <c r="U48" s="13"/>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13"/>
       <c r="Z48" t="s">
         <v>383</v>
       </c>
@@ -3956,47 +3950,47 @@
       </c>
     </row>
     <row r="49" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="9" t="s">
+      <c r="B49" s="10"/>
+      <c r="C49" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="D49" s="9"/>
-      <c r="E49" s="9" t="s">
+      <c r="D49" s="11"/>
+      <c r="E49" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10">
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12">
         <v>2261</v>
       </c>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="9" t="s">
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="O49" s="9"/>
+      <c r="O49" s="11"/>
       <c r="P49" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="Q49" s="9" t="s">
+      <c r="Q49" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="R49" s="9"/>
+      <c r="R49" s="11"/>
       <c r="S49" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T49" s="11" t="s">
+      <c r="T49" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="U49" s="11"/>
-      <c r="V49" s="11"/>
-      <c r="W49" s="11"/>
+      <c r="U49" s="13"/>
+      <c r="V49" s="13"/>
+      <c r="W49" s="13"/>
       <c r="Y49" t="s">
         <v>390</v>
       </c>
@@ -4008,49 +4002,49 @@
       </c>
     </row>
     <row r="50" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="9" t="s">
+      <c r="B50" s="10"/>
+      <c r="C50" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9" t="s">
+      <c r="D50" s="11"/>
+      <c r="E50" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10">
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12">
         <v>970</v>
       </c>
-      <c r="L50" s="10"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="9" t="s">
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="O50" s="9"/>
+      <c r="O50" s="11"/>
       <c r="P50" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Q50" s="9" t="s">
+      <c r="Q50" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="R50" s="9"/>
+      <c r="R50" s="11"/>
       <c r="S50" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T50" s="11" t="s">
+      <c r="T50" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="U50" s="11"/>
-      <c r="V50" s="11"/>
-      <c r="W50" s="11"/>
+      <c r="U50" s="13"/>
+      <c r="V50" s="13"/>
+      <c r="W50" s="13"/>
       <c r="Y50" t="s">
-        <v>440</v>
+        <v>419</v>
       </c>
       <c r="Z50" t="s">
         <v>383</v>
@@ -4060,47 +4054,47 @@
       </c>
     </row>
     <row r="51" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="9" t="s">
+      <c r="B51" s="10"/>
+      <c r="C51" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="D51" s="9"/>
-      <c r="E51" s="9" t="s">
+      <c r="D51" s="11"/>
+      <c r="E51" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10">
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12">
         <v>14.35</v>
       </c>
-      <c r="L51" s="10"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="9" t="s">
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="O51" s="9"/>
+      <c r="O51" s="11"/>
       <c r="P51" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Q51" s="9" t="s">
+      <c r="Q51" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="R51" s="9"/>
+      <c r="R51" s="11"/>
       <c r="S51" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T51" s="11" t="s">
+      <c r="T51" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="U51" s="11"/>
-      <c r="V51" s="11"/>
-      <c r="W51" s="11"/>
+      <c r="U51" s="13"/>
+      <c r="V51" s="13"/>
+      <c r="W51" s="13"/>
       <c r="Y51" t="s">
         <v>391</v>
       </c>
@@ -4112,49 +4106,49 @@
       </c>
     </row>
     <row r="52" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="9" t="s">
+      <c r="B52" s="10"/>
+      <c r="C52" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9" t="s">
+      <c r="D52" s="11"/>
+      <c r="E52" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10">
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12">
         <v>14</v>
       </c>
-      <c r="L52" s="10"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="9" t="s">
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="O52" s="9"/>
+      <c r="O52" s="11"/>
       <c r="P52" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Q52" s="9" t="s">
+      <c r="Q52" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="R52" s="9"/>
+      <c r="R52" s="11"/>
       <c r="S52" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T52" s="11" t="s">
+      <c r="T52" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="U52" s="11"/>
-      <c r="V52" s="11"/>
-      <c r="W52" s="11"/>
+      <c r="U52" s="13"/>
+      <c r="V52" s="13"/>
+      <c r="W52" s="13"/>
       <c r="Y52" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="Z52" t="s">
         <v>383</v>
@@ -4164,49 +4158,49 @@
       </c>
     </row>
     <row r="53" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="9" t="s">
+      <c r="B53" s="10"/>
+      <c r="C53" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="D53" s="9"/>
-      <c r="E53" s="9" t="s">
+      <c r="D53" s="11"/>
+      <c r="E53" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10">
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12">
         <v>2214</v>
       </c>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="9" t="s">
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="O53" s="9"/>
+      <c r="O53" s="11"/>
       <c r="P53" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="Q53" s="9" t="s">
+      <c r="Q53" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="R53" s="9"/>
+      <c r="R53" s="11"/>
       <c r="S53" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T53" s="11" t="s">
+      <c r="T53" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="U53" s="11"/>
-      <c r="V53" s="11"/>
-      <c r="W53" s="11"/>
+      <c r="U53" s="13"/>
+      <c r="V53" s="13"/>
+      <c r="W53" s="13"/>
       <c r="Y53" t="s">
-        <v>441</v>
+        <v>420</v>
       </c>
       <c r="Z53" t="s">
         <v>383</v>
@@ -4216,49 +4210,49 @@
       </c>
     </row>
     <row r="54" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="B54" s="8"/>
-      <c r="C54" s="9" t="s">
+      <c r="B54" s="10"/>
+      <c r="C54" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D54" s="9"/>
-      <c r="E54" s="9" t="s">
+      <c r="D54" s="11"/>
+      <c r="E54" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10">
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12">
         <v>1316.7</v>
       </c>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="9" t="s">
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="O54" s="9"/>
+      <c r="O54" s="11"/>
       <c r="P54" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q54" s="9" t="s">
+      <c r="Q54" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="R54" s="9"/>
+      <c r="R54" s="11"/>
       <c r="S54" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T54" s="11" t="s">
+      <c r="T54" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="U54" s="11"/>
-      <c r="V54" s="11"/>
-      <c r="W54" s="11"/>
+      <c r="U54" s="13"/>
+      <c r="V54" s="13"/>
+      <c r="W54" s="13"/>
       <c r="Y54" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="Z54" t="s">
         <v>383</v>
@@ -4268,47 +4262,47 @@
       </c>
     </row>
     <row r="55" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="B55" s="8"/>
-      <c r="C55" s="9" t="s">
+      <c r="B55" s="10"/>
+      <c r="C55" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9" t="s">
+      <c r="D55" s="11"/>
+      <c r="E55" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10">
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12">
         <v>1782</v>
       </c>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="9" t="s">
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="O55" s="9"/>
+      <c r="O55" s="11"/>
       <c r="P55" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q55" s="9" t="s">
+      <c r="Q55" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="R55" s="9"/>
+      <c r="R55" s="11"/>
       <c r="S55" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T55" s="11" t="s">
+      <c r="T55" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="U55" s="11"/>
-      <c r="V55" s="11"/>
-      <c r="W55" s="11"/>
+      <c r="U55" s="13"/>
+      <c r="V55" s="13"/>
+      <c r="W55" s="13"/>
       <c r="Y55" t="s">
         <v>392</v>
       </c>
@@ -4320,49 +4314,49 @@
       </c>
     </row>
     <row r="56" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="B56" s="8"/>
-      <c r="C56" s="9" t="s">
+      <c r="B56" s="10"/>
+      <c r="C56" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9" t="s">
+      <c r="D56" s="11"/>
+      <c r="E56" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10">
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12">
         <v>2369.66</v>
       </c>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="9" t="s">
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="O56" s="9"/>
+      <c r="O56" s="11"/>
       <c r="P56" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q56" s="9" t="s">
+      <c r="Q56" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="R56" s="9"/>
+      <c r="R56" s="11"/>
       <c r="S56" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T56" s="11" t="s">
+      <c r="T56" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="U56" s="11"/>
-      <c r="V56" s="11"/>
-      <c r="W56" s="11"/>
+      <c r="U56" s="13"/>
+      <c r="V56" s="13"/>
+      <c r="W56" s="13"/>
       <c r="Y56" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="Z56" t="s">
         <v>383</v>
@@ -4372,49 +4366,49 @@
       </c>
     </row>
     <row r="57" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="B57" s="8"/>
-      <c r="C57" s="9" t="s">
+      <c r="B57" s="10"/>
+      <c r="C57" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9" t="s">
+      <c r="D57" s="11"/>
+      <c r="E57" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10">
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12">
         <v>3960</v>
       </c>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="9" t="s">
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="O57" s="9"/>
+      <c r="O57" s="11"/>
       <c r="P57" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q57" s="9" t="s">
+      <c r="Q57" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="R57" s="9"/>
+      <c r="R57" s="11"/>
       <c r="S57" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T57" s="11" t="s">
+      <c r="T57" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="U57" s="11"/>
-      <c r="V57" s="11"/>
-      <c r="W57" s="11"/>
+      <c r="U57" s="13"/>
+      <c r="V57" s="13"/>
+      <c r="W57" s="13"/>
       <c r="Y57" t="s">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="Z57" t="s">
         <v>383</v>
@@ -4424,47 +4418,47 @@
       </c>
     </row>
     <row r="58" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="B58" s="8"/>
-      <c r="C58" s="9" t="s">
+      <c r="B58" s="10"/>
+      <c r="C58" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9" t="s">
+      <c r="D58" s="11"/>
+      <c r="E58" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10">
+      <c r="F58" s="11"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12">
         <v>773.39</v>
       </c>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="9" t="s">
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="O58" s="9"/>
+      <c r="O58" s="11"/>
       <c r="P58" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q58" s="9" t="s">
+      <c r="Q58" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="R58" s="9"/>
+      <c r="R58" s="11"/>
       <c r="S58" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T58" s="11" t="s">
+      <c r="T58" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="U58" s="11"/>
-      <c r="V58" s="11"/>
-      <c r="W58" s="11"/>
+      <c r="U58" s="13"/>
+      <c r="V58" s="13"/>
+      <c r="W58" s="13"/>
       <c r="Y58" t="s">
         <v>393</v>
       </c>
@@ -4476,47 +4470,47 @@
       </c>
     </row>
     <row r="59" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="9" t="s">
+      <c r="B59" s="10"/>
+      <c r="C59" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9" t="s">
+      <c r="D59" s="11"/>
+      <c r="E59" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10">
+      <c r="F59" s="11"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12">
         <v>14.45</v>
       </c>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="9" t="s">
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="O59" s="9"/>
+      <c r="O59" s="11"/>
       <c r="P59" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q59" s="9" t="s">
+      <c r="Q59" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="R59" s="9"/>
+      <c r="R59" s="11"/>
       <c r="S59" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T59" s="11" t="s">
+      <c r="T59" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="U59" s="11"/>
-      <c r="V59" s="11"/>
-      <c r="W59" s="11"/>
+      <c r="U59" s="13"/>
+      <c r="V59" s="13"/>
+      <c r="W59" s="13"/>
       <c r="Y59" t="s">
         <v>394</v>
       </c>
@@ -4528,49 +4522,49 @@
       </c>
     </row>
     <row r="60" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B60" s="8"/>
-      <c r="C60" s="9" t="s">
+      <c r="B60" s="10"/>
+      <c r="C60" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9" t="s">
+      <c r="D60" s="11"/>
+      <c r="E60" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10">
+      <c r="F60" s="11"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12">
         <v>656.86</v>
       </c>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="9" t="s">
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="O60" s="9"/>
+      <c r="O60" s="11"/>
       <c r="P60" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q60" s="9" t="s">
+      <c r="Q60" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="R60" s="9"/>
+      <c r="R60" s="11"/>
       <c r="S60" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T60" s="11" t="s">
+      <c r="T60" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="U60" s="11"/>
-      <c r="V60" s="11"/>
-      <c r="W60" s="11"/>
+      <c r="U60" s="13"/>
+      <c r="V60" s="13"/>
+      <c r="W60" s="13"/>
       <c r="Y60" t="s">
-        <v>395</v>
+        <v>433</v>
       </c>
       <c r="Z60" t="s">
         <v>383</v>
@@ -4581,55 +4575,55 @@
     </row>
     <row r="61" spans="1:27" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="62" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="W62" s="7" t="s">
+      <c r="W62" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="X62" s="7"/>
+      <c r="X62" s="14"/>
     </row>
     <row r="63" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="B63" s="8"/>
-      <c r="C63" s="9" t="s">
+      <c r="B63" s="10"/>
+      <c r="C63" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9" t="s">
+      <c r="D63" s="11"/>
+      <c r="E63" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10">
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12">
         <v>1430.45</v>
       </c>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="9" t="s">
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="O63" s="9"/>
+      <c r="O63" s="11"/>
       <c r="P63" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q63" s="9" t="s">
+      <c r="Q63" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="R63" s="9"/>
+      <c r="R63" s="11"/>
       <c r="S63" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T63" s="11" t="s">
+      <c r="T63" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="U63" s="11"/>
-      <c r="V63" s="11"/>
-      <c r="W63" s="11"/>
+      <c r="U63" s="13"/>
+      <c r="V63" s="13"/>
+      <c r="W63" s="13"/>
       <c r="Y63" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="Z63" t="s">
         <v>383</v>
@@ -4639,49 +4633,49 @@
       </c>
     </row>
     <row r="64" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="B64" s="8"/>
-      <c r="C64" s="9" t="s">
+      <c r="B64" s="10"/>
+      <c r="C64" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9" t="s">
+      <c r="D64" s="11"/>
+      <c r="E64" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10">
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12">
         <v>2555.19</v>
       </c>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="9" t="s">
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="O64" s="9"/>
+      <c r="O64" s="11"/>
       <c r="P64" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q64" s="9" t="s">
+      <c r="Q64" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="R64" s="9"/>
+      <c r="R64" s="11"/>
       <c r="S64" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T64" s="11" t="s">
+      <c r="T64" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="U64" s="11"/>
-      <c r="V64" s="11"/>
-      <c r="W64" s="11"/>
+      <c r="U64" s="13"/>
+      <c r="V64" s="13"/>
+      <c r="W64" s="13"/>
       <c r="Y64" t="s">
-        <v>442</v>
+        <v>421</v>
       </c>
       <c r="Z64" t="s">
         <v>383</v>
@@ -4691,49 +4685,49 @@
       </c>
     </row>
     <row r="65" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="B65" s="8"/>
-      <c r="C65" s="9" t="s">
+      <c r="B65" s="10"/>
+      <c r="C65" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9" t="s">
+      <c r="D65" s="11"/>
+      <c r="E65" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10">
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12">
         <v>1330.56</v>
       </c>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="9" t="s">
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="O65" s="9"/>
+      <c r="O65" s="11"/>
       <c r="P65" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q65" s="9" t="s">
+      <c r="Q65" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="R65" s="9"/>
+      <c r="R65" s="11"/>
       <c r="S65" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T65" s="11" t="s">
+      <c r="T65" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="U65" s="11"/>
-      <c r="V65" s="11"/>
-      <c r="W65" s="11"/>
+      <c r="U65" s="13"/>
+      <c r="V65" s="13"/>
+      <c r="W65" s="13"/>
       <c r="Y65" t="s">
-        <v>443</v>
+        <v>422</v>
       </c>
       <c r="Z65" t="s">
         <v>383</v>
@@ -4743,49 +4737,49 @@
       </c>
     </row>
     <row r="66" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="B66" s="8"/>
-      <c r="C66" s="9" t="s">
+      <c r="B66" s="10"/>
+      <c r="C66" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9" t="s">
+      <c r="D66" s="11"/>
+      <c r="E66" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10">
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12">
         <v>1698.43</v>
       </c>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="9" t="s">
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="O66" s="9"/>
+      <c r="O66" s="11"/>
       <c r="P66" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q66" s="9" t="s">
+      <c r="Q66" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="R66" s="9"/>
+      <c r="R66" s="11"/>
       <c r="S66" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T66" s="11" t="s">
+      <c r="T66" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="U66" s="11"/>
-      <c r="V66" s="11"/>
-      <c r="W66" s="11"/>
+      <c r="U66" s="13"/>
+      <c r="V66" s="13"/>
+      <c r="W66" s="13"/>
       <c r="Y66" t="s">
-        <v>420</v>
+        <v>434</v>
       </c>
       <c r="Z66" t="s">
         <v>383</v>
@@ -4795,49 +4789,49 @@
       </c>
     </row>
     <row r="67" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="B67" s="8"/>
-      <c r="C67" s="9" t="s">
+      <c r="B67" s="10"/>
+      <c r="C67" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9" t="s">
+      <c r="D67" s="11"/>
+      <c r="E67" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10">
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12">
         <v>1376.1</v>
       </c>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="9" t="s">
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="O67" s="9"/>
+      <c r="O67" s="11"/>
       <c r="P67" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q67" s="9" t="s">
+      <c r="Q67" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="R67" s="9"/>
+      <c r="R67" s="11"/>
       <c r="S67" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T67" s="11" t="s">
+      <c r="T67" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="U67" s="11"/>
-      <c r="V67" s="11"/>
-      <c r="W67" s="11"/>
+      <c r="U67" s="13"/>
+      <c r="V67" s="13"/>
+      <c r="W67" s="13"/>
       <c r="Y67" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="Z67" t="s">
         <v>383</v>
@@ -4847,49 +4841,49 @@
       </c>
     </row>
     <row r="68" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="B68" s="8"/>
-      <c r="C68" s="9" t="s">
+      <c r="B68" s="10"/>
+      <c r="C68" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9" t="s">
+      <c r="D68" s="11"/>
+      <c r="E68" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10">
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12">
         <v>14.85</v>
       </c>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="9" t="s">
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="O68" s="9"/>
+      <c r="O68" s="11"/>
       <c r="P68" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q68" s="9" t="s">
+      <c r="Q68" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="R68" s="9"/>
+      <c r="R68" s="11"/>
       <c r="S68" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T68" s="11" t="s">
+      <c r="T68" s="13" t="s">
         <v>207</v>
       </c>
-      <c r="U68" s="11"/>
-      <c r="V68" s="11"/>
-      <c r="W68" s="11"/>
+      <c r="U68" s="13"/>
+      <c r="V68" s="13"/>
+      <c r="W68" s="13"/>
       <c r="Y68" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="Z68" t="s">
         <v>383</v>
@@ -4899,49 +4893,49 @@
       </c>
     </row>
     <row r="69" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="B69" s="8"/>
-      <c r="C69" s="9" t="s">
+      <c r="B69" s="10"/>
+      <c r="C69" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="D69" s="9"/>
-      <c r="E69" s="9" t="s">
+      <c r="D69" s="11"/>
+      <c r="E69" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10">
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12">
         <v>1810.71</v>
       </c>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="9" t="s">
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="O69" s="9"/>
+      <c r="O69" s="11"/>
       <c r="P69" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q69" s="9" t="s">
+      <c r="Q69" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="R69" s="9"/>
+      <c r="R69" s="11"/>
       <c r="S69" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="T69" s="11" t="s">
+      <c r="T69" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="U69" s="11"/>
-      <c r="V69" s="11"/>
-      <c r="W69" s="11"/>
+      <c r="U69" s="13"/>
+      <c r="V69" s="13"/>
+      <c r="W69" s="13"/>
       <c r="Y69" t="s">
-        <v>399</v>
+        <v>435</v>
       </c>
       <c r="Z69" t="s">
         <v>383</v>
@@ -4951,49 +4945,49 @@
       </c>
     </row>
     <row r="70" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="B70" s="8"/>
-      <c r="C70" s="9" t="s">
+      <c r="B70" s="10"/>
+      <c r="C70" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="D70" s="9"/>
-      <c r="E70" s="9" t="s">
+      <c r="D70" s="11"/>
+      <c r="E70" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10">
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12">
         <v>1666.17</v>
       </c>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10"/>
-      <c r="N70" s="9" t="s">
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="O70" s="9"/>
+      <c r="O70" s="11"/>
       <c r="P70" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q70" s="9" t="s">
+      <c r="Q70" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="R70" s="9"/>
+      <c r="R70" s="11"/>
       <c r="S70" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="T70" s="11" t="s">
+      <c r="T70" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="U70" s="11"/>
-      <c r="V70" s="11"/>
-      <c r="W70" s="11"/>
+      <c r="U70" s="13"/>
+      <c r="V70" s="13"/>
+      <c r="W70" s="13"/>
       <c r="Y70" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="Z70" t="s">
         <v>383</v>
@@ -5003,90 +4997,96 @@
       </c>
     </row>
     <row r="71" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="B71" s="8"/>
-      <c r="C71" s="9" t="s">
+      <c r="B71" s="10"/>
+      <c r="C71" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9" t="s">
+      <c r="D71" s="11"/>
+      <c r="E71" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10">
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12">
         <v>14.85</v>
       </c>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="9" t="s">
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="O71" s="9"/>
+      <c r="O71" s="11"/>
       <c r="P71" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q71" s="9" t="s">
+      <c r="Q71" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="R71" s="9"/>
+      <c r="R71" s="11"/>
       <c r="S71" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="T71" s="11" t="s">
+      <c r="T71" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="U71" s="11"/>
-      <c r="V71" s="11"/>
-      <c r="W71" s="11"/>
+      <c r="U71" s="13"/>
+      <c r="V71" s="13"/>
+      <c r="W71" s="13"/>
+      <c r="Z71" t="s">
+        <v>383</v>
+      </c>
+      <c r="AB71" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="72" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="B72" s="8"/>
-      <c r="C72" s="9" t="s">
+      <c r="B72" s="10"/>
+      <c r="C72" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="D72" s="9"/>
-      <c r="E72" s="9" t="s">
+      <c r="D72" s="11"/>
+      <c r="E72" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="10">
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="12">
         <v>50125</v>
       </c>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="9" t="s">
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="O72" s="9"/>
+      <c r="O72" s="11"/>
       <c r="P72" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="Q72" s="9" t="s">
+      <c r="Q72" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="R72" s="9"/>
+      <c r="R72" s="11"/>
       <c r="S72" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="T72" s="11" t="s">
+      <c r="T72" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="U72" s="11"/>
-      <c r="V72" s="11"/>
-      <c r="W72" s="11"/>
+      <c r="U72" s="13"/>
+      <c r="V72" s="13"/>
+      <c r="W72" s="13"/>
       <c r="Z72" t="s">
         <v>383</v>
       </c>
@@ -5095,47 +5095,47 @@
       </c>
     </row>
     <row r="73" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="8" t="s">
+      <c r="A73" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="B73" s="8"/>
-      <c r="C73" s="9" t="s">
+      <c r="B73" s="10"/>
+      <c r="C73" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="D73" s="9"/>
-      <c r="E73" s="9" t="s">
+      <c r="D73" s="11"/>
+      <c r="E73" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="10">
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="12">
         <v>200</v>
       </c>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="10"/>
-      <c r="N73" s="9" t="s">
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="O73" s="9"/>
+      <c r="O73" s="11"/>
       <c r="P73" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="Q73" s="9" t="s">
+      <c r="Q73" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="R73" s="9"/>
+      <c r="R73" s="11"/>
       <c r="S73" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="T73" s="11" t="s">
+      <c r="T73" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="U73" s="11"/>
-      <c r="V73" s="11"/>
-      <c r="W73" s="11"/>
+      <c r="U73" s="13"/>
+      <c r="V73" s="13"/>
+      <c r="W73" s="13"/>
       <c r="Z73" t="s">
         <v>383</v>
       </c>
@@ -5144,96 +5144,99 @@
       </c>
     </row>
     <row r="74" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="B74" s="8"/>
-      <c r="C74" s="9" t="s">
+      <c r="B74" s="10"/>
+      <c r="C74" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9" t="s">
+      <c r="D74" s="11"/>
+      <c r="E74" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10">
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12">
         <v>5000</v>
       </c>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="9" t="s">
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="O74" s="9"/>
+      <c r="O74" s="11"/>
       <c r="P74" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="Q74" s="9" t="s">
+      <c r="Q74" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="R74" s="9"/>
+      <c r="R74" s="11"/>
       <c r="S74" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="T74" s="11" t="s">
+      <c r="T74" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="U74" s="11"/>
-      <c r="V74" s="11"/>
-      <c r="W74" s="11"/>
+      <c r="U74" s="13"/>
+      <c r="V74" s="13"/>
+      <c r="W74" s="13"/>
       <c r="Y74" t="s">
-        <v>422</v>
+        <v>423</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>383</v>
       </c>
       <c r="AA74">
         <v>5000</v>
       </c>
     </row>
     <row r="75" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="8" t="s">
+      <c r="A75" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="B75" s="8"/>
-      <c r="C75" s="9" t="s">
+      <c r="B75" s="10"/>
+      <c r="C75" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9" t="s">
+      <c r="D75" s="11"/>
+      <c r="E75" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="10">
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="12">
         <v>15000</v>
       </c>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="10"/>
-      <c r="N75" s="9" t="s">
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="O75" s="9"/>
+      <c r="O75" s="11"/>
       <c r="P75" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="Q75" s="9" t="s">
+      <c r="Q75" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="R75" s="9"/>
+      <c r="R75" s="11"/>
       <c r="S75" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="T75" s="11" t="s">
+      <c r="T75" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="U75" s="11"/>
-      <c r="V75" s="11"/>
-      <c r="W75" s="11"/>
+      <c r="U75" s="13"/>
+      <c r="V75" s="13"/>
+      <c r="W75" s="13"/>
       <c r="Z75" t="s">
         <v>383</v>
       </c>
@@ -5242,47 +5245,47 @@
       </c>
     </row>
     <row r="76" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="B76" s="8"/>
-      <c r="C76" s="9" t="s">
+      <c r="B76" s="10"/>
+      <c r="C76" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9" t="s">
+      <c r="D76" s="11"/>
+      <c r="E76" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10">
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12">
         <v>122798.08</v>
       </c>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="9" t="s">
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="O76" s="9"/>
+      <c r="O76" s="11"/>
       <c r="P76" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="Q76" s="9" t="s">
+      <c r="Q76" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="R76" s="9"/>
+      <c r="R76" s="11"/>
       <c r="S76" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="T76" s="11" t="s">
+      <c r="T76" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="U76" s="11"/>
-      <c r="V76" s="11"/>
-      <c r="W76" s="11"/>
+      <c r="U76" s="13"/>
+      <c r="V76" s="13"/>
+      <c r="W76" s="13"/>
       <c r="Z76" t="s">
         <v>383</v>
       </c>
@@ -5291,47 +5294,47 @@
       </c>
     </row>
     <row r="77" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="8" t="s">
+      <c r="A77" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="B77" s="8"/>
-      <c r="C77" s="9" t="s">
+      <c r="B77" s="10"/>
+      <c r="C77" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9" t="s">
+      <c r="D77" s="11"/>
+      <c r="E77" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="10"/>
-      <c r="K77" s="10">
+      <c r="F77" s="11"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="J77" s="12"/>
+      <c r="K77" s="12">
         <v>119908.71</v>
       </c>
-      <c r="L77" s="10"/>
-      <c r="M77" s="10"/>
-      <c r="N77" s="9" t="s">
+      <c r="L77" s="12"/>
+      <c r="M77" s="12"/>
+      <c r="N77" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="O77" s="9"/>
+      <c r="O77" s="11"/>
       <c r="P77" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="Q77" s="9" t="s">
+      <c r="Q77" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="R77" s="9"/>
+      <c r="R77" s="11"/>
       <c r="S77" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="T77" s="11" t="s">
+      <c r="T77" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="U77" s="11"/>
-      <c r="V77" s="11"/>
-      <c r="W77" s="11"/>
+      <c r="U77" s="13"/>
+      <c r="V77" s="13"/>
+      <c r="W77" s="13"/>
       <c r="Z77" t="s">
         <v>383</v>
       </c>
@@ -5340,47 +5343,47 @@
       </c>
     </row>
     <row r="78" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="8" t="s">
+      <c r="A78" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="B78" s="8"/>
-      <c r="C78" s="9" t="s">
+      <c r="B78" s="10"/>
+      <c r="C78" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9" t="s">
+      <c r="D78" s="11"/>
+      <c r="E78" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="10">
+      <c r="F78" s="11"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12">
         <v>100542.42</v>
       </c>
-      <c r="L78" s="10"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="9" t="s">
+      <c r="L78" s="12"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="O78" s="9"/>
+      <c r="O78" s="11"/>
       <c r="P78" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="Q78" s="9" t="s">
+      <c r="Q78" s="11" t="s">
         <v>249</v>
       </c>
-      <c r="R78" s="9"/>
+      <c r="R78" s="11"/>
       <c r="S78" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="T78" s="11" t="s">
+      <c r="T78" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="U78" s="11"/>
-      <c r="V78" s="11"/>
-      <c r="W78" s="11"/>
+      <c r="U78" s="13"/>
+      <c r="V78" s="13"/>
+      <c r="W78" s="13"/>
       <c r="Z78" t="s">
         <v>383</v>
       </c>
@@ -5390,151 +5393,157 @@
     </row>
     <row r="79" spans="1:28" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="80" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="W80" s="7" t="s">
+      <c r="W80" s="14" t="s">
         <v>258</v>
       </c>
-      <c r="X80" s="7"/>
+      <c r="X80" s="14"/>
     </row>
     <row r="81" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="B81" s="8"/>
-      <c r="C81" s="9" t="s">
+      <c r="B81" s="10"/>
+      <c r="C81" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9" t="s">
+      <c r="D81" s="11"/>
+      <c r="E81" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="10"/>
-      <c r="K81" s="10">
+      <c r="F81" s="11"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12">
         <v>2632.42</v>
       </c>
-      <c r="L81" s="10"/>
-      <c r="M81" s="10"/>
-      <c r="N81" s="9" t="s">
+      <c r="L81" s="12"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="O81" s="9"/>
+      <c r="O81" s="11"/>
       <c r="P81" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="Q81" s="9" t="s">
+      <c r="Q81" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="R81" s="9"/>
+      <c r="R81" s="11"/>
       <c r="S81" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="T81" s="11" t="s">
+      <c r="T81" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="U81" s="11"/>
-      <c r="V81" s="11"/>
-      <c r="W81" s="11"/>
+      <c r="U81" s="13"/>
+      <c r="V81" s="13"/>
+      <c r="W81" s="13"/>
       <c r="Y81" t="s">
-        <v>423</v>
+        <v>424</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>383</v>
       </c>
       <c r="AA81">
         <v>2632.42</v>
       </c>
     </row>
     <row r="82" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="8" t="s">
+      <c r="A82" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="B82" s="8"/>
-      <c r="C82" s="9" t="s">
+      <c r="B82" s="10"/>
+      <c r="C82" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9" t="s">
+      <c r="D82" s="11"/>
+      <c r="E82" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="10"/>
-      <c r="K82" s="10">
+      <c r="F82" s="11"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12">
         <v>500</v>
       </c>
-      <c r="L82" s="10"/>
-      <c r="M82" s="10"/>
-      <c r="N82" s="9" t="s">
+      <c r="L82" s="12"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="O82" s="9"/>
+      <c r="O82" s="11"/>
       <c r="P82" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="Q82" s="9" t="s">
+      <c r="Q82" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="R82" s="9"/>
+      <c r="R82" s="11"/>
       <c r="S82" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="T82" s="11" t="s">
+      <c r="T82" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="U82" s="11"/>
-      <c r="V82" s="11"/>
-      <c r="W82" s="11"/>
+      <c r="U82" s="13"/>
+      <c r="V82" s="13"/>
+      <c r="W82" s="13"/>
       <c r="Y82" t="s">
-        <v>409</v>
+        <v>441</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>383</v>
       </c>
       <c r="AA82">
         <v>500</v>
       </c>
     </row>
     <row r="83" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="B83" s="8"/>
-      <c r="C83" s="9" t="s">
+      <c r="B83" s="10"/>
+      <c r="C83" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9" t="s">
+      <c r="D83" s="11"/>
+      <c r="E83" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="10">
+      <c r="F83" s="11"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="12">
         <v>16000</v>
       </c>
-      <c r="I83" s="10"/>
-      <c r="J83" s="10"/>
-      <c r="K83" s="10"/>
-      <c r="L83" s="10"/>
-      <c r="M83" s="10"/>
-      <c r="N83" s="9" t="s">
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="O83" s="9"/>
+      <c r="O83" s="11"/>
       <c r="P83" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="Q83" s="9" t="s">
+      <c r="Q83" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="R83" s="9"/>
+      <c r="R83" s="11"/>
       <c r="S83" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="T83" s="11" t="s">
+      <c r="T83" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="U83" s="11"/>
-      <c r="V83" s="11"/>
-      <c r="W83" s="11"/>
+      <c r="U83" s="13"/>
+      <c r="V83" s="13"/>
+      <c r="W83" s="13"/>
       <c r="Z83" t="s">
         <v>383</v>
       </c>
@@ -5543,47 +5552,47 @@
       </c>
     </row>
     <row r="84" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="B84" s="8"/>
-      <c r="C84" s="9" t="s">
+      <c r="B84" s="10"/>
+      <c r="C84" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9" t="s">
+      <c r="D84" s="11"/>
+      <c r="E84" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="10">
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="12">
         <v>10000</v>
       </c>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10"/>
-      <c r="K84" s="10"/>
-      <c r="L84" s="10"/>
-      <c r="M84" s="10"/>
-      <c r="N84" s="9" t="s">
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="O84" s="9"/>
+      <c r="O84" s="11"/>
       <c r="P84" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="Q84" s="9" t="s">
+      <c r="Q84" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="R84" s="9"/>
+      <c r="R84" s="11"/>
       <c r="S84" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="T84" s="11" t="s">
+      <c r="T84" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="U84" s="11"/>
-      <c r="V84" s="11"/>
-      <c r="W84" s="11"/>
+      <c r="U84" s="13"/>
+      <c r="V84" s="13"/>
+      <c r="W84" s="13"/>
       <c r="Z84" t="s">
         <v>383</v>
       </c>
@@ -5592,47 +5601,47 @@
       </c>
     </row>
     <row r="85" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="B85" s="8"/>
-      <c r="C85" s="9" t="s">
+      <c r="B85" s="10"/>
+      <c r="C85" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9" t="s">
+      <c r="D85" s="11"/>
+      <c r="E85" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="10">
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="12">
         <v>1000</v>
       </c>
-      <c r="I85" s="10"/>
-      <c r="J85" s="10"/>
-      <c r="K85" s="10"/>
-      <c r="L85" s="10"/>
-      <c r="M85" s="10"/>
-      <c r="N85" s="9" t="s">
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="O85" s="9"/>
+      <c r="O85" s="11"/>
       <c r="P85" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="Q85" s="9" t="s">
+      <c r="Q85" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="R85" s="9"/>
+      <c r="R85" s="11"/>
       <c r="S85" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="T85" s="11" t="s">
+      <c r="T85" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="U85" s="11"/>
-      <c r="V85" s="11"/>
-      <c r="W85" s="11"/>
+      <c r="U85" s="13"/>
+      <c r="V85" s="13"/>
+      <c r="W85" s="13"/>
       <c r="Z85" t="s">
         <v>383</v>
       </c>
@@ -5641,47 +5650,47 @@
       </c>
     </row>
     <row r="86" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="B86" s="8"/>
-      <c r="C86" s="9" t="s">
+      <c r="B86" s="10"/>
+      <c r="C86" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9" t="s">
+      <c r="D86" s="11"/>
+      <c r="E86" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="10">
+      <c r="F86" s="11"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="12">
         <v>3200</v>
       </c>
-      <c r="I86" s="10"/>
-      <c r="J86" s="10"/>
-      <c r="K86" s="10"/>
-      <c r="L86" s="10"/>
-      <c r="M86" s="10"/>
-      <c r="N86" s="9" t="s">
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="12"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="O86" s="9"/>
+      <c r="O86" s="11"/>
       <c r="P86" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="Q86" s="9" t="s">
+      <c r="Q86" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="R86" s="9"/>
+      <c r="R86" s="11"/>
       <c r="S86" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="T86" s="11" t="s">
+      <c r="T86" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="U86" s="11"/>
-      <c r="V86" s="11"/>
-      <c r="W86" s="11"/>
+      <c r="U86" s="13"/>
+      <c r="V86" s="13"/>
+      <c r="W86" s="13"/>
       <c r="Z86" t="s">
         <v>383</v>
       </c>
@@ -5690,47 +5699,47 @@
       </c>
     </row>
     <row r="87" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="8" t="s">
+      <c r="A87" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="B87" s="8"/>
-      <c r="C87" s="9" t="s">
+      <c r="B87" s="10"/>
+      <c r="C87" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9" t="s">
+      <c r="D87" s="11"/>
+      <c r="E87" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="10">
+      <c r="F87" s="11"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="12">
         <v>2300</v>
       </c>
-      <c r="I87" s="10"/>
-      <c r="J87" s="10"/>
-      <c r="K87" s="10"/>
-      <c r="L87" s="10"/>
-      <c r="M87" s="10"/>
-      <c r="N87" s="9" t="s">
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="12"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="O87" s="9"/>
+      <c r="O87" s="11"/>
       <c r="P87" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="Q87" s="9" t="s">
+      <c r="Q87" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="R87" s="9"/>
+      <c r="R87" s="11"/>
       <c r="S87" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="T87" s="11" t="s">
+      <c r="T87" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="U87" s="11"/>
-      <c r="V87" s="11"/>
-      <c r="W87" s="11"/>
+      <c r="U87" s="13"/>
+      <c r="V87" s="13"/>
+      <c r="W87" s="13"/>
       <c r="Z87" t="s">
         <v>383</v>
       </c>
@@ -5739,47 +5748,47 @@
       </c>
     </row>
     <row r="88" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="8" t="s">
+      <c r="A88" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="B88" s="8"/>
-      <c r="C88" s="9" t="s">
+      <c r="B88" s="10"/>
+      <c r="C88" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9" t="s">
+      <c r="D88" s="11"/>
+      <c r="E88" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="10">
+      <c r="F88" s="11"/>
+      <c r="G88" s="11"/>
+      <c r="H88" s="12">
         <v>230500</v>
       </c>
-      <c r="I88" s="10"/>
-      <c r="J88" s="10"/>
-      <c r="K88" s="10"/>
-      <c r="L88" s="10"/>
-      <c r="M88" s="10"/>
-      <c r="N88" s="9" t="s">
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="O88" s="9"/>
+      <c r="O88" s="11"/>
       <c r="P88" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="Q88" s="9" t="s">
+      <c r="Q88" s="11" t="s">
         <v>287</v>
       </c>
-      <c r="R88" s="9"/>
+      <c r="R88" s="11"/>
       <c r="S88" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="T88" s="11" t="s">
+      <c r="T88" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="U88" s="11"/>
-      <c r="V88" s="11"/>
-      <c r="W88" s="11"/>
+      <c r="U88" s="13"/>
+      <c r="V88" s="13"/>
+      <c r="W88" s="13"/>
       <c r="Z88" t="s">
         <v>383</v>
       </c>
@@ -5788,47 +5797,47 @@
       </c>
     </row>
     <row r="89" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B89" s="8"/>
-      <c r="C89" s="9" t="s">
+      <c r="B89" s="10"/>
+      <c r="C89" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9" t="s">
+      <c r="D89" s="11"/>
+      <c r="E89" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="10">
+      <c r="F89" s="11"/>
+      <c r="G89" s="11"/>
+      <c r="H89" s="12">
         <v>1800</v>
       </c>
-      <c r="I89" s="10"/>
-      <c r="J89" s="10"/>
-      <c r="K89" s="10"/>
-      <c r="L89" s="10"/>
-      <c r="M89" s="10"/>
-      <c r="N89" s="9" t="s">
+      <c r="I89" s="12"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="12"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="O89" s="9"/>
+      <c r="O89" s="11"/>
       <c r="P89" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="Q89" s="9" t="s">
+      <c r="Q89" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="R89" s="9"/>
+      <c r="R89" s="11"/>
       <c r="S89" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="T89" s="11" t="s">
+      <c r="T89" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="U89" s="11"/>
-      <c r="V89" s="11"/>
-      <c r="W89" s="11"/>
+      <c r="U89" s="13"/>
+      <c r="V89" s="13"/>
+      <c r="W89" s="13"/>
       <c r="Z89" t="s">
         <v>383</v>
       </c>
@@ -5837,47 +5846,47 @@
       </c>
     </row>
     <row r="90" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="8" t="s">
+      <c r="A90" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="B90" s="8"/>
-      <c r="C90" s="9" t="s">
+      <c r="B90" s="10"/>
+      <c r="C90" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9" t="s">
+      <c r="D90" s="11"/>
+      <c r="E90" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="10">
+      <c r="F90" s="11"/>
+      <c r="G90" s="11"/>
+      <c r="H90" s="12">
         <v>27000</v>
       </c>
-      <c r="I90" s="10"/>
-      <c r="J90" s="10"/>
-      <c r="K90" s="10"/>
-      <c r="L90" s="10"/>
-      <c r="M90" s="10"/>
-      <c r="N90" s="9" t="s">
+      <c r="I90" s="12"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="12"/>
+      <c r="L90" s="12"/>
+      <c r="M90" s="12"/>
+      <c r="N90" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="O90" s="9"/>
+      <c r="O90" s="11"/>
       <c r="P90" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="Q90" s="9" t="s">
+      <c r="Q90" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="R90" s="9"/>
+      <c r="R90" s="11"/>
       <c r="S90" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="T90" s="11" t="s">
+      <c r="T90" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="U90" s="11"/>
-      <c r="V90" s="11"/>
-      <c r="W90" s="11"/>
+      <c r="U90" s="13"/>
+      <c r="V90" s="13"/>
+      <c r="W90" s="13"/>
       <c r="Z90" t="s">
         <v>383</v>
       </c>
@@ -5886,47 +5895,47 @@
       </c>
     </row>
     <row r="91" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="9" t="s">
+      <c r="B91" s="10"/>
+      <c r="C91" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9" t="s">
+      <c r="D91" s="11"/>
+      <c r="E91" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="10">
+      <c r="F91" s="11"/>
+      <c r="G91" s="11"/>
+      <c r="H91" s="12">
         <v>96240</v>
       </c>
-      <c r="I91" s="10"/>
-      <c r="J91" s="10"/>
-      <c r="K91" s="10"/>
-      <c r="L91" s="10"/>
-      <c r="M91" s="10"/>
-      <c r="N91" s="9" t="s">
+      <c r="I91" s="12"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="12"/>
+      <c r="M91" s="12"/>
+      <c r="N91" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="O91" s="9"/>
+      <c r="O91" s="11"/>
       <c r="P91" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="Q91" s="9" t="s">
+      <c r="Q91" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="R91" s="9"/>
+      <c r="R91" s="11"/>
       <c r="S91" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="T91" s="11" t="s">
+      <c r="T91" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="U91" s="11"/>
-      <c r="V91" s="11"/>
-      <c r="W91" s="11"/>
+      <c r="U91" s="13"/>
+      <c r="V91" s="13"/>
+      <c r="W91" s="13"/>
       <c r="Z91" t="s">
         <v>383</v>
       </c>
@@ -5935,243 +5944,255 @@
       </c>
     </row>
     <row r="92" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="8" t="s">
+      <c r="A92" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="B92" s="8"/>
-      <c r="C92" s="9" t="s">
+      <c r="B92" s="10"/>
+      <c r="C92" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9" t="s">
+      <c r="D92" s="11"/>
+      <c r="E92" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="10"/>
-      <c r="I92" s="10"/>
-      <c r="J92" s="10"/>
-      <c r="K92" s="10">
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12">
         <v>871.2</v>
       </c>
-      <c r="L92" s="10"/>
-      <c r="M92" s="10"/>
-      <c r="N92" s="9" t="s">
+      <c r="L92" s="12"/>
+      <c r="M92" s="12"/>
+      <c r="N92" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="O92" s="9"/>
+      <c r="O92" s="11"/>
       <c r="P92" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="Q92" s="9" t="s">
+      <c r="Q92" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="R92" s="9"/>
+      <c r="R92" s="11"/>
       <c r="S92" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="T92" s="11" t="s">
+      <c r="T92" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="U92" s="11"/>
-      <c r="V92" s="11"/>
-      <c r="W92" s="11"/>
+      <c r="U92" s="13"/>
+      <c r="V92" s="13"/>
+      <c r="W92" s="13"/>
       <c r="Y92" t="s">
-        <v>400</v>
+        <v>398</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>383</v>
       </c>
       <c r="AA92">
         <v>880</v>
       </c>
     </row>
     <row r="93" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="8" t="s">
+      <c r="A93" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="B93" s="8"/>
-      <c r="C93" s="9" t="s">
+      <c r="B93" s="10"/>
+      <c r="C93" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9" t="s">
+      <c r="D93" s="11"/>
+      <c r="E93" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="10"/>
-      <c r="I93" s="10"/>
-      <c r="J93" s="10"/>
-      <c r="K93" s="10">
+      <c r="F93" s="11"/>
+      <c r="G93" s="11"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12">
         <v>1485</v>
       </c>
-      <c r="L93" s="10"/>
-      <c r="M93" s="10"/>
-      <c r="N93" s="9" t="s">
+      <c r="L93" s="12"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="O93" s="9"/>
+      <c r="O93" s="11"/>
       <c r="P93" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="Q93" s="9" t="s">
+      <c r="Q93" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="R93" s="9"/>
+      <c r="R93" s="11"/>
       <c r="S93" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="T93" s="11" t="s">
+      <c r="T93" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="U93" s="11"/>
-      <c r="V93" s="11"/>
-      <c r="W93" s="11"/>
+      <c r="U93" s="13"/>
+      <c r="V93" s="13"/>
+      <c r="W93" s="13"/>
       <c r="Y93" t="s">
-        <v>401</v>
+        <v>437</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>383</v>
       </c>
       <c r="AA93">
         <v>1500</v>
       </c>
     </row>
     <row r="94" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="8" t="s">
+      <c r="A94" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="B94" s="8"/>
-      <c r="C94" s="9" t="s">
+      <c r="B94" s="10"/>
+      <c r="C94" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9" t="s">
+      <c r="D94" s="11"/>
+      <c r="E94" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="10"/>
-      <c r="I94" s="10"/>
-      <c r="J94" s="10"/>
-      <c r="K94" s="10">
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="12">
         <v>14.56</v>
       </c>
-      <c r="L94" s="10"/>
-      <c r="M94" s="10"/>
-      <c r="N94" s="9" t="s">
+      <c r="L94" s="12"/>
+      <c r="M94" s="12"/>
+      <c r="N94" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="O94" s="9"/>
+      <c r="O94" s="11"/>
       <c r="P94" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="Q94" s="9" t="s">
+      <c r="Q94" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="R94" s="9"/>
+      <c r="R94" s="11"/>
       <c r="S94" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="T94" s="11" t="s">
+      <c r="T94" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="U94" s="11"/>
-      <c r="V94" s="11"/>
-      <c r="W94" s="11"/>
+      <c r="U94" s="13"/>
+      <c r="V94" s="13"/>
+      <c r="W94" s="13"/>
       <c r="Y94" t="s">
-        <v>402</v>
+        <v>399</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>383</v>
       </c>
       <c r="AA94">
         <v>14.56</v>
       </c>
     </row>
     <row r="95" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="8" t="s">
+      <c r="A95" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="B95" s="8"/>
-      <c r="C95" s="9" t="s">
+      <c r="B95" s="10"/>
+      <c r="C95" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9" t="s">
+      <c r="D95" s="11"/>
+      <c r="E95" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="10"/>
-      <c r="I95" s="10"/>
-      <c r="J95" s="10"/>
-      <c r="K95" s="10">
+      <c r="F95" s="11"/>
+      <c r="G95" s="11"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="12">
         <v>968.22</v>
       </c>
-      <c r="L95" s="10"/>
-      <c r="M95" s="10"/>
-      <c r="N95" s="9" t="s">
+      <c r="L95" s="12"/>
+      <c r="M95" s="12"/>
+      <c r="N95" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="O95" s="9"/>
+      <c r="O95" s="11"/>
       <c r="P95" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="Q95" s="9" t="s">
+      <c r="Q95" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="R95" s="9"/>
+      <c r="R95" s="11"/>
       <c r="S95" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="T95" s="11" t="s">
+      <c r="T95" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="U95" s="11"/>
-      <c r="V95" s="11"/>
-      <c r="W95" s="11"/>
+      <c r="U95" s="13"/>
+      <c r="V95" s="13"/>
+      <c r="W95" s="13"/>
       <c r="Y95" t="s">
-        <v>403</v>
+        <v>400</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>383</v>
       </c>
       <c r="AA95">
         <v>968.22</v>
       </c>
     </row>
     <row r="96" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="8" t="s">
+      <c r="A96" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="B96" s="8"/>
-      <c r="C96" s="9" t="s">
+      <c r="B96" s="10"/>
+      <c r="C96" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9" t="s">
+      <c r="D96" s="11"/>
+      <c r="E96" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="10"/>
-      <c r="I96" s="10"/>
-      <c r="J96" s="10"/>
-      <c r="K96" s="10">
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12">
         <v>800</v>
       </c>
-      <c r="L96" s="10"/>
-      <c r="M96" s="10"/>
-      <c r="N96" s="9" t="s">
+      <c r="L96" s="12"/>
+      <c r="M96" s="12"/>
+      <c r="N96" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="O96" s="9"/>
+      <c r="O96" s="11"/>
       <c r="P96" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="Q96" s="9" t="s">
+      <c r="Q96" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="R96" s="9"/>
+      <c r="R96" s="11"/>
       <c r="S96" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="T96" s="11" t="s">
+      <c r="T96" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="U96" s="11"/>
-      <c r="V96" s="11"/>
-      <c r="W96" s="11"/>
+      <c r="U96" s="13"/>
+      <c r="V96" s="13"/>
+      <c r="W96" s="13"/>
       <c r="Z96" t="s">
         <v>383</v>
       </c>
@@ -6181,200 +6202,209 @@
     </row>
     <row r="97" spans="1:28" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="98" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="W98" s="7" t="s">
+      <c r="W98" s="14" t="s">
         <v>321</v>
       </c>
-      <c r="X98" s="7"/>
+      <c r="X98" s="14"/>
     </row>
     <row r="99" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="8" t="s">
+      <c r="A99" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="B99" s="8"/>
-      <c r="C99" s="9" t="s">
+      <c r="B99" s="10"/>
+      <c r="C99" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9" t="s">
+      <c r="D99" s="11"/>
+      <c r="E99" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="10"/>
-      <c r="I99" s="10"/>
-      <c r="J99" s="10"/>
-      <c r="K99" s="10">
+      <c r="F99" s="11"/>
+      <c r="G99" s="11"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="12">
         <v>740</v>
       </c>
-      <c r="L99" s="10"/>
-      <c r="M99" s="10"/>
-      <c r="N99" s="9" t="s">
+      <c r="L99" s="12"/>
+      <c r="M99" s="12"/>
+      <c r="N99" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="O99" s="9"/>
+      <c r="O99" s="11"/>
       <c r="P99" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="Q99" s="9" t="s">
+      <c r="Q99" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="R99" s="9"/>
+      <c r="R99" s="11"/>
       <c r="S99" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="T99" s="11" t="s">
+      <c r="T99" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="U99" s="11"/>
-      <c r="V99" s="11"/>
-      <c r="W99" s="11"/>
+      <c r="U99" s="13"/>
+      <c r="V99" s="13"/>
+      <c r="W99" s="13"/>
       <c r="Y99" t="s">
-        <v>404</v>
+        <v>438</v>
+      </c>
+      <c r="Z99" t="s">
+        <v>383</v>
       </c>
       <c r="AA99">
         <v>740</v>
       </c>
     </row>
     <row r="100" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="8" t="s">
+      <c r="A100" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="B100" s="8"/>
-      <c r="C100" s="9" t="s">
+      <c r="B100" s="10"/>
+      <c r="C100" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9" t="s">
+      <c r="D100" s="11"/>
+      <c r="E100" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="10"/>
-      <c r="I100" s="10"/>
-      <c r="J100" s="10"/>
-      <c r="K100" s="10">
+      <c r="F100" s="11"/>
+      <c r="G100" s="11"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="12">
         <v>2396.5</v>
       </c>
-      <c r="L100" s="10"/>
-      <c r="M100" s="10"/>
-      <c r="N100" s="9" t="s">
+      <c r="L100" s="12"/>
+      <c r="M100" s="12"/>
+      <c r="N100" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="O100" s="9"/>
+      <c r="O100" s="11"/>
       <c r="P100" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="Q100" s="9" t="s">
+      <c r="Q100" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="R100" s="9"/>
+      <c r="R100" s="11"/>
       <c r="S100" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="T100" s="11" t="s">
+      <c r="T100" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="U100" s="11"/>
-      <c r="V100" s="11"/>
-      <c r="W100" s="11"/>
+      <c r="U100" s="13"/>
+      <c r="V100" s="13"/>
+      <c r="W100" s="13"/>
       <c r="Y100" t="s">
-        <v>424</v>
+        <v>425</v>
+      </c>
+      <c r="Z100" t="s">
+        <v>383</v>
       </c>
       <c r="AA100">
         <v>2396.5</v>
       </c>
     </row>
     <row r="101" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="8" t="s">
+      <c r="A101" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="B101" s="8"/>
-      <c r="C101" s="9" t="s">
+      <c r="B101" s="10"/>
+      <c r="C101" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9" t="s">
+      <c r="D101" s="11"/>
+      <c r="E101" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="10"/>
-      <c r="I101" s="10"/>
-      <c r="J101" s="10"/>
-      <c r="K101" s="10">
+      <c r="F101" s="11"/>
+      <c r="G101" s="11"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="12">
         <v>843</v>
       </c>
-      <c r="L101" s="10"/>
-      <c r="M101" s="10"/>
-      <c r="N101" s="9" t="s">
+      <c r="L101" s="12"/>
+      <c r="M101" s="12"/>
+      <c r="N101" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="O101" s="9"/>
+      <c r="O101" s="11"/>
       <c r="P101" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="Q101" s="9" t="s">
+      <c r="Q101" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="R101" s="9"/>
+      <c r="R101" s="11"/>
       <c r="S101" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="T101" s="11" t="s">
+      <c r="T101" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="U101" s="11"/>
-      <c r="V101" s="11"/>
-      <c r="W101" s="11"/>
+      <c r="U101" s="13"/>
+      <c r="V101" s="13"/>
+      <c r="W101" s="13"/>
       <c r="Y101" t="s">
-        <v>405</v>
+        <v>442</v>
+      </c>
+      <c r="Z101" t="s">
+        <v>383</v>
       </c>
       <c r="AA101">
         <v>843</v>
       </c>
     </row>
     <row r="102" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="8" t="s">
+      <c r="A102" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="B102" s="8"/>
-      <c r="C102" s="9" t="s">
+      <c r="B102" s="10"/>
+      <c r="C102" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="D102" s="9"/>
-      <c r="E102" s="9" t="s">
+      <c r="D102" s="11"/>
+      <c r="E102" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="10"/>
-      <c r="I102" s="10"/>
-      <c r="J102" s="10"/>
-      <c r="K102" s="10">
+      <c r="F102" s="11"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12">
         <v>2041</v>
       </c>
-      <c r="L102" s="10"/>
-      <c r="M102" s="10"/>
-      <c r="N102" s="9" t="s">
+      <c r="L102" s="12"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="O102" s="9"/>
+      <c r="O102" s="11"/>
       <c r="P102" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="Q102" s="9" t="s">
+      <c r="Q102" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="R102" s="9"/>
+      <c r="R102" s="11"/>
       <c r="S102" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="T102" s="11" t="s">
+      <c r="T102" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="U102" s="11"/>
-      <c r="V102" s="11"/>
-      <c r="W102" s="11"/>
+      <c r="U102" s="13"/>
+      <c r="V102" s="13"/>
+      <c r="W102" s="13"/>
       <c r="Z102" t="s">
         <v>383</v>
       </c>
@@ -6383,1016 +6413,328 @@
       </c>
     </row>
     <row r="103" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="8" t="s">
+      <c r="A103" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="B103" s="8"/>
-      <c r="C103" s="9" t="s">
+      <c r="B103" s="10"/>
+      <c r="C103" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="D103" s="9"/>
-      <c r="E103" s="9" t="s">
+      <c r="D103" s="11"/>
+      <c r="E103" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="10"/>
-      <c r="I103" s="10"/>
-      <c r="J103" s="10"/>
-      <c r="K103" s="10">
+      <c r="F103" s="11"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="12">
         <v>2404.36</v>
       </c>
-      <c r="L103" s="10"/>
-      <c r="M103" s="10"/>
-      <c r="N103" s="9" t="s">
+      <c r="L103" s="12"/>
+      <c r="M103" s="12"/>
+      <c r="N103" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="O103" s="9"/>
+      <c r="O103" s="11"/>
       <c r="P103" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="Q103" s="9" t="s">
+      <c r="Q103" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="R103" s="9"/>
+      <c r="R103" s="11"/>
       <c r="S103" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="T103" s="11" t="s">
+      <c r="T103" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="U103" s="11"/>
-      <c r="V103" s="11"/>
-      <c r="W103" s="11"/>
+      <c r="U103" s="13"/>
+      <c r="V103" s="13"/>
+      <c r="W103" s="13"/>
       <c r="Y103" t="s">
-        <v>425</v>
+        <v>426</v>
+      </c>
+      <c r="Z103" t="s">
+        <v>383</v>
       </c>
       <c r="AA103">
         <v>2404.36</v>
       </c>
     </row>
     <row r="104" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="8" t="s">
+      <c r="A104" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="B104" s="8"/>
-      <c r="C104" s="9" t="s">
+      <c r="B104" s="10"/>
+      <c r="C104" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="D104" s="9"/>
-      <c r="E104" s="9" t="s">
+      <c r="D104" s="11"/>
+      <c r="E104" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="10"/>
-      <c r="I104" s="10"/>
-      <c r="J104" s="10"/>
-      <c r="K104" s="10">
+      <c r="F104" s="11"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="12">
         <v>50</v>
       </c>
-      <c r="L104" s="10"/>
-      <c r="M104" s="10"/>
-      <c r="N104" s="9" t="s">
+      <c r="L104" s="12"/>
+      <c r="M104" s="12"/>
+      <c r="N104" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="O104" s="9"/>
+      <c r="O104" s="11"/>
       <c r="P104" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="Q104" s="9" t="s">
+      <c r="Q104" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="R104" s="9"/>
+      <c r="R104" s="11"/>
       <c r="S104" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="T104" s="11" t="s">
+      <c r="T104" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="U104" s="11"/>
-      <c r="V104" s="11"/>
-      <c r="W104" s="11"/>
+      <c r="U104" s="13"/>
+      <c r="V104" s="13"/>
+      <c r="W104" s="13"/>
       <c r="Y104" t="s">
-        <v>406</v>
+        <v>401</v>
+      </c>
+      <c r="Z104" t="s">
+        <v>383</v>
       </c>
       <c r="AA104">
         <v>50</v>
       </c>
     </row>
     <row r="105" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="8" t="s">
+      <c r="A105" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="B105" s="8"/>
-      <c r="C105" s="9" t="s">
+      <c r="B105" s="10"/>
+      <c r="C105" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="D105" s="9"/>
-      <c r="E105" s="9" t="s">
+      <c r="D105" s="11"/>
+      <c r="E105" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="10"/>
-      <c r="I105" s="10"/>
-      <c r="J105" s="10"/>
-      <c r="K105" s="10">
+      <c r="F105" s="11"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="12">
         <v>795</v>
       </c>
-      <c r="L105" s="10"/>
-      <c r="M105" s="10"/>
-      <c r="N105" s="9" t="s">
+      <c r="L105" s="12"/>
+      <c r="M105" s="12"/>
+      <c r="N105" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="O105" s="9"/>
+      <c r="O105" s="11"/>
       <c r="P105" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="Q105" s="9" t="s">
+      <c r="Q105" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="R105" s="9"/>
+      <c r="R105" s="11"/>
       <c r="S105" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="T105" s="11" t="s">
+      <c r="T105" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="U105" s="11"/>
-      <c r="V105" s="11"/>
-      <c r="W105" s="11"/>
+      <c r="U105" s="13"/>
+      <c r="V105" s="13"/>
+      <c r="W105" s="13"/>
       <c r="Y105" t="s">
-        <v>426</v>
+        <v>427</v>
+      </c>
+      <c r="Z105" t="s">
+        <v>383</v>
       </c>
       <c r="AA105">
         <v>795</v>
       </c>
     </row>
     <row r="106" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="8" t="s">
+      <c r="A106" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="B106" s="8"/>
-      <c r="C106" s="9" t="s">
+      <c r="B106" s="10"/>
+      <c r="C106" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="D106" s="9"/>
-      <c r="E106" s="9" t="s">
+      <c r="D106" s="11"/>
+      <c r="E106" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="10"/>
-      <c r="I106" s="10"/>
-      <c r="J106" s="10"/>
-      <c r="K106" s="10">
+      <c r="F106" s="11"/>
+      <c r="G106" s="11"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="12">
         <v>1400</v>
       </c>
-      <c r="L106" s="10"/>
-      <c r="M106" s="10"/>
-      <c r="N106" s="9" t="s">
+      <c r="L106" s="12"/>
+      <c r="M106" s="12"/>
+      <c r="N106" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="O106" s="9"/>
+      <c r="O106" s="11"/>
       <c r="P106" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="Q106" s="9" t="s">
+      <c r="Q106" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="R106" s="9"/>
+      <c r="R106" s="11"/>
       <c r="S106" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="T106" s="11" t="s">
+      <c r="T106" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="U106" s="11"/>
-      <c r="V106" s="11"/>
-      <c r="W106" s="11"/>
+      <c r="U106" s="13"/>
+      <c r="V106" s="13"/>
+      <c r="W106" s="13"/>
       <c r="Y106" t="s">
-        <v>407</v>
+        <v>439</v>
+      </c>
+      <c r="Z106" t="s">
+        <v>383</v>
       </c>
       <c r="AA106">
         <v>1400</v>
       </c>
     </row>
     <row r="107" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="8" t="s">
+      <c r="A107" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="B107" s="8"/>
-      <c r="C107" s="9" t="s">
+      <c r="B107" s="10"/>
+      <c r="C107" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="D107" s="9"/>
-      <c r="E107" s="9" t="s">
+      <c r="D107" s="11"/>
+      <c r="E107" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="10"/>
-      <c r="I107" s="10"/>
-      <c r="J107" s="10"/>
-      <c r="K107" s="10">
+      <c r="F107" s="11"/>
+      <c r="G107" s="11"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="12">
         <v>1819.47</v>
       </c>
-      <c r="L107" s="10"/>
-      <c r="M107" s="10"/>
-      <c r="N107" s="9" t="s">
+      <c r="L107" s="12"/>
+      <c r="M107" s="12"/>
+      <c r="N107" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="O107" s="9"/>
+      <c r="O107" s="11"/>
       <c r="P107" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="Q107" s="9" t="s">
+      <c r="Q107" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="R107" s="9"/>
+      <c r="R107" s="11"/>
       <c r="S107" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="T107" s="11" t="s">
+      <c r="T107" s="13" t="s">
         <v>377</v>
       </c>
-      <c r="U107" s="11"/>
-      <c r="V107" s="11"/>
-      <c r="W107" s="11"/>
+      <c r="U107" s="13"/>
+      <c r="V107" s="13"/>
+      <c r="W107" s="13"/>
       <c r="Y107" t="s">
-        <v>408</v>
+        <v>440</v>
+      </c>
+      <c r="Z107" t="s">
+        <v>383</v>
       </c>
       <c r="AA107">
         <v>1819.47</v>
       </c>
     </row>
     <row r="108" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="7"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
+      <c r="A108" s="14"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
     </row>
     <row r="109" spans="1:28" ht="42.6" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="110" spans="1:28" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="U110" s="6"/>
+      <c r="U110" s="15"/>
     </row>
     <row r="111" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="C111" s="4"/>
-      <c r="D111" s="4"/>
-      <c r="E111" s="4"/>
-      <c r="F111" s="4"/>
-      <c r="G111" s="4"/>
-      <c r="H111" s="4"/>
-      <c r="I111" s="5">
+      <c r="C111" s="6"/>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="7">
         <v>463433.21</v>
       </c>
-      <c r="J111" s="5"/>
-      <c r="K111" s="5"/>
-      <c r="L111" s="5">
+      <c r="J111" s="7"/>
+      <c r="K111" s="7"/>
+      <c r="L111" s="7">
         <v>453874.88</v>
       </c>
-      <c r="M111" s="5"/>
-      <c r="N111" s="5"/>
-      <c r="U111" s="6"/>
+      <c r="M111" s="7"/>
+      <c r="N111" s="7"/>
+      <c r="U111" s="15"/>
     </row>
     <row r="112" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
-      <c r="E112" s="4"/>
-      <c r="F112" s="4"/>
-      <c r="G112" s="4"/>
-      <c r="H112" s="4"/>
-      <c r="I112" s="5">
+      <c r="C112" s="6"/>
+      <c r="D112" s="6"/>
+      <c r="E112" s="6"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="6"/>
+      <c r="I112" s="7">
         <v>671.88</v>
       </c>
-      <c r="J112" s="5"/>
-      <c r="K112" s="5"/>
-      <c r="L112" s="4"/>
-      <c r="M112" s="4"/>
-      <c r="N112" s="4"/>
-      <c r="U112" s="6"/>
+      <c r="J112" s="7"/>
+      <c r="K112" s="7"/>
+      <c r="L112" s="6"/>
+      <c r="M112" s="6"/>
+      <c r="N112" s="6"/>
+      <c r="U112" s="15"/>
     </row>
     <row r="113" spans="21:24" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="U113" s="6"/>
+      <c r="U113" s="15"/>
     </row>
     <row r="114" spans="21:24" ht="176.65" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="115" spans="21:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="W115" s="7" t="s">
+      <c r="W115" s="14" t="s">
         <v>380</v>
       </c>
-      <c r="X115" s="7"/>
+      <c r="X115" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="720">
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="F1:Q2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:Q3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:Q4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:Q5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:Q6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:Q7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F8:Q8"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="T15:W15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="T16:W16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="T19:W19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="T20:W20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="T21:W21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="T22:W22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="T23:W23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="T27:W27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="T29:W29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="T30:W30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="T31:W31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="T32:W32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="T33:W33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="T34:W34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="T35:W35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="T36:W36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="T37:W37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="T38:W38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="T39:W39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="T40:W40"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="T41:W41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="T42:W42"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="T46:W46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="T47:W47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="T48:W48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="T49:W49"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="T50:W50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="T51:W51"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="T52:W52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="T53:W53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="T54:W54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="K55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="T55:W55"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="T56:W56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="T57:W57"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="K58:M58"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="T58:W58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="K59:M59"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="T59:W59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="K60:M60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="T60:W60"/>
-    <mergeCell ref="W62:X62"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="T63:W63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="K64:M64"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="T64:W64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="K65:M65"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="T65:W65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="T66:W66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="K67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="Q67:R67"/>
-    <mergeCell ref="T67:W67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="K68:M68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="Q68:R68"/>
-    <mergeCell ref="T68:W68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="K69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="T69:W69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="K70:M70"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="Q70:R70"/>
-    <mergeCell ref="T70:W70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="K71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="Q71:R71"/>
-    <mergeCell ref="T71:W71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="Q72:R72"/>
-    <mergeCell ref="T72:W72"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="Q73:R73"/>
-    <mergeCell ref="T73:W73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="K74:M74"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="Q74:R74"/>
-    <mergeCell ref="T74:W74"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="Q75:R75"/>
-    <mergeCell ref="T75:W75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="K76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="Q76:R76"/>
-    <mergeCell ref="T76:W76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="K77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="Q77:R77"/>
-    <mergeCell ref="T77:W77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="K78:M78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="Q78:R78"/>
-    <mergeCell ref="T78:W78"/>
-    <mergeCell ref="W80:X80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="K81:M81"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="Q81:R81"/>
-    <mergeCell ref="T81:W81"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="K82:M82"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="Q82:R82"/>
-    <mergeCell ref="T82:W82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="K83:M83"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="Q83:R83"/>
-    <mergeCell ref="T83:W83"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="K84:M84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="Q84:R84"/>
-    <mergeCell ref="T84:W84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="K85:M85"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="Q85:R85"/>
-    <mergeCell ref="T85:W85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="Q86:R86"/>
-    <mergeCell ref="T86:W86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="Q87:R87"/>
-    <mergeCell ref="T87:W87"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="K88:M88"/>
-    <mergeCell ref="N88:O88"/>
-    <mergeCell ref="Q88:R88"/>
-    <mergeCell ref="T88:W88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="K89:M89"/>
-    <mergeCell ref="N89:O89"/>
-    <mergeCell ref="Q89:R89"/>
-    <mergeCell ref="T89:W89"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="H90:J90"/>
-    <mergeCell ref="K90:M90"/>
-    <mergeCell ref="N90:O90"/>
-    <mergeCell ref="Q90:R90"/>
-    <mergeCell ref="T90:W90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="K91:M91"/>
-    <mergeCell ref="N91:O91"/>
-    <mergeCell ref="Q91:R91"/>
-    <mergeCell ref="T91:W91"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="K92:M92"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="Q92:R92"/>
-    <mergeCell ref="T92:W92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="H93:J93"/>
-    <mergeCell ref="K93:M93"/>
-    <mergeCell ref="N93:O93"/>
-    <mergeCell ref="Q93:R93"/>
-    <mergeCell ref="T93:W93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="H94:J94"/>
-    <mergeCell ref="K94:M94"/>
-    <mergeCell ref="N94:O94"/>
-    <mergeCell ref="Q94:R94"/>
-    <mergeCell ref="T94:W94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="H95:J95"/>
-    <mergeCell ref="K95:M95"/>
-    <mergeCell ref="N95:O95"/>
-    <mergeCell ref="Q95:R95"/>
-    <mergeCell ref="T95:W95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="H96:J96"/>
-    <mergeCell ref="K96:M96"/>
-    <mergeCell ref="N96:O96"/>
-    <mergeCell ref="Q96:R96"/>
-    <mergeCell ref="T96:W96"/>
-    <mergeCell ref="W98:X98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="H99:J99"/>
-    <mergeCell ref="K99:M99"/>
-    <mergeCell ref="N99:O99"/>
-    <mergeCell ref="Q99:R99"/>
-    <mergeCell ref="T99:W99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="H100:J100"/>
-    <mergeCell ref="K100:M100"/>
-    <mergeCell ref="N100:O100"/>
-    <mergeCell ref="Q100:R100"/>
-    <mergeCell ref="T100:W100"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="H101:J101"/>
-    <mergeCell ref="K101:M101"/>
-    <mergeCell ref="N101:O101"/>
-    <mergeCell ref="Q101:R101"/>
-    <mergeCell ref="T101:W101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="K102:M102"/>
-    <mergeCell ref="N102:O102"/>
-    <mergeCell ref="Q102:R102"/>
-    <mergeCell ref="T102:W102"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="H103:J103"/>
-    <mergeCell ref="K103:M103"/>
-    <mergeCell ref="N103:O103"/>
-    <mergeCell ref="Q103:R103"/>
-    <mergeCell ref="T103:W103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="E104:G104"/>
-    <mergeCell ref="H104:J104"/>
-    <mergeCell ref="K104:M104"/>
-    <mergeCell ref="N104:O104"/>
-    <mergeCell ref="Q104:R104"/>
-    <mergeCell ref="T104:W104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="E105:G105"/>
-    <mergeCell ref="H105:J105"/>
-    <mergeCell ref="K105:M105"/>
-    <mergeCell ref="N105:O105"/>
-    <mergeCell ref="Q105:R105"/>
-    <mergeCell ref="T105:W105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="E106:G106"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="K106:M106"/>
-    <mergeCell ref="N106:O106"/>
-    <mergeCell ref="Q106:R106"/>
-    <mergeCell ref="T106:W106"/>
     <mergeCell ref="B111:H111"/>
     <mergeCell ref="I111:K111"/>
     <mergeCell ref="L111:N111"/>
@@ -7410,9 +6752,712 @@
     <mergeCell ref="Q107:R107"/>
     <mergeCell ref="T107:W107"/>
     <mergeCell ref="A108:C108"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E105:G105"/>
+    <mergeCell ref="H105:J105"/>
+    <mergeCell ref="K105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="Q105:R105"/>
+    <mergeCell ref="T105:W105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="E106:G106"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="K106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="Q106:R106"/>
+    <mergeCell ref="T106:W106"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="H103:J103"/>
+    <mergeCell ref="K103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="Q103:R103"/>
+    <mergeCell ref="T103:W103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="E104:G104"/>
+    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="K104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="Q104:R104"/>
+    <mergeCell ref="T104:W104"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="K101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="Q101:R101"/>
+    <mergeCell ref="T101:W101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="K102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="Q102:R102"/>
+    <mergeCell ref="T102:W102"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="H99:J99"/>
+    <mergeCell ref="K99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="Q99:R99"/>
+    <mergeCell ref="T99:W99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="K100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="Q100:R100"/>
+    <mergeCell ref="T100:W100"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="K96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="Q96:R96"/>
+    <mergeCell ref="T96:W96"/>
+    <mergeCell ref="W98:X98"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="K94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="Q94:R94"/>
+    <mergeCell ref="T94:W94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="K95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="Q95:R95"/>
+    <mergeCell ref="T95:W95"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="K92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="Q92:R92"/>
+    <mergeCell ref="T92:W92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="K93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="Q93:R93"/>
+    <mergeCell ref="T93:W93"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="K90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="Q90:R90"/>
+    <mergeCell ref="T90:W90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="K91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="Q91:R91"/>
+    <mergeCell ref="T91:W91"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="K88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="Q88:R88"/>
+    <mergeCell ref="T88:W88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="K89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="Q89:R89"/>
+    <mergeCell ref="T89:W89"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="Q86:R86"/>
+    <mergeCell ref="T86:W86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="Q87:R87"/>
+    <mergeCell ref="T87:W87"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="K84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="Q84:R84"/>
+    <mergeCell ref="T84:W84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="K85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="Q85:R85"/>
+    <mergeCell ref="T85:W85"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="K82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="Q82:R82"/>
+    <mergeCell ref="T82:W82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="K83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="Q83:R83"/>
+    <mergeCell ref="T83:W83"/>
+    <mergeCell ref="W80:X80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="K81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="Q81:R81"/>
+    <mergeCell ref="T81:W81"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="K77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="Q77:R77"/>
+    <mergeCell ref="T77:W77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="K78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="Q78:R78"/>
+    <mergeCell ref="T78:W78"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="Q75:R75"/>
+    <mergeCell ref="T75:W75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="K76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="Q76:R76"/>
+    <mergeCell ref="T76:W76"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="Q73:R73"/>
+    <mergeCell ref="T73:W73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="Q74:R74"/>
+    <mergeCell ref="T74:W74"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="T71:W71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="Q72:R72"/>
+    <mergeCell ref="T72:W72"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="T69:W69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="Q70:R70"/>
+    <mergeCell ref="T70:W70"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="K67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="Q67:R67"/>
+    <mergeCell ref="T67:W67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="K68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="Q68:R68"/>
+    <mergeCell ref="T68:W68"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="K65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="T65:W65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="T66:W66"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="T63:W63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="K64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="T64:W64"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="K60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="T60:W60"/>
+    <mergeCell ref="W62:X62"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="K58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="T58:W58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="K59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="T59:W59"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="T56:W56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="T57:W57"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="T54:W54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="T55:W55"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="T52:W52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="T53:W53"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="T50:W50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="T51:W51"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="T48:W48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="T49:W49"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="T46:W46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="T47:W47"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="T41:W41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="T42:W42"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="T39:W39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="T37:W37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="T38:W38"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="T35:W35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="T36:W36"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="T33:W33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="T34:W34"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="T32:W32"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="T29:W29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="T30:W30"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="T27:W27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="T22:W22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="T21:W21"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="T16:W16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:Q6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:Q7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:Q8"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="F1:Q2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:Q3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:Q4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:Q5"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <rowBreaks count="5" manualBreakCount="5">
     <brk id="26" max="16383" man="1"/>
     <brk id="44" max="16383" man="1"/>
@@ -7421,6 +7466,6 @@
     <brk id="98" max="16383" man="1"/>
     <brk id="115" max="16383" man="1"/>
   </rowBreaks>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/1/О23.02.13.Xlsx
+++ b/1/О23.02.13.Xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="443">
   <si>
     <t>Назва Клієнта</t>
   </si>
@@ -1343,7 +1343,7 @@
     <t>rah=9006011;ot=500;</t>
   </si>
   <si>
-    <t>rah=0066013;ot=813,88;op=29,12;</t>
+    <t>rah=0066013;ot=843;</t>
   </si>
 </sst>
 </file>
@@ -1615,23 +1615,17 @@
     <xf numFmtId="0" fontId="9" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1645,11 +1639,17 @@
     <xf numFmtId="0" fontId="11" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1994,7 +1994,7 @@
   <dimension ref="A1:AB115"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AA1" sqref="AA1:AA1048576"/>
+      <selection activeCell="Z7" sqref="Z7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2023,265 +2023,265 @@
     <col min="22" max="22" width="1.5" customWidth="1"/>
     <col min="23" max="23" width="18.6640625" customWidth="1"/>
     <col min="24" max="24" width="0.1640625" customWidth="1"/>
-    <col min="25" max="25" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="17.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="4" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4"/>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+      <c r="W1" s="15"/>
+      <c r="X1" s="15"/>
     </row>
     <row r="2" spans="1:28" ht="0.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
     </row>
     <row r="3" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
     </row>
     <row r="4" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
     </row>
     <row r="5" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
     </row>
     <row r="6" spans="1:28" ht="14.65" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="1:28" ht="27.4" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="10" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5">
         <v>10230.209999999999</v>
       </c>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
     </row>
     <row r="11" spans="1:28" ht="7.15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="12" spans="1:28" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="13"/>
+      <c r="E12" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9" t="s">
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9" t="s">
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="9"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9" t="s">
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="O12" s="9"/>
+      <c r="O12" s="13"/>
       <c r="P12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q12" s="9" t="s">
+      <c r="Q12" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="R12" s="9"/>
+      <c r="R12" s="13"/>
       <c r="S12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="T12" s="9" t="s">
+      <c r="T12" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
-      <c r="W12" s="9"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
       <c r="Y12" t="s">
         <v>381</v>
       </c>
@@ -2293,47 +2293,47 @@
       </c>
     </row>
     <row r="13" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="8"/>
+      <c r="C13" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12">
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10">
         <v>249.95</v>
       </c>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="11" t="s">
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O13" s="11"/>
+      <c r="O13" s="9"/>
       <c r="P13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Q13" s="11" t="s">
+      <c r="Q13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="R13" s="11"/>
+      <c r="R13" s="9"/>
       <c r="S13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="T13" s="13" t="s">
+      <c r="T13" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
+      <c r="U13" s="11"/>
+      <c r="V13" s="11"/>
+      <c r="W13" s="11"/>
       <c r="Z13" t="s">
         <v>383</v>
       </c>
@@ -2342,203 +2342,194 @@
       </c>
     </row>
     <row r="14" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11" t="s">
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12">
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10">
         <v>1673</v>
       </c>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="11" t="s">
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O14" s="11"/>
+      <c r="O14" s="9"/>
       <c r="P14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q14" s="11" t="s">
+      <c r="Q14" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="R14" s="11"/>
+      <c r="R14" s="9"/>
       <c r="S14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="13" t="s">
+      <c r="T14" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="U14" s="13"/>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="11"/>
+      <c r="W14" s="11"/>
       <c r="Y14" t="s">
         <v>405</v>
       </c>
-      <c r="Z14" t="s">
-        <v>383</v>
-      </c>
       <c r="AA14">
         <v>1673</v>
       </c>
     </row>
     <row r="15" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="8"/>
+      <c r="C15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11" t="s">
+      <c r="D15" s="9"/>
+      <c r="E15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12">
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10">
         <v>1673</v>
       </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="11" t="s">
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O15" s="11"/>
+      <c r="O15" s="9"/>
       <c r="P15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q15" s="11" t="s">
+      <c r="Q15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="R15" s="11"/>
+      <c r="R15" s="9"/>
       <c r="S15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T15" s="13" t="s">
+      <c r="T15" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="U15" s="13"/>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
       <c r="Y15" t="s">
         <v>405</v>
       </c>
-      <c r="Z15" t="s">
-        <v>383</v>
-      </c>
       <c r="AA15">
         <v>1673</v>
       </c>
     </row>
     <row r="16" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="8"/>
+      <c r="C16" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11" t="s">
+      <c r="D16" s="9"/>
+      <c r="E16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12">
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10">
         <v>1908</v>
       </c>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="11" t="s">
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O16" s="11"/>
+      <c r="O16" s="9"/>
       <c r="P16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q16" s="11" t="s">
+      <c r="Q16" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="R16" s="11"/>
+      <c r="R16" s="9"/>
       <c r="S16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T16" s="13" t="s">
+      <c r="T16" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="U16" s="13"/>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
+      <c r="W16" s="11"/>
       <c r="Y16" t="s">
         <v>407</v>
       </c>
-      <c r="Z16" t="s">
-        <v>383</v>
-      </c>
       <c r="AA16">
         <v>1908</v>
       </c>
     </row>
     <row r="17" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="11" t="s">
+      <c r="B17" s="8"/>
+      <c r="C17" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12">
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10">
         <v>4714.96</v>
       </c>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="11" t="s">
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="O17" s="11"/>
+      <c r="O17" s="9"/>
       <c r="P17" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="Q17" s="11" t="s">
+      <c r="Q17" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="R17" s="11"/>
+      <c r="R17" s="9"/>
       <c r="S17" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="T17" s="13" t="s">
+      <c r="T17" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="U17" s="13"/>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
+      <c r="W17" s="11"/>
       <c r="Z17" t="s">
         <v>383</v>
       </c>
@@ -2547,47 +2538,47 @@
       </c>
     </row>
     <row r="18" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11" t="s">
+      <c r="B18" s="8"/>
+      <c r="C18" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11" t="s">
+      <c r="D18" s="9"/>
+      <c r="E18" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="12">
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10">
         <v>43.21</v>
       </c>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="11" t="s">
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="O18" s="11"/>
+      <c r="O18" s="9"/>
       <c r="P18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Q18" s="11" t="s">
+      <c r="Q18" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="R18" s="11"/>
+      <c r="R18" s="9"/>
       <c r="S18" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="T18" s="13" t="s">
+      <c r="T18" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="U18" s="13"/>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
+      <c r="W18" s="11"/>
       <c r="Z18" t="s">
         <v>383</v>
       </c>
@@ -2596,203 +2587,194 @@
       </c>
     </row>
     <row r="19" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11" t="s">
+      <c r="B19" s="8"/>
+      <c r="C19" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11" t="s">
+      <c r="D19" s="9"/>
+      <c r="E19" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12">
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10">
         <v>238.1</v>
       </c>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="11" t="s">
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O19" s="11"/>
+      <c r="O19" s="9"/>
       <c r="P19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q19" s="11" t="s">
+      <c r="Q19" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="R19" s="11"/>
+      <c r="R19" s="9"/>
       <c r="S19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T19" s="13" t="s">
+      <c r="T19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="U19" s="13"/>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
+      <c r="W19" s="11"/>
       <c r="Y19" t="s">
         <v>428</v>
       </c>
-      <c r="Z19" t="s">
-        <v>383</v>
-      </c>
       <c r="AA19">
         <v>238.1</v>
       </c>
     </row>
     <row r="20" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11" t="s">
+      <c r="B20" s="8"/>
+      <c r="C20" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12">
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10">
         <v>2160.77</v>
       </c>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="11" t="s">
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O20" s="11"/>
+      <c r="O20" s="9"/>
       <c r="P20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q20" s="11" t="s">
+      <c r="Q20" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="R20" s="11"/>
+      <c r="R20" s="9"/>
       <c r="S20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T20" s="13" t="s">
+      <c r="T20" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="U20" s="13"/>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
+      <c r="U20" s="11"/>
+      <c r="V20" s="11"/>
+      <c r="W20" s="11"/>
       <c r="Y20" t="s">
         <v>429</v>
       </c>
-      <c r="Z20" t="s">
-        <v>383</v>
-      </c>
       <c r="AA20">
         <v>2160.77</v>
       </c>
     </row>
     <row r="21" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="11" t="s">
+      <c r="B21" s="8"/>
+      <c r="C21" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11" t="s">
+      <c r="D21" s="9"/>
+      <c r="E21" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12">
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10">
         <v>1200</v>
       </c>
-      <c r="L21" s="12"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="11" t="s">
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O21" s="11"/>
+      <c r="O21" s="9"/>
       <c r="P21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q21" s="11" t="s">
+      <c r="Q21" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="R21" s="11"/>
+      <c r="R21" s="9"/>
       <c r="S21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T21" s="13" t="s">
+      <c r="T21" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="U21" s="13"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
+      <c r="U21" s="11"/>
+      <c r="V21" s="11"/>
+      <c r="W21" s="11"/>
       <c r="Y21" t="s">
         <v>402</v>
       </c>
-      <c r="Z21" t="s">
-        <v>383</v>
-      </c>
       <c r="AA21">
         <v>1200</v>
       </c>
     </row>
     <row r="22" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11" t="s">
+      <c r="B22" s="8"/>
+      <c r="C22" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11" t="s">
+      <c r="D22" s="9"/>
+      <c r="E22" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12">
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10">
         <v>14.56</v>
       </c>
-      <c r="L22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="11" t="s">
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="O22" s="11"/>
+      <c r="O22" s="9"/>
       <c r="P22" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Q22" s="11" t="s">
+      <c r="Q22" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="R22" s="11"/>
+      <c r="R22" s="9"/>
       <c r="S22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="T22" s="13" t="s">
+      <c r="T22" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
+      <c r="U22" s="11"/>
+      <c r="V22" s="11"/>
+      <c r="W22" s="11"/>
       <c r="Z22" t="s">
         <v>383</v>
       </c>
@@ -2801,47 +2783,47 @@
       </c>
     </row>
     <row r="23" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11" t="s">
+      <c r="B23" s="8"/>
+      <c r="C23" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11" t="s">
+      <c r="D23" s="9"/>
+      <c r="E23" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12">
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="10">
         <v>10025</v>
       </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="11" t="s">
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="O23" s="11"/>
+      <c r="O23" s="9"/>
       <c r="P23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="Q23" s="11" t="s">
+      <c r="Q23" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="R23" s="11"/>
+      <c r="R23" s="9"/>
       <c r="S23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T23" s="13" t="s">
+      <c r="T23" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="U23" s="13"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
+      <c r="U23" s="11"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="11"/>
       <c r="Z23" t="s">
         <v>383</v>
       </c>
@@ -2850,1049 +2832,992 @@
       </c>
     </row>
     <row r="24" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11" t="s">
+      <c r="B24" s="8"/>
+      <c r="C24" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11" t="s">
+      <c r="D24" s="9"/>
+      <c r="E24" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="12">
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10">
         <v>1082.06</v>
       </c>
-      <c r="L24" s="12"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="11" t="s">
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O24" s="11"/>
+      <c r="O24" s="9"/>
       <c r="P24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q24" s="11" t="s">
+      <c r="Q24" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="R24" s="11"/>
+      <c r="R24" s="9"/>
       <c r="S24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T24" s="13" t="s">
+      <c r="T24" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="U24" s="13"/>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
+      <c r="U24" s="11"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="11"/>
       <c r="Y24" t="s">
         <v>403</v>
       </c>
-      <c r="Z24" t="s">
-        <v>383</v>
-      </c>
       <c r="AA24">
         <v>1082.06</v>
       </c>
     </row>
     <row r="25" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="26" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="W26" s="14" t="s">
+      <c r="W26" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="X26" s="14"/>
+      <c r="X26" s="7"/>
     </row>
     <row r="27" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11" t="s">
+      <c r="B27" s="8"/>
+      <c r="C27" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11" t="s">
+      <c r="D27" s="9"/>
+      <c r="E27" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="12"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12">
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10">
         <v>2000</v>
       </c>
-      <c r="L27" s="12"/>
-      <c r="M27" s="12"/>
-      <c r="N27" s="11" t="s">
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O27" s="11"/>
+      <c r="O27" s="9"/>
       <c r="P27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q27" s="11" t="s">
+      <c r="Q27" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="R27" s="11"/>
+      <c r="R27" s="9"/>
       <c r="S27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T27" s="13" t="s">
+      <c r="T27" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="U27" s="13"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="13"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
       <c r="Y27" t="s">
         <v>404</v>
       </c>
-      <c r="Z27" t="s">
-        <v>383</v>
-      </c>
       <c r="AA27">
         <v>2000</v>
       </c>
     </row>
     <row r="28" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11" t="s">
+      <c r="B28" s="8"/>
+      <c r="C28" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11" t="s">
+      <c r="D28" s="9"/>
+      <c r="E28" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12">
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10">
         <v>2254</v>
       </c>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="11" t="s">
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O28" s="11"/>
+      <c r="O28" s="9"/>
       <c r="P28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q28" s="11" t="s">
+      <c r="Q28" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="R28" s="11"/>
+      <c r="R28" s="9"/>
       <c r="S28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T28" s="13" t="s">
+      <c r="T28" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="U28" s="13"/>
-      <c r="V28" s="13"/>
-      <c r="W28" s="13"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
       <c r="Y28" t="s">
         <v>408</v>
       </c>
-      <c r="Z28" t="s">
-        <v>383</v>
-      </c>
       <c r="AA28">
         <v>2254</v>
       </c>
     </row>
     <row r="29" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="11" t="s">
+      <c r="B29" s="8"/>
+      <c r="C29" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11" t="s">
+      <c r="D29" s="9"/>
+      <c r="E29" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12">
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10">
         <v>283.89999999999998</v>
       </c>
-      <c r="L29" s="12"/>
-      <c r="M29" s="12"/>
-      <c r="N29" s="11" t="s">
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O29" s="11"/>
+      <c r="O29" s="9"/>
       <c r="P29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q29" s="11" t="s">
+      <c r="Q29" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="R29" s="11"/>
+      <c r="R29" s="9"/>
       <c r="S29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="13" t="s">
+      <c r="T29" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="U29" s="13"/>
-      <c r="V29" s="13"/>
-      <c r="W29" s="13"/>
+      <c r="U29" s="11"/>
+      <c r="V29" s="11"/>
+      <c r="W29" s="11"/>
       <c r="Y29" t="s">
         <v>384</v>
       </c>
-      <c r="Z29" t="s">
-        <v>383</v>
-      </c>
       <c r="AA29">
         <v>283.89999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11" t="s">
+      <c r="B30" s="8"/>
+      <c r="C30" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11" t="s">
+      <c r="D30" s="9"/>
+      <c r="E30" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12">
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10">
         <v>1633</v>
       </c>
-      <c r="L30" s="12"/>
-      <c r="M30" s="12"/>
-      <c r="N30" s="11" t="s">
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O30" s="11"/>
+      <c r="O30" s="9"/>
       <c r="P30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q30" s="11" t="s">
+      <c r="Q30" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="R30" s="11"/>
+      <c r="R30" s="9"/>
       <c r="S30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T30" s="13" t="s">
+      <c r="T30" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="U30" s="13"/>
-      <c r="V30" s="13"/>
-      <c r="W30" s="13"/>
+      <c r="U30" s="11"/>
+      <c r="V30" s="11"/>
+      <c r="W30" s="11"/>
       <c r="Y30" t="s">
         <v>409</v>
       </c>
-      <c r="Z30" t="s">
-        <v>383</v>
-      </c>
       <c r="AA30">
         <v>1633</v>
       </c>
     </row>
     <row r="31" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11" t="s">
+      <c r="B31" s="8"/>
+      <c r="C31" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11" t="s">
+      <c r="D31" s="9"/>
+      <c r="E31" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="12">
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10">
         <v>4457</v>
       </c>
-      <c r="L31" s="12"/>
-      <c r="M31" s="12"/>
-      <c r="N31" s="11" t="s">
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O31" s="11"/>
+      <c r="O31" s="9"/>
       <c r="P31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q31" s="11" t="s">
+      <c r="Q31" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="R31" s="11"/>
+      <c r="R31" s="9"/>
       <c r="S31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T31" s="13" t="s">
+      <c r="T31" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="U31" s="13"/>
-      <c r="V31" s="13"/>
-      <c r="W31" s="13"/>
+      <c r="U31" s="11"/>
+      <c r="V31" s="11"/>
+      <c r="W31" s="11"/>
       <c r="Y31" t="s">
         <v>410</v>
       </c>
-      <c r="Z31" t="s">
-        <v>383</v>
-      </c>
       <c r="AA31">
         <v>4457</v>
       </c>
     </row>
     <row r="32" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="10"/>
-      <c r="C32" s="11" t="s">
+      <c r="B32" s="8"/>
+      <c r="C32" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="11" t="s">
+      <c r="D32" s="9"/>
+      <c r="E32" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="12">
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10">
         <v>4079.45</v>
       </c>
-      <c r="L32" s="12"/>
-      <c r="M32" s="12"/>
-      <c r="N32" s="11" t="s">
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O32" s="11"/>
+      <c r="O32" s="9"/>
       <c r="P32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q32" s="11" t="s">
+      <c r="Q32" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="R32" s="11"/>
+      <c r="R32" s="9"/>
       <c r="S32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T32" s="13" t="s">
+      <c r="T32" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="U32" s="13"/>
-      <c r="V32" s="13"/>
-      <c r="W32" s="13"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
       <c r="Y32" t="s">
         <v>411</v>
       </c>
-      <c r="Z32" t="s">
-        <v>383</v>
-      </c>
       <c r="AA32">
         <v>4079.45</v>
       </c>
     </row>
     <row r="33" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11" t="s">
+      <c r="B33" s="8"/>
+      <c r="C33" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="11" t="s">
+      <c r="D33" s="9"/>
+      <c r="E33" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="12"/>
-      <c r="I33" s="12"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="12">
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10">
         <v>2142.9</v>
       </c>
-      <c r="L33" s="12"/>
-      <c r="M33" s="12"/>
-      <c r="N33" s="11" t="s">
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O33" s="11"/>
+      <c r="O33" s="9"/>
       <c r="P33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q33" s="11" t="s">
+      <c r="Q33" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="R33" s="11"/>
+      <c r="R33" s="9"/>
       <c r="S33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T33" s="13" t="s">
+      <c r="T33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="U33" s="13"/>
-      <c r="V33" s="13"/>
-      <c r="W33" s="13"/>
+      <c r="U33" s="11"/>
+      <c r="V33" s="11"/>
+      <c r="W33" s="11"/>
       <c r="Y33" t="s">
         <v>385</v>
       </c>
-      <c r="Z33" t="s">
-        <v>383</v>
-      </c>
       <c r="AA33">
         <v>2142.9</v>
       </c>
     </row>
     <row r="34" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="11" t="s">
+      <c r="B34" s="8"/>
+      <c r="C34" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="11"/>
-      <c r="E34" s="11" t="s">
+      <c r="D34" s="9"/>
+      <c r="E34" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="12"/>
-      <c r="I34" s="12"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="12">
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10">
         <v>1240</v>
       </c>
-      <c r="L34" s="12"/>
-      <c r="M34" s="12"/>
-      <c r="N34" s="11" t="s">
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O34" s="11"/>
+      <c r="O34" s="9"/>
       <c r="P34" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q34" s="11" t="s">
+      <c r="Q34" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="R34" s="11"/>
+      <c r="R34" s="9"/>
       <c r="S34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T34" s="13" t="s">
+      <c r="T34" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="U34" s="13"/>
-      <c r="V34" s="13"/>
-      <c r="W34" s="13"/>
+      <c r="U34" s="11"/>
+      <c r="V34" s="11"/>
+      <c r="W34" s="11"/>
       <c r="Y34" t="s">
         <v>412</v>
       </c>
-      <c r="Z34" t="s">
-        <v>383</v>
-      </c>
       <c r="AA34">
         <v>1240</v>
       </c>
     </row>
     <row r="35" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="10"/>
-      <c r="C35" s="11" t="s">
+      <c r="B35" s="8"/>
+      <c r="C35" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D35" s="11"/>
-      <c r="E35" s="11" t="s">
+      <c r="D35" s="9"/>
+      <c r="E35" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="12"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="12">
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10">
         <v>2000</v>
       </c>
-      <c r="L35" s="12"/>
-      <c r="M35" s="12"/>
-      <c r="N35" s="11" t="s">
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O35" s="11"/>
+      <c r="O35" s="9"/>
       <c r="P35" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q35" s="11" t="s">
+      <c r="Q35" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="R35" s="11"/>
+      <c r="R35" s="9"/>
       <c r="S35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T35" s="13" t="s">
+      <c r="T35" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="U35" s="13"/>
-      <c r="V35" s="13"/>
-      <c r="W35" s="13"/>
+      <c r="U35" s="11"/>
+      <c r="V35" s="11"/>
+      <c r="W35" s="11"/>
       <c r="Y35" t="s">
         <v>413</v>
       </c>
-      <c r="Z35" t="s">
-        <v>383</v>
-      </c>
       <c r="AA35">
         <v>2000</v>
       </c>
     </row>
     <row r="36" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="10"/>
-      <c r="C36" s="11" t="s">
+      <c r="B36" s="8"/>
+      <c r="C36" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="11"/>
-      <c r="E36" s="11" t="s">
+      <c r="D36" s="9"/>
+      <c r="E36" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="12">
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10">
         <v>4234.2</v>
       </c>
-      <c r="L36" s="12"/>
-      <c r="M36" s="12"/>
-      <c r="N36" s="11" t="s">
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O36" s="11"/>
+      <c r="O36" s="9"/>
       <c r="P36" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q36" s="11" t="s">
+      <c r="Q36" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="R36" s="11"/>
+      <c r="R36" s="9"/>
       <c r="S36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="T36" s="13" t="s">
+      <c r="T36" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="U36" s="13"/>
-      <c r="V36" s="13"/>
-      <c r="W36" s="13"/>
+      <c r="U36" s="11"/>
+      <c r="V36" s="11"/>
+      <c r="W36" s="11"/>
       <c r="Y36" t="s">
         <v>414</v>
       </c>
-      <c r="Z36" t="s">
-        <v>383</v>
-      </c>
       <c r="AA36">
         <v>4234.2</v>
       </c>
     </row>
     <row r="37" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="10"/>
-      <c r="C37" s="11" t="s">
+      <c r="B37" s="8"/>
+      <c r="C37" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="11"/>
-      <c r="E37" s="11" t="s">
+      <c r="D37" s="9"/>
+      <c r="E37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="12">
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10">
         <v>1665</v>
       </c>
-      <c r="L37" s="12"/>
-      <c r="M37" s="12"/>
-      <c r="N37" s="11" t="s">
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O37" s="11"/>
+      <c r="O37" s="9"/>
       <c r="P37" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q37" s="11" t="s">
+      <c r="Q37" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="R37" s="11"/>
+      <c r="R37" s="9"/>
       <c r="S37" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T37" s="13" t="s">
+      <c r="T37" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="U37" s="13"/>
-      <c r="V37" s="13"/>
-      <c r="W37" s="13"/>
+      <c r="U37" s="11"/>
+      <c r="V37" s="11"/>
+      <c r="W37" s="11"/>
       <c r="Y37" t="s">
         <v>415</v>
       </c>
-      <c r="Z37" t="s">
-        <v>383</v>
-      </c>
       <c r="AA37">
         <v>1665</v>
       </c>
     </row>
     <row r="38" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="10"/>
-      <c r="C38" s="11" t="s">
+      <c r="B38" s="8"/>
+      <c r="C38" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11" t="s">
+      <c r="D38" s="9"/>
+      <c r="E38" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="12">
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10">
         <v>500</v>
       </c>
-      <c r="L38" s="12"/>
-      <c r="M38" s="12"/>
-      <c r="N38" s="11" t="s">
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O38" s="11"/>
+      <c r="O38" s="9"/>
       <c r="P38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q38" s="11" t="s">
+      <c r="Q38" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="R38" s="11"/>
+      <c r="R38" s="9"/>
       <c r="S38" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T38" s="13" t="s">
+      <c r="T38" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="U38" s="13"/>
-      <c r="V38" s="13"/>
-      <c r="W38" s="13"/>
+      <c r="U38" s="11"/>
+      <c r="V38" s="11"/>
+      <c r="W38" s="11"/>
       <c r="Y38" t="s">
         <v>386</v>
       </c>
-      <c r="Z38" t="s">
-        <v>383</v>
-      </c>
       <c r="AA38">
         <v>500</v>
       </c>
     </row>
     <row r="39" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="11" t="s">
+      <c r="B39" s="8"/>
+      <c r="C39" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11" t="s">
+      <c r="D39" s="9"/>
+      <c r="E39" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12">
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10">
         <v>1831</v>
       </c>
-      <c r="L39" s="12"/>
-      <c r="M39" s="12"/>
-      <c r="N39" s="11" t="s">
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O39" s="11"/>
+      <c r="O39" s="9"/>
       <c r="P39" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q39" s="11" t="s">
+      <c r="Q39" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="R39" s="11"/>
+      <c r="R39" s="9"/>
       <c r="S39" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T39" s="13" t="s">
+      <c r="T39" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="U39" s="13"/>
-      <c r="V39" s="13"/>
-      <c r="W39" s="13"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
       <c r="Y39" t="s">
         <v>416</v>
       </c>
-      <c r="Z39" t="s">
-        <v>383</v>
-      </c>
       <c r="AA39">
         <v>1831</v>
       </c>
     </row>
     <row r="40" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="10"/>
-      <c r="C40" s="11" t="s">
+      <c r="B40" s="8"/>
+      <c r="C40" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11" t="s">
+      <c r="D40" s="9"/>
+      <c r="E40" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="12">
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10">
         <v>1604.75</v>
       </c>
-      <c r="L40" s="12"/>
-      <c r="M40" s="12"/>
-      <c r="N40" s="11" t="s">
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O40" s="11"/>
+      <c r="O40" s="9"/>
       <c r="P40" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q40" s="11" t="s">
+      <c r="Q40" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="R40" s="11"/>
+      <c r="R40" s="9"/>
       <c r="S40" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T40" s="13" t="s">
+      <c r="T40" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="U40" s="13"/>
-      <c r="V40" s="13"/>
-      <c r="W40" s="13"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11"/>
+      <c r="W40" s="11"/>
       <c r="Y40" t="s">
         <v>387</v>
       </c>
-      <c r="Z40" t="s">
-        <v>383</v>
-      </c>
       <c r="AA40">
         <v>1604.75</v>
       </c>
     </row>
     <row r="41" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="B41" s="10"/>
-      <c r="C41" s="11" t="s">
+      <c r="B41" s="8"/>
+      <c r="C41" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="11" t="s">
+      <c r="D41" s="9"/>
+      <c r="E41" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="12">
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10">
         <v>1331</v>
       </c>
-      <c r="L41" s="12"/>
-      <c r="M41" s="12"/>
-      <c r="N41" s="11" t="s">
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O41" s="11"/>
+      <c r="O41" s="9"/>
       <c r="P41" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q41" s="11" t="s">
+      <c r="Q41" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="R41" s="11"/>
+      <c r="R41" s="9"/>
       <c r="S41" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T41" s="13" t="s">
+      <c r="T41" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="U41" s="13"/>
-      <c r="V41" s="13"/>
-      <c r="W41" s="13"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
+      <c r="W41" s="11"/>
       <c r="Y41" t="s">
         <v>417</v>
       </c>
-      <c r="Z41" t="s">
-        <v>383</v>
-      </c>
       <c r="AA41">
         <v>1331</v>
       </c>
     </row>
     <row r="42" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B42" s="10"/>
-      <c r="C42" s="11" t="s">
+      <c r="B42" s="8"/>
+      <c r="C42" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11" t="s">
+      <c r="D42" s="9"/>
+      <c r="E42" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="12">
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10">
         <v>1400</v>
       </c>
-      <c r="L42" s="12"/>
-      <c r="M42" s="12"/>
-      <c r="N42" s="11" t="s">
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O42" s="11"/>
+      <c r="O42" s="9"/>
       <c r="P42" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q42" s="11" t="s">
+      <c r="Q42" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="R42" s="11"/>
+      <c r="R42" s="9"/>
       <c r="S42" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T42" s="13" t="s">
+      <c r="T42" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="U42" s="13"/>
-      <c r="V42" s="13"/>
-      <c r="W42" s="13"/>
+      <c r="U42" s="11"/>
+      <c r="V42" s="11"/>
+      <c r="W42" s="11"/>
       <c r="Y42" t="s">
         <v>388</v>
       </c>
-      <c r="Z42" t="s">
-        <v>383</v>
-      </c>
       <c r="AA42">
         <v>1400</v>
       </c>
     </row>
     <row r="43" spans="1:28" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="44" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="W44" s="14" t="s">
+      <c r="W44" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="X44" s="14"/>
+      <c r="X44" s="7"/>
     </row>
     <row r="45" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="11" t="s">
+      <c r="B45" s="8"/>
+      <c r="C45" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11" t="s">
+      <c r="D45" s="9"/>
+      <c r="E45" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F45" s="11"/>
-      <c r="G45" s="11"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="12">
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10">
         <v>7689.79</v>
       </c>
-      <c r="L45" s="12"/>
-      <c r="M45" s="12"/>
-      <c r="N45" s="11" t="s">
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O45" s="11"/>
+      <c r="O45" s="9"/>
       <c r="P45" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q45" s="11" t="s">
+      <c r="Q45" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="R45" s="11"/>
+      <c r="R45" s="9"/>
       <c r="S45" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T45" s="13" t="s">
+      <c r="T45" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="U45" s="13"/>
-      <c r="V45" s="13"/>
-      <c r="W45" s="13"/>
+      <c r="U45" s="11"/>
+      <c r="V45" s="11"/>
+      <c r="W45" s="11"/>
       <c r="Y45" t="s">
         <v>418</v>
       </c>
-      <c r="Z45" t="s">
-        <v>383</v>
-      </c>
       <c r="AA45">
         <v>7689.79</v>
       </c>
     </row>
     <row r="46" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B46" s="10"/>
-      <c r="C46" s="11" t="s">
+      <c r="B46" s="8"/>
+      <c r="C46" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11" t="s">
+      <c r="D46" s="9"/>
+      <c r="E46" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="12">
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10">
         <v>58.2</v>
       </c>
-      <c r="L46" s="12"/>
-      <c r="M46" s="12"/>
-      <c r="N46" s="11" t="s">
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="O46" s="11"/>
+      <c r="O46" s="9"/>
       <c r="P46" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Q46" s="11" t="s">
+      <c r="Q46" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="R46" s="11"/>
+      <c r="R46" s="9"/>
       <c r="S46" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T46" s="13" t="s">
+      <c r="T46" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="U46" s="13"/>
-      <c r="V46" s="13"/>
-      <c r="W46" s="13"/>
+      <c r="U46" s="11"/>
+      <c r="V46" s="11"/>
+      <c r="W46" s="11"/>
       <c r="Y46" t="s">
         <v>389</v>
       </c>
-      <c r="Z46" t="s">
-        <v>383</v>
-      </c>
       <c r="AA46">
         <v>58.2</v>
       </c>
     </row>
     <row r="47" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="B47" s="10"/>
-      <c r="C47" s="11" t="s">
+      <c r="B47" s="8"/>
+      <c r="C47" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11" t="s">
+      <c r="D47" s="9"/>
+      <c r="E47" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F47" s="11"/>
-      <c r="G47" s="11"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="12">
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10">
         <v>1139.0999999999999</v>
       </c>
-      <c r="L47" s="12"/>
-      <c r="M47" s="12"/>
-      <c r="N47" s="11" t="s">
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="O47" s="11"/>
+      <c r="O47" s="9"/>
       <c r="P47" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="Q47" s="11" t="s">
+      <c r="Q47" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="R47" s="11"/>
+      <c r="R47" s="9"/>
       <c r="S47" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T47" s="13" t="s">
+      <c r="T47" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="U47" s="13"/>
-      <c r="V47" s="13"/>
-      <c r="W47" s="13"/>
+      <c r="U47" s="11"/>
+      <c r="V47" s="11"/>
+      <c r="W47" s="11"/>
       <c r="Z47" t="s">
         <v>383</v>
       </c>
@@ -3901,47 +3826,47 @@
       </c>
     </row>
     <row r="48" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="B48" s="10"/>
-      <c r="C48" s="11" t="s">
+      <c r="B48" s="8"/>
+      <c r="C48" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11" t="s">
+      <c r="D48" s="9"/>
+      <c r="E48" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="12">
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10">
         <v>957.53</v>
       </c>
-      <c r="L48" s="12"/>
-      <c r="M48" s="12"/>
-      <c r="N48" s="11" t="s">
+      <c r="L48" s="10"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="O48" s="11"/>
+      <c r="O48" s="9"/>
       <c r="P48" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q48" s="11" t="s">
+      <c r="Q48" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="R48" s="11"/>
+      <c r="R48" s="9"/>
       <c r="S48" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T48" s="13" t="s">
+      <c r="T48" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="U48" s="13"/>
-      <c r="V48" s="13"/>
-      <c r="W48" s="13"/>
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="11"/>
       <c r="Z48" t="s">
         <v>383</v>
       </c>
@@ -3950,1094 +3875,1034 @@
       </c>
     </row>
     <row r="49" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="11" t="s">
+      <c r="B49" s="8"/>
+      <c r="C49" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11" t="s">
+      <c r="D49" s="9"/>
+      <c r="E49" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="12">
+      <c r="F49" s="9"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10">
         <v>2261</v>
       </c>
-      <c r="L49" s="12"/>
-      <c r="M49" s="12"/>
-      <c r="N49" s="11" t="s">
+      <c r="L49" s="10"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="O49" s="11"/>
+      <c r="O49" s="9"/>
       <c r="P49" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="Q49" s="11" t="s">
+      <c r="Q49" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="R49" s="11"/>
+      <c r="R49" s="9"/>
       <c r="S49" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T49" s="13" t="s">
+      <c r="T49" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="U49" s="13"/>
-      <c r="V49" s="13"/>
-      <c r="W49" s="13"/>
+      <c r="U49" s="11"/>
+      <c r="V49" s="11"/>
+      <c r="W49" s="11"/>
       <c r="Y49" t="s">
         <v>390</v>
       </c>
-      <c r="Z49" t="s">
-        <v>383</v>
-      </c>
       <c r="AA49">
         <v>2261</v>
       </c>
     </row>
     <row r="50" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B50" s="10"/>
-      <c r="C50" s="11" t="s">
+      <c r="B50" s="8"/>
+      <c r="C50" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11" t="s">
+      <c r="D50" s="9"/>
+      <c r="E50" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F50" s="11"/>
-      <c r="G50" s="11"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="12">
+      <c r="F50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10">
         <v>970</v>
       </c>
-      <c r="L50" s="12"/>
-      <c r="M50" s="12"/>
-      <c r="N50" s="11" t="s">
+      <c r="L50" s="10"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="O50" s="11"/>
+      <c r="O50" s="9"/>
       <c r="P50" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Q50" s="11" t="s">
+      <c r="Q50" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="R50" s="11"/>
+      <c r="R50" s="9"/>
       <c r="S50" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T50" s="13" t="s">
+      <c r="T50" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="U50" s="13"/>
-      <c r="V50" s="13"/>
-      <c r="W50" s="13"/>
+      <c r="U50" s="11"/>
+      <c r="V50" s="11"/>
+      <c r="W50" s="11"/>
       <c r="Y50" t="s">
         <v>419</v>
       </c>
-      <c r="Z50" t="s">
-        <v>383</v>
-      </c>
       <c r="AA50">
         <v>970</v>
       </c>
     </row>
     <row r="51" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="B51" s="10"/>
-      <c r="C51" s="11" t="s">
+      <c r="B51" s="8"/>
+      <c r="C51" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="D51" s="11"/>
-      <c r="E51" s="11" t="s">
+      <c r="D51" s="9"/>
+      <c r="E51" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="12">
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10">
         <v>14.35</v>
       </c>
-      <c r="L51" s="12"/>
-      <c r="M51" s="12"/>
-      <c r="N51" s="11" t="s">
+      <c r="L51" s="10"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="O51" s="11"/>
+      <c r="O51" s="9"/>
       <c r="P51" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Q51" s="11" t="s">
+      <c r="Q51" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="R51" s="11"/>
+      <c r="R51" s="9"/>
       <c r="S51" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T51" s="13" t="s">
+      <c r="T51" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="U51" s="13"/>
-      <c r="V51" s="13"/>
-      <c r="W51" s="13"/>
+      <c r="U51" s="11"/>
+      <c r="V51" s="11"/>
+      <c r="W51" s="11"/>
       <c r="Y51" t="s">
         <v>391</v>
       </c>
-      <c r="Z51" t="s">
-        <v>383</v>
-      </c>
       <c r="AA51">
         <v>14.35</v>
       </c>
     </row>
     <row r="52" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="11" t="s">
+      <c r="B52" s="8"/>
+      <c r="C52" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="D52" s="11"/>
-      <c r="E52" s="11" t="s">
+      <c r="D52" s="9"/>
+      <c r="E52" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F52" s="11"/>
-      <c r="G52" s="11"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="12">
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10">
         <v>14</v>
       </c>
-      <c r="L52" s="12"/>
-      <c r="M52" s="12"/>
-      <c r="N52" s="11" t="s">
+      <c r="L52" s="10"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="O52" s="11"/>
+      <c r="O52" s="9"/>
       <c r="P52" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Q52" s="11" t="s">
+      <c r="Q52" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="R52" s="11"/>
+      <c r="R52" s="9"/>
       <c r="S52" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T52" s="13" t="s">
+      <c r="T52" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="U52" s="13"/>
-      <c r="V52" s="13"/>
-      <c r="W52" s="13"/>
+      <c r="U52" s="11"/>
+      <c r="V52" s="11"/>
+      <c r="W52" s="11"/>
       <c r="Y52" t="s">
         <v>406</v>
       </c>
-      <c r="Z52" t="s">
-        <v>383</v>
-      </c>
       <c r="AA52">
         <v>14</v>
       </c>
     </row>
     <row r="53" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="10" t="s">
+      <c r="A53" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="11" t="s">
+      <c r="B53" s="8"/>
+      <c r="C53" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11" t="s">
+      <c r="D53" s="9"/>
+      <c r="E53" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="12">
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10">
         <v>2214</v>
       </c>
-      <c r="L53" s="12"/>
-      <c r="M53" s="12"/>
-      <c r="N53" s="11" t="s">
+      <c r="L53" s="10"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="O53" s="11"/>
+      <c r="O53" s="9"/>
       <c r="P53" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="Q53" s="11" t="s">
+      <c r="Q53" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="R53" s="11"/>
+      <c r="R53" s="9"/>
       <c r="S53" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T53" s="13" t="s">
+      <c r="T53" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="U53" s="13"/>
-      <c r="V53" s="13"/>
-      <c r="W53" s="13"/>
+      <c r="U53" s="11"/>
+      <c r="V53" s="11"/>
+      <c r="W53" s="11"/>
       <c r="Y53" t="s">
         <v>420</v>
       </c>
-      <c r="Z53" t="s">
-        <v>383</v>
-      </c>
       <c r="AA53">
         <v>2214</v>
       </c>
     </row>
     <row r="54" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="10" t="s">
+      <c r="A54" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="B54" s="10"/>
-      <c r="C54" s="11" t="s">
+      <c r="B54" s="8"/>
+      <c r="C54" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11" t="s">
+      <c r="D54" s="9"/>
+      <c r="E54" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="12">
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10">
         <v>1316.7</v>
       </c>
-      <c r="L54" s="12"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="11" t="s">
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="O54" s="11"/>
+      <c r="O54" s="9"/>
       <c r="P54" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q54" s="11" t="s">
+      <c r="Q54" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="R54" s="11"/>
+      <c r="R54" s="9"/>
       <c r="S54" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T54" s="13" t="s">
+      <c r="T54" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="U54" s="13"/>
-      <c r="V54" s="13"/>
-      <c r="W54" s="13"/>
+      <c r="U54" s="11"/>
+      <c r="V54" s="11"/>
+      <c r="W54" s="11"/>
       <c r="Y54" t="s">
         <v>430</v>
       </c>
-      <c r="Z54" t="s">
-        <v>383</v>
-      </c>
       <c r="AA54">
         <v>1330</v>
       </c>
     </row>
     <row r="55" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="B55" s="10"/>
-      <c r="C55" s="11" t="s">
+      <c r="B55" s="8"/>
+      <c r="C55" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11" t="s">
+      <c r="D55" s="9"/>
+      <c r="E55" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="12">
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10">
         <v>1782</v>
       </c>
-      <c r="L55" s="12"/>
-      <c r="M55" s="12"/>
-      <c r="N55" s="11" t="s">
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="O55" s="11"/>
+      <c r="O55" s="9"/>
       <c r="P55" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q55" s="11" t="s">
+      <c r="Q55" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="R55" s="11"/>
+      <c r="R55" s="9"/>
       <c r="S55" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T55" s="13" t="s">
+      <c r="T55" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="U55" s="13"/>
-      <c r="V55" s="13"/>
-      <c r="W55" s="13"/>
+      <c r="U55" s="11"/>
+      <c r="V55" s="11"/>
+      <c r="W55" s="11"/>
       <c r="Y55" t="s">
         <v>392</v>
       </c>
-      <c r="Z55" t="s">
-        <v>383</v>
-      </c>
       <c r="AA55">
         <v>1800</v>
       </c>
     </row>
     <row r="56" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="B56" s="10"/>
-      <c r="C56" s="11" t="s">
+      <c r="B56" s="8"/>
+      <c r="C56" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11" t="s">
+      <c r="D56" s="9"/>
+      <c r="E56" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F56" s="11"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="12">
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10">
         <v>2369.66</v>
       </c>
-      <c r="L56" s="12"/>
-      <c r="M56" s="12"/>
-      <c r="N56" s="11" t="s">
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="O56" s="11"/>
+      <c r="O56" s="9"/>
       <c r="P56" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q56" s="11" t="s">
+      <c r="Q56" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="R56" s="11"/>
+      <c r="R56" s="9"/>
       <c r="S56" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T56" s="13" t="s">
+      <c r="T56" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="U56" s="13"/>
-      <c r="V56" s="13"/>
-      <c r="W56" s="13"/>
+      <c r="U56" s="11"/>
+      <c r="V56" s="11"/>
+      <c r="W56" s="11"/>
       <c r="Y56" t="s">
         <v>431</v>
       </c>
-      <c r="Z56" t="s">
-        <v>383</v>
-      </c>
       <c r="AA56">
         <v>2393.6</v>
       </c>
     </row>
     <row r="57" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="10" t="s">
+      <c r="A57" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="11" t="s">
+      <c r="B57" s="8"/>
+      <c r="C57" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11" t="s">
+      <c r="D57" s="9"/>
+      <c r="E57" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F57" s="11"/>
-      <c r="G57" s="11"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="12">
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10">
         <v>3960</v>
       </c>
-      <c r="L57" s="12"/>
-      <c r="M57" s="12"/>
-      <c r="N57" s="11" t="s">
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="O57" s="11"/>
+      <c r="O57" s="9"/>
       <c r="P57" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q57" s="11" t="s">
+      <c r="Q57" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="R57" s="11"/>
+      <c r="R57" s="9"/>
       <c r="S57" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T57" s="13" t="s">
+      <c r="T57" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="U57" s="13"/>
-      <c r="V57" s="13"/>
-      <c r="W57" s="13"/>
+      <c r="U57" s="11"/>
+      <c r="V57" s="11"/>
+      <c r="W57" s="11"/>
       <c r="Y57" t="s">
         <v>432</v>
       </c>
-      <c r="Z57" t="s">
-        <v>383</v>
-      </c>
       <c r="AA57">
         <v>4000</v>
       </c>
     </row>
     <row r="58" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="10" t="s">
+      <c r="A58" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B58" s="10"/>
-      <c r="C58" s="11" t="s">
+      <c r="B58" s="8"/>
+      <c r="C58" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11" t="s">
+      <c r="D58" s="9"/>
+      <c r="E58" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F58" s="11"/>
-      <c r="G58" s="11"/>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="12">
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10">
         <v>773.39</v>
       </c>
-      <c r="L58" s="12"/>
-      <c r="M58" s="12"/>
-      <c r="N58" s="11" t="s">
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="O58" s="11"/>
+      <c r="O58" s="9"/>
       <c r="P58" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q58" s="11" t="s">
+      <c r="Q58" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="R58" s="11"/>
+      <c r="R58" s="9"/>
       <c r="S58" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T58" s="13" t="s">
+      <c r="T58" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="U58" s="13"/>
-      <c r="V58" s="13"/>
-      <c r="W58" s="13"/>
+      <c r="U58" s="11"/>
+      <c r="V58" s="11"/>
+      <c r="W58" s="11"/>
       <c r="Y58" t="s">
         <v>393</v>
       </c>
-      <c r="Z58" t="s">
-        <v>383</v>
-      </c>
       <c r="AA58">
         <v>781.2</v>
       </c>
     </row>
     <row r="59" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="B59" s="10"/>
-      <c r="C59" s="11" t="s">
+      <c r="B59" s="8"/>
+      <c r="C59" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11" t="s">
+      <c r="D59" s="9"/>
+      <c r="E59" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="12">
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10">
         <v>14.45</v>
       </c>
-      <c r="L59" s="12"/>
-      <c r="M59" s="12"/>
-      <c r="N59" s="11" t="s">
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="O59" s="11"/>
+      <c r="O59" s="9"/>
       <c r="P59" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q59" s="11" t="s">
+      <c r="Q59" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="R59" s="11"/>
+      <c r="R59" s="9"/>
       <c r="S59" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T59" s="13" t="s">
+      <c r="T59" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="U59" s="13"/>
-      <c r="V59" s="13"/>
-      <c r="W59" s="13"/>
+      <c r="U59" s="11"/>
+      <c r="V59" s="11"/>
+      <c r="W59" s="11"/>
       <c r="Y59" t="s">
         <v>394</v>
       </c>
-      <c r="Z59" t="s">
-        <v>383</v>
-      </c>
       <c r="AA59">
         <v>14.6</v>
       </c>
     </row>
     <row r="60" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="10" t="s">
+      <c r="A60" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="B60" s="10"/>
-      <c r="C60" s="11" t="s">
+      <c r="B60" s="8"/>
+      <c r="C60" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11" t="s">
+      <c r="D60" s="9"/>
+      <c r="E60" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F60" s="11"/>
-      <c r="G60" s="11"/>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="12">
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10">
         <v>656.86</v>
       </c>
-      <c r="L60" s="12"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="11" t="s">
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="O60" s="11"/>
+      <c r="O60" s="9"/>
       <c r="P60" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q60" s="11" t="s">
+      <c r="Q60" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="R60" s="11"/>
+      <c r="R60" s="9"/>
       <c r="S60" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T60" s="13" t="s">
+      <c r="T60" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="U60" s="13"/>
-      <c r="V60" s="13"/>
-      <c r="W60" s="13"/>
+      <c r="U60" s="11"/>
+      <c r="V60" s="11"/>
+      <c r="W60" s="11"/>
       <c r="Y60" t="s">
         <v>433</v>
       </c>
-      <c r="Z60" t="s">
-        <v>383</v>
-      </c>
       <c r="AA60">
         <v>663.5</v>
       </c>
     </row>
     <row r="61" spans="1:27" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="62" spans="1:27" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="W62" s="14" t="s">
+      <c r="W62" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="X62" s="14"/>
+      <c r="X62" s="7"/>
     </row>
     <row r="63" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="10" t="s">
+      <c r="A63" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="B63" s="10"/>
-      <c r="C63" s="11" t="s">
+      <c r="B63" s="8"/>
+      <c r="C63" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11" t="s">
+      <c r="D63" s="9"/>
+      <c r="E63" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F63" s="11"/>
-      <c r="G63" s="11"/>
-      <c r="H63" s="12"/>
-      <c r="I63" s="12"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="12">
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10">
         <v>1430.45</v>
       </c>
-      <c r="L63" s="12"/>
-      <c r="M63" s="12"/>
-      <c r="N63" s="11" t="s">
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="O63" s="11"/>
+      <c r="O63" s="9"/>
       <c r="P63" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q63" s="11" t="s">
+      <c r="Q63" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="R63" s="11"/>
+      <c r="R63" s="9"/>
       <c r="S63" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T63" s="13" t="s">
+      <c r="T63" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="U63" s="13"/>
-      <c r="V63" s="13"/>
-      <c r="W63" s="13"/>
+      <c r="U63" s="11"/>
+      <c r="V63" s="11"/>
+      <c r="W63" s="11"/>
       <c r="Y63" t="s">
         <v>395</v>
       </c>
-      <c r="Z63" t="s">
-        <v>383</v>
-      </c>
       <c r="AA63">
         <v>1444.9</v>
       </c>
     </row>
     <row r="64" spans="1:27" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="10" t="s">
+      <c r="A64" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="11" t="s">
+      <c r="B64" s="8"/>
+      <c r="C64" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11" t="s">
+      <c r="D64" s="9"/>
+      <c r="E64" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="12">
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10">
         <v>2555.19</v>
       </c>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
-      <c r="N64" s="11" t="s">
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="O64" s="11"/>
+      <c r="O64" s="9"/>
       <c r="P64" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q64" s="11" t="s">
+      <c r="Q64" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="R64" s="11"/>
+      <c r="R64" s="9"/>
       <c r="S64" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T64" s="13" t="s">
+      <c r="T64" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="U64" s="13"/>
-      <c r="V64" s="13"/>
-      <c r="W64" s="13"/>
+      <c r="U64" s="11"/>
+      <c r="V64" s="11"/>
+      <c r="W64" s="11"/>
       <c r="Y64" t="s">
         <v>421</v>
       </c>
-      <c r="Z64" t="s">
-        <v>383</v>
-      </c>
       <c r="AA64">
         <v>2581</v>
       </c>
     </row>
     <row r="65" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="10" t="s">
+      <c r="A65" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="11" t="s">
+      <c r="B65" s="8"/>
+      <c r="C65" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11" t="s">
+      <c r="D65" s="9"/>
+      <c r="E65" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F65" s="11"/>
-      <c r="G65" s="11"/>
-      <c r="H65" s="12"/>
-      <c r="I65" s="12"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="12">
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10">
         <v>1330.56</v>
       </c>
-      <c r="L65" s="12"/>
-      <c r="M65" s="12"/>
-      <c r="N65" s="11" t="s">
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="O65" s="11"/>
+      <c r="O65" s="9"/>
       <c r="P65" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q65" s="11" t="s">
+      <c r="Q65" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="R65" s="11"/>
+      <c r="R65" s="9"/>
       <c r="S65" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T65" s="13" t="s">
+      <c r="T65" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="U65" s="13"/>
-      <c r="V65" s="13"/>
-      <c r="W65" s="13"/>
+      <c r="U65" s="11"/>
+      <c r="V65" s="11"/>
+      <c r="W65" s="11"/>
       <c r="Y65" t="s">
         <v>422</v>
       </c>
-      <c r="Z65" t="s">
-        <v>383</v>
-      </c>
       <c r="AA65">
         <v>1344</v>
       </c>
     </row>
     <row r="66" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="10" t="s">
+      <c r="A66" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="B66" s="10"/>
-      <c r="C66" s="11" t="s">
+      <c r="B66" s="8"/>
+      <c r="C66" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11" t="s">
+      <c r="D66" s="9"/>
+      <c r="E66" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F66" s="11"/>
-      <c r="G66" s="11"/>
-      <c r="H66" s="12"/>
-      <c r="I66" s="12"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="12">
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10">
         <v>1698.43</v>
       </c>
-      <c r="L66" s="12"/>
-      <c r="M66" s="12"/>
-      <c r="N66" s="11" t="s">
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="O66" s="11"/>
+      <c r="O66" s="9"/>
       <c r="P66" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q66" s="11" t="s">
+      <c r="Q66" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="R66" s="11"/>
+      <c r="R66" s="9"/>
       <c r="S66" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T66" s="13" t="s">
+      <c r="T66" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="U66" s="13"/>
-      <c r="V66" s="13"/>
-      <c r="W66" s="13"/>
+      <c r="U66" s="11"/>
+      <c r="V66" s="11"/>
+      <c r="W66" s="11"/>
       <c r="Y66" t="s">
         <v>434</v>
       </c>
-      <c r="Z66" t="s">
-        <v>383</v>
-      </c>
       <c r="AA66">
         <v>1715.59</v>
       </c>
     </row>
     <row r="67" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="10" t="s">
+      <c r="A67" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="11" t="s">
+      <c r="B67" s="8"/>
+      <c r="C67" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11" t="s">
+      <c r="D67" s="9"/>
+      <c r="E67" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="12">
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10">
         <v>1376.1</v>
       </c>
-      <c r="L67" s="12"/>
-      <c r="M67" s="12"/>
-      <c r="N67" s="11" t="s">
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="O67" s="11"/>
+      <c r="O67" s="9"/>
       <c r="P67" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q67" s="11" t="s">
+      <c r="Q67" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="R67" s="11"/>
+      <c r="R67" s="9"/>
       <c r="S67" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T67" s="13" t="s">
+      <c r="T67" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="U67" s="13"/>
-      <c r="V67" s="13"/>
-      <c r="W67" s="13"/>
+      <c r="U67" s="11"/>
+      <c r="V67" s="11"/>
+      <c r="W67" s="11"/>
       <c r="Y67" t="s">
         <v>396</v>
       </c>
-      <c r="Z67" t="s">
-        <v>383</v>
-      </c>
       <c r="AA67">
         <v>1390</v>
       </c>
     </row>
     <row r="68" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="10" t="s">
+      <c r="A68" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B68" s="10"/>
-      <c r="C68" s="11" t="s">
+      <c r="B68" s="8"/>
+      <c r="C68" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11" t="s">
+      <c r="D68" s="9"/>
+      <c r="E68" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F68" s="11"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="12"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="12">
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10">
         <v>14.85</v>
       </c>
-      <c r="L68" s="12"/>
-      <c r="M68" s="12"/>
-      <c r="N68" s="11" t="s">
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="O68" s="11"/>
+      <c r="O68" s="9"/>
       <c r="P68" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q68" s="11" t="s">
+      <c r="Q68" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="R68" s="11"/>
+      <c r="R68" s="9"/>
       <c r="S68" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T68" s="13" t="s">
+      <c r="T68" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="U68" s="13"/>
-      <c r="V68" s="13"/>
-      <c r="W68" s="13"/>
+      <c r="U68" s="11"/>
+      <c r="V68" s="11"/>
+      <c r="W68" s="11"/>
       <c r="Y68" t="s">
         <v>397</v>
       </c>
-      <c r="Z68" t="s">
-        <v>383</v>
-      </c>
       <c r="AA68">
         <v>15</v>
       </c>
     </row>
     <row r="69" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="10" t="s">
+      <c r="A69" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="11" t="s">
+      <c r="B69" s="8"/>
+      <c r="C69" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11" t="s">
+      <c r="D69" s="9"/>
+      <c r="E69" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="12"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12">
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10">
         <v>1810.71</v>
       </c>
-      <c r="L69" s="12"/>
-      <c r="M69" s="12"/>
-      <c r="N69" s="11" t="s">
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="O69" s="11"/>
+      <c r="O69" s="9"/>
       <c r="P69" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q69" s="11" t="s">
+      <c r="Q69" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="R69" s="11"/>
+      <c r="R69" s="9"/>
       <c r="S69" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="T69" s="13" t="s">
+      <c r="T69" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="U69" s="13"/>
-      <c r="V69" s="13"/>
-      <c r="W69" s="13"/>
+      <c r="U69" s="11"/>
+      <c r="V69" s="11"/>
+      <c r="W69" s="11"/>
       <c r="Y69" t="s">
         <v>435</v>
       </c>
-      <c r="Z69" t="s">
-        <v>383</v>
-      </c>
       <c r="AA69">
         <v>1829</v>
       </c>
     </row>
     <row r="70" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="10" t="s">
+      <c r="A70" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="11" t="s">
+      <c r="B70" s="8"/>
+      <c r="C70" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11" t="s">
+      <c r="D70" s="9"/>
+      <c r="E70" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F70" s="11"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="12"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="12">
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10">
         <v>1666.17</v>
       </c>
-      <c r="L70" s="12"/>
-      <c r="M70" s="12"/>
-      <c r="N70" s="11" t="s">
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="O70" s="11"/>
+      <c r="O70" s="9"/>
       <c r="P70" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q70" s="11" t="s">
+      <c r="Q70" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="R70" s="11"/>
+      <c r="R70" s="9"/>
       <c r="S70" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="T70" s="13" t="s">
+      <c r="T70" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="U70" s="13"/>
-      <c r="V70" s="13"/>
-      <c r="W70" s="13"/>
+      <c r="U70" s="11"/>
+      <c r="V70" s="11"/>
+      <c r="W70" s="11"/>
       <c r="Y70" t="s">
         <v>436</v>
       </c>
-      <c r="Z70" t="s">
-        <v>383</v>
-      </c>
       <c r="AA70">
         <v>1683</v>
       </c>
     </row>
     <row r="71" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="11" t="s">
+      <c r="B71" s="8"/>
+      <c r="C71" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11" t="s">
+      <c r="D71" s="9"/>
+      <c r="E71" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F71" s="11"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="12"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="12">
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10">
         <v>14.85</v>
       </c>
-      <c r="L71" s="12"/>
-      <c r="M71" s="12"/>
-      <c r="N71" s="11" t="s">
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="O71" s="11"/>
+      <c r="O71" s="9"/>
       <c r="P71" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="Q71" s="11" t="s">
+      <c r="Q71" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="R71" s="11"/>
+      <c r="R71" s="9"/>
       <c r="S71" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="T71" s="13" t="s">
+      <c r="T71" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="U71" s="13"/>
-      <c r="V71" s="13"/>
-      <c r="W71" s="13"/>
+      <c r="U71" s="11"/>
+      <c r="V71" s="11"/>
+      <c r="W71" s="11"/>
       <c r="Z71" t="s">
         <v>383</v>
       </c>
@@ -5046,47 +4911,47 @@
       </c>
     </row>
     <row r="72" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="B72" s="10"/>
-      <c r="C72" s="11" t="s">
+      <c r="B72" s="8"/>
+      <c r="C72" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11" t="s">
+      <c r="D72" s="9"/>
+      <c r="E72" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F72" s="11"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="12">
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="10">
         <v>50125</v>
       </c>
-      <c r="I72" s="12"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="12"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="12"/>
-      <c r="N72" s="11" t="s">
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="O72" s="11"/>
+      <c r="O72" s="9"/>
       <c r="P72" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="Q72" s="11" t="s">
+      <c r="Q72" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="R72" s="11"/>
+      <c r="R72" s="9"/>
       <c r="S72" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="T72" s="13" t="s">
+      <c r="T72" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="U72" s="13"/>
-      <c r="V72" s="13"/>
-      <c r="W72" s="13"/>
+      <c r="U72" s="11"/>
+      <c r="V72" s="11"/>
+      <c r="W72" s="11"/>
       <c r="Z72" t="s">
         <v>383</v>
       </c>
@@ -5095,47 +4960,47 @@
       </c>
     </row>
     <row r="73" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="10" t="s">
+      <c r="A73" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="B73" s="10"/>
-      <c r="C73" s="11" t="s">
+      <c r="B73" s="8"/>
+      <c r="C73" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11" t="s">
+      <c r="D73" s="9"/>
+      <c r="E73" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="F73" s="11"/>
-      <c r="G73" s="11"/>
-      <c r="H73" s="12">
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="10">
         <v>200</v>
       </c>
-      <c r="I73" s="12"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="12"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="12"/>
-      <c r="N73" s="11" t="s">
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="O73" s="11"/>
+      <c r="O73" s="9"/>
       <c r="P73" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="Q73" s="11" t="s">
+      <c r="Q73" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="R73" s="11"/>
+      <c r="R73" s="9"/>
       <c r="S73" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="T73" s="13" t="s">
+      <c r="T73" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="U73" s="13"/>
-      <c r="V73" s="13"/>
-      <c r="W73" s="13"/>
+      <c r="U73" s="11"/>
+      <c r="V73" s="11"/>
+      <c r="W73" s="11"/>
       <c r="Z73" t="s">
         <v>383</v>
       </c>
@@ -5144,99 +5009,96 @@
       </c>
     </row>
     <row r="74" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="10" t="s">
+      <c r="A74" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B74" s="10"/>
-      <c r="C74" s="11" t="s">
+      <c r="B74" s="8"/>
+      <c r="C74" s="9" t="s">
         <v>232</v>
       </c>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11" t="s">
+      <c r="D74" s="9"/>
+      <c r="E74" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="F74" s="11"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="12"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="12">
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10">
         <v>5000</v>
       </c>
-      <c r="L74" s="12"/>
-      <c r="M74" s="12"/>
-      <c r="N74" s="11" t="s">
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="O74" s="11"/>
+      <c r="O74" s="9"/>
       <c r="P74" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="Q74" s="11" t="s">
+      <c r="Q74" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="R74" s="11"/>
+      <c r="R74" s="9"/>
       <c r="S74" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="T74" s="13" t="s">
+      <c r="T74" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="U74" s="13"/>
-      <c r="V74" s="13"/>
-      <c r="W74" s="13"/>
+      <c r="U74" s="11"/>
+      <c r="V74" s="11"/>
+      <c r="W74" s="11"/>
       <c r="Y74" t="s">
         <v>423</v>
       </c>
-      <c r="Z74" t="s">
-        <v>383</v>
-      </c>
       <c r="AA74">
         <v>5000</v>
       </c>
     </row>
     <row r="75" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="10" t="s">
+      <c r="A75" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="B75" s="10"/>
-      <c r="C75" s="11" t="s">
+      <c r="B75" s="8"/>
+      <c r="C75" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11" t="s">
+      <c r="D75" s="9"/>
+      <c r="E75" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="12">
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="10">
         <v>15000</v>
       </c>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="12"/>
-      <c r="L75" s="12"/>
-      <c r="M75" s="12"/>
-      <c r="N75" s="11" t="s">
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="O75" s="11"/>
+      <c r="O75" s="9"/>
       <c r="P75" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="Q75" s="11" t="s">
+      <c r="Q75" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="R75" s="11"/>
+      <c r="R75" s="9"/>
       <c r="S75" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="T75" s="13" t="s">
+      <c r="T75" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="U75" s="13"/>
-      <c r="V75" s="13"/>
-      <c r="W75" s="13"/>
+      <c r="U75" s="11"/>
+      <c r="V75" s="11"/>
+      <c r="W75" s="11"/>
       <c r="Z75" t="s">
         <v>383</v>
       </c>
@@ -5245,47 +5107,47 @@
       </c>
     </row>
     <row r="76" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="10" t="s">
+      <c r="A76" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="B76" s="10"/>
-      <c r="C76" s="11" t="s">
+      <c r="B76" s="8"/>
+      <c r="C76" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11" t="s">
+      <c r="D76" s="9"/>
+      <c r="E76" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="F76" s="11"/>
-      <c r="G76" s="11"/>
-      <c r="H76" s="12"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="12">
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10">
         <v>122798.08</v>
       </c>
-      <c r="L76" s="12"/>
-      <c r="M76" s="12"/>
-      <c r="N76" s="11" t="s">
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="O76" s="11"/>
+      <c r="O76" s="9"/>
       <c r="P76" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="Q76" s="11" t="s">
+      <c r="Q76" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="R76" s="11"/>
+      <c r="R76" s="9"/>
       <c r="S76" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="T76" s="13" t="s">
+      <c r="T76" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="U76" s="13"/>
-      <c r="V76" s="13"/>
-      <c r="W76" s="13"/>
+      <c r="U76" s="11"/>
+      <c r="V76" s="11"/>
+      <c r="W76" s="11"/>
       <c r="Z76" t="s">
         <v>383</v>
       </c>
@@ -5294,47 +5156,47 @@
       </c>
     </row>
     <row r="77" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="B77" s="10"/>
-      <c r="C77" s="11" t="s">
+      <c r="B77" s="8"/>
+      <c r="C77" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11" t="s">
+      <c r="D77" s="9"/>
+      <c r="E77" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-      <c r="H77" s="12"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="12">
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10">
         <v>119908.71</v>
       </c>
-      <c r="L77" s="12"/>
-      <c r="M77" s="12"/>
-      <c r="N77" s="11" t="s">
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="O77" s="11"/>
+      <c r="O77" s="9"/>
       <c r="P77" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="Q77" s="11" t="s">
+      <c r="Q77" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="R77" s="11"/>
+      <c r="R77" s="9"/>
       <c r="S77" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="T77" s="13" t="s">
+      <c r="T77" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="U77" s="13"/>
-      <c r="V77" s="13"/>
-      <c r="W77" s="13"/>
+      <c r="U77" s="11"/>
+      <c r="V77" s="11"/>
+      <c r="W77" s="11"/>
       <c r="Z77" t="s">
         <v>383</v>
       </c>
@@ -5343,47 +5205,47 @@
       </c>
     </row>
     <row r="78" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="10" t="s">
+      <c r="A78" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="B78" s="10"/>
-      <c r="C78" s="11" t="s">
+      <c r="B78" s="8"/>
+      <c r="C78" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11" t="s">
+      <c r="D78" s="9"/>
+      <c r="E78" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="F78" s="11"/>
-      <c r="G78" s="11"/>
-      <c r="H78" s="12"/>
-      <c r="I78" s="12"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="12">
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10">
         <v>100542.42</v>
       </c>
-      <c r="L78" s="12"/>
-      <c r="M78" s="12"/>
-      <c r="N78" s="11" t="s">
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="O78" s="11"/>
+      <c r="O78" s="9"/>
       <c r="P78" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="Q78" s="11" t="s">
+      <c r="Q78" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="R78" s="11"/>
+      <c r="R78" s="9"/>
       <c r="S78" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="T78" s="13" t="s">
+      <c r="T78" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="U78" s="13"/>
-      <c r="V78" s="13"/>
-      <c r="W78" s="13"/>
+      <c r="U78" s="11"/>
+      <c r="V78" s="11"/>
+      <c r="W78" s="11"/>
       <c r="Z78" t="s">
         <v>383</v>
       </c>
@@ -5393,157 +5255,151 @@
     </row>
     <row r="79" spans="1:28" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="80" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="W80" s="14" t="s">
+      <c r="W80" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="X80" s="14"/>
+      <c r="X80" s="7"/>
     </row>
     <row r="81" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="10" t="s">
+      <c r="A81" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="B81" s="10"/>
-      <c r="C81" s="11" t="s">
+      <c r="B81" s="8"/>
+      <c r="C81" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11" t="s">
+      <c r="D81" s="9"/>
+      <c r="E81" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="F81" s="11"/>
-      <c r="G81" s="11"/>
-      <c r="H81" s="12"/>
-      <c r="I81" s="12"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="12">
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10">
         <v>2632.42</v>
       </c>
-      <c r="L81" s="12"/>
-      <c r="M81" s="12"/>
-      <c r="N81" s="11" t="s">
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="O81" s="11"/>
+      <c r="O81" s="9"/>
       <c r="P81" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="Q81" s="11" t="s">
+      <c r="Q81" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="R81" s="11"/>
+      <c r="R81" s="9"/>
       <c r="S81" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="T81" s="13" t="s">
+      <c r="T81" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="U81" s="13"/>
-      <c r="V81" s="13"/>
-      <c r="W81" s="13"/>
+      <c r="U81" s="11"/>
+      <c r="V81" s="11"/>
+      <c r="W81" s="11"/>
       <c r="Y81" t="s">
         <v>424</v>
       </c>
-      <c r="Z81" t="s">
-        <v>383</v>
-      </c>
       <c r="AA81">
         <v>2632.42</v>
       </c>
     </row>
     <row r="82" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="10" t="s">
+      <c r="A82" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="B82" s="10"/>
-      <c r="C82" s="11" t="s">
+      <c r="B82" s="8"/>
+      <c r="C82" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11" t="s">
+      <c r="D82" s="9"/>
+      <c r="E82" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="F82" s="11"/>
-      <c r="G82" s="11"/>
-      <c r="H82" s="12"/>
-      <c r="I82" s="12"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="12">
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10">
         <v>500</v>
       </c>
-      <c r="L82" s="12"/>
-      <c r="M82" s="12"/>
-      <c r="N82" s="11" t="s">
+      <c r="L82" s="10"/>
+      <c r="M82" s="10"/>
+      <c r="N82" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="O82" s="11"/>
+      <c r="O82" s="9"/>
       <c r="P82" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="Q82" s="11" t="s">
+      <c r="Q82" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="R82" s="11"/>
+      <c r="R82" s="9"/>
       <c r="S82" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="T82" s="13" t="s">
+      <c r="T82" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="U82" s="13"/>
-      <c r="V82" s="13"/>
-      <c r="W82" s="13"/>
+      <c r="U82" s="11"/>
+      <c r="V82" s="11"/>
+      <c r="W82" s="11"/>
       <c r="Y82" t="s">
         <v>441</v>
       </c>
-      <c r="Z82" t="s">
-        <v>383</v>
-      </c>
       <c r="AA82">
         <v>500</v>
       </c>
     </row>
     <row r="83" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="10" t="s">
+      <c r="A83" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="B83" s="10"/>
-      <c r="C83" s="11" t="s">
+      <c r="B83" s="8"/>
+      <c r="C83" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11" t="s">
+      <c r="D83" s="9"/>
+      <c r="E83" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
-      <c r="H83" s="12">
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="10">
         <v>16000</v>
       </c>
-      <c r="I83" s="12"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="12"/>
-      <c r="L83" s="12"/>
-      <c r="M83" s="12"/>
-      <c r="N83" s="11" t="s">
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
+      <c r="L83" s="10"/>
+      <c r="M83" s="10"/>
+      <c r="N83" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="O83" s="11"/>
+      <c r="O83" s="9"/>
       <c r="P83" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="Q83" s="11" t="s">
+      <c r="Q83" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="R83" s="11"/>
+      <c r="R83" s="9"/>
       <c r="S83" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="T83" s="13" t="s">
+      <c r="T83" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="U83" s="13"/>
-      <c r="V83" s="13"/>
-      <c r="W83" s="13"/>
+      <c r="U83" s="11"/>
+      <c r="V83" s="11"/>
+      <c r="W83" s="11"/>
       <c r="Z83" t="s">
         <v>383</v>
       </c>
@@ -5552,47 +5408,47 @@
       </c>
     </row>
     <row r="84" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="10" t="s">
+      <c r="A84" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="B84" s="10"/>
-      <c r="C84" s="11" t="s">
+      <c r="B84" s="8"/>
+      <c r="C84" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11" t="s">
+      <c r="D84" s="9"/>
+      <c r="E84" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="12">
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="10">
         <v>10000</v>
       </c>
-      <c r="I84" s="12"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="12"/>
-      <c r="L84" s="12"/>
-      <c r="M84" s="12"/>
-      <c r="N84" s="11" t="s">
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="10"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="10"/>
+      <c r="N84" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="O84" s="11"/>
+      <c r="O84" s="9"/>
       <c r="P84" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="Q84" s="11" t="s">
+      <c r="Q84" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="R84" s="11"/>
+      <c r="R84" s="9"/>
       <c r="S84" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="T84" s="13" t="s">
+      <c r="T84" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="U84" s="13"/>
-      <c r="V84" s="13"/>
-      <c r="W84" s="13"/>
+      <c r="U84" s="11"/>
+      <c r="V84" s="11"/>
+      <c r="W84" s="11"/>
       <c r="Z84" t="s">
         <v>383</v>
       </c>
@@ -5601,47 +5457,47 @@
       </c>
     </row>
     <row r="85" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="B85" s="10"/>
-      <c r="C85" s="11" t="s">
+      <c r="B85" s="8"/>
+      <c r="C85" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11" t="s">
+      <c r="D85" s="9"/>
+      <c r="E85" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="F85" s="11"/>
-      <c r="G85" s="11"/>
-      <c r="H85" s="12">
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="10">
         <v>1000</v>
       </c>
-      <c r="I85" s="12"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="12"/>
-      <c r="L85" s="12"/>
-      <c r="M85" s="12"/>
-      <c r="N85" s="11" t="s">
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="O85" s="11"/>
+      <c r="O85" s="9"/>
       <c r="P85" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="Q85" s="11" t="s">
+      <c r="Q85" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="R85" s="11"/>
+      <c r="R85" s="9"/>
       <c r="S85" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="T85" s="13" t="s">
+      <c r="T85" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="U85" s="13"/>
-      <c r="V85" s="13"/>
-      <c r="W85" s="13"/>
+      <c r="U85" s="11"/>
+      <c r="V85" s="11"/>
+      <c r="W85" s="11"/>
       <c r="Z85" t="s">
         <v>383</v>
       </c>
@@ -5650,47 +5506,47 @@
       </c>
     </row>
     <row r="86" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="10" t="s">
+      <c r="A86" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="B86" s="10"/>
-      <c r="C86" s="11" t="s">
+      <c r="B86" s="8"/>
+      <c r="C86" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11" t="s">
+      <c r="D86" s="9"/>
+      <c r="E86" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-      <c r="H86" s="12">
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="10">
         <v>3200</v>
       </c>
-      <c r="I86" s="12"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="12"/>
-      <c r="L86" s="12"/>
-      <c r="M86" s="12"/>
-      <c r="N86" s="11" t="s">
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="10"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="O86" s="11"/>
+      <c r="O86" s="9"/>
       <c r="P86" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="Q86" s="11" t="s">
+      <c r="Q86" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="R86" s="11"/>
+      <c r="R86" s="9"/>
       <c r="S86" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="T86" s="13" t="s">
+      <c r="T86" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="U86" s="13"/>
-      <c r="V86" s="13"/>
-      <c r="W86" s="13"/>
+      <c r="U86" s="11"/>
+      <c r="V86" s="11"/>
+      <c r="W86" s="11"/>
       <c r="Z86" t="s">
         <v>383</v>
       </c>
@@ -5699,47 +5555,47 @@
       </c>
     </row>
     <row r="87" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="10" t="s">
+      <c r="A87" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="B87" s="10"/>
-      <c r="C87" s="11" t="s">
+      <c r="B87" s="8"/>
+      <c r="C87" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11" t="s">
+      <c r="D87" s="9"/>
+      <c r="E87" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-      <c r="H87" s="12">
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="10">
         <v>2300</v>
       </c>
-      <c r="I87" s="12"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="12"/>
-      <c r="L87" s="12"/>
-      <c r="M87" s="12"/>
-      <c r="N87" s="11" t="s">
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="O87" s="11"/>
+      <c r="O87" s="9"/>
       <c r="P87" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="Q87" s="11" t="s">
+      <c r="Q87" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="R87" s="11"/>
+      <c r="R87" s="9"/>
       <c r="S87" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="T87" s="13" t="s">
+      <c r="T87" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="U87" s="13"/>
-      <c r="V87" s="13"/>
-      <c r="W87" s="13"/>
+      <c r="U87" s="11"/>
+      <c r="V87" s="11"/>
+      <c r="W87" s="11"/>
       <c r="Z87" t="s">
         <v>383</v>
       </c>
@@ -5748,47 +5604,47 @@
       </c>
     </row>
     <row r="88" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="B88" s="10"/>
-      <c r="C88" s="11" t="s">
+      <c r="B88" s="8"/>
+      <c r="C88" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11" t="s">
+      <c r="D88" s="9"/>
+      <c r="E88" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="12">
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="10">
         <v>230500</v>
       </c>
-      <c r="I88" s="12"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="12"/>
-      <c r="L88" s="12"/>
-      <c r="M88" s="12"/>
-      <c r="N88" s="11" t="s">
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="O88" s="11"/>
+      <c r="O88" s="9"/>
       <c r="P88" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="Q88" s="11" t="s">
+      <c r="Q88" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="R88" s="11"/>
+      <c r="R88" s="9"/>
       <c r="S88" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="T88" s="13" t="s">
+      <c r="T88" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="U88" s="13"/>
-      <c r="V88" s="13"/>
-      <c r="W88" s="13"/>
+      <c r="U88" s="11"/>
+      <c r="V88" s="11"/>
+      <c r="W88" s="11"/>
       <c r="Z88" t="s">
         <v>383</v>
       </c>
@@ -5797,47 +5653,47 @@
       </c>
     </row>
     <row r="89" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="10" t="s">
+      <c r="A89" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="B89" s="10"/>
-      <c r="C89" s="11" t="s">
+      <c r="B89" s="8"/>
+      <c r="C89" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11" t="s">
+      <c r="D89" s="9"/>
+      <c r="E89" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="F89" s="11"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="12">
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="10">
         <v>1800</v>
       </c>
-      <c r="I89" s="12"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="12"/>
-      <c r="L89" s="12"/>
-      <c r="M89" s="12"/>
-      <c r="N89" s="11" t="s">
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="10"/>
+      <c r="N89" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="O89" s="11"/>
+      <c r="O89" s="9"/>
       <c r="P89" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="Q89" s="11" t="s">
+      <c r="Q89" s="9" t="s">
         <v>228</v>
       </c>
-      <c r="R89" s="11"/>
+      <c r="R89" s="9"/>
       <c r="S89" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="T89" s="13" t="s">
+      <c r="T89" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="U89" s="13"/>
-      <c r="V89" s="13"/>
-      <c r="W89" s="13"/>
+      <c r="U89" s="11"/>
+      <c r="V89" s="11"/>
+      <c r="W89" s="11"/>
       <c r="Z89" t="s">
         <v>383</v>
       </c>
@@ -5846,47 +5702,47 @@
       </c>
     </row>
     <row r="90" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="10" t="s">
+      <c r="A90" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="B90" s="10"/>
-      <c r="C90" s="11" t="s">
+      <c r="B90" s="8"/>
+      <c r="C90" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11" t="s">
+      <c r="D90" s="9"/>
+      <c r="E90" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="F90" s="11"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="12">
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="10">
         <v>27000</v>
       </c>
-      <c r="I90" s="12"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="12"/>
-      <c r="L90" s="12"/>
-      <c r="M90" s="12"/>
-      <c r="N90" s="11" t="s">
+      <c r="I90" s="10"/>
+      <c r="J90" s="10"/>
+      <c r="K90" s="10"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="10"/>
+      <c r="N90" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="O90" s="11"/>
+      <c r="O90" s="9"/>
       <c r="P90" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="Q90" s="11" t="s">
+      <c r="Q90" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="R90" s="11"/>
+      <c r="R90" s="9"/>
       <c r="S90" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="T90" s="13" t="s">
+      <c r="T90" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="U90" s="13"/>
-      <c r="V90" s="13"/>
-      <c r="W90" s="13"/>
+      <c r="U90" s="11"/>
+      <c r="V90" s="11"/>
+      <c r="W90" s="11"/>
       <c r="Z90" t="s">
         <v>383</v>
       </c>
@@ -5895,47 +5751,47 @@
       </c>
     </row>
     <row r="91" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="10" t="s">
+      <c r="A91" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="B91" s="10"/>
-      <c r="C91" s="11" t="s">
+      <c r="B91" s="8"/>
+      <c r="C91" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11" t="s">
+      <c r="D91" s="9"/>
+      <c r="E91" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="12">
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="10">
         <v>96240</v>
       </c>
-      <c r="I91" s="12"/>
-      <c r="J91" s="12"/>
-      <c r="K91" s="12"/>
-      <c r="L91" s="12"/>
-      <c r="M91" s="12"/>
-      <c r="N91" s="11" t="s">
+      <c r="I91" s="10"/>
+      <c r="J91" s="10"/>
+      <c r="K91" s="10"/>
+      <c r="L91" s="10"/>
+      <c r="M91" s="10"/>
+      <c r="N91" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="O91" s="11"/>
+      <c r="O91" s="9"/>
       <c r="P91" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="Q91" s="11" t="s">
+      <c r="Q91" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="R91" s="11"/>
+      <c r="R91" s="9"/>
       <c r="S91" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="T91" s="13" t="s">
+      <c r="T91" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="U91" s="13"/>
-      <c r="V91" s="13"/>
-      <c r="W91" s="13"/>
+      <c r="U91" s="11"/>
+      <c r="V91" s="11"/>
+      <c r="W91" s="11"/>
       <c r="Z91" t="s">
         <v>383</v>
       </c>
@@ -5944,255 +5800,243 @@
       </c>
     </row>
     <row r="92" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="10" t="s">
+      <c r="A92" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="B92" s="10"/>
-      <c r="C92" s="11" t="s">
+      <c r="B92" s="8"/>
+      <c r="C92" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11" t="s">
+      <c r="D92" s="9"/>
+      <c r="E92" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="F92" s="11"/>
-      <c r="G92" s="11"/>
-      <c r="H92" s="12"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="12">
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="10"/>
+      <c r="K92" s="10">
         <v>871.2</v>
       </c>
-      <c r="L92" s="12"/>
-      <c r="M92" s="12"/>
-      <c r="N92" s="11" t="s">
+      <c r="L92" s="10"/>
+      <c r="M92" s="10"/>
+      <c r="N92" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="O92" s="11"/>
+      <c r="O92" s="9"/>
       <c r="P92" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="Q92" s="11" t="s">
+      <c r="Q92" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="R92" s="11"/>
+      <c r="R92" s="9"/>
       <c r="S92" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="T92" s="13" t="s">
+      <c r="T92" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="U92" s="13"/>
-      <c r="V92" s="13"/>
-      <c r="W92" s="13"/>
+      <c r="U92" s="11"/>
+      <c r="V92" s="11"/>
+      <c r="W92" s="11"/>
       <c r="Y92" t="s">
         <v>398</v>
       </c>
-      <c r="Z92" t="s">
-        <v>383</v>
-      </c>
       <c r="AA92">
         <v>880</v>
       </c>
     </row>
     <row r="93" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="10" t="s">
+      <c r="A93" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="B93" s="10"/>
-      <c r="C93" s="11" t="s">
+      <c r="B93" s="8"/>
+      <c r="C93" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11" t="s">
+      <c r="D93" s="9"/>
+      <c r="E93" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="12"/>
-      <c r="I93" s="12"/>
-      <c r="J93" s="12"/>
-      <c r="K93" s="12">
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="10">
         <v>1485</v>
       </c>
-      <c r="L93" s="12"/>
-      <c r="M93" s="12"/>
-      <c r="N93" s="11" t="s">
+      <c r="L93" s="10"/>
+      <c r="M93" s="10"/>
+      <c r="N93" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="O93" s="11"/>
+      <c r="O93" s="9"/>
       <c r="P93" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="Q93" s="11" t="s">
+      <c r="Q93" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="R93" s="11"/>
+      <c r="R93" s="9"/>
       <c r="S93" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="T93" s="13" t="s">
+      <c r="T93" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="U93" s="13"/>
-      <c r="V93" s="13"/>
-      <c r="W93" s="13"/>
+      <c r="U93" s="11"/>
+      <c r="V93" s="11"/>
+      <c r="W93" s="11"/>
       <c r="Y93" t="s">
         <v>437</v>
       </c>
-      <c r="Z93" t="s">
-        <v>383</v>
-      </c>
       <c r="AA93">
         <v>1500</v>
       </c>
     </row>
     <row r="94" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="10" t="s">
+      <c r="A94" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="B94" s="10"/>
-      <c r="C94" s="11" t="s">
+      <c r="B94" s="8"/>
+      <c r="C94" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11" t="s">
+      <c r="D94" s="9"/>
+      <c r="E94" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="F94" s="11"/>
-      <c r="G94" s="11"/>
-      <c r="H94" s="12"/>
-      <c r="I94" s="12"/>
-      <c r="J94" s="12"/>
-      <c r="K94" s="12">
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10"/>
+      <c r="K94" s="10">
         <v>14.56</v>
       </c>
-      <c r="L94" s="12"/>
-      <c r="M94" s="12"/>
-      <c r="N94" s="11" t="s">
+      <c r="L94" s="10"/>
+      <c r="M94" s="10"/>
+      <c r="N94" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="O94" s="11"/>
+      <c r="O94" s="9"/>
       <c r="P94" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="Q94" s="11" t="s">
+      <c r="Q94" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="R94" s="11"/>
+      <c r="R94" s="9"/>
       <c r="S94" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="T94" s="13" t="s">
+      <c r="T94" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="U94" s="13"/>
-      <c r="V94" s="13"/>
-      <c r="W94" s="13"/>
+      <c r="U94" s="11"/>
+      <c r="V94" s="11"/>
+      <c r="W94" s="11"/>
       <c r="Y94" t="s">
         <v>399</v>
       </c>
-      <c r="Z94" t="s">
-        <v>383</v>
-      </c>
       <c r="AA94">
         <v>14.56</v>
       </c>
     </row>
     <row r="95" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="10" t="s">
+      <c r="A95" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="B95" s="10"/>
-      <c r="C95" s="11" t="s">
+      <c r="B95" s="8"/>
+      <c r="C95" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11" t="s">
+      <c r="D95" s="9"/>
+      <c r="E95" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="F95" s="11"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="12"/>
-      <c r="I95" s="12"/>
-      <c r="J95" s="12"/>
-      <c r="K95" s="12">
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="10"/>
+      <c r="K95" s="10">
         <v>968.22</v>
       </c>
-      <c r="L95" s="12"/>
-      <c r="M95" s="12"/>
-      <c r="N95" s="11" t="s">
+      <c r="L95" s="10"/>
+      <c r="M95" s="10"/>
+      <c r="N95" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="O95" s="11"/>
+      <c r="O95" s="9"/>
       <c r="P95" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="Q95" s="11" t="s">
+      <c r="Q95" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="R95" s="11"/>
+      <c r="R95" s="9"/>
       <c r="S95" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="T95" s="13" t="s">
+      <c r="T95" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="U95" s="13"/>
-      <c r="V95" s="13"/>
-      <c r="W95" s="13"/>
+      <c r="U95" s="11"/>
+      <c r="V95" s="11"/>
+      <c r="W95" s="11"/>
       <c r="Y95" t="s">
         <v>400</v>
       </c>
-      <c r="Z95" t="s">
-        <v>383</v>
-      </c>
       <c r="AA95">
         <v>968.22</v>
       </c>
     </row>
     <row r="96" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="10" t="s">
+      <c r="A96" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="B96" s="10"/>
-      <c r="C96" s="11" t="s">
+      <c r="B96" s="8"/>
+      <c r="C96" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11" t="s">
+      <c r="D96" s="9"/>
+      <c r="E96" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="12"/>
-      <c r="I96" s="12"/>
-      <c r="J96" s="12"/>
-      <c r="K96" s="12">
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="10"/>
+      <c r="K96" s="10">
         <v>800</v>
       </c>
-      <c r="L96" s="12"/>
-      <c r="M96" s="12"/>
-      <c r="N96" s="11" t="s">
+      <c r="L96" s="10"/>
+      <c r="M96" s="10"/>
+      <c r="N96" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="O96" s="11"/>
+      <c r="O96" s="9"/>
       <c r="P96" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="Q96" s="11" t="s">
+      <c r="Q96" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="R96" s="11"/>
+      <c r="R96" s="9"/>
       <c r="S96" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="T96" s="13" t="s">
+      <c r="T96" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="U96" s="13"/>
-      <c r="V96" s="13"/>
-      <c r="W96" s="13"/>
+      <c r="U96" s="11"/>
+      <c r="V96" s="11"/>
+      <c r="W96" s="11"/>
       <c r="Z96" t="s">
         <v>383</v>
       </c>
@@ -6202,209 +6046,200 @@
     </row>
     <row r="97" spans="1:28" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="98" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="W98" s="14" t="s">
+      <c r="W98" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="X98" s="14"/>
+      <c r="X98" s="7"/>
     </row>
     <row r="99" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="10" t="s">
+      <c r="A99" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="B99" s="10"/>
-      <c r="C99" s="11" t="s">
+      <c r="B99" s="8"/>
+      <c r="C99" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11" t="s">
+      <c r="D99" s="9"/>
+      <c r="E99" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="F99" s="11"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="12"/>
-      <c r="I99" s="12"/>
-      <c r="J99" s="12"/>
-      <c r="K99" s="12">
+      <c r="F99" s="9"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="10"/>
+      <c r="K99" s="10">
         <v>740</v>
       </c>
-      <c r="L99" s="12"/>
-      <c r="M99" s="12"/>
-      <c r="N99" s="11" t="s">
+      <c r="L99" s="10"/>
+      <c r="M99" s="10"/>
+      <c r="N99" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="O99" s="11"/>
+      <c r="O99" s="9"/>
       <c r="P99" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="Q99" s="11" t="s">
+      <c r="Q99" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="R99" s="11"/>
+      <c r="R99" s="9"/>
       <c r="S99" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="T99" s="13" t="s">
+      <c r="T99" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="U99" s="13"/>
-      <c r="V99" s="13"/>
-      <c r="W99" s="13"/>
+      <c r="U99" s="11"/>
+      <c r="V99" s="11"/>
+      <c r="W99" s="11"/>
       <c r="Y99" t="s">
         <v>438</v>
       </c>
-      <c r="Z99" t="s">
-        <v>383</v>
-      </c>
       <c r="AA99">
         <v>740</v>
       </c>
     </row>
     <row r="100" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="10" t="s">
+      <c r="A100" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="B100" s="10"/>
-      <c r="C100" s="11" t="s">
+      <c r="B100" s="8"/>
+      <c r="C100" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11" t="s">
+      <c r="D100" s="9"/>
+      <c r="E100" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="F100" s="11"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="12"/>
-      <c r="I100" s="12"/>
-      <c r="J100" s="12"/>
-      <c r="K100" s="12">
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="10"/>
+      <c r="K100" s="10">
         <v>2396.5</v>
       </c>
-      <c r="L100" s="12"/>
-      <c r="M100" s="12"/>
-      <c r="N100" s="11" t="s">
+      <c r="L100" s="10"/>
+      <c r="M100" s="10"/>
+      <c r="N100" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="O100" s="11"/>
+      <c r="O100" s="9"/>
       <c r="P100" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="Q100" s="11" t="s">
+      <c r="Q100" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="R100" s="11"/>
+      <c r="R100" s="9"/>
       <c r="S100" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="T100" s="13" t="s">
+      <c r="T100" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="U100" s="13"/>
-      <c r="V100" s="13"/>
-      <c r="W100" s="13"/>
+      <c r="U100" s="11"/>
+      <c r="V100" s="11"/>
+      <c r="W100" s="11"/>
       <c r="Y100" t="s">
         <v>425</v>
       </c>
-      <c r="Z100" t="s">
-        <v>383</v>
-      </c>
       <c r="AA100">
         <v>2396.5</v>
       </c>
     </row>
     <row r="101" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="10" t="s">
+      <c r="A101" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="B101" s="10"/>
-      <c r="C101" s="11" t="s">
+      <c r="B101" s="8"/>
+      <c r="C101" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="D101" s="11"/>
-      <c r="E101" s="11" t="s">
+      <c r="D101" s="9"/>
+      <c r="E101" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="F101" s="11"/>
-      <c r="G101" s="11"/>
-      <c r="H101" s="12"/>
-      <c r="I101" s="12"/>
-      <c r="J101" s="12"/>
-      <c r="K101" s="12">
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="10"/>
+      <c r="J101" s="10"/>
+      <c r="K101" s="10">
         <v>843</v>
       </c>
-      <c r="L101" s="12"/>
-      <c r="M101" s="12"/>
-      <c r="N101" s="11" t="s">
+      <c r="L101" s="10"/>
+      <c r="M101" s="10"/>
+      <c r="N101" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="O101" s="11"/>
+      <c r="O101" s="9"/>
       <c r="P101" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="Q101" s="11" t="s">
+      <c r="Q101" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="R101" s="11"/>
+      <c r="R101" s="9"/>
       <c r="S101" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="T101" s="13" t="s">
+      <c r="T101" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="U101" s="13"/>
-      <c r="V101" s="13"/>
-      <c r="W101" s="13"/>
+      <c r="U101" s="11"/>
+      <c r="V101" s="11"/>
+      <c r="W101" s="11"/>
       <c r="Y101" t="s">
         <v>442</v>
       </c>
-      <c r="Z101" t="s">
-        <v>383</v>
-      </c>
       <c r="AA101">
         <v>843</v>
       </c>
     </row>
     <row r="102" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="10" t="s">
+      <c r="A102" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B102" s="10"/>
-      <c r="C102" s="11" t="s">
+      <c r="B102" s="8"/>
+      <c r="C102" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="D102" s="11"/>
-      <c r="E102" s="11" t="s">
+      <c r="D102" s="9"/>
+      <c r="E102" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="F102" s="11"/>
-      <c r="G102" s="11"/>
-      <c r="H102" s="12"/>
-      <c r="I102" s="12"/>
-      <c r="J102" s="12"/>
-      <c r="K102" s="12">
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="10"/>
+      <c r="K102" s="10">
         <v>2041</v>
       </c>
-      <c r="L102" s="12"/>
-      <c r="M102" s="12"/>
-      <c r="N102" s="11" t="s">
+      <c r="L102" s="10"/>
+      <c r="M102" s="10"/>
+      <c r="N102" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="O102" s="11"/>
+      <c r="O102" s="9"/>
       <c r="P102" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="Q102" s="11" t="s">
+      <c r="Q102" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="R102" s="11"/>
+      <c r="R102" s="9"/>
       <c r="S102" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="T102" s="13" t="s">
+      <c r="T102" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="U102" s="13"/>
-      <c r="V102" s="13"/>
-      <c r="W102" s="13"/>
+      <c r="U102" s="11"/>
+      <c r="V102" s="11"/>
+      <c r="W102" s="11"/>
       <c r="Z102" t="s">
         <v>383</v>
       </c>
@@ -6413,328 +6248,1016 @@
       </c>
     </row>
     <row r="103" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="10" t="s">
+      <c r="A103" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="B103" s="10"/>
-      <c r="C103" s="11" t="s">
+      <c r="B103" s="8"/>
+      <c r="C103" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11" t="s">
+      <c r="D103" s="9"/>
+      <c r="E103" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="F103" s="11"/>
-      <c r="G103" s="11"/>
-      <c r="H103" s="12"/>
-      <c r="I103" s="12"/>
-      <c r="J103" s="12"/>
-      <c r="K103" s="12">
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="10"/>
+      <c r="J103" s="10"/>
+      <c r="K103" s="10">
         <v>2404.36</v>
       </c>
-      <c r="L103" s="12"/>
-      <c r="M103" s="12"/>
-      <c r="N103" s="11" t="s">
+      <c r="L103" s="10"/>
+      <c r="M103" s="10"/>
+      <c r="N103" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="O103" s="11"/>
+      <c r="O103" s="9"/>
       <c r="P103" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="Q103" s="11" t="s">
+      <c r="Q103" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="R103" s="11"/>
+      <c r="R103" s="9"/>
       <c r="S103" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="T103" s="13" t="s">
+      <c r="T103" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="U103" s="13"/>
-      <c r="V103" s="13"/>
-      <c r="W103" s="13"/>
+      <c r="U103" s="11"/>
+      <c r="V103" s="11"/>
+      <c r="W103" s="11"/>
       <c r="Y103" t="s">
         <v>426</v>
       </c>
-      <c r="Z103" t="s">
-        <v>383</v>
-      </c>
       <c r="AA103">
         <v>2404.36</v>
       </c>
     </row>
     <row r="104" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="10" t="s">
+      <c r="A104" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="B104" s="10"/>
-      <c r="C104" s="11" t="s">
+      <c r="B104" s="8"/>
+      <c r="C104" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11" t="s">
+      <c r="D104" s="9"/>
+      <c r="E104" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="F104" s="11"/>
-      <c r="G104" s="11"/>
-      <c r="H104" s="12"/>
-      <c r="I104" s="12"/>
-      <c r="J104" s="12"/>
-      <c r="K104" s="12">
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="10"/>
+      <c r="I104" s="10"/>
+      <c r="J104" s="10"/>
+      <c r="K104" s="10">
         <v>50</v>
       </c>
-      <c r="L104" s="12"/>
-      <c r="M104" s="12"/>
-      <c r="N104" s="11" t="s">
+      <c r="L104" s="10"/>
+      <c r="M104" s="10"/>
+      <c r="N104" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="O104" s="11"/>
+      <c r="O104" s="9"/>
       <c r="P104" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="Q104" s="11" t="s">
+      <c r="Q104" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="R104" s="11"/>
+      <c r="R104" s="9"/>
       <c r="S104" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="T104" s="13" t="s">
+      <c r="T104" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="U104" s="13"/>
-      <c r="V104" s="13"/>
-      <c r="W104" s="13"/>
+      <c r="U104" s="11"/>
+      <c r="V104" s="11"/>
+      <c r="W104" s="11"/>
       <c r="Y104" t="s">
         <v>401</v>
       </c>
-      <c r="Z104" t="s">
-        <v>383</v>
-      </c>
       <c r="AA104">
         <v>50</v>
       </c>
     </row>
     <row r="105" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="10" t="s">
+      <c r="A105" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="B105" s="10"/>
-      <c r="C105" s="11" t="s">
+      <c r="B105" s="8"/>
+      <c r="C105" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11" t="s">
+      <c r="D105" s="9"/>
+      <c r="E105" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="F105" s="11"/>
-      <c r="G105" s="11"/>
-      <c r="H105" s="12"/>
-      <c r="I105" s="12"/>
-      <c r="J105" s="12"/>
-      <c r="K105" s="12">
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10"/>
+      <c r="J105" s="10"/>
+      <c r="K105" s="10">
         <v>795</v>
       </c>
-      <c r="L105" s="12"/>
-      <c r="M105" s="12"/>
-      <c r="N105" s="11" t="s">
+      <c r="L105" s="10"/>
+      <c r="M105" s="10"/>
+      <c r="N105" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="O105" s="11"/>
+      <c r="O105" s="9"/>
       <c r="P105" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="Q105" s="11" t="s">
+      <c r="Q105" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="R105" s="11"/>
+      <c r="R105" s="9"/>
       <c r="S105" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="T105" s="13" t="s">
+      <c r="T105" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="U105" s="13"/>
-      <c r="V105" s="13"/>
-      <c r="W105" s="13"/>
+      <c r="U105" s="11"/>
+      <c r="V105" s="11"/>
+      <c r="W105" s="11"/>
       <c r="Y105" t="s">
         <v>427</v>
       </c>
-      <c r="Z105" t="s">
-        <v>383</v>
-      </c>
       <c r="AA105">
         <v>795</v>
       </c>
     </row>
     <row r="106" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="10" t="s">
+      <c r="A106" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="B106" s="10"/>
-      <c r="C106" s="11" t="s">
+      <c r="B106" s="8"/>
+      <c r="C106" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="D106" s="11"/>
-      <c r="E106" s="11" t="s">
+      <c r="D106" s="9"/>
+      <c r="E106" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="F106" s="11"/>
-      <c r="G106" s="11"/>
-      <c r="H106" s="12"/>
-      <c r="I106" s="12"/>
-      <c r="J106" s="12"/>
-      <c r="K106" s="12">
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="10"/>
+      <c r="I106" s="10"/>
+      <c r="J106" s="10"/>
+      <c r="K106" s="10">
         <v>1400</v>
       </c>
-      <c r="L106" s="12"/>
-      <c r="M106" s="12"/>
-      <c r="N106" s="11" t="s">
+      <c r="L106" s="10"/>
+      <c r="M106" s="10"/>
+      <c r="N106" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="O106" s="11"/>
+      <c r="O106" s="9"/>
       <c r="P106" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="Q106" s="11" t="s">
+      <c r="Q106" s="9" t="s">
         <v>370</v>
       </c>
-      <c r="R106" s="11"/>
+      <c r="R106" s="9"/>
       <c r="S106" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="T106" s="13" t="s">
+      <c r="T106" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="U106" s="13"/>
-      <c r="V106" s="13"/>
-      <c r="W106" s="13"/>
+      <c r="U106" s="11"/>
+      <c r="V106" s="11"/>
+      <c r="W106" s="11"/>
       <c r="Y106" t="s">
         <v>439</v>
       </c>
-      <c r="Z106" t="s">
-        <v>383</v>
-      </c>
       <c r="AA106">
         <v>1400</v>
       </c>
     </row>
     <row r="107" spans="1:28" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="10" t="s">
+      <c r="A107" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="B107" s="10"/>
-      <c r="C107" s="11" t="s">
+      <c r="B107" s="8"/>
+      <c r="C107" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="D107" s="11"/>
-      <c r="E107" s="11" t="s">
+      <c r="D107" s="9"/>
+      <c r="E107" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="F107" s="11"/>
-      <c r="G107" s="11"/>
-      <c r="H107" s="12"/>
-      <c r="I107" s="12"/>
-      <c r="J107" s="12"/>
-      <c r="K107" s="12">
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="10"/>
+      <c r="I107" s="10"/>
+      <c r="J107" s="10"/>
+      <c r="K107" s="10">
         <v>1819.47</v>
       </c>
-      <c r="L107" s="12"/>
-      <c r="M107" s="12"/>
-      <c r="N107" s="11" t="s">
+      <c r="L107" s="10"/>
+      <c r="M107" s="10"/>
+      <c r="N107" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="O107" s="11"/>
+      <c r="O107" s="9"/>
       <c r="P107" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="Q107" s="11" t="s">
+      <c r="Q107" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="R107" s="11"/>
+      <c r="R107" s="9"/>
       <c r="S107" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="T107" s="13" t="s">
+      <c r="T107" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="U107" s="13"/>
-      <c r="V107" s="13"/>
-      <c r="W107" s="13"/>
+      <c r="U107" s="11"/>
+      <c r="V107" s="11"/>
+      <c r="W107" s="11"/>
       <c r="Y107" t="s">
         <v>440</v>
       </c>
-      <c r="Z107" t="s">
-        <v>383</v>
-      </c>
       <c r="AA107">
         <v>1819.47</v>
       </c>
     </row>
     <row r="108" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="14"/>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
+      <c r="A108" s="7"/>
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
     </row>
     <row r="109" spans="1:28" ht="42.6" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="110" spans="1:28" ht="7.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="U110" s="15"/>
+      <c r="U110" s="6"/>
     </row>
     <row r="111" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="C111" s="6"/>
-      <c r="D111" s="6"/>
-      <c r="E111" s="6"/>
-      <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
-      <c r="H111" s="6"/>
-      <c r="I111" s="7">
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="5">
         <v>463433.21</v>
       </c>
-      <c r="J111" s="7"/>
-      <c r="K111" s="7"/>
-      <c r="L111" s="7">
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="5">
         <v>453874.88</v>
       </c>
-      <c r="M111" s="7"/>
-      <c r="N111" s="7"/>
-      <c r="U111" s="15"/>
+      <c r="M111" s="5"/>
+      <c r="N111" s="5"/>
+      <c r="U111" s="6"/>
     </row>
     <row r="112" spans="1:28" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="C112" s="6"/>
-      <c r="D112" s="6"/>
-      <c r="E112" s="6"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
-      <c r="H112" s="6"/>
-      <c r="I112" s="7">
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="5">
         <v>671.88</v>
       </c>
-      <c r="J112" s="7"/>
-      <c r="K112" s="7"/>
-      <c r="L112" s="6"/>
-      <c r="M112" s="6"/>
-      <c r="N112" s="6"/>
-      <c r="U112" s="15"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="5"/>
+      <c r="L112" s="4"/>
+      <c r="M112" s="4"/>
+      <c r="N112" s="4"/>
+      <c r="U112" s="6"/>
     </row>
     <row r="113" spans="21:24" ht="78" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="U113" s="15"/>
+      <c r="U113" s="6"/>
     </row>
     <row r="114" spans="21:24" ht="176.65" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="115" spans="21:24" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="W115" s="14" t="s">
+      <c r="W115" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="X115" s="14"/>
+      <c r="X115" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="720">
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="F1:Q2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:Q3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:Q4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:Q5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:Q6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:Q7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:Q8"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="T16:W16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="T21:W21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="T22:W22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="T27:W27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="T29:W29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="T30:W30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="T32:W32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="T33:W33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="T34:W34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="T35:W35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="T36:W36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="T37:W37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="T38:W38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="T39:W39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="T41:W41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="T42:W42"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="T46:W46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="T47:W47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="T48:W48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="T49:W49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="T50:W50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="T51:W51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="T52:W52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="T53:W53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="T54:W54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="T55:W55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="T56:W56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="T57:W57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="K58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="T58:W58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="K59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="T59:W59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="K60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="T60:W60"/>
+    <mergeCell ref="W62:X62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="T63:W63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="K64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="T64:W64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="K65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="T65:W65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="T66:W66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="K67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="Q67:R67"/>
+    <mergeCell ref="T67:W67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="K68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="Q68:R68"/>
+    <mergeCell ref="T68:W68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="T69:W69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="Q70:R70"/>
+    <mergeCell ref="T70:W70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="T71:W71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="Q72:R72"/>
+    <mergeCell ref="T72:W72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="Q73:R73"/>
+    <mergeCell ref="T73:W73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="Q74:R74"/>
+    <mergeCell ref="T74:W74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="Q75:R75"/>
+    <mergeCell ref="T75:W75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="K76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="Q76:R76"/>
+    <mergeCell ref="T76:W76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="K77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="Q77:R77"/>
+    <mergeCell ref="T77:W77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="K78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="Q78:R78"/>
+    <mergeCell ref="T78:W78"/>
+    <mergeCell ref="W80:X80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="K81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="Q81:R81"/>
+    <mergeCell ref="T81:W81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="K82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="Q82:R82"/>
+    <mergeCell ref="T82:W82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="K83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="Q83:R83"/>
+    <mergeCell ref="T83:W83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="K84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="Q84:R84"/>
+    <mergeCell ref="T84:W84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="K85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="Q85:R85"/>
+    <mergeCell ref="T85:W85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="Q86:R86"/>
+    <mergeCell ref="T86:W86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="Q87:R87"/>
+    <mergeCell ref="T87:W87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="K88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="Q88:R88"/>
+    <mergeCell ref="T88:W88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="K89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="Q89:R89"/>
+    <mergeCell ref="T89:W89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="K90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="Q90:R90"/>
+    <mergeCell ref="T90:W90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="K91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="Q91:R91"/>
+    <mergeCell ref="T91:W91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="K92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="Q92:R92"/>
+    <mergeCell ref="T92:W92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="K93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="Q93:R93"/>
+    <mergeCell ref="T93:W93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="K94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="Q94:R94"/>
+    <mergeCell ref="T94:W94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="K95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="Q95:R95"/>
+    <mergeCell ref="T95:W95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="K96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="Q96:R96"/>
+    <mergeCell ref="T96:W96"/>
+    <mergeCell ref="W98:X98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="H99:J99"/>
+    <mergeCell ref="K99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="Q99:R99"/>
+    <mergeCell ref="T99:W99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="K100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="Q100:R100"/>
+    <mergeCell ref="T100:W100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="K101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="Q101:R101"/>
+    <mergeCell ref="T101:W101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="K102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="Q102:R102"/>
+    <mergeCell ref="T102:W102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="H103:J103"/>
+    <mergeCell ref="K103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="Q103:R103"/>
+    <mergeCell ref="T103:W103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="E104:G104"/>
+    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="K104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="Q104:R104"/>
+    <mergeCell ref="T104:W104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E105:G105"/>
+    <mergeCell ref="H105:J105"/>
+    <mergeCell ref="K105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="Q105:R105"/>
+    <mergeCell ref="T105:W105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="E106:G106"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="K106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="Q106:R106"/>
+    <mergeCell ref="T106:W106"/>
     <mergeCell ref="B111:H111"/>
     <mergeCell ref="I111:K111"/>
     <mergeCell ref="L111:N111"/>
@@ -6752,709 +7275,6 @@
     <mergeCell ref="Q107:R107"/>
     <mergeCell ref="T107:W107"/>
     <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="E105:G105"/>
-    <mergeCell ref="H105:J105"/>
-    <mergeCell ref="K105:M105"/>
-    <mergeCell ref="N105:O105"/>
-    <mergeCell ref="Q105:R105"/>
-    <mergeCell ref="T105:W105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="E106:G106"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="K106:M106"/>
-    <mergeCell ref="N106:O106"/>
-    <mergeCell ref="Q106:R106"/>
-    <mergeCell ref="T106:W106"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="H103:J103"/>
-    <mergeCell ref="K103:M103"/>
-    <mergeCell ref="N103:O103"/>
-    <mergeCell ref="Q103:R103"/>
-    <mergeCell ref="T103:W103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="E104:G104"/>
-    <mergeCell ref="H104:J104"/>
-    <mergeCell ref="K104:M104"/>
-    <mergeCell ref="N104:O104"/>
-    <mergeCell ref="Q104:R104"/>
-    <mergeCell ref="T104:W104"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="H101:J101"/>
-    <mergeCell ref="K101:M101"/>
-    <mergeCell ref="N101:O101"/>
-    <mergeCell ref="Q101:R101"/>
-    <mergeCell ref="T101:W101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="K102:M102"/>
-    <mergeCell ref="N102:O102"/>
-    <mergeCell ref="Q102:R102"/>
-    <mergeCell ref="T102:W102"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="H99:J99"/>
-    <mergeCell ref="K99:M99"/>
-    <mergeCell ref="N99:O99"/>
-    <mergeCell ref="Q99:R99"/>
-    <mergeCell ref="T99:W99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="H100:J100"/>
-    <mergeCell ref="K100:M100"/>
-    <mergeCell ref="N100:O100"/>
-    <mergeCell ref="Q100:R100"/>
-    <mergeCell ref="T100:W100"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="H96:J96"/>
-    <mergeCell ref="K96:M96"/>
-    <mergeCell ref="N96:O96"/>
-    <mergeCell ref="Q96:R96"/>
-    <mergeCell ref="T96:W96"/>
-    <mergeCell ref="W98:X98"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="H94:J94"/>
-    <mergeCell ref="K94:M94"/>
-    <mergeCell ref="N94:O94"/>
-    <mergeCell ref="Q94:R94"/>
-    <mergeCell ref="T94:W94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="H95:J95"/>
-    <mergeCell ref="K95:M95"/>
-    <mergeCell ref="N95:O95"/>
-    <mergeCell ref="Q95:R95"/>
-    <mergeCell ref="T95:W95"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="K92:M92"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="Q92:R92"/>
-    <mergeCell ref="T92:W92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="H93:J93"/>
-    <mergeCell ref="K93:M93"/>
-    <mergeCell ref="N93:O93"/>
-    <mergeCell ref="Q93:R93"/>
-    <mergeCell ref="T93:W93"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="H90:J90"/>
-    <mergeCell ref="K90:M90"/>
-    <mergeCell ref="N90:O90"/>
-    <mergeCell ref="Q90:R90"/>
-    <mergeCell ref="T90:W90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="K91:M91"/>
-    <mergeCell ref="N91:O91"/>
-    <mergeCell ref="Q91:R91"/>
-    <mergeCell ref="T91:W91"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="K88:M88"/>
-    <mergeCell ref="N88:O88"/>
-    <mergeCell ref="Q88:R88"/>
-    <mergeCell ref="T88:W88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="K89:M89"/>
-    <mergeCell ref="N89:O89"/>
-    <mergeCell ref="Q89:R89"/>
-    <mergeCell ref="T89:W89"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="Q86:R86"/>
-    <mergeCell ref="T86:W86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="Q87:R87"/>
-    <mergeCell ref="T87:W87"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="K84:M84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="Q84:R84"/>
-    <mergeCell ref="T84:W84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="K85:M85"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="Q85:R85"/>
-    <mergeCell ref="T85:W85"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="K82:M82"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="Q82:R82"/>
-    <mergeCell ref="T82:W82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="K83:M83"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="Q83:R83"/>
-    <mergeCell ref="T83:W83"/>
-    <mergeCell ref="W80:X80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="K81:M81"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="Q81:R81"/>
-    <mergeCell ref="T81:W81"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="K77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="Q77:R77"/>
-    <mergeCell ref="T77:W77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="K78:M78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="Q78:R78"/>
-    <mergeCell ref="T78:W78"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="Q75:R75"/>
-    <mergeCell ref="T75:W75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="K76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="Q76:R76"/>
-    <mergeCell ref="T76:W76"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="Q73:R73"/>
-    <mergeCell ref="T73:W73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="K74:M74"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="Q74:R74"/>
-    <mergeCell ref="T74:W74"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="K71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="Q71:R71"/>
-    <mergeCell ref="T71:W71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="Q72:R72"/>
-    <mergeCell ref="T72:W72"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="K69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="T69:W69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="K70:M70"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="Q70:R70"/>
-    <mergeCell ref="T70:W70"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="K67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="Q67:R67"/>
-    <mergeCell ref="T67:W67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="K68:M68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="Q68:R68"/>
-    <mergeCell ref="T68:W68"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="K65:M65"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="T65:W65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="T66:W66"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="T63:W63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="K64:M64"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="T64:W64"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="K60:M60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="T60:W60"/>
-    <mergeCell ref="W62:X62"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="K58:M58"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="T58:W58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="K59:M59"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="T59:W59"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="T56:W56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="T57:W57"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="T54:W54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="K55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="T55:W55"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="T52:W52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="T53:W53"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="T50:W50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="T51:W51"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="T48:W48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="T49:W49"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="T46:W46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="T47:W47"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="T41:W41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="T42:W42"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="T39:W39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="T40:W40"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="T37:W37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="T38:W38"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="T35:W35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="T36:W36"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="T33:W33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="T34:W34"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="T31:W31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="T32:W32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="T29:W29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="T30:W30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="T27:W27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="T22:W22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="T23:W23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="T20:W20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="T21:W21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="T19:W19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="T16:W16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="T15:W15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:Q6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:Q7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F8:Q8"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="F1:Q2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:Q3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:Q4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:Q5"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/1/О23.02.13.Xlsx
+++ b/1/О23.02.13.Xlsx
@@ -1641,23 +1641,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="12" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1671,11 +1665,17 @@
     <xf numFmtId="49" fontId="11" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2019,8 +2019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Y1" sqref="Y1:Y1048576"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AH13" sqref="AH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2056,41 +2056,41 @@
     <col min="29" max="29" width="7.83203125" style="4" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="9.5" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="6.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="32" max="37" width="4.1640625" customWidth="1"/>
-    <col min="38" max="38" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="38" width="4.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="5" t="s">
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
       <c r="Y1" s="1"/>
       <c r="AB1" s="1"/>
       <c r="AD1" s="1"/>
@@ -2103,23 +2103,23 @@
       <c r="AL1" s="1"/>
     </row>
     <row r="2" spans="1:38" ht="0.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="6"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
       <c r="R2" s="1"/>
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
@@ -2139,27 +2139,27 @@
       <c r="AL2" s="1"/>
     </row>
     <row r="3" spans="1:38" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -2179,27 +2179,27 @@
       <c r="AL3" s="1"/>
     </row>
     <row r="4" spans="1:38" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
@@ -2219,27 +2219,27 @@
       <c r="AL4" s="1"/>
     </row>
     <row r="5" spans="1:38" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="s">
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
@@ -2259,27 +2259,27 @@
       <c r="AL5" s="1"/>
     </row>
     <row r="6" spans="1:38" ht="14.65" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
@@ -2299,27 +2299,27 @@
       <c r="AL6" s="1"/>
     </row>
     <row r="7" spans="1:38" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="15"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -2339,27 +2339,27 @@
       <c r="AL7" s="1"/>
     </row>
     <row r="8" spans="1:38" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15"/>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
@@ -2415,22 +2415,22 @@
       <c r="AL9" s="1"/>
     </row>
     <row r="10" spans="1:38" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6">
         <v>10230.209999999999</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -2491,49 +2491,49 @@
       <c r="AL11" s="1"/>
     </row>
     <row r="12" spans="1:38" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10" t="s">
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10" t="s">
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10" t="s">
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10" t="s">
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="O12" s="10"/>
+      <c r="O12" s="14"/>
       <c r="P12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Q12" s="10" t="s">
+      <c r="Q12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="R12" s="10"/>
+      <c r="R12" s="14"/>
       <c r="S12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="T12" s="10" t="s">
+      <c r="T12" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1" t="s">
         <v>381</v>
@@ -2556,116 +2556,116 @@
       <c r="AE12" s="4" t="s">
         <v>388</v>
       </c>
-      <c r="AF12" s="1"/>
+      <c r="AF12" s="1" t="s">
+        <v>381</v>
+      </c>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
-      <c r="AL12" s="1" t="s">
-        <v>381</v>
-      </c>
+      <c r="AL12" s="1"/>
     </row>
     <row r="13" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="9"/>
+      <c r="C13" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13">
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11">
         <v>249.95</v>
       </c>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="12" t="s">
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O13" s="12"/>
+      <c r="O13" s="10"/>
       <c r="P13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q13" s="12" t="s">
+      <c r="Q13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="R13" s="12"/>
+      <c r="R13" s="10"/>
       <c r="S13" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T13" s="14" t="s">
+      <c r="T13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1" t="s">
         <v>382</v>
       </c>
       <c r="AB13" s="1"/>
       <c r="AD13" s="1"/>
-      <c r="AF13" s="1"/>
+      <c r="AF13" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="AG13" s="1"/>
       <c r="AH13" s="1"/>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
-      <c r="AL13" s="1" t="s">
-        <v>382</v>
-      </c>
+      <c r="AL13" s="1"/>
     </row>
     <row r="14" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="12" t="s">
+      <c r="B14" s="9"/>
+      <c r="C14" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12" t="s">
+      <c r="D14" s="10"/>
+      <c r="E14" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13">
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11">
         <v>1673</v>
       </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="12" t="s">
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O14" s="12"/>
+      <c r="O14" s="10"/>
       <c r="P14" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q14" s="12" t="s">
+      <c r="Q14" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R14" s="12"/>
+      <c r="R14" s="10"/>
       <c r="S14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T14" s="14" t="s">
+      <c r="T14" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="14"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="12"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1" t="s">
         <v>382</v>
@@ -2692,47 +2692,47 @@
       <c r="AL14" s="1"/>
     </row>
     <row r="15" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="9"/>
+      <c r="C15" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12" t="s">
+      <c r="D15" s="10"/>
+      <c r="E15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13">
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11">
         <v>1673</v>
       </c>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="12" t="s">
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O15" s="12"/>
+      <c r="O15" s="10"/>
       <c r="P15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q15" s="12" t="s">
+      <c r="Q15" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R15" s="12"/>
+      <c r="R15" s="10"/>
       <c r="S15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T15" s="14" t="s">
+      <c r="T15" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="14"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1" t="s">
         <v>382</v>
@@ -2759,47 +2759,47 @@
       <c r="AL15" s="1"/>
     </row>
     <row r="16" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="12" t="s">
+      <c r="B16" s="9"/>
+      <c r="C16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12" t="s">
+      <c r="D16" s="10"/>
+      <c r="E16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13">
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11">
         <v>1908</v>
       </c>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="12" t="s">
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O16" s="12"/>
+      <c r="O16" s="10"/>
       <c r="P16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q16" s="12" t="s">
+      <c r="Q16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R16" s="12"/>
+      <c r="R16" s="10"/>
       <c r="S16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T16" s="14" t="s">
+      <c r="T16" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="14"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="12"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1" t="s">
         <v>382</v>
@@ -2826,163 +2826,163 @@
       <c r="AL16" s="1"/>
     </row>
     <row r="17" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="12" t="s">
+      <c r="B17" s="9"/>
+      <c r="C17" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12" t="s">
+      <c r="D17" s="10"/>
+      <c r="E17" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13">
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11">
         <v>4714.96</v>
       </c>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="12" t="s">
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="O17" s="12"/>
+      <c r="O17" s="10"/>
       <c r="P17" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="Q17" s="12" t="s">
+      <c r="Q17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="R17" s="12"/>
+      <c r="R17" s="10"/>
       <c r="S17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T17" s="14" t="s">
+      <c r="T17" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="14"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1" t="s">
         <v>382</v>
       </c>
       <c r="AB17" s="1"/>
       <c r="AD17" s="1"/>
-      <c r="AF17" s="1"/>
+      <c r="AF17" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="AG17" s="1"/>
       <c r="AH17" s="1"/>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
-      <c r="AL17" s="1" t="s">
-        <v>382</v>
-      </c>
+      <c r="AL17" s="1"/>
     </row>
     <row r="18" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="12" t="s">
+      <c r="B18" s="9"/>
+      <c r="C18" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12" t="s">
+      <c r="D18" s="10"/>
+      <c r="E18" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13">
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="11">
         <v>43.21</v>
       </c>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="12" t="s">
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="O18" s="12"/>
+      <c r="O18" s="10"/>
       <c r="P18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Q18" s="12" t="s">
+      <c r="Q18" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="R18" s="12"/>
+      <c r="R18" s="10"/>
       <c r="S18" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="T18" s="14" t="s">
+      <c r="T18" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="14"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1" t="s">
         <v>382</v>
       </c>
       <c r="AB18" s="1"/>
       <c r="AD18" s="1"/>
-      <c r="AF18" s="1"/>
+      <c r="AF18" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="AG18" s="1"/>
       <c r="AH18" s="1"/>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
-      <c r="AL18" s="1" t="s">
-        <v>382</v>
-      </c>
+      <c r="AL18" s="1"/>
     </row>
     <row r="19" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12" t="s">
+      <c r="D19" s="10"/>
+      <c r="E19" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13">
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11">
         <v>238.1</v>
       </c>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="12" t="s">
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O19" s="12"/>
+      <c r="O19" s="10"/>
       <c r="P19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q19" s="12" t="s">
+      <c r="Q19" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R19" s="12"/>
+      <c r="R19" s="10"/>
       <c r="S19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T19" s="14" t="s">
+      <c r="T19" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="14"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="12"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1" t="s">
         <v>382</v>
@@ -3009,47 +3009,47 @@
       <c r="AL19" s="1"/>
     </row>
     <row r="20" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12" t="s">
+      <c r="B20" s="9"/>
+      <c r="C20" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12" t="s">
+      <c r="D20" s="10"/>
+      <c r="E20" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13">
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11">
         <v>2160.77</v>
       </c>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="12" t="s">
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O20" s="12"/>
+      <c r="O20" s="10"/>
       <c r="P20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q20" s="12" t="s">
+      <c r="Q20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R20" s="12"/>
+      <c r="R20" s="10"/>
       <c r="S20" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T20" s="14" t="s">
+      <c r="T20" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="14"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="12"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1" t="s">
         <v>382</v>
@@ -3076,47 +3076,47 @@
       <c r="AL20" s="1"/>
     </row>
     <row r="21" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12" t="s">
+      <c r="B21" s="9"/>
+      <c r="C21" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12" t="s">
+      <c r="D21" s="10"/>
+      <c r="E21" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13">
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11">
         <v>1200</v>
       </c>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="12" t="s">
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O21" s="12"/>
+      <c r="O21" s="10"/>
       <c r="P21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q21" s="12" t="s">
+      <c r="Q21" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R21" s="12"/>
+      <c r="R21" s="10"/>
       <c r="S21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T21" s="14" t="s">
+      <c r="T21" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="14"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="12"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1" t="s">
         <v>382</v>
@@ -3143,163 +3143,163 @@
       <c r="AL21" s="1"/>
     </row>
     <row r="22" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="12" t="s">
+      <c r="B22" s="9"/>
+      <c r="C22" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12" t="s">
+      <c r="D22" s="10"/>
+      <c r="E22" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13">
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11">
         <v>14.56</v>
       </c>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="12" t="s">
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="O22" s="12"/>
+      <c r="O22" s="10"/>
       <c r="P22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="Q22" s="12" t="s">
+      <c r="Q22" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="R22" s="12"/>
+      <c r="R22" s="10"/>
       <c r="S22" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="T22" s="14" t="s">
+      <c r="T22" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="U22" s="14"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="14"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="12"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1" t="s">
         <v>382</v>
       </c>
       <c r="AB22" s="1"/>
       <c r="AD22" s="1"/>
-      <c r="AF22" s="1"/>
+      <c r="AF22" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="AG22" s="1"/>
       <c r="AH22" s="1"/>
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1"/>
-      <c r="AL22" s="1" t="s">
-        <v>382</v>
-      </c>
+      <c r="AL22" s="1"/>
     </row>
     <row r="23" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="12" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12" t="s">
+      <c r="D23" s="10"/>
+      <c r="E23" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="13">
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="11">
         <v>10025</v>
       </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="13"/>
-      <c r="N23" s="12" t="s">
+      <c r="I23" s="11"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="O23" s="12"/>
+      <c r="O23" s="10"/>
       <c r="P23" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q23" s="12" t="s">
+      <c r="Q23" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="R23" s="12"/>
+      <c r="R23" s="10"/>
       <c r="S23" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T23" s="14" t="s">
+      <c r="T23" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1" t="s">
         <v>382</v>
       </c>
       <c r="AB23" s="1"/>
       <c r="AD23" s="1"/>
-      <c r="AF23" s="1"/>
+      <c r="AF23" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
-      <c r="AL23" s="1" t="s">
-        <v>382</v>
-      </c>
+      <c r="AL23" s="1"/>
     </row>
     <row r="24" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="12" t="s">
+      <c r="B24" s="9"/>
+      <c r="C24" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12" t="s">
+      <c r="D24" s="10"/>
+      <c r="E24" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13">
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11">
         <v>1082.06</v>
       </c>
-      <c r="L24" s="13"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="12" t="s">
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O24" s="12"/>
+      <c r="O24" s="10"/>
       <c r="P24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q24" s="12" t="s">
+      <c r="Q24" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R24" s="12"/>
+      <c r="R24" s="10"/>
       <c r="S24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T24" s="14" t="s">
+      <c r="T24" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1" t="s">
         <v>382</v>
@@ -3384,10 +3384,10 @@
       <c r="T26" s="1"/>
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
-      <c r="W26" s="15" t="s">
+      <c r="W26" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="X26" s="15"/>
+      <c r="X26" s="8"/>
       <c r="Y26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AD26" s="1"/>
@@ -3400,47 +3400,47 @@
       <c r="AL26" s="1"/>
     </row>
     <row r="27" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="12" t="s">
+      <c r="B27" s="9"/>
+      <c r="C27" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12" t="s">
+      <c r="D27" s="10"/>
+      <c r="E27" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13">
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11">
         <v>2000</v>
       </c>
-      <c r="L27" s="13"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="12" t="s">
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O27" s="12"/>
+      <c r="O27" s="10"/>
       <c r="P27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q27" s="12" t="s">
+      <c r="Q27" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R27" s="12"/>
+      <c r="R27" s="10"/>
       <c r="S27" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T27" s="14" t="s">
+      <c r="T27" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1" t="s">
         <v>382</v>
@@ -3467,47 +3467,47 @@
       <c r="AL27" s="1"/>
     </row>
     <row r="28" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="12" t="s">
+      <c r="B28" s="9"/>
+      <c r="C28" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12" t="s">
+      <c r="D28" s="10"/>
+      <c r="E28" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13">
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11">
         <v>2254</v>
       </c>
-      <c r="L28" s="13"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="12" t="s">
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O28" s="12"/>
+      <c r="O28" s="10"/>
       <c r="P28" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q28" s="12" t="s">
+      <c r="Q28" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R28" s="12"/>
+      <c r="R28" s="10"/>
       <c r="S28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T28" s="14" t="s">
+      <c r="T28" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1" t="s">
         <v>382</v>
@@ -3534,47 +3534,47 @@
       <c r="AL28" s="1"/>
     </row>
     <row r="29" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="12" t="s">
+      <c r="B29" s="9"/>
+      <c r="C29" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12" t="s">
+      <c r="D29" s="10"/>
+      <c r="E29" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13">
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11">
         <v>283.89999999999998</v>
       </c>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="12" t="s">
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O29" s="12"/>
+      <c r="O29" s="10"/>
       <c r="P29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q29" s="12" t="s">
+      <c r="Q29" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R29" s="12"/>
+      <c r="R29" s="10"/>
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="14" t="s">
+      <c r="T29" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="14"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="12"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1" t="s">
         <v>382</v>
@@ -3601,47 +3601,47 @@
       <c r="AL29" s="1"/>
     </row>
     <row r="30" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="12" t="s">
+      <c r="B30" s="9"/>
+      <c r="C30" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12" t="s">
+      <c r="D30" s="10"/>
+      <c r="E30" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="13">
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11">
         <v>1633</v>
       </c>
-      <c r="L30" s="13"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="12" t="s">
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O30" s="12"/>
+      <c r="O30" s="10"/>
       <c r="P30" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q30" s="12" t="s">
+      <c r="Q30" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R30" s="12"/>
+      <c r="R30" s="10"/>
       <c r="S30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T30" s="14" t="s">
+      <c r="T30" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="U30" s="14"/>
-      <c r="V30" s="14"/>
-      <c r="W30" s="14"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="12"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1" t="s">
         <v>382</v>
@@ -3668,47 +3668,47 @@
       <c r="AL30" s="1"/>
     </row>
     <row r="31" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="12" t="s">
+      <c r="B31" s="9"/>
+      <c r="C31" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="12"/>
-      <c r="E31" s="12" t="s">
+      <c r="D31" s="10"/>
+      <c r="E31" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="12"/>
-      <c r="G31" s="12"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="13">
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11">
         <v>4457</v>
       </c>
-      <c r="L31" s="13"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="12" t="s">
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O31" s="12"/>
+      <c r="O31" s="10"/>
       <c r="P31" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q31" s="12" t="s">
+      <c r="Q31" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R31" s="12"/>
+      <c r="R31" s="10"/>
       <c r="S31" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T31" s="14" t="s">
+      <c r="T31" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="U31" s="14"/>
-      <c r="V31" s="14"/>
-      <c r="W31" s="14"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="12"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1" t="s">
         <v>382</v>
@@ -3735,47 +3735,47 @@
       <c r="AL31" s="1"/>
     </row>
     <row r="32" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="11"/>
-      <c r="C32" s="12" t="s">
+      <c r="B32" s="9"/>
+      <c r="C32" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12" t="s">
+      <c r="D32" s="10"/>
+      <c r="E32" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13">
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11">
         <v>4079.45</v>
       </c>
-      <c r="L32" s="13"/>
-      <c r="M32" s="13"/>
-      <c r="N32" s="12" t="s">
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O32" s="12"/>
+      <c r="O32" s="10"/>
       <c r="P32" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q32" s="12" t="s">
+      <c r="Q32" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R32" s="12"/>
+      <c r="R32" s="10"/>
       <c r="S32" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T32" s="14" t="s">
+      <c r="T32" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="U32" s="14"/>
-      <c r="V32" s="14"/>
-      <c r="W32" s="14"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="12"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1" t="s">
         <v>382</v>
@@ -3802,47 +3802,47 @@
       <c r="AL32" s="1"/>
     </row>
     <row r="33" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="11"/>
-      <c r="C33" s="12" t="s">
+      <c r="B33" s="9"/>
+      <c r="C33" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12" t="s">
+      <c r="D33" s="10"/>
+      <c r="E33" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13">
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11">
         <v>2142.9</v>
       </c>
-      <c r="L33" s="13"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="12" t="s">
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O33" s="12"/>
+      <c r="O33" s="10"/>
       <c r="P33" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q33" s="12" t="s">
+      <c r="Q33" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R33" s="12"/>
+      <c r="R33" s="10"/>
       <c r="S33" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T33" s="14" t="s">
+      <c r="T33" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="U33" s="14"/>
-      <c r="V33" s="14"/>
-      <c r="W33" s="14"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="12"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1" t="s">
         <v>382</v>
@@ -3869,47 +3869,47 @@
       <c r="AL33" s="1"/>
     </row>
     <row r="34" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="11"/>
-      <c r="C34" s="12" t="s">
+      <c r="B34" s="9"/>
+      <c r="C34" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="12"/>
-      <c r="E34" s="12" t="s">
+      <c r="D34" s="10"/>
+      <c r="E34" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F34" s="12"/>
-      <c r="G34" s="12"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
-      <c r="K34" s="13">
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11">
         <v>1240</v>
       </c>
-      <c r="L34" s="13"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="12" t="s">
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O34" s="12"/>
+      <c r="O34" s="10"/>
       <c r="P34" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q34" s="12" t="s">
+      <c r="Q34" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R34" s="12"/>
+      <c r="R34" s="10"/>
       <c r="S34" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T34" s="14" t="s">
+      <c r="T34" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="U34" s="14"/>
-      <c r="V34" s="14"/>
-      <c r="W34" s="14"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="12"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1" t="s">
         <v>382</v>
@@ -3936,47 +3936,47 @@
       <c r="AL34" s="1"/>
     </row>
     <row r="35" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="11"/>
-      <c r="C35" s="12" t="s">
+      <c r="B35" s="9"/>
+      <c r="C35" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12" t="s">
+      <c r="D35" s="10"/>
+      <c r="E35" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="13"/>
-      <c r="K35" s="13">
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11">
         <v>2000</v>
       </c>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="12" t="s">
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O35" s="12"/>
+      <c r="O35" s="10"/>
       <c r="P35" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q35" s="12" t="s">
+      <c r="Q35" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R35" s="12"/>
+      <c r="R35" s="10"/>
       <c r="S35" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T35" s="14" t="s">
+      <c r="T35" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="U35" s="14"/>
-      <c r="V35" s="14"/>
-      <c r="W35" s="14"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="12"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1" t="s">
         <v>382</v>
@@ -4003,47 +4003,47 @@
       <c r="AL35" s="1"/>
     </row>
     <row r="36" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="12" t="s">
+      <c r="B36" s="9"/>
+      <c r="C36" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12" t="s">
+      <c r="D36" s="10"/>
+      <c r="E36" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="13"/>
-      <c r="K36" s="13">
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11">
         <v>4234.2</v>
       </c>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="12" t="s">
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O36" s="12"/>
+      <c r="O36" s="10"/>
       <c r="P36" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q36" s="12" t="s">
+      <c r="Q36" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R36" s="12"/>
+      <c r="R36" s="10"/>
       <c r="S36" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T36" s="14" t="s">
+      <c r="T36" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="U36" s="14"/>
-      <c r="V36" s="14"/>
-      <c r="W36" s="14"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="12"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1" t="s">
         <v>382</v>
@@ -4070,47 +4070,47 @@
       <c r="AL36" s="1"/>
     </row>
     <row r="37" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="12" t="s">
+      <c r="B37" s="9"/>
+      <c r="C37" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12" t="s">
+      <c r="D37" s="10"/>
+      <c r="E37" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13"/>
-      <c r="K37" s="13">
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11">
         <v>1665</v>
       </c>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="12" t="s">
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O37" s="12"/>
+      <c r="O37" s="10"/>
       <c r="P37" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q37" s="12" t="s">
+      <c r="Q37" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R37" s="12"/>
+      <c r="R37" s="10"/>
       <c r="S37" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="T37" s="14" t="s">
+      <c r="T37" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="U37" s="14"/>
-      <c r="V37" s="14"/>
-      <c r="W37" s="14"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="12"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1" t="s">
         <v>382</v>
@@ -4137,47 +4137,47 @@
       <c r="AL37" s="1"/>
     </row>
     <row r="38" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="12" t="s">
+      <c r="B38" s="9"/>
+      <c r="C38" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12" t="s">
+      <c r="D38" s="10"/>
+      <c r="E38" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="13"/>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13">
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11">
         <v>500</v>
       </c>
-      <c r="L38" s="13"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="12" t="s">
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O38" s="12"/>
+      <c r="O38" s="10"/>
       <c r="P38" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q38" s="12" t="s">
+      <c r="Q38" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R38" s="12"/>
+      <c r="R38" s="10"/>
       <c r="S38" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="T38" s="14" t="s">
+      <c r="T38" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="U38" s="14"/>
-      <c r="V38" s="14"/>
-      <c r="W38" s="14"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="12"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="1" t="s">
         <v>382</v>
@@ -4204,47 +4204,47 @@
       <c r="AL38" s="1"/>
     </row>
     <row r="39" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="12" t="s">
+      <c r="B39" s="9"/>
+      <c r="C39" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12" t="s">
+      <c r="D39" s="10"/>
+      <c r="E39" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="13"/>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13">
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11">
         <v>1831</v>
       </c>
-      <c r="L39" s="13"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="12" t="s">
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O39" s="12"/>
+      <c r="O39" s="10"/>
       <c r="P39" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q39" s="12" t="s">
+      <c r="Q39" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R39" s="12"/>
+      <c r="R39" s="10"/>
       <c r="S39" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="T39" s="14" t="s">
+      <c r="T39" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="U39" s="14"/>
-      <c r="V39" s="14"/>
-      <c r="W39" s="14"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="12"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1" t="s">
         <v>382</v>
@@ -4271,47 +4271,47 @@
       <c r="AL39" s="1"/>
     </row>
     <row r="40" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="12" t="s">
+      <c r="B40" s="9"/>
+      <c r="C40" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12" t="s">
+      <c r="D40" s="10"/>
+      <c r="E40" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="13"/>
-      <c r="K40" s="13">
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11">
         <v>1604.75</v>
       </c>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="12" t="s">
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O40" s="12"/>
+      <c r="O40" s="10"/>
       <c r="P40" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q40" s="12" t="s">
+      <c r="Q40" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R40" s="12"/>
+      <c r="R40" s="10"/>
       <c r="S40" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="T40" s="14" t="s">
+      <c r="T40" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="U40" s="14"/>
-      <c r="V40" s="14"/>
-      <c r="W40" s="14"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
       <c r="X40" s="1"/>
       <c r="Y40" s="1" t="s">
         <v>382</v>
@@ -4338,47 +4338,47 @@
       <c r="AL40" s="1"/>
     </row>
     <row r="41" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="11" t="s">
+      <c r="A41" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="12" t="s">
+      <c r="B41" s="9"/>
+      <c r="C41" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12" t="s">
+      <c r="D41" s="10"/>
+      <c r="E41" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="13"/>
-      <c r="K41" s="13">
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11">
         <v>1331</v>
       </c>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="12" t="s">
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O41" s="12"/>
+      <c r="O41" s="10"/>
       <c r="P41" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q41" s="12" t="s">
+      <c r="Q41" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R41" s="12"/>
+      <c r="R41" s="10"/>
       <c r="S41" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="T41" s="14" t="s">
+      <c r="T41" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="U41" s="14"/>
-      <c r="V41" s="14"/>
-      <c r="W41" s="14"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
       <c r="X41" s="1"/>
       <c r="Y41" s="1" t="s">
         <v>382</v>
@@ -4405,47 +4405,47 @@
       <c r="AL41" s="1"/>
     </row>
     <row r="42" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="11" t="s">
+      <c r="A42" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="12" t="s">
+      <c r="B42" s="9"/>
+      <c r="C42" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12" t="s">
+      <c r="D42" s="10"/>
+      <c r="E42" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13"/>
-      <c r="K42" s="13">
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11">
         <v>1400</v>
       </c>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="12" t="s">
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O42" s="12"/>
+      <c r="O42" s="10"/>
       <c r="P42" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q42" s="12" t="s">
+      <c r="Q42" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R42" s="12"/>
+      <c r="R42" s="10"/>
       <c r="S42" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="T42" s="14" t="s">
+      <c r="T42" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="U42" s="14"/>
-      <c r="V42" s="14"/>
-      <c r="W42" s="14"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
       <c r="X42" s="1"/>
       <c r="Y42" s="1" t="s">
         <v>382</v>
@@ -4530,10 +4530,10 @@
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
-      <c r="W44" s="15" t="s">
+      <c r="W44" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="X44" s="15"/>
+      <c r="X44" s="8"/>
       <c r="Y44" s="1"/>
       <c r="AB44" s="1"/>
       <c r="AD44" s="1"/>
@@ -4546,47 +4546,47 @@
       <c r="AL44" s="1"/>
     </row>
     <row r="45" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B45" s="11"/>
-      <c r="C45" s="12" t="s">
+      <c r="B45" s="9"/>
+      <c r="C45" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12" t="s">
+      <c r="D45" s="10"/>
+      <c r="E45" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="13"/>
-      <c r="J45" s="13"/>
-      <c r="K45" s="13">
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11">
         <v>7689.79</v>
       </c>
-      <c r="L45" s="13"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="12" t="s">
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O45" s="12"/>
+      <c r="O45" s="10"/>
       <c r="P45" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q45" s="12" t="s">
+      <c r="Q45" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R45" s="12"/>
+      <c r="R45" s="10"/>
       <c r="S45" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="T45" s="14" t="s">
+      <c r="T45" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="U45" s="14"/>
-      <c r="V45" s="14"/>
-      <c r="W45" s="14"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
       <c r="X45" s="1"/>
       <c r="Y45" s="1" t="s">
         <v>382</v>
@@ -4613,47 +4613,47 @@
       <c r="AL45" s="1"/>
     </row>
     <row r="46" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="11" t="s">
+      <c r="A46" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="B46" s="11"/>
-      <c r="C46" s="12" t="s">
+      <c r="B46" s="9"/>
+      <c r="C46" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12" t="s">
+      <c r="D46" s="10"/>
+      <c r="E46" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="13"/>
-      <c r="J46" s="13"/>
-      <c r="K46" s="13">
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11">
         <v>58.2</v>
       </c>
-      <c r="L46" s="13"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="12" t="s">
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="O46" s="12"/>
+      <c r="O46" s="10"/>
       <c r="P46" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q46" s="12" t="s">
+      <c r="Q46" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="R46" s="12"/>
+      <c r="R46" s="10"/>
       <c r="S46" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="T46" s="14" t="s">
+      <c r="T46" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="U46" s="14"/>
-      <c r="V46" s="14"/>
-      <c r="W46" s="14"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+      <c r="W46" s="12"/>
       <c r="X46" s="1"/>
       <c r="Y46" s="1" t="s">
         <v>382</v>
@@ -4680,163 +4680,163 @@
       <c r="AL46" s="1"/>
     </row>
     <row r="47" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="11" t="s">
+      <c r="A47" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="12" t="s">
+      <c r="B47" s="9"/>
+      <c r="C47" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12" t="s">
+      <c r="D47" s="10"/>
+      <c r="E47" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="13"/>
-      <c r="J47" s="13"/>
-      <c r="K47" s="13">
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11">
         <v>1139.0999999999999</v>
       </c>
-      <c r="L47" s="13"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="12" t="s">
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="O47" s="12"/>
+      <c r="O47" s="10"/>
       <c r="P47" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="Q47" s="12" t="s">
+      <c r="Q47" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="R47" s="12"/>
+      <c r="R47" s="10"/>
       <c r="S47" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="T47" s="14" t="s">
+      <c r="T47" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="U47" s="14"/>
-      <c r="V47" s="14"/>
-      <c r="W47" s="14"/>
+      <c r="U47" s="12"/>
+      <c r="V47" s="12"/>
+      <c r="W47" s="12"/>
       <c r="X47" s="1"/>
       <c r="Y47" s="1" t="s">
         <v>382</v>
       </c>
       <c r="AB47" s="1"/>
       <c r="AD47" s="1"/>
-      <c r="AF47" s="1"/>
+      <c r="AF47" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="AG47" s="1"/>
       <c r="AH47" s="1"/>
       <c r="AI47" s="1"/>
       <c r="AJ47" s="1"/>
       <c r="AK47" s="1"/>
-      <c r="AL47" s="1" t="s">
-        <v>382</v>
-      </c>
+      <c r="AL47" s="1"/>
     </row>
     <row r="48" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="11" t="s">
+      <c r="A48" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="12" t="s">
+      <c r="B48" s="9"/>
+      <c r="C48" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12" t="s">
+      <c r="D48" s="10"/>
+      <c r="E48" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="13"/>
-      <c r="J48" s="13"/>
-      <c r="K48" s="13">
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11">
         <v>957.53</v>
       </c>
-      <c r="L48" s="13"/>
-      <c r="M48" s="13"/>
-      <c r="N48" s="12" t="s">
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="O48" s="12"/>
+      <c r="O48" s="10"/>
       <c r="P48" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="Q48" s="12" t="s">
+      <c r="Q48" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="R48" s="12"/>
+      <c r="R48" s="10"/>
       <c r="S48" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="T48" s="14" t="s">
+      <c r="T48" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="U48" s="14"/>
-      <c r="V48" s="14"/>
-      <c r="W48" s="14"/>
+      <c r="U48" s="12"/>
+      <c r="V48" s="12"/>
+      <c r="W48" s="12"/>
       <c r="X48" s="1"/>
       <c r="Y48" s="1" t="s">
         <v>382</v>
       </c>
       <c r="AB48" s="1"/>
       <c r="AD48" s="1"/>
-      <c r="AF48" s="1"/>
+      <c r="AF48" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="AG48" s="1"/>
       <c r="AH48" s="1"/>
       <c r="AI48" s="1"/>
       <c r="AJ48" s="1"/>
       <c r="AK48" s="1"/>
-      <c r="AL48" s="1" t="s">
-        <v>382</v>
-      </c>
+      <c r="AL48" s="1"/>
     </row>
     <row r="49" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="11" t="s">
+      <c r="A49" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B49" s="11"/>
-      <c r="C49" s="12" t="s">
+      <c r="B49" s="9"/>
+      <c r="C49" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12" t="s">
+      <c r="D49" s="10"/>
+      <c r="E49" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="13"/>
-      <c r="J49" s="13"/>
-      <c r="K49" s="13">
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11">
         <v>2261</v>
       </c>
-      <c r="L49" s="13"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="12" t="s">
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="O49" s="12"/>
+      <c r="O49" s="10"/>
       <c r="P49" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="Q49" s="12" t="s">
+      <c r="Q49" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="R49" s="12"/>
+      <c r="R49" s="10"/>
       <c r="S49" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="T49" s="14" t="s">
+      <c r="T49" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="U49" s="14"/>
-      <c r="V49" s="14"/>
-      <c r="W49" s="14"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
+      <c r="W49" s="12"/>
       <c r="X49" s="1"/>
       <c r="Y49" s="1" t="s">
         <v>382</v>
@@ -4863,47 +4863,47 @@
       <c r="AL49" s="1"/>
     </row>
     <row r="50" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="11" t="s">
+      <c r="A50" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B50" s="11"/>
-      <c r="C50" s="12" t="s">
+      <c r="B50" s="9"/>
+      <c r="C50" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12" t="s">
+      <c r="D50" s="10"/>
+      <c r="E50" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="13"/>
-      <c r="J50" s="13"/>
-      <c r="K50" s="13">
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11">
         <v>970</v>
       </c>
-      <c r="L50" s="13"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="12" t="s">
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="O50" s="12"/>
+      <c r="O50" s="10"/>
       <c r="P50" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="Q50" s="12" t="s">
+      <c r="Q50" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="R50" s="12"/>
+      <c r="R50" s="10"/>
       <c r="S50" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="T50" s="14" t="s">
+      <c r="T50" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="U50" s="14"/>
-      <c r="V50" s="14"/>
-      <c r="W50" s="14"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="12"/>
+      <c r="W50" s="12"/>
       <c r="X50" s="1"/>
       <c r="Y50" s="1" t="s">
         <v>382</v>
@@ -4930,47 +4930,47 @@
       <c r="AL50" s="1"/>
     </row>
     <row r="51" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="11" t="s">
+      <c r="A51" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="B51" s="11"/>
-      <c r="C51" s="12" t="s">
+      <c r="B51" s="9"/>
+      <c r="C51" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12" t="s">
+      <c r="D51" s="10"/>
+      <c r="E51" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="13"/>
-      <c r="J51" s="13"/>
-      <c r="K51" s="13">
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11">
         <v>14.35</v>
       </c>
-      <c r="L51" s="13"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="12" t="s">
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="O51" s="12"/>
+      <c r="O51" s="10"/>
       <c r="P51" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="Q51" s="12" t="s">
+      <c r="Q51" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="R51" s="12"/>
+      <c r="R51" s="10"/>
       <c r="S51" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="T51" s="14" t="s">
+      <c r="T51" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="U51" s="14"/>
-      <c r="V51" s="14"/>
-      <c r="W51" s="14"/>
+      <c r="U51" s="12"/>
+      <c r="V51" s="12"/>
+      <c r="W51" s="12"/>
       <c r="X51" s="1"/>
       <c r="Y51" s="1" t="s">
         <v>382</v>
@@ -4997,47 +4997,47 @@
       <c r="AL51" s="1"/>
     </row>
     <row r="52" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="11" t="s">
+      <c r="A52" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="B52" s="11"/>
-      <c r="C52" s="12" t="s">
+      <c r="B52" s="9"/>
+      <c r="C52" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12" t="s">
+      <c r="D52" s="10"/>
+      <c r="E52" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="13"/>
-      <c r="J52" s="13"/>
-      <c r="K52" s="13">
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11">
         <v>14</v>
       </c>
-      <c r="L52" s="13"/>
-      <c r="M52" s="13"/>
-      <c r="N52" s="12" t="s">
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="O52" s="12"/>
+      <c r="O52" s="10"/>
       <c r="P52" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="Q52" s="12" t="s">
+      <c r="Q52" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="R52" s="12"/>
+      <c r="R52" s="10"/>
       <c r="S52" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="T52" s="14" t="s">
+      <c r="T52" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="U52" s="14"/>
-      <c r="V52" s="14"/>
-      <c r="W52" s="14"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
+      <c r="W52" s="12"/>
       <c r="X52" s="1"/>
       <c r="Y52" s="1" t="s">
         <v>382</v>
@@ -5064,47 +5064,47 @@
       <c r="AL52" s="1"/>
     </row>
     <row r="53" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="11" t="s">
+      <c r="A53" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="12" t="s">
+      <c r="B53" s="9"/>
+      <c r="C53" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12" t="s">
+      <c r="D53" s="10"/>
+      <c r="E53" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="13"/>
-      <c r="J53" s="13"/>
-      <c r="K53" s="13">
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11">
         <v>2214</v>
       </c>
-      <c r="L53" s="13"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="12" t="s">
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="O53" s="12"/>
+      <c r="O53" s="10"/>
       <c r="P53" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="Q53" s="12" t="s">
+      <c r="Q53" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="R53" s="12"/>
+      <c r="R53" s="10"/>
       <c r="S53" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="T53" s="14" t="s">
+      <c r="T53" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="U53" s="14"/>
-      <c r="V53" s="14"/>
-      <c r="W53" s="14"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="12"/>
+      <c r="W53" s="12"/>
       <c r="X53" s="1"/>
       <c r="Y53" s="1" t="s">
         <v>382</v>
@@ -5131,47 +5131,47 @@
       <c r="AL53" s="1"/>
     </row>
     <row r="54" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="11" t="s">
+      <c r="A54" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="B54" s="11"/>
-      <c r="C54" s="12" t="s">
+      <c r="B54" s="9"/>
+      <c r="C54" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12" t="s">
+      <c r="D54" s="10"/>
+      <c r="E54" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="13"/>
-      <c r="I54" s="13"/>
-      <c r="J54" s="13"/>
-      <c r="K54" s="13">
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11">
         <v>1316.7</v>
       </c>
-      <c r="L54" s="13"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="12" t="s">
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="O54" s="12"/>
+      <c r="O54" s="10"/>
       <c r="P54" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="Q54" s="12" t="s">
+      <c r="Q54" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="R54" s="12"/>
+      <c r="R54" s="10"/>
       <c r="S54" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="T54" s="14" t="s">
+      <c r="T54" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="U54" s="14"/>
-      <c r="V54" s="14"/>
-      <c r="W54" s="14"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="12"/>
       <c r="X54" s="1"/>
       <c r="Y54" s="1" t="s">
         <v>382</v>
@@ -5198,47 +5198,47 @@
       <c r="AL54" s="1"/>
     </row>
     <row r="55" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="11" t="s">
+      <c r="A55" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B55" s="11"/>
-      <c r="C55" s="12" t="s">
+      <c r="B55" s="9"/>
+      <c r="C55" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12" t="s">
+      <c r="D55" s="10"/>
+      <c r="E55" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="13"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="13"/>
-      <c r="K55" s="13">
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11">
         <v>1782</v>
       </c>
-      <c r="L55" s="13"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="12" t="s">
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="O55" s="12"/>
+      <c r="O55" s="10"/>
       <c r="P55" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="Q55" s="12" t="s">
+      <c r="Q55" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="R55" s="12"/>
+      <c r="R55" s="10"/>
       <c r="S55" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="T55" s="14" t="s">
+      <c r="T55" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="U55" s="14"/>
-      <c r="V55" s="14"/>
-      <c r="W55" s="14"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
+      <c r="W55" s="12"/>
       <c r="X55" s="1"/>
       <c r="Y55" s="1" t="s">
         <v>382</v>
@@ -5265,47 +5265,47 @@
       <c r="AL55" s="1"/>
     </row>
     <row r="56" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="11" t="s">
+      <c r="A56" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="12" t="s">
+      <c r="B56" s="9"/>
+      <c r="C56" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12" t="s">
+      <c r="D56" s="10"/>
+      <c r="E56" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="13"/>
-      <c r="I56" s="13"/>
-      <c r="J56" s="13"/>
-      <c r="K56" s="13">
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11">
         <v>2369.66</v>
       </c>
-      <c r="L56" s="13"/>
-      <c r="M56" s="13"/>
-      <c r="N56" s="12" t="s">
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="O56" s="12"/>
+      <c r="O56" s="10"/>
       <c r="P56" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="Q56" s="12" t="s">
+      <c r="Q56" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="R56" s="12"/>
+      <c r="R56" s="10"/>
       <c r="S56" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="T56" s="14" t="s">
+      <c r="T56" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="U56" s="14"/>
-      <c r="V56" s="14"/>
-      <c r="W56" s="14"/>
+      <c r="U56" s="12"/>
+      <c r="V56" s="12"/>
+      <c r="W56" s="12"/>
       <c r="X56" s="1"/>
       <c r="Y56" s="1" t="s">
         <v>382</v>
@@ -5332,47 +5332,47 @@
       <c r="AL56" s="1"/>
     </row>
     <row r="57" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="11" t="s">
+      <c r="A57" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="12" t="s">
+      <c r="B57" s="9"/>
+      <c r="C57" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12" t="s">
+      <c r="D57" s="10"/>
+      <c r="E57" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="13"/>
-      <c r="J57" s="13"/>
-      <c r="K57" s="13">
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11">
         <v>3960</v>
       </c>
-      <c r="L57" s="13"/>
-      <c r="M57" s="13"/>
-      <c r="N57" s="12" t="s">
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="O57" s="12"/>
+      <c r="O57" s="10"/>
       <c r="P57" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="Q57" s="12" t="s">
+      <c r="Q57" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="R57" s="12"/>
+      <c r="R57" s="10"/>
       <c r="S57" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="T57" s="14" t="s">
+      <c r="T57" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="U57" s="14"/>
-      <c r="V57" s="14"/>
-      <c r="W57" s="14"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="12"/>
+      <c r="W57" s="12"/>
       <c r="X57" s="1"/>
       <c r="Y57" s="1" t="s">
         <v>382</v>
@@ -5399,47 +5399,47 @@
       <c r="AL57" s="1"/>
     </row>
     <row r="58" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="11" t="s">
+      <c r="A58" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="B58" s="11"/>
-      <c r="C58" s="12" t="s">
+      <c r="B58" s="9"/>
+      <c r="C58" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12" t="s">
+      <c r="D58" s="10"/>
+      <c r="E58" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="13"/>
-      <c r="J58" s="13"/>
-      <c r="K58" s="13">
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11">
         <v>773.39</v>
       </c>
-      <c r="L58" s="13"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="12" t="s">
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="O58" s="12"/>
+      <c r="O58" s="10"/>
       <c r="P58" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="Q58" s="12" t="s">
+      <c r="Q58" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="R58" s="12"/>
+      <c r="R58" s="10"/>
       <c r="S58" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="T58" s="14" t="s">
+      <c r="T58" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="U58" s="14"/>
-      <c r="V58" s="14"/>
-      <c r="W58" s="14"/>
+      <c r="U58" s="12"/>
+      <c r="V58" s="12"/>
+      <c r="W58" s="12"/>
       <c r="X58" s="1"/>
       <c r="Y58" s="1" t="s">
         <v>382</v>
@@ -5466,47 +5466,47 @@
       <c r="AL58" s="1"/>
     </row>
     <row r="59" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="11" t="s">
+      <c r="A59" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B59" s="11"/>
-      <c r="C59" s="12" t="s">
+      <c r="B59" s="9"/>
+      <c r="C59" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="D59" s="12"/>
-      <c r="E59" s="12" t="s">
+      <c r="D59" s="10"/>
+      <c r="E59" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="13"/>
-      <c r="J59" s="13"/>
-      <c r="K59" s="13">
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11">
         <v>14.45</v>
       </c>
-      <c r="L59" s="13"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="12" t="s">
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="O59" s="12"/>
+      <c r="O59" s="10"/>
       <c r="P59" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="Q59" s="12" t="s">
+      <c r="Q59" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="R59" s="12"/>
+      <c r="R59" s="10"/>
       <c r="S59" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="T59" s="14" t="s">
+      <c r="T59" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="U59" s="14"/>
-      <c r="V59" s="14"/>
-      <c r="W59" s="14"/>
+      <c r="U59" s="12"/>
+      <c r="V59" s="12"/>
+      <c r="W59" s="12"/>
       <c r="X59" s="1"/>
       <c r="Y59" s="1" t="s">
         <v>382</v>
@@ -5533,47 +5533,47 @@
       <c r="AL59" s="1"/>
     </row>
     <row r="60" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="B60" s="11"/>
-      <c r="C60" s="12" t="s">
+      <c r="B60" s="9"/>
+      <c r="C60" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="D60" s="12"/>
-      <c r="E60" s="12" t="s">
+      <c r="D60" s="10"/>
+      <c r="E60" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
-      <c r="H60" s="13"/>
-      <c r="I60" s="13"/>
-      <c r="J60" s="13"/>
-      <c r="K60" s="13">
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11">
         <v>656.86</v>
       </c>
-      <c r="L60" s="13"/>
-      <c r="M60" s="13"/>
-      <c r="N60" s="12" t="s">
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="O60" s="12"/>
+      <c r="O60" s="10"/>
       <c r="P60" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="Q60" s="12" t="s">
+      <c r="Q60" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="R60" s="12"/>
+      <c r="R60" s="10"/>
       <c r="S60" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="T60" s="14" t="s">
+      <c r="T60" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="U60" s="14"/>
-      <c r="V60" s="14"/>
-      <c r="W60" s="14"/>
+      <c r="U60" s="12"/>
+      <c r="V60" s="12"/>
+      <c r="W60" s="12"/>
       <c r="X60" s="1"/>
       <c r="Y60" s="1" t="s">
         <v>382</v>
@@ -5658,10 +5658,10 @@
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
       <c r="V62" s="1"/>
-      <c r="W62" s="15" t="s">
+      <c r="W62" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="X62" s="15"/>
+      <c r="X62" s="8"/>
       <c r="Y62" s="1"/>
       <c r="AB62" s="1"/>
       <c r="AD62" s="1"/>
@@ -5674,47 +5674,47 @@
       <c r="AL62" s="1"/>
     </row>
     <row r="63" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="B63" s="11"/>
-      <c r="C63" s="12" t="s">
+      <c r="B63" s="9"/>
+      <c r="C63" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12" t="s">
+      <c r="D63" s="10"/>
+      <c r="E63" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F63" s="12"/>
-      <c r="G63" s="12"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="13"/>
-      <c r="J63" s="13"/>
-      <c r="K63" s="13">
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11">
         <v>1430.45</v>
       </c>
-      <c r="L63" s="13"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="12" t="s">
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="O63" s="12"/>
+      <c r="O63" s="10"/>
       <c r="P63" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="Q63" s="12" t="s">
+      <c r="Q63" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="R63" s="12"/>
+      <c r="R63" s="10"/>
       <c r="S63" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="T63" s="14" t="s">
+      <c r="T63" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="U63" s="14"/>
-      <c r="V63" s="14"/>
-      <c r="W63" s="14"/>
+      <c r="U63" s="12"/>
+      <c r="V63" s="12"/>
+      <c r="W63" s="12"/>
       <c r="X63" s="1"/>
       <c r="Y63" s="1" t="s">
         <v>382</v>
@@ -5741,47 +5741,47 @@
       <c r="AL63" s="1"/>
     </row>
     <row r="64" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B64" s="11"/>
-      <c r="C64" s="12" t="s">
+      <c r="B64" s="9"/>
+      <c r="C64" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12" t="s">
+      <c r="D64" s="10"/>
+      <c r="E64" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="13">
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11">
         <v>2555.19</v>
       </c>
-      <c r="L64" s="13"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="12" t="s">
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="O64" s="12"/>
+      <c r="O64" s="10"/>
       <c r="P64" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="Q64" s="12" t="s">
+      <c r="Q64" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="R64" s="12"/>
+      <c r="R64" s="10"/>
       <c r="S64" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="T64" s="14" t="s">
+      <c r="T64" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="U64" s="14"/>
-      <c r="V64" s="14"/>
-      <c r="W64" s="14"/>
+      <c r="U64" s="12"/>
+      <c r="V64" s="12"/>
+      <c r="W64" s="12"/>
       <c r="X64" s="1"/>
       <c r="Y64" s="1" t="s">
         <v>382</v>
@@ -5808,47 +5808,47 @@
       <c r="AL64" s="1"/>
     </row>
     <row r="65" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="B65" s="11"/>
-      <c r="C65" s="12" t="s">
+      <c r="B65" s="9"/>
+      <c r="C65" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="D65" s="12"/>
-      <c r="E65" s="12" t="s">
+      <c r="D65" s="10"/>
+      <c r="E65" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F65" s="12"/>
-      <c r="G65" s="12"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="13"/>
-      <c r="J65" s="13"/>
-      <c r="K65" s="13">
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11">
         <v>1330.56</v>
       </c>
-      <c r="L65" s="13"/>
-      <c r="M65" s="13"/>
-      <c r="N65" s="12" t="s">
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="O65" s="12"/>
+      <c r="O65" s="10"/>
       <c r="P65" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="Q65" s="12" t="s">
+      <c r="Q65" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="R65" s="12"/>
+      <c r="R65" s="10"/>
       <c r="S65" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="T65" s="14" t="s">
+      <c r="T65" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="U65" s="14"/>
-      <c r="V65" s="14"/>
-      <c r="W65" s="14"/>
+      <c r="U65" s="12"/>
+      <c r="V65" s="12"/>
+      <c r="W65" s="12"/>
       <c r="X65" s="1"/>
       <c r="Y65" s="1" t="s">
         <v>382</v>
@@ -5875,47 +5875,47 @@
       <c r="AL65" s="1"/>
     </row>
     <row r="66" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="B66" s="11"/>
-      <c r="C66" s="12" t="s">
+      <c r="B66" s="9"/>
+      <c r="C66" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12" t="s">
+      <c r="D66" s="10"/>
+      <c r="E66" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F66" s="12"/>
-      <c r="G66" s="12"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="13"/>
-      <c r="J66" s="13"/>
-      <c r="K66" s="13">
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11">
         <v>1698.43</v>
       </c>
-      <c r="L66" s="13"/>
-      <c r="M66" s="13"/>
-      <c r="N66" s="12" t="s">
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="O66" s="12"/>
+      <c r="O66" s="10"/>
       <c r="P66" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="Q66" s="12" t="s">
+      <c r="Q66" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="R66" s="12"/>
+      <c r="R66" s="10"/>
       <c r="S66" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="T66" s="14" t="s">
+      <c r="T66" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="U66" s="14"/>
-      <c r="V66" s="14"/>
-      <c r="W66" s="14"/>
+      <c r="U66" s="12"/>
+      <c r="V66" s="12"/>
+      <c r="W66" s="12"/>
       <c r="X66" s="1"/>
       <c r="Y66" s="1" t="s">
         <v>382</v>
@@ -5942,47 +5942,47 @@
       <c r="AL66" s="1"/>
     </row>
     <row r="67" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="12" t="s">
+      <c r="B67" s="9"/>
+      <c r="C67" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12" t="s">
+      <c r="D67" s="10"/>
+      <c r="E67" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F67" s="12"/>
-      <c r="G67" s="12"/>
-      <c r="H67" s="13"/>
-      <c r="I67" s="13"/>
-      <c r="J67" s="13"/>
-      <c r="K67" s="13">
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11">
         <v>1376.1</v>
       </c>
-      <c r="L67" s="13"/>
-      <c r="M67" s="13"/>
-      <c r="N67" s="12" t="s">
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="O67" s="12"/>
+      <c r="O67" s="10"/>
       <c r="P67" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="Q67" s="12" t="s">
+      <c r="Q67" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="R67" s="12"/>
+      <c r="R67" s="10"/>
       <c r="S67" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="T67" s="14" t="s">
+      <c r="T67" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="U67" s="14"/>
-      <c r="V67" s="14"/>
-      <c r="W67" s="14"/>
+      <c r="U67" s="12"/>
+      <c r="V67" s="12"/>
+      <c r="W67" s="12"/>
       <c r="X67" s="1"/>
       <c r="Y67" s="1" t="s">
         <v>382</v>
@@ -6009,47 +6009,47 @@
       <c r="AL67" s="1"/>
     </row>
     <row r="68" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="12" t="s">
+      <c r="B68" s="9"/>
+      <c r="C68" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12" t="s">
+      <c r="D68" s="10"/>
+      <c r="E68" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F68" s="12"/>
-      <c r="G68" s="12"/>
-      <c r="H68" s="13"/>
-      <c r="I68" s="13"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="13">
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11">
         <v>14.85</v>
       </c>
-      <c r="L68" s="13"/>
-      <c r="M68" s="13"/>
-      <c r="N68" s="12" t="s">
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="O68" s="12"/>
+      <c r="O68" s="10"/>
       <c r="P68" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="Q68" s="12" t="s">
+      <c r="Q68" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="R68" s="12"/>
+      <c r="R68" s="10"/>
       <c r="S68" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="T68" s="14" t="s">
+      <c r="T68" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="U68" s="14"/>
-      <c r="V68" s="14"/>
-      <c r="W68" s="14"/>
+      <c r="U68" s="12"/>
+      <c r="V68" s="12"/>
+      <c r="W68" s="12"/>
       <c r="X68" s="1"/>
       <c r="Y68" s="1" t="s">
         <v>382</v>
@@ -6076,47 +6076,47 @@
       <c r="AL68" s="1"/>
     </row>
     <row r="69" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="B69" s="11"/>
-      <c r="C69" s="12" t="s">
+      <c r="B69" s="9"/>
+      <c r="C69" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12" t="s">
+      <c r="D69" s="10"/>
+      <c r="E69" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F69" s="12"/>
-      <c r="G69" s="12"/>
-      <c r="H69" s="13"/>
-      <c r="I69" s="13"/>
-      <c r="J69" s="13"/>
-      <c r="K69" s="13">
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11">
         <v>1810.71</v>
       </c>
-      <c r="L69" s="13"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="12" t="s">
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="O69" s="12"/>
+      <c r="O69" s="10"/>
       <c r="P69" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="Q69" s="12" t="s">
+      <c r="Q69" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="R69" s="12"/>
+      <c r="R69" s="10"/>
       <c r="S69" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="T69" s="14" t="s">
+      <c r="T69" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="U69" s="14"/>
-      <c r="V69" s="14"/>
-      <c r="W69" s="14"/>
+      <c r="U69" s="12"/>
+      <c r="V69" s="12"/>
+      <c r="W69" s="12"/>
       <c r="X69" s="1"/>
       <c r="Y69" s="1" t="s">
         <v>382</v>
@@ -6143,47 +6143,47 @@
       <c r="AL69" s="1"/>
     </row>
     <row r="70" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="B70" s="11"/>
-      <c r="C70" s="12" t="s">
+      <c r="B70" s="9"/>
+      <c r="C70" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12" t="s">
+      <c r="D70" s="10"/>
+      <c r="E70" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F70" s="12"/>
-      <c r="G70" s="12"/>
-      <c r="H70" s="13"/>
-      <c r="I70" s="13"/>
-      <c r="J70" s="13"/>
-      <c r="K70" s="13">
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11">
         <v>1666.17</v>
       </c>
-      <c r="L70" s="13"/>
-      <c r="M70" s="13"/>
-      <c r="N70" s="12" t="s">
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="O70" s="12"/>
+      <c r="O70" s="10"/>
       <c r="P70" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="Q70" s="12" t="s">
+      <c r="Q70" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="R70" s="12"/>
+      <c r="R70" s="10"/>
       <c r="S70" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="T70" s="14" t="s">
+      <c r="T70" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="U70" s="14"/>
-      <c r="V70" s="14"/>
-      <c r="W70" s="14"/>
+      <c r="U70" s="12"/>
+      <c r="V70" s="12"/>
+      <c r="W70" s="12"/>
       <c r="X70" s="1"/>
       <c r="Y70" s="1" t="s">
         <v>382</v>
@@ -6210,221 +6210,221 @@
       <c r="AL70" s="1"/>
     </row>
     <row r="71" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="B71" s="11"/>
-      <c r="C71" s="12" t="s">
+      <c r="B71" s="9"/>
+      <c r="C71" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12" t="s">
+      <c r="D71" s="10"/>
+      <c r="E71" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F71" s="12"/>
-      <c r="G71" s="12"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="13"/>
-      <c r="J71" s="13"/>
-      <c r="K71" s="13">
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11">
         <v>14.85</v>
       </c>
-      <c r="L71" s="13"/>
-      <c r="M71" s="13"/>
-      <c r="N71" s="12" t="s">
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="O71" s="12"/>
+      <c r="O71" s="10"/>
       <c r="P71" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="Q71" s="12" t="s">
+      <c r="Q71" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="R71" s="12"/>
+      <c r="R71" s="10"/>
       <c r="S71" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="T71" s="14" t="s">
+      <c r="T71" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="U71" s="14"/>
-      <c r="V71" s="14"/>
-      <c r="W71" s="14"/>
+      <c r="U71" s="12"/>
+      <c r="V71" s="12"/>
+      <c r="W71" s="12"/>
       <c r="X71" s="1"/>
       <c r="Y71" s="1" t="s">
         <v>382</v>
       </c>
       <c r="AB71" s="1"/>
       <c r="AD71" s="1"/>
-      <c r="AF71" s="1"/>
+      <c r="AF71" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="AG71" s="1"/>
       <c r="AH71" s="1"/>
       <c r="AI71" s="1"/>
       <c r="AJ71" s="1"/>
       <c r="AK71" s="1"/>
-      <c r="AL71" s="1" t="s">
-        <v>382</v>
-      </c>
+      <c r="AL71" s="1"/>
     </row>
     <row r="72" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="B72" s="11"/>
-      <c r="C72" s="12" t="s">
+      <c r="B72" s="9"/>
+      <c r="C72" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12" t="s">
+      <c r="D72" s="10"/>
+      <c r="E72" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F72" s="12"/>
-      <c r="G72" s="12"/>
-      <c r="H72" s="13">
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="11">
         <v>50125</v>
       </c>
-      <c r="I72" s="13"/>
-      <c r="J72" s="13"/>
-      <c r="K72" s="13"/>
-      <c r="L72" s="13"/>
-      <c r="M72" s="13"/>
-      <c r="N72" s="12" t="s">
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="O72" s="12"/>
+      <c r="O72" s="10"/>
       <c r="P72" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="Q72" s="12" t="s">
+      <c r="Q72" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="R72" s="12"/>
+      <c r="R72" s="10"/>
       <c r="S72" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="T72" s="14" t="s">
+      <c r="T72" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="U72" s="14"/>
-      <c r="V72" s="14"/>
-      <c r="W72" s="14"/>
+      <c r="U72" s="12"/>
+      <c r="V72" s="12"/>
+      <c r="W72" s="12"/>
       <c r="X72" s="1"/>
       <c r="Y72" s="1" t="s">
         <v>382</v>
       </c>
       <c r="AB72" s="1"/>
       <c r="AD72" s="1"/>
-      <c r="AF72" s="1"/>
+      <c r="AF72" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="AG72" s="1"/>
       <c r="AH72" s="1"/>
       <c r="AI72" s="1"/>
       <c r="AJ72" s="1"/>
       <c r="AK72" s="1"/>
-      <c r="AL72" s="1" t="s">
-        <v>382</v>
-      </c>
+      <c r="AL72" s="1"/>
     </row>
     <row r="73" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="9" t="s">
         <v>224</v>
       </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="12" t="s">
+      <c r="B73" s="9"/>
+      <c r="C73" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12" t="s">
+      <c r="D73" s="10"/>
+      <c r="E73" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F73" s="12"/>
-      <c r="G73" s="12"/>
-      <c r="H73" s="13">
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="11">
         <v>200</v>
       </c>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
-      <c r="K73" s="13"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="13"/>
-      <c r="N73" s="12" t="s">
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="O73" s="12"/>
+      <c r="O73" s="10"/>
       <c r="P73" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="Q73" s="12" t="s">
+      <c r="Q73" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="R73" s="12"/>
+      <c r="R73" s="10"/>
       <c r="S73" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="T73" s="14" t="s">
+      <c r="T73" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="U73" s="14"/>
-      <c r="V73" s="14"/>
-      <c r="W73" s="14"/>
+      <c r="U73" s="12"/>
+      <c r="V73" s="12"/>
+      <c r="W73" s="12"/>
       <c r="X73" s="1"/>
       <c r="Y73" s="1" t="s">
         <v>382</v>
       </c>
       <c r="AB73" s="1"/>
       <c r="AD73" s="1"/>
-      <c r="AF73" s="1"/>
+      <c r="AF73" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="AG73" s="1"/>
       <c r="AH73" s="1"/>
       <c r="AI73" s="1"/>
       <c r="AJ73" s="1"/>
       <c r="AK73" s="1"/>
-      <c r="AL73" s="1" t="s">
-        <v>382</v>
-      </c>
+      <c r="AL73" s="1"/>
     </row>
     <row r="74" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="B74" s="11"/>
-      <c r="C74" s="12" t="s">
+      <c r="B74" s="9"/>
+      <c r="C74" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12" t="s">
+      <c r="D74" s="10"/>
+      <c r="E74" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="F74" s="12"/>
-      <c r="G74" s="12"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="13">
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11">
         <v>5000</v>
       </c>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
-      <c r="N74" s="12" t="s">
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="O74" s="12"/>
+      <c r="O74" s="10"/>
       <c r="P74" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="Q74" s="12" t="s">
+      <c r="Q74" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="R74" s="12"/>
+      <c r="R74" s="10"/>
       <c r="S74" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="T74" s="14" t="s">
+      <c r="T74" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="U74" s="14"/>
-      <c r="V74" s="14"/>
-      <c r="W74" s="14"/>
+      <c r="U74" s="12"/>
+      <c r="V74" s="12"/>
+      <c r="W74" s="12"/>
       <c r="X74" s="1"/>
       <c r="Y74" s="1" t="s">
         <v>382</v>
@@ -6451,236 +6451,236 @@
       <c r="AL74" s="1"/>
     </row>
     <row r="75" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="11" t="s">
+      <c r="A75" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="B75" s="11"/>
-      <c r="C75" s="12" t="s">
+      <c r="B75" s="9"/>
+      <c r="C75" s="10" t="s">
         <v>240</v>
       </c>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12" t="s">
+      <c r="D75" s="10"/>
+      <c r="E75" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="F75" s="12"/>
-      <c r="G75" s="12"/>
-      <c r="H75" s="13">
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="11">
         <v>15000</v>
       </c>
-      <c r="I75" s="13"/>
-      <c r="J75" s="13"/>
-      <c r="K75" s="13"/>
-      <c r="L75" s="13"/>
-      <c r="M75" s="13"/>
-      <c r="N75" s="12" t="s">
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="O75" s="12"/>
+      <c r="O75" s="10"/>
       <c r="P75" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="Q75" s="12" t="s">
+      <c r="Q75" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="R75" s="12"/>
+      <c r="R75" s="10"/>
       <c r="S75" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="T75" s="14" t="s">
+      <c r="T75" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="U75" s="14"/>
-      <c r="V75" s="14"/>
-      <c r="W75" s="14"/>
+      <c r="U75" s="12"/>
+      <c r="V75" s="12"/>
+      <c r="W75" s="12"/>
       <c r="X75" s="1"/>
       <c r="Y75" s="1" t="s">
         <v>382</v>
       </c>
       <c r="AB75" s="1"/>
       <c r="AD75" s="1"/>
-      <c r="AF75" s="1"/>
+      <c r="AF75" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="AG75" s="1"/>
       <c r="AH75" s="1"/>
       <c r="AI75" s="1"/>
       <c r="AJ75" s="1"/>
       <c r="AK75" s="1"/>
-      <c r="AL75" s="1" t="s">
-        <v>382</v>
-      </c>
+      <c r="AL75" s="1"/>
     </row>
     <row r="76" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="11" t="s">
+      <c r="A76" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="B76" s="11"/>
-      <c r="C76" s="12" t="s">
+      <c r="B76" s="9"/>
+      <c r="C76" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12" t="s">
+      <c r="D76" s="10"/>
+      <c r="E76" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="F76" s="12"/>
-      <c r="G76" s="12"/>
-      <c r="H76" s="13"/>
-      <c r="I76" s="13"/>
-      <c r="J76" s="13"/>
-      <c r="K76" s="13">
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11">
         <v>122798.08</v>
       </c>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="12" t="s">
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="O76" s="12"/>
+      <c r="O76" s="10"/>
       <c r="P76" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="Q76" s="12" t="s">
+      <c r="Q76" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="R76" s="12"/>
+      <c r="R76" s="10"/>
       <c r="S76" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="T76" s="14" t="s">
+      <c r="T76" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="U76" s="14"/>
-      <c r="V76" s="14"/>
-      <c r="W76" s="14"/>
+      <c r="U76" s="12"/>
+      <c r="V76" s="12"/>
+      <c r="W76" s="12"/>
       <c r="X76" s="1"/>
       <c r="Y76" s="1" t="s">
         <v>382</v>
       </c>
       <c r="AB76" s="1"/>
       <c r="AD76" s="1"/>
-      <c r="AF76" s="1"/>
+      <c r="AF76" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="AG76" s="1"/>
       <c r="AH76" s="1"/>
       <c r="AI76" s="1"/>
       <c r="AJ76" s="1"/>
       <c r="AK76" s="1"/>
-      <c r="AL76" s="1" t="s">
-        <v>382</v>
-      </c>
+      <c r="AL76" s="1"/>
     </row>
     <row r="77" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="B77" s="11"/>
-      <c r="C77" s="12" t="s">
+      <c r="B77" s="9"/>
+      <c r="C77" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12" t="s">
+      <c r="D77" s="10"/>
+      <c r="E77" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="F77" s="12"/>
-      <c r="G77" s="12"/>
-      <c r="H77" s="13"/>
-      <c r="I77" s="13"/>
-      <c r="J77" s="13"/>
-      <c r="K77" s="13">
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="11">
         <v>119908.71</v>
       </c>
-      <c r="L77" s="13"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="12" t="s">
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="O77" s="12"/>
+      <c r="O77" s="10"/>
       <c r="P77" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="Q77" s="12" t="s">
+      <c r="Q77" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="R77" s="12"/>
+      <c r="R77" s="10"/>
       <c r="S77" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="T77" s="14" t="s">
+      <c r="T77" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="U77" s="14"/>
-      <c r="V77" s="14"/>
-      <c r="W77" s="14"/>
+      <c r="U77" s="12"/>
+      <c r="V77" s="12"/>
+      <c r="W77" s="12"/>
       <c r="X77" s="1"/>
       <c r="Y77" s="1" t="s">
         <v>382</v>
       </c>
       <c r="AB77" s="1"/>
       <c r="AD77" s="1"/>
-      <c r="AF77" s="1"/>
+      <c r="AF77" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="AG77" s="1"/>
       <c r="AH77" s="1"/>
       <c r="AI77" s="1"/>
       <c r="AJ77" s="1"/>
       <c r="AK77" s="1"/>
-      <c r="AL77" s="1" t="s">
-        <v>382</v>
-      </c>
+      <c r="AL77" s="1"/>
     </row>
     <row r="78" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="11" t="s">
+      <c r="A78" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="B78" s="11"/>
-      <c r="C78" s="12" t="s">
+      <c r="B78" s="9"/>
+      <c r="C78" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12" t="s">
+      <c r="D78" s="10"/>
+      <c r="E78" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="F78" s="12"/>
-      <c r="G78" s="12"/>
-      <c r="H78" s="13"/>
-      <c r="I78" s="13"/>
-      <c r="J78" s="13"/>
-      <c r="K78" s="13">
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11">
         <v>100542.42</v>
       </c>
-      <c r="L78" s="13"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="12" t="s">
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="10" t="s">
         <v>247</v>
       </c>
-      <c r="O78" s="12"/>
+      <c r="O78" s="10"/>
       <c r="P78" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="Q78" s="12" t="s">
+      <c r="Q78" s="10" t="s">
         <v>249</v>
       </c>
-      <c r="R78" s="12"/>
+      <c r="R78" s="10"/>
       <c r="S78" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="T78" s="14" t="s">
+      <c r="T78" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="U78" s="14"/>
-      <c r="V78" s="14"/>
-      <c r="W78" s="14"/>
+      <c r="U78" s="12"/>
+      <c r="V78" s="12"/>
+      <c r="W78" s="12"/>
       <c r="X78" s="1"/>
       <c r="Y78" s="1" t="s">
         <v>382</v>
       </c>
       <c r="AB78" s="1"/>
       <c r="AD78" s="1"/>
-      <c r="AF78" s="1"/>
+      <c r="AF78" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="AG78" s="1"/>
       <c r="AH78" s="1"/>
       <c r="AI78" s="1"/>
       <c r="AJ78" s="1"/>
       <c r="AK78" s="1"/>
-      <c r="AL78" s="1" t="s">
-        <v>382</v>
-      </c>
+      <c r="AL78" s="1"/>
     </row>
     <row r="79" spans="1:38" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="1"/>
@@ -6741,10 +6741,10 @@
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
       <c r="V80" s="1"/>
-      <c r="W80" s="15" t="s">
+      <c r="W80" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="X80" s="15"/>
+      <c r="X80" s="8"/>
       <c r="Y80" s="1"/>
       <c r="AB80" s="1"/>
       <c r="AD80" s="1"/>
@@ -6757,47 +6757,47 @@
       <c r="AL80" s="1"/>
     </row>
     <row r="81" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="B81" s="11"/>
-      <c r="C81" s="12" t="s">
+      <c r="B81" s="9"/>
+      <c r="C81" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12" t="s">
+      <c r="D81" s="10"/>
+      <c r="E81" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
-      <c r="J81" s="13"/>
-      <c r="K81" s="13">
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11">
         <v>2632.42</v>
       </c>
-      <c r="L81" s="13"/>
-      <c r="M81" s="13"/>
-      <c r="N81" s="12" t="s">
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="O81" s="12"/>
+      <c r="O81" s="10"/>
       <c r="P81" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="Q81" s="12" t="s">
+      <c r="Q81" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="R81" s="12"/>
+      <c r="R81" s="10"/>
       <c r="S81" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="T81" s="14" t="s">
+      <c r="T81" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="U81" s="14"/>
-      <c r="V81" s="14"/>
-      <c r="W81" s="14"/>
+      <c r="U81" s="12"/>
+      <c r="V81" s="12"/>
+      <c r="W81" s="12"/>
       <c r="X81" s="1"/>
       <c r="Y81" s="1" t="s">
         <v>382</v>
@@ -6824,47 +6824,47 @@
       <c r="AL81" s="1"/>
     </row>
     <row r="82" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="B82" s="11"/>
-      <c r="C82" s="12" t="s">
+      <c r="B82" s="9"/>
+      <c r="C82" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12" t="s">
+      <c r="D82" s="10"/>
+      <c r="E82" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="13"/>
-      <c r="J82" s="13"/>
-      <c r="K82" s="13">
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11">
         <v>500</v>
       </c>
-      <c r="L82" s="13"/>
-      <c r="M82" s="13"/>
-      <c r="N82" s="12" t="s">
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="O82" s="12"/>
+      <c r="O82" s="10"/>
       <c r="P82" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="Q82" s="12" t="s">
+      <c r="Q82" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="R82" s="12"/>
+      <c r="R82" s="10"/>
       <c r="S82" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="T82" s="14" t="s">
+      <c r="T82" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="U82" s="14"/>
-      <c r="V82" s="14"/>
-      <c r="W82" s="14"/>
+      <c r="U82" s="12"/>
+      <c r="V82" s="12"/>
+      <c r="W82" s="12"/>
       <c r="X82" s="1"/>
       <c r="Y82" s="1" t="s">
         <v>382</v>
@@ -6891,569 +6891,569 @@
       <c r="AL82" s="1"/>
     </row>
     <row r="83" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="11" t="s">
+      <c r="A83" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="B83" s="11"/>
-      <c r="C83" s="12" t="s">
+      <c r="B83" s="9"/>
+      <c r="C83" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12" t="s">
+      <c r="D83" s="10"/>
+      <c r="E83" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
-      <c r="H83" s="13">
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="11">
         <v>16000</v>
       </c>
-      <c r="I83" s="13"/>
-      <c r="J83" s="13"/>
-      <c r="K83" s="13"/>
-      <c r="L83" s="13"/>
-      <c r="M83" s="13"/>
-      <c r="N83" s="12" t="s">
+      <c r="I83" s="11"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="O83" s="12"/>
+      <c r="O83" s="10"/>
       <c r="P83" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="Q83" s="12" t="s">
+      <c r="Q83" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="R83" s="12"/>
+      <c r="R83" s="10"/>
       <c r="S83" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="T83" s="14" t="s">
+      <c r="T83" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="U83" s="14"/>
-      <c r="V83" s="14"/>
-      <c r="W83" s="14"/>
+      <c r="U83" s="12"/>
+      <c r="V83" s="12"/>
+      <c r="W83" s="12"/>
       <c r="X83" s="1"/>
       <c r="Y83" s="1" t="s">
         <v>382</v>
       </c>
       <c r="AB83" s="1"/>
       <c r="AD83" s="1"/>
-      <c r="AF83" s="1"/>
+      <c r="AF83" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="AG83" s="1"/>
       <c r="AH83" s="1"/>
       <c r="AI83" s="1"/>
       <c r="AJ83" s="1"/>
       <c r="AK83" s="1"/>
-      <c r="AL83" s="1" t="s">
-        <v>382</v>
-      </c>
+      <c r="AL83" s="1"/>
     </row>
     <row r="84" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="11" t="s">
+      <c r="A84" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="B84" s="11"/>
-      <c r="C84" s="12" t="s">
+      <c r="B84" s="9"/>
+      <c r="C84" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="D84" s="12"/>
-      <c r="E84" s="12" t="s">
+      <c r="D84" s="10"/>
+      <c r="E84" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
-      <c r="H84" s="13">
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="11">
         <v>10000</v>
       </c>
-      <c r="I84" s="13"/>
-      <c r="J84" s="13"/>
-      <c r="K84" s="13"/>
-      <c r="L84" s="13"/>
-      <c r="M84" s="13"/>
-      <c r="N84" s="12" t="s">
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="O84" s="12"/>
+      <c r="O84" s="10"/>
       <c r="P84" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="Q84" s="12" t="s">
+      <c r="Q84" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="R84" s="12"/>
+      <c r="R84" s="10"/>
       <c r="S84" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="T84" s="14" t="s">
+      <c r="T84" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="U84" s="14"/>
-      <c r="V84" s="14"/>
-      <c r="W84" s="14"/>
+      <c r="U84" s="12"/>
+      <c r="V84" s="12"/>
+      <c r="W84" s="12"/>
       <c r="X84" s="1"/>
       <c r="Y84" s="1" t="s">
         <v>382</v>
       </c>
       <c r="AB84" s="1"/>
       <c r="AD84" s="1"/>
-      <c r="AF84" s="1"/>
+      <c r="AF84" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="AG84" s="1"/>
       <c r="AH84" s="1"/>
       <c r="AI84" s="1"/>
       <c r="AJ84" s="1"/>
       <c r="AK84" s="1"/>
-      <c r="AL84" s="1" t="s">
-        <v>382</v>
-      </c>
+      <c r="AL84" s="1"/>
     </row>
     <row r="85" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="11" t="s">
+      <c r="A85" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="B85" s="11"/>
-      <c r="C85" s="12" t="s">
+      <c r="B85" s="9"/>
+      <c r="C85" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="D85" s="12"/>
-      <c r="E85" s="12" t="s">
+      <c r="D85" s="10"/>
+      <c r="E85" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
-      <c r="H85" s="13">
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="11">
         <v>1000</v>
       </c>
-      <c r="I85" s="13"/>
-      <c r="J85" s="13"/>
-      <c r="K85" s="13"/>
-      <c r="L85" s="13"/>
-      <c r="M85" s="13"/>
-      <c r="N85" s="12" t="s">
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="O85" s="12"/>
+      <c r="O85" s="10"/>
       <c r="P85" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="Q85" s="12" t="s">
+      <c r="Q85" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="R85" s="12"/>
+      <c r="R85" s="10"/>
       <c r="S85" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="T85" s="14" t="s">
+      <c r="T85" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="U85" s="14"/>
-      <c r="V85" s="14"/>
-      <c r="W85" s="14"/>
+      <c r="U85" s="12"/>
+      <c r="V85" s="12"/>
+      <c r="W85" s="12"/>
       <c r="X85" s="1"/>
       <c r="Y85" s="1" t="s">
         <v>382</v>
       </c>
       <c r="AB85" s="1"/>
       <c r="AD85" s="1"/>
-      <c r="AF85" s="1"/>
+      <c r="AF85" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="AG85" s="1"/>
       <c r="AH85" s="1"/>
       <c r="AI85" s="1"/>
       <c r="AJ85" s="1"/>
       <c r="AK85" s="1"/>
-      <c r="AL85" s="1" t="s">
-        <v>382</v>
-      </c>
+      <c r="AL85" s="1"/>
     </row>
     <row r="86" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="B86" s="11"/>
-      <c r="C86" s="12" t="s">
+      <c r="B86" s="9"/>
+      <c r="C86" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12" t="s">
+      <c r="D86" s="10"/>
+      <c r="E86" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
-      <c r="H86" s="13">
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="11">
         <v>3200</v>
       </c>
-      <c r="I86" s="13"/>
-      <c r="J86" s="13"/>
-      <c r="K86" s="13"/>
-      <c r="L86" s="13"/>
-      <c r="M86" s="13"/>
-      <c r="N86" s="12" t="s">
+      <c r="I86" s="11"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="O86" s="12"/>
+      <c r="O86" s="10"/>
       <c r="P86" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="Q86" s="12" t="s">
+      <c r="Q86" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="R86" s="12"/>
+      <c r="R86" s="10"/>
       <c r="S86" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="T86" s="14" t="s">
+      <c r="T86" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="U86" s="14"/>
-      <c r="V86" s="14"/>
-      <c r="W86" s="14"/>
+      <c r="U86" s="12"/>
+      <c r="V86" s="12"/>
+      <c r="W86" s="12"/>
       <c r="X86" s="1"/>
       <c r="Y86" s="1" t="s">
         <v>382</v>
       </c>
       <c r="AB86" s="1"/>
       <c r="AD86" s="1"/>
-      <c r="AF86" s="1"/>
+      <c r="AF86" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="AG86" s="1"/>
       <c r="AH86" s="1"/>
       <c r="AI86" s="1"/>
       <c r="AJ86" s="1"/>
       <c r="AK86" s="1"/>
-      <c r="AL86" s="1" t="s">
-        <v>382</v>
-      </c>
+      <c r="AL86" s="1"/>
     </row>
     <row r="87" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="11" t="s">
+      <c r="A87" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="B87" s="11"/>
-      <c r="C87" s="12" t="s">
+      <c r="B87" s="9"/>
+      <c r="C87" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="D87" s="12"/>
-      <c r="E87" s="12" t="s">
+      <c r="D87" s="10"/>
+      <c r="E87" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="F87" s="12"/>
-      <c r="G87" s="12"/>
-      <c r="H87" s="13">
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="11">
         <v>2300</v>
       </c>
-      <c r="I87" s="13"/>
-      <c r="J87" s="13"/>
-      <c r="K87" s="13"/>
-      <c r="L87" s="13"/>
-      <c r="M87" s="13"/>
-      <c r="N87" s="12" t="s">
+      <c r="I87" s="11"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="O87" s="12"/>
+      <c r="O87" s="10"/>
       <c r="P87" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="Q87" s="12" t="s">
+      <c r="Q87" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="R87" s="12"/>
+      <c r="R87" s="10"/>
       <c r="S87" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="T87" s="14" t="s">
+      <c r="T87" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="U87" s="14"/>
-      <c r="V87" s="14"/>
-      <c r="W87" s="14"/>
+      <c r="U87" s="12"/>
+      <c r="V87" s="12"/>
+      <c r="W87" s="12"/>
       <c r="X87" s="1"/>
       <c r="Y87" s="1" t="s">
         <v>382</v>
       </c>
       <c r="AB87" s="1"/>
       <c r="AD87" s="1"/>
-      <c r="AF87" s="1"/>
+      <c r="AF87" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="AG87" s="1"/>
       <c r="AH87" s="1"/>
       <c r="AI87" s="1"/>
       <c r="AJ87" s="1"/>
       <c r="AK87" s="1"/>
-      <c r="AL87" s="1" t="s">
-        <v>382</v>
-      </c>
+      <c r="AL87" s="1"/>
     </row>
     <row r="88" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="11" t="s">
+      <c r="A88" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="B88" s="11"/>
-      <c r="C88" s="12" t="s">
+      <c r="B88" s="9"/>
+      <c r="C88" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="D88" s="12"/>
-      <c r="E88" s="12" t="s">
+      <c r="D88" s="10"/>
+      <c r="E88" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
-      <c r="H88" s="13">
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="11">
         <v>230500</v>
       </c>
-      <c r="I88" s="13"/>
-      <c r="J88" s="13"/>
-      <c r="K88" s="13"/>
-      <c r="L88" s="13"/>
-      <c r="M88" s="13"/>
-      <c r="N88" s="12" t="s">
+      <c r="I88" s="11"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="11"/>
+      <c r="L88" s="11"/>
+      <c r="M88" s="11"/>
+      <c r="N88" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="O88" s="12"/>
+      <c r="O88" s="10"/>
       <c r="P88" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="Q88" s="12" t="s">
+      <c r="Q88" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="R88" s="12"/>
+      <c r="R88" s="10"/>
       <c r="S88" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="T88" s="14" t="s">
+      <c r="T88" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="U88" s="14"/>
-      <c r="V88" s="14"/>
-      <c r="W88" s="14"/>
+      <c r="U88" s="12"/>
+      <c r="V88" s="12"/>
+      <c r="W88" s="12"/>
       <c r="X88" s="1"/>
       <c r="Y88" s="1" t="s">
         <v>382</v>
       </c>
       <c r="AB88" s="1"/>
       <c r="AD88" s="1"/>
-      <c r="AF88" s="1"/>
+      <c r="AF88" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="AG88" s="1"/>
       <c r="AH88" s="1"/>
       <c r="AI88" s="1"/>
       <c r="AJ88" s="1"/>
       <c r="AK88" s="1"/>
-      <c r="AL88" s="1" t="s">
-        <v>382</v>
-      </c>
+      <c r="AL88" s="1"/>
     </row>
     <row r="89" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="11" t="s">
+      <c r="A89" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="B89" s="11"/>
-      <c r="C89" s="12" t="s">
+      <c r="B89" s="9"/>
+      <c r="C89" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="D89" s="12"/>
-      <c r="E89" s="12" t="s">
+      <c r="D89" s="10"/>
+      <c r="E89" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="F89" s="12"/>
-      <c r="G89" s="12"/>
-      <c r="H89" s="13">
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="11">
         <v>1800</v>
       </c>
-      <c r="I89" s="13"/>
-      <c r="J89" s="13"/>
-      <c r="K89" s="13"/>
-      <c r="L89" s="13"/>
-      <c r="M89" s="13"/>
-      <c r="N89" s="12" t="s">
+      <c r="I89" s="11"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11"/>
+      <c r="L89" s="11"/>
+      <c r="M89" s="11"/>
+      <c r="N89" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="O89" s="12"/>
+      <c r="O89" s="10"/>
       <c r="P89" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="Q89" s="12" t="s">
+      <c r="Q89" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="R89" s="12"/>
+      <c r="R89" s="10"/>
       <c r="S89" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="T89" s="14" t="s">
+      <c r="T89" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="U89" s="14"/>
-      <c r="V89" s="14"/>
-      <c r="W89" s="14"/>
+      <c r="U89" s="12"/>
+      <c r="V89" s="12"/>
+      <c r="W89" s="12"/>
       <c r="X89" s="1"/>
       <c r="Y89" s="1" t="s">
         <v>382</v>
       </c>
       <c r="AB89" s="1"/>
       <c r="AD89" s="1"/>
-      <c r="AF89" s="1"/>
+      <c r="AF89" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="AG89" s="1"/>
       <c r="AH89" s="1"/>
       <c r="AI89" s="1"/>
       <c r="AJ89" s="1"/>
       <c r="AK89" s="1"/>
-      <c r="AL89" s="1" t="s">
-        <v>382</v>
-      </c>
+      <c r="AL89" s="1"/>
     </row>
     <row r="90" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="11" t="s">
+      <c r="A90" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="B90" s="11"/>
-      <c r="C90" s="12" t="s">
+      <c r="B90" s="9"/>
+      <c r="C90" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="D90" s="12"/>
-      <c r="E90" s="12" t="s">
+      <c r="D90" s="10"/>
+      <c r="E90" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="F90" s="12"/>
-      <c r="G90" s="12"/>
-      <c r="H90" s="13">
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="11">
         <v>27000</v>
       </c>
-      <c r="I90" s="13"/>
-      <c r="J90" s="13"/>
-      <c r="K90" s="13"/>
-      <c r="L90" s="13"/>
-      <c r="M90" s="13"/>
-      <c r="N90" s="12" t="s">
+      <c r="I90" s="11"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="11"/>
+      <c r="L90" s="11"/>
+      <c r="M90" s="11"/>
+      <c r="N90" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="O90" s="12"/>
+      <c r="O90" s="10"/>
       <c r="P90" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="Q90" s="12" t="s">
+      <c r="Q90" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="R90" s="12"/>
+      <c r="R90" s="10"/>
       <c r="S90" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="T90" s="14" t="s">
+      <c r="T90" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="U90" s="14"/>
-      <c r="V90" s="14"/>
-      <c r="W90" s="14"/>
+      <c r="U90" s="12"/>
+      <c r="V90" s="12"/>
+      <c r="W90" s="12"/>
       <c r="X90" s="1"/>
       <c r="Y90" s="1" t="s">
         <v>382</v>
       </c>
       <c r="AB90" s="1"/>
       <c r="AD90" s="1"/>
-      <c r="AF90" s="1"/>
+      <c r="AF90" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="AG90" s="1"/>
       <c r="AH90" s="1"/>
       <c r="AI90" s="1"/>
       <c r="AJ90" s="1"/>
       <c r="AK90" s="1"/>
-      <c r="AL90" s="1" t="s">
-        <v>382</v>
-      </c>
+      <c r="AL90" s="1"/>
     </row>
     <row r="91" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="11" t="s">
+      <c r="A91" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="B91" s="11"/>
-      <c r="C91" s="12" t="s">
+      <c r="B91" s="9"/>
+      <c r="C91" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="D91" s="12"/>
-      <c r="E91" s="12" t="s">
+      <c r="D91" s="10"/>
+      <c r="E91" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="F91" s="12"/>
-      <c r="G91" s="12"/>
-      <c r="H91" s="13">
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="11">
         <v>96240</v>
       </c>
-      <c r="I91" s="13"/>
-      <c r="J91" s="13"/>
-      <c r="K91" s="13"/>
-      <c r="L91" s="13"/>
-      <c r="M91" s="13"/>
-      <c r="N91" s="12" t="s">
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
+      <c r="L91" s="11"/>
+      <c r="M91" s="11"/>
+      <c r="N91" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="O91" s="12"/>
+      <c r="O91" s="10"/>
       <c r="P91" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="Q91" s="12" t="s">
+      <c r="Q91" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="R91" s="12"/>
+      <c r="R91" s="10"/>
       <c r="S91" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="T91" s="14" t="s">
+      <c r="T91" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="U91" s="14"/>
-      <c r="V91" s="14"/>
-      <c r="W91" s="14"/>
+      <c r="U91" s="12"/>
+      <c r="V91" s="12"/>
+      <c r="W91" s="12"/>
       <c r="X91" s="1"/>
       <c r="Y91" s="1" t="s">
         <v>382</v>
       </c>
       <c r="AB91" s="1"/>
       <c r="AD91" s="1"/>
-      <c r="AF91" s="1"/>
+      <c r="AF91" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="AG91" s="1"/>
       <c r="AH91" s="1"/>
       <c r="AI91" s="1"/>
       <c r="AJ91" s="1"/>
       <c r="AK91" s="1"/>
-      <c r="AL91" s="1" t="s">
-        <v>382</v>
-      </c>
+      <c r="AL91" s="1"/>
     </row>
     <row r="92" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="11" t="s">
+      <c r="A92" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="B92" s="11"/>
-      <c r="C92" s="12" t="s">
+      <c r="B92" s="9"/>
+      <c r="C92" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="D92" s="12"/>
-      <c r="E92" s="12" t="s">
+      <c r="D92" s="10"/>
+      <c r="E92" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="F92" s="12"/>
-      <c r="G92" s="12"/>
-      <c r="H92" s="13"/>
-      <c r="I92" s="13"/>
-      <c r="J92" s="13"/>
-      <c r="K92" s="13">
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="11"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="11">
         <v>871.2</v>
       </c>
-      <c r="L92" s="13"/>
-      <c r="M92" s="13"/>
-      <c r="N92" s="12" t="s">
+      <c r="L92" s="11"/>
+      <c r="M92" s="11"/>
+      <c r="N92" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="O92" s="12"/>
+      <c r="O92" s="10"/>
       <c r="P92" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="Q92" s="12" t="s">
+      <c r="Q92" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="R92" s="12"/>
+      <c r="R92" s="10"/>
       <c r="S92" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="T92" s="14" t="s">
+      <c r="T92" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="U92" s="14"/>
-      <c r="V92" s="14"/>
-      <c r="W92" s="14"/>
+      <c r="U92" s="12"/>
+      <c r="V92" s="12"/>
+      <c r="W92" s="12"/>
       <c r="X92" s="1"/>
       <c r="Y92" s="1" t="s">
         <v>382</v>
@@ -7480,47 +7480,47 @@
       <c r="AL92" s="1"/>
     </row>
     <row r="93" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="11" t="s">
+      <c r="A93" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="B93" s="11"/>
-      <c r="C93" s="12" t="s">
+      <c r="B93" s="9"/>
+      <c r="C93" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="D93" s="12"/>
-      <c r="E93" s="12" t="s">
+      <c r="D93" s="10"/>
+      <c r="E93" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="F93" s="12"/>
-      <c r="G93" s="12"/>
-      <c r="H93" s="13"/>
-      <c r="I93" s="13"/>
-      <c r="J93" s="13"/>
-      <c r="K93" s="13">
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="11">
         <v>1485</v>
       </c>
-      <c r="L93" s="13"/>
-      <c r="M93" s="13"/>
-      <c r="N93" s="12" t="s">
+      <c r="L93" s="11"/>
+      <c r="M93" s="11"/>
+      <c r="N93" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="O93" s="12"/>
+      <c r="O93" s="10"/>
       <c r="P93" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="Q93" s="12" t="s">
+      <c r="Q93" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="R93" s="12"/>
+      <c r="R93" s="10"/>
       <c r="S93" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="T93" s="14" t="s">
+      <c r="T93" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="U93" s="14"/>
-      <c r="V93" s="14"/>
-      <c r="W93" s="14"/>
+      <c r="U93" s="12"/>
+      <c r="V93" s="12"/>
+      <c r="W93" s="12"/>
       <c r="X93" s="1"/>
       <c r="Y93" s="1" t="s">
         <v>382</v>
@@ -7547,47 +7547,47 @@
       <c r="AL93" s="1"/>
     </row>
     <row r="94" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="11" t="s">
+      <c r="A94" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="B94" s="11"/>
-      <c r="C94" s="12" t="s">
+      <c r="B94" s="9"/>
+      <c r="C94" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="D94" s="12"/>
-      <c r="E94" s="12" t="s">
+      <c r="D94" s="10"/>
+      <c r="E94" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="F94" s="12"/>
-      <c r="G94" s="12"/>
-      <c r="H94" s="13"/>
-      <c r="I94" s="13"/>
-      <c r="J94" s="13"/>
-      <c r="K94" s="13">
+      <c r="F94" s="10"/>
+      <c r="G94" s="10"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="11">
         <v>14.56</v>
       </c>
-      <c r="L94" s="13"/>
-      <c r="M94" s="13"/>
-      <c r="N94" s="12" t="s">
+      <c r="L94" s="11"/>
+      <c r="M94" s="11"/>
+      <c r="N94" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="O94" s="12"/>
+      <c r="O94" s="10"/>
       <c r="P94" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="Q94" s="12" t="s">
+      <c r="Q94" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="R94" s="12"/>
+      <c r="R94" s="10"/>
       <c r="S94" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="T94" s="14" t="s">
+      <c r="T94" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="U94" s="14"/>
-      <c r="V94" s="14"/>
-      <c r="W94" s="14"/>
+      <c r="U94" s="12"/>
+      <c r="V94" s="12"/>
+      <c r="W94" s="12"/>
       <c r="X94" s="1"/>
       <c r="Y94" s="1" t="s">
         <v>382</v>
@@ -7614,47 +7614,47 @@
       <c r="AL94" s="1"/>
     </row>
     <row r="95" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="11" t="s">
+      <c r="A95" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="B95" s="11"/>
-      <c r="C95" s="12" t="s">
+      <c r="B95" s="9"/>
+      <c r="C95" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="D95" s="12"/>
-      <c r="E95" s="12" t="s">
+      <c r="D95" s="10"/>
+      <c r="E95" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="F95" s="12"/>
-      <c r="G95" s="12"/>
-      <c r="H95" s="13"/>
-      <c r="I95" s="13"/>
-      <c r="J95" s="13"/>
-      <c r="K95" s="13">
+      <c r="F95" s="10"/>
+      <c r="G95" s="10"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="11">
         <v>968.22</v>
       </c>
-      <c r="L95" s="13"/>
-      <c r="M95" s="13"/>
-      <c r="N95" s="12" t="s">
+      <c r="L95" s="11"/>
+      <c r="M95" s="11"/>
+      <c r="N95" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="O95" s="12"/>
+      <c r="O95" s="10"/>
       <c r="P95" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="Q95" s="12" t="s">
+      <c r="Q95" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="R95" s="12"/>
+      <c r="R95" s="10"/>
       <c r="S95" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="T95" s="14" t="s">
+      <c r="T95" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="U95" s="14"/>
-      <c r="V95" s="14"/>
-      <c r="W95" s="14"/>
+      <c r="U95" s="12"/>
+      <c r="V95" s="12"/>
+      <c r="W95" s="12"/>
       <c r="X95" s="1"/>
       <c r="Y95" s="1" t="s">
         <v>382</v>
@@ -7681,62 +7681,62 @@
       <c r="AL95" s="1"/>
     </row>
     <row r="96" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="11" t="s">
+      <c r="A96" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="B96" s="11"/>
-      <c r="C96" s="12" t="s">
+      <c r="B96" s="9"/>
+      <c r="C96" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="D96" s="12"/>
-      <c r="E96" s="12" t="s">
+      <c r="D96" s="10"/>
+      <c r="E96" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="F96" s="12"/>
-      <c r="G96" s="12"/>
-      <c r="H96" s="13"/>
-      <c r="I96" s="13"/>
-      <c r="J96" s="13"/>
-      <c r="K96" s="13">
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="11">
         <v>800</v>
       </c>
-      <c r="L96" s="13"/>
-      <c r="M96" s="13"/>
-      <c r="N96" s="12" t="s">
+      <c r="L96" s="11"/>
+      <c r="M96" s="11"/>
+      <c r="N96" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="O96" s="12"/>
+      <c r="O96" s="10"/>
       <c r="P96" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="Q96" s="12" t="s">
+      <c r="Q96" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="R96" s="12"/>
+      <c r="R96" s="10"/>
       <c r="S96" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="T96" s="14" t="s">
+      <c r="T96" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="U96" s="14"/>
-      <c r="V96" s="14"/>
-      <c r="W96" s="14"/>
+      <c r="U96" s="12"/>
+      <c r="V96" s="12"/>
+      <c r="W96" s="12"/>
       <c r="X96" s="1"/>
       <c r="Y96" s="1" t="s">
         <v>382</v>
       </c>
       <c r="AB96" s="1"/>
       <c r="AD96" s="1"/>
-      <c r="AF96" s="1"/>
+      <c r="AF96" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="AG96" s="1"/>
       <c r="AH96" s="1"/>
       <c r="AI96" s="1"/>
       <c r="AJ96" s="1"/>
       <c r="AK96" s="1"/>
-      <c r="AL96" s="1" t="s">
-        <v>382</v>
-      </c>
+      <c r="AL96" s="1"/>
     </row>
     <row r="97" spans="1:38" ht="33.200000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="1"/>
@@ -7797,10 +7797,10 @@
       <c r="T98" s="1"/>
       <c r="U98" s="1"/>
       <c r="V98" s="1"/>
-      <c r="W98" s="15" t="s">
+      <c r="W98" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="X98" s="15"/>
+      <c r="X98" s="8"/>
       <c r="Y98" s="1"/>
       <c r="AB98" s="1"/>
       <c r="AD98" s="1"/>
@@ -7813,47 +7813,47 @@
       <c r="AL98" s="1"/>
     </row>
     <row r="99" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="11" t="s">
+      <c r="A99" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="B99" s="11"/>
-      <c r="C99" s="12" t="s">
+      <c r="B99" s="9"/>
+      <c r="C99" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="D99" s="12"/>
-      <c r="E99" s="12" t="s">
+      <c r="D99" s="10"/>
+      <c r="E99" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="F99" s="12"/>
-      <c r="G99" s="12"/>
-      <c r="H99" s="13"/>
-      <c r="I99" s="13"/>
-      <c r="J99" s="13"/>
-      <c r="K99" s="13">
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="11">
         <v>740</v>
       </c>
-      <c r="L99" s="13"/>
-      <c r="M99" s="13"/>
-      <c r="N99" s="12" t="s">
+      <c r="L99" s="11"/>
+      <c r="M99" s="11"/>
+      <c r="N99" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="O99" s="12"/>
+      <c r="O99" s="10"/>
       <c r="P99" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="Q99" s="12" t="s">
+      <c r="Q99" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="R99" s="12"/>
+      <c r="R99" s="10"/>
       <c r="S99" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="T99" s="14" t="s">
+      <c r="T99" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="U99" s="14"/>
-      <c r="V99" s="14"/>
-      <c r="W99" s="14"/>
+      <c r="U99" s="12"/>
+      <c r="V99" s="12"/>
+      <c r="W99" s="12"/>
       <c r="X99" s="1"/>
       <c r="Y99" s="1" t="s">
         <v>382</v>
@@ -7880,47 +7880,47 @@
       <c r="AL99" s="1"/>
     </row>
     <row r="100" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="11" t="s">
+      <c r="A100" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="B100" s="11"/>
-      <c r="C100" s="12" t="s">
+      <c r="B100" s="9"/>
+      <c r="C100" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="D100" s="12"/>
-      <c r="E100" s="12" t="s">
+      <c r="D100" s="10"/>
+      <c r="E100" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="F100" s="12"/>
-      <c r="G100" s="12"/>
-      <c r="H100" s="13"/>
-      <c r="I100" s="13"/>
-      <c r="J100" s="13"/>
-      <c r="K100" s="13">
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="11">
         <v>2396.5</v>
       </c>
-      <c r="L100" s="13"/>
-      <c r="M100" s="13"/>
-      <c r="N100" s="12" t="s">
+      <c r="L100" s="11"/>
+      <c r="M100" s="11"/>
+      <c r="N100" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="O100" s="12"/>
+      <c r="O100" s="10"/>
       <c r="P100" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="Q100" s="12" t="s">
+      <c r="Q100" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="R100" s="12"/>
+      <c r="R100" s="10"/>
       <c r="S100" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="T100" s="14" t="s">
+      <c r="T100" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="U100" s="14"/>
-      <c r="V100" s="14"/>
-      <c r="W100" s="14"/>
+      <c r="U100" s="12"/>
+      <c r="V100" s="12"/>
+      <c r="W100" s="12"/>
       <c r="X100" s="1"/>
       <c r="Y100" s="1" t="s">
         <v>382</v>
@@ -7947,47 +7947,47 @@
       <c r="AL100" s="1"/>
     </row>
     <row r="101" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="11" t="s">
+      <c r="A101" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="B101" s="11"/>
-      <c r="C101" s="12" t="s">
+      <c r="B101" s="9"/>
+      <c r="C101" s="10" t="s">
         <v>336</v>
       </c>
-      <c r="D101" s="12"/>
-      <c r="E101" s="12" t="s">
+      <c r="D101" s="10"/>
+      <c r="E101" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="F101" s="12"/>
-      <c r="G101" s="12"/>
-      <c r="H101" s="13"/>
-      <c r="I101" s="13"/>
-      <c r="J101" s="13"/>
-      <c r="K101" s="13">
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="11">
         <v>843</v>
       </c>
-      <c r="L101" s="13"/>
-      <c r="M101" s="13"/>
-      <c r="N101" s="12" t="s">
+      <c r="L101" s="11"/>
+      <c r="M101" s="11"/>
+      <c r="N101" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="O101" s="12"/>
+      <c r="O101" s="10"/>
       <c r="P101" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="Q101" s="12" t="s">
+      <c r="Q101" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="R101" s="12"/>
+      <c r="R101" s="10"/>
       <c r="S101" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="T101" s="14" t="s">
+      <c r="T101" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="U101" s="14"/>
-      <c r="V101" s="14"/>
-      <c r="W101" s="14"/>
+      <c r="U101" s="12"/>
+      <c r="V101" s="12"/>
+      <c r="W101" s="12"/>
       <c r="X101" s="1"/>
       <c r="Y101" s="1" t="s">
         <v>382</v>
@@ -8014,105 +8014,105 @@
       <c r="AL101" s="1"/>
     </row>
     <row r="102" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="11" t="s">
+      <c r="A102" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="B102" s="11"/>
-      <c r="C102" s="12" t="s">
+      <c r="B102" s="9"/>
+      <c r="C102" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="D102" s="12"/>
-      <c r="E102" s="12" t="s">
+      <c r="D102" s="10"/>
+      <c r="E102" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="F102" s="12"/>
-      <c r="G102" s="12"/>
-      <c r="H102" s="13"/>
-      <c r="I102" s="13"/>
-      <c r="J102" s="13"/>
-      <c r="K102" s="13">
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="11">
         <v>2041</v>
       </c>
-      <c r="L102" s="13"/>
-      <c r="M102" s="13"/>
-      <c r="N102" s="12" t="s">
+      <c r="L102" s="11"/>
+      <c r="M102" s="11"/>
+      <c r="N102" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="O102" s="12"/>
+      <c r="O102" s="10"/>
       <c r="P102" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="Q102" s="12" t="s">
+      <c r="Q102" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="R102" s="12"/>
+      <c r="R102" s="10"/>
       <c r="S102" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="T102" s="14" t="s">
+      <c r="T102" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="U102" s="14"/>
-      <c r="V102" s="14"/>
-      <c r="W102" s="14"/>
+      <c r="U102" s="12"/>
+      <c r="V102" s="12"/>
+      <c r="W102" s="12"/>
       <c r="X102" s="1"/>
       <c r="Y102" s="1" t="s">
         <v>382</v>
       </c>
       <c r="AB102" s="1"/>
       <c r="AD102" s="1"/>
-      <c r="AF102" s="1"/>
+      <c r="AF102" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="AG102" s="1"/>
       <c r="AH102" s="1"/>
       <c r="AI102" s="1"/>
       <c r="AJ102" s="1"/>
       <c r="AK102" s="1"/>
-      <c r="AL102" s="1" t="s">
-        <v>382</v>
-      </c>
+      <c r="AL102" s="1"/>
     </row>
     <row r="103" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="11" t="s">
+      <c r="A103" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="B103" s="11"/>
-      <c r="C103" s="12" t="s">
+      <c r="B103" s="9"/>
+      <c r="C103" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="D103" s="12"/>
-      <c r="E103" s="12" t="s">
+      <c r="D103" s="10"/>
+      <c r="E103" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="F103" s="12"/>
-      <c r="G103" s="12"/>
-      <c r="H103" s="13"/>
-      <c r="I103" s="13"/>
-      <c r="J103" s="13"/>
-      <c r="K103" s="13">
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="11">
         <v>2404.36</v>
       </c>
-      <c r="L103" s="13"/>
-      <c r="M103" s="13"/>
-      <c r="N103" s="12" t="s">
+      <c r="L103" s="11"/>
+      <c r="M103" s="11"/>
+      <c r="N103" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="O103" s="12"/>
+      <c r="O103" s="10"/>
       <c r="P103" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="Q103" s="12" t="s">
+      <c r="Q103" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="R103" s="12"/>
+      <c r="R103" s="10"/>
       <c r="S103" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="T103" s="14" t="s">
+      <c r="T103" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="U103" s="14"/>
-      <c r="V103" s="14"/>
-      <c r="W103" s="14"/>
+      <c r="U103" s="12"/>
+      <c r="V103" s="12"/>
+      <c r="W103" s="12"/>
       <c r="X103" s="1"/>
       <c r="Y103" s="1" t="s">
         <v>382</v>
@@ -8139,47 +8139,47 @@
       <c r="AL103" s="1"/>
     </row>
     <row r="104" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="11" t="s">
+      <c r="A104" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="B104" s="11"/>
-      <c r="C104" s="12" t="s">
+      <c r="B104" s="9"/>
+      <c r="C104" s="10" t="s">
         <v>355</v>
       </c>
-      <c r="D104" s="12"/>
-      <c r="E104" s="12" t="s">
+      <c r="D104" s="10"/>
+      <c r="E104" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="F104" s="12"/>
-      <c r="G104" s="12"/>
-      <c r="H104" s="13"/>
-      <c r="I104" s="13"/>
-      <c r="J104" s="13"/>
-      <c r="K104" s="13">
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="11"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="11">
         <v>50</v>
       </c>
-      <c r="L104" s="13"/>
-      <c r="M104" s="13"/>
-      <c r="N104" s="12" t="s">
+      <c r="L104" s="11"/>
+      <c r="M104" s="11"/>
+      <c r="N104" s="10" t="s">
         <v>356</v>
       </c>
-      <c r="O104" s="12"/>
+      <c r="O104" s="10"/>
       <c r="P104" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="Q104" s="12" t="s">
+      <c r="Q104" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="R104" s="12"/>
+      <c r="R104" s="10"/>
       <c r="S104" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="T104" s="14" t="s">
+      <c r="T104" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="U104" s="14"/>
-      <c r="V104" s="14"/>
-      <c r="W104" s="14"/>
+      <c r="U104" s="12"/>
+      <c r="V104" s="12"/>
+      <c r="W104" s="12"/>
       <c r="X104" s="1"/>
       <c r="Y104" s="1" t="s">
         <v>382</v>
@@ -8206,47 +8206,47 @@
       <c r="AL104" s="1"/>
     </row>
     <row r="105" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="11" t="s">
+      <c r="A105" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="B105" s="11"/>
-      <c r="C105" s="12" t="s">
+      <c r="B105" s="9"/>
+      <c r="C105" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="D105" s="12"/>
-      <c r="E105" s="12" t="s">
+      <c r="D105" s="10"/>
+      <c r="E105" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="F105" s="12"/>
-      <c r="G105" s="12"/>
-      <c r="H105" s="13"/>
-      <c r="I105" s="13"/>
-      <c r="J105" s="13"/>
-      <c r="K105" s="13">
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11"/>
+      <c r="J105" s="11"/>
+      <c r="K105" s="11">
         <v>795</v>
       </c>
-      <c r="L105" s="13"/>
-      <c r="M105" s="13"/>
-      <c r="N105" s="12" t="s">
+      <c r="L105" s="11"/>
+      <c r="M105" s="11"/>
+      <c r="N105" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="O105" s="12"/>
+      <c r="O105" s="10"/>
       <c r="P105" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="Q105" s="12" t="s">
+      <c r="Q105" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="R105" s="12"/>
+      <c r="R105" s="10"/>
       <c r="S105" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="T105" s="14" t="s">
+      <c r="T105" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="U105" s="14"/>
-      <c r="V105" s="14"/>
-      <c r="W105" s="14"/>
+      <c r="U105" s="12"/>
+      <c r="V105" s="12"/>
+      <c r="W105" s="12"/>
       <c r="X105" s="1"/>
       <c r="Y105" s="1" t="s">
         <v>382</v>
@@ -8273,47 +8273,47 @@
       <c r="AL105" s="1"/>
     </row>
     <row r="106" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="11" t="s">
+      <c r="A106" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="B106" s="11"/>
-      <c r="C106" s="12" t="s">
+      <c r="B106" s="9"/>
+      <c r="C106" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="D106" s="12"/>
-      <c r="E106" s="12" t="s">
+      <c r="D106" s="10"/>
+      <c r="E106" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="F106" s="12"/>
-      <c r="G106" s="12"/>
-      <c r="H106" s="13"/>
-      <c r="I106" s="13"/>
-      <c r="J106" s="13"/>
-      <c r="K106" s="13">
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11"/>
+      <c r="J106" s="11"/>
+      <c r="K106" s="11">
         <v>1400</v>
       </c>
-      <c r="L106" s="13"/>
-      <c r="M106" s="13"/>
-      <c r="N106" s="12" t="s">
+      <c r="L106" s="11"/>
+      <c r="M106" s="11"/>
+      <c r="N106" s="10" t="s">
         <v>368</v>
       </c>
-      <c r="O106" s="12"/>
+      <c r="O106" s="10"/>
       <c r="P106" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="Q106" s="12" t="s">
+      <c r="Q106" s="10" t="s">
         <v>370</v>
       </c>
-      <c r="R106" s="12"/>
+      <c r="R106" s="10"/>
       <c r="S106" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="T106" s="14" t="s">
+      <c r="T106" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="U106" s="14"/>
-      <c r="V106" s="14"/>
-      <c r="W106" s="14"/>
+      <c r="U106" s="12"/>
+      <c r="V106" s="12"/>
+      <c r="W106" s="12"/>
       <c r="X106" s="1"/>
       <c r="Y106" s="1" t="s">
         <v>382</v>
@@ -8340,47 +8340,47 @@
       <c r="AL106" s="1"/>
     </row>
     <row r="107" spans="1:38" ht="44.85" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="11" t="s">
+      <c r="A107" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="B107" s="11"/>
-      <c r="C107" s="12" t="s">
+      <c r="B107" s="9"/>
+      <c r="C107" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="D107" s="12"/>
-      <c r="E107" s="12" t="s">
+      <c r="D107" s="10"/>
+      <c r="E107" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="F107" s="12"/>
-      <c r="G107" s="12"/>
-      <c r="H107" s="13"/>
-      <c r="I107" s="13"/>
-      <c r="J107" s="13"/>
-      <c r="K107" s="13">
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="11">
         <v>1819.47</v>
       </c>
-      <c r="L107" s="13"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="12" t="s">
+      <c r="L107" s="11"/>
+      <c r="M107" s="11"/>
+      <c r="N107" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="O107" s="12"/>
+      <c r="O107" s="10"/>
       <c r="P107" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="Q107" s="12" t="s">
+      <c r="Q107" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="R107" s="12"/>
+      <c r="R107" s="10"/>
       <c r="S107" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="T107" s="14" t="s">
+      <c r="T107" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="U107" s="14"/>
-      <c r="V107" s="14"/>
-      <c r="W107" s="14"/>
+      <c r="U107" s="12"/>
+      <c r="V107" s="12"/>
+      <c r="W107" s="12"/>
       <c r="X107" s="1"/>
       <c r="Y107" s="1" t="s">
         <v>382</v>
@@ -8407,9 +8407,9 @@
       <c r="AL107" s="1"/>
     </row>
     <row r="108" spans="1:38" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="15"/>
-      <c r="B108" s="15"/>
-      <c r="C108" s="15"/>
+      <c r="A108" s="8"/>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8"/>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
@@ -8499,7 +8499,7 @@
       <c r="R110" s="1"/>
       <c r="S110" s="1"/>
       <c r="T110" s="1"/>
-      <c r="U110" s="16"/>
+      <c r="U110" s="7"/>
       <c r="V110" s="1"/>
       <c r="W110" s="1"/>
       <c r="X110" s="1"/>
@@ -8516,32 +8516,32 @@
     </row>
     <row r="111" spans="1:38" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="1"/>
-      <c r="B111" s="7" t="s">
+      <c r="B111" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C111" s="7"/>
-      <c r="D111" s="7"/>
-      <c r="E111" s="7"/>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="7"/>
-      <c r="I111" s="8">
+      <c r="C111" s="5"/>
+      <c r="D111" s="5"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="6">
         <v>463433.21</v>
       </c>
-      <c r="J111" s="8"/>
-      <c r="K111" s="8"/>
-      <c r="L111" s="8">
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+      <c r="L111" s="6">
         <v>453874.88</v>
       </c>
-      <c r="M111" s="8"/>
-      <c r="N111" s="8"/>
+      <c r="M111" s="6"/>
+      <c r="N111" s="6"/>
       <c r="O111" s="1"/>
       <c r="P111" s="1"/>
       <c r="Q111" s="1"/>
       <c r="R111" s="1"/>
       <c r="S111" s="1"/>
       <c r="T111" s="1"/>
-      <c r="U111" s="16"/>
+      <c r="U111" s="7"/>
       <c r="V111" s="1"/>
       <c r="W111" s="1"/>
       <c r="X111" s="1"/>
@@ -8558,30 +8558,30 @@
     </row>
     <row r="112" spans="1:38" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="1"/>
-      <c r="B112" s="7" t="s">
+      <c r="B112" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="C112" s="7"/>
-      <c r="D112" s="7"/>
-      <c r="E112" s="7"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
-      <c r="H112" s="7"/>
-      <c r="I112" s="8">
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="6">
         <v>671.88</v>
       </c>
-      <c r="J112" s="8"/>
-      <c r="K112" s="8"/>
-      <c r="L112" s="7"/>
-      <c r="M112" s="7"/>
-      <c r="N112" s="7"/>
+      <c r="J112" s="6"/>
+      <c r="K112" s="6"/>
+      <c r="L112" s="5"/>
+      <c r="M112" s="5"/>
+      <c r="N112" s="5"/>
       <c r="O112" s="1"/>
       <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
-      <c r="U112" s="16"/>
+      <c r="U112" s="7"/>
       <c r="V112" s="1"/>
       <c r="W112" s="1"/>
       <c r="X112" s="1"/>
@@ -8617,7 +8617,7 @@
       <c r="R113" s="1"/>
       <c r="S113" s="1"/>
       <c r="T113" s="1"/>
-      <c r="U113" s="16"/>
+      <c r="U113" s="7"/>
       <c r="V113" s="1"/>
       <c r="W113" s="1"/>
       <c r="X113" s="1"/>
@@ -8691,10 +8691,10 @@
       <c r="T115" s="1"/>
       <c r="U115" s="1"/>
       <c r="V115" s="1"/>
-      <c r="W115" s="15" t="s">
+      <c r="W115" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="X115" s="15"/>
+      <c r="X115" s="8"/>
       <c r="Y115" s="1"/>
       <c r="AB115" s="1"/>
       <c r="AD115" s="1"/>
@@ -8708,6 +8708,709 @@
     </row>
   </sheetData>
   <mergeCells count="720">
+    <mergeCell ref="R1:X1"/>
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="F1:Q2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="F3:Q3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:Q4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:Q5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:Q6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="F7:Q7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="F8:Q8"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="K14:M14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="T16:W16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="Q19:R19"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="N20:O20"/>
+    <mergeCell ref="Q20:R20"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:O21"/>
+    <mergeCell ref="Q21:R21"/>
+    <mergeCell ref="T21:W21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="K22:M22"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="Q22:R22"/>
+    <mergeCell ref="T22:W22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="N24:O24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="Q27:R27"/>
+    <mergeCell ref="T27:W27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="N28:O28"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="T29:W29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="N30:O30"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="T30:W30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="K31:M31"/>
+    <mergeCell ref="N31:O31"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="T31:W31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="T32:W32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="T33:W33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="N34:O34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="T34:W34"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="K35:M35"/>
+    <mergeCell ref="N35:O35"/>
+    <mergeCell ref="Q35:R35"/>
+    <mergeCell ref="T35:W35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:M36"/>
+    <mergeCell ref="N36:O36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="T36:W36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="N37:O37"/>
+    <mergeCell ref="Q37:R37"/>
+    <mergeCell ref="T37:W37"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="K38:M38"/>
+    <mergeCell ref="N38:O38"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="T38:W38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="K39:M39"/>
+    <mergeCell ref="N39:O39"/>
+    <mergeCell ref="Q39:R39"/>
+    <mergeCell ref="T39:W39"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="K40:M40"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="T40:W40"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="K41:M41"/>
+    <mergeCell ref="N41:O41"/>
+    <mergeCell ref="Q41:R41"/>
+    <mergeCell ref="T41:W41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:M42"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="T42:W42"/>
+    <mergeCell ref="W44:X44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="E45:G45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:O45"/>
+    <mergeCell ref="Q45:R45"/>
+    <mergeCell ref="T45:W45"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="E46:G46"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="K46:M46"/>
+    <mergeCell ref="N46:O46"/>
+    <mergeCell ref="Q46:R46"/>
+    <mergeCell ref="T46:W46"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:G47"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="K47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="Q47:R47"/>
+    <mergeCell ref="T47:W47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="E48:G48"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="K48:M48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="Q48:R48"/>
+    <mergeCell ref="T48:W48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="K49:M49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="Q49:R49"/>
+    <mergeCell ref="T49:W49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="K50:M50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="Q50:R50"/>
+    <mergeCell ref="T50:W50"/>
+    <mergeCell ref="A51:B51"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="K51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="Q51:R51"/>
+    <mergeCell ref="T51:W51"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="K52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="Q52:R52"/>
+    <mergeCell ref="T52:W52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="Q53:R53"/>
+    <mergeCell ref="T53:W53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="K54:M54"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="Q54:R54"/>
+    <mergeCell ref="T54:W54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="K55:M55"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="Q55:R55"/>
+    <mergeCell ref="T55:W55"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="K56:M56"/>
+    <mergeCell ref="N56:O56"/>
+    <mergeCell ref="Q56:R56"/>
+    <mergeCell ref="T56:W56"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="H57:J57"/>
+    <mergeCell ref="K57:M57"/>
+    <mergeCell ref="N57:O57"/>
+    <mergeCell ref="Q57:R57"/>
+    <mergeCell ref="T57:W57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="K58:M58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="Q58:R58"/>
+    <mergeCell ref="T58:W58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="E59:G59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="K59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="Q59:R59"/>
+    <mergeCell ref="T59:W59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="K60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="Q60:R60"/>
+    <mergeCell ref="T60:W60"/>
+    <mergeCell ref="W62:X62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="K63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="Q63:R63"/>
+    <mergeCell ref="T63:W63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="K64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="Q64:R64"/>
+    <mergeCell ref="T64:W64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="K65:M65"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="Q65:R65"/>
+    <mergeCell ref="T65:W65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="K66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="Q66:R66"/>
+    <mergeCell ref="T66:W66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="K67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="Q67:R67"/>
+    <mergeCell ref="T67:W67"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="H68:J68"/>
+    <mergeCell ref="K68:M68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="Q68:R68"/>
+    <mergeCell ref="T68:W68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="K69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="Q69:R69"/>
+    <mergeCell ref="T69:W69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="K70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="Q70:R70"/>
+    <mergeCell ref="T70:W70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="H71:J71"/>
+    <mergeCell ref="K71:M71"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="Q71:R71"/>
+    <mergeCell ref="T71:W71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="H72:J72"/>
+    <mergeCell ref="K72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="Q72:R72"/>
+    <mergeCell ref="T72:W72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="H73:J73"/>
+    <mergeCell ref="K73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="Q73:R73"/>
+    <mergeCell ref="T73:W73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="H74:J74"/>
+    <mergeCell ref="K74:M74"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="Q74:R74"/>
+    <mergeCell ref="T74:W74"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="H75:J75"/>
+    <mergeCell ref="K75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="Q75:R75"/>
+    <mergeCell ref="T75:W75"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="K76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="Q76:R76"/>
+    <mergeCell ref="T76:W76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="H77:J77"/>
+    <mergeCell ref="K77:M77"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="Q77:R77"/>
+    <mergeCell ref="T77:W77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="H78:J78"/>
+    <mergeCell ref="K78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="Q78:R78"/>
+    <mergeCell ref="T78:W78"/>
+    <mergeCell ref="W80:X80"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="H81:J81"/>
+    <mergeCell ref="K81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="Q81:R81"/>
+    <mergeCell ref="T81:W81"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="K82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="Q82:R82"/>
+    <mergeCell ref="T82:W82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="C83:D83"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="K83:M83"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="Q83:R83"/>
+    <mergeCell ref="T83:W83"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="K84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="Q84:R84"/>
+    <mergeCell ref="T84:W84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="C85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="K85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="Q85:R85"/>
+    <mergeCell ref="T85:W85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="H86:J86"/>
+    <mergeCell ref="K86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="Q86:R86"/>
+    <mergeCell ref="T86:W86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="C87:D87"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="H87:J87"/>
+    <mergeCell ref="K87:M87"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="Q87:R87"/>
+    <mergeCell ref="T87:W87"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="H88:J88"/>
+    <mergeCell ref="K88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="Q88:R88"/>
+    <mergeCell ref="T88:W88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="C89:D89"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="H89:J89"/>
+    <mergeCell ref="K89:M89"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="Q89:R89"/>
+    <mergeCell ref="T89:W89"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="H90:J90"/>
+    <mergeCell ref="K90:M90"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="Q90:R90"/>
+    <mergeCell ref="T90:W90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="C91:D91"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="H91:J91"/>
+    <mergeCell ref="K91:M91"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="Q91:R91"/>
+    <mergeCell ref="T91:W91"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="H92:J92"/>
+    <mergeCell ref="K92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="Q92:R92"/>
+    <mergeCell ref="T92:W92"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="C93:D93"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="H93:J93"/>
+    <mergeCell ref="K93:M93"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="Q93:R93"/>
+    <mergeCell ref="T93:W93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="H94:J94"/>
+    <mergeCell ref="K94:M94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="Q94:R94"/>
+    <mergeCell ref="T94:W94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="H95:J95"/>
+    <mergeCell ref="K95:M95"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="Q95:R95"/>
+    <mergeCell ref="T95:W95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="H96:J96"/>
+    <mergeCell ref="K96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="Q96:R96"/>
+    <mergeCell ref="T96:W96"/>
+    <mergeCell ref="W98:X98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="E99:G99"/>
+    <mergeCell ref="H99:J99"/>
+    <mergeCell ref="K99:M99"/>
+    <mergeCell ref="N99:O99"/>
+    <mergeCell ref="Q99:R99"/>
+    <mergeCell ref="T99:W99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="C100:D100"/>
+    <mergeCell ref="E100:G100"/>
+    <mergeCell ref="H100:J100"/>
+    <mergeCell ref="K100:M100"/>
+    <mergeCell ref="N100:O100"/>
+    <mergeCell ref="Q100:R100"/>
+    <mergeCell ref="T100:W100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="C101:D101"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="K101:M101"/>
+    <mergeCell ref="N101:O101"/>
+    <mergeCell ref="Q101:R101"/>
+    <mergeCell ref="T101:W101"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="C102:D102"/>
+    <mergeCell ref="E102:G102"/>
+    <mergeCell ref="H102:J102"/>
+    <mergeCell ref="K102:M102"/>
+    <mergeCell ref="N102:O102"/>
+    <mergeCell ref="Q102:R102"/>
+    <mergeCell ref="T102:W102"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="E103:G103"/>
+    <mergeCell ref="H103:J103"/>
+    <mergeCell ref="K103:M103"/>
+    <mergeCell ref="N103:O103"/>
+    <mergeCell ref="Q103:R103"/>
+    <mergeCell ref="T103:W103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="C104:D104"/>
+    <mergeCell ref="E104:G104"/>
+    <mergeCell ref="H104:J104"/>
+    <mergeCell ref="K104:M104"/>
+    <mergeCell ref="N104:O104"/>
+    <mergeCell ref="Q104:R104"/>
+    <mergeCell ref="T104:W104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="E105:G105"/>
+    <mergeCell ref="H105:J105"/>
+    <mergeCell ref="K105:M105"/>
+    <mergeCell ref="N105:O105"/>
+    <mergeCell ref="Q105:R105"/>
+    <mergeCell ref="T105:W105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="C106:D106"/>
+    <mergeCell ref="E106:G106"/>
+    <mergeCell ref="H106:J106"/>
+    <mergeCell ref="K106:M106"/>
+    <mergeCell ref="N106:O106"/>
+    <mergeCell ref="Q106:R106"/>
+    <mergeCell ref="T106:W106"/>
     <mergeCell ref="B111:H111"/>
     <mergeCell ref="I111:K111"/>
     <mergeCell ref="L111:N111"/>
@@ -8725,709 +9428,6 @@
     <mergeCell ref="Q107:R107"/>
     <mergeCell ref="T107:W107"/>
     <mergeCell ref="A108:C108"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="E105:G105"/>
-    <mergeCell ref="H105:J105"/>
-    <mergeCell ref="K105:M105"/>
-    <mergeCell ref="N105:O105"/>
-    <mergeCell ref="Q105:R105"/>
-    <mergeCell ref="T105:W105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="C106:D106"/>
-    <mergeCell ref="E106:G106"/>
-    <mergeCell ref="H106:J106"/>
-    <mergeCell ref="K106:M106"/>
-    <mergeCell ref="N106:O106"/>
-    <mergeCell ref="Q106:R106"/>
-    <mergeCell ref="T106:W106"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="E103:G103"/>
-    <mergeCell ref="H103:J103"/>
-    <mergeCell ref="K103:M103"/>
-    <mergeCell ref="N103:O103"/>
-    <mergeCell ref="Q103:R103"/>
-    <mergeCell ref="T103:W103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="C104:D104"/>
-    <mergeCell ref="E104:G104"/>
-    <mergeCell ref="H104:J104"/>
-    <mergeCell ref="K104:M104"/>
-    <mergeCell ref="N104:O104"/>
-    <mergeCell ref="Q104:R104"/>
-    <mergeCell ref="T104:W104"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="C101:D101"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="H101:J101"/>
-    <mergeCell ref="K101:M101"/>
-    <mergeCell ref="N101:O101"/>
-    <mergeCell ref="Q101:R101"/>
-    <mergeCell ref="T101:W101"/>
-    <mergeCell ref="A102:B102"/>
-    <mergeCell ref="C102:D102"/>
-    <mergeCell ref="E102:G102"/>
-    <mergeCell ref="H102:J102"/>
-    <mergeCell ref="K102:M102"/>
-    <mergeCell ref="N102:O102"/>
-    <mergeCell ref="Q102:R102"/>
-    <mergeCell ref="T102:W102"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="E99:G99"/>
-    <mergeCell ref="H99:J99"/>
-    <mergeCell ref="K99:M99"/>
-    <mergeCell ref="N99:O99"/>
-    <mergeCell ref="Q99:R99"/>
-    <mergeCell ref="T99:W99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="C100:D100"/>
-    <mergeCell ref="E100:G100"/>
-    <mergeCell ref="H100:J100"/>
-    <mergeCell ref="K100:M100"/>
-    <mergeCell ref="N100:O100"/>
-    <mergeCell ref="Q100:R100"/>
-    <mergeCell ref="T100:W100"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="H96:J96"/>
-    <mergeCell ref="K96:M96"/>
-    <mergeCell ref="N96:O96"/>
-    <mergeCell ref="Q96:R96"/>
-    <mergeCell ref="T96:W96"/>
-    <mergeCell ref="W98:X98"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="H94:J94"/>
-    <mergeCell ref="K94:M94"/>
-    <mergeCell ref="N94:O94"/>
-    <mergeCell ref="Q94:R94"/>
-    <mergeCell ref="T94:W94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="C95:D95"/>
-    <mergeCell ref="E95:G95"/>
-    <mergeCell ref="H95:J95"/>
-    <mergeCell ref="K95:M95"/>
-    <mergeCell ref="N95:O95"/>
-    <mergeCell ref="Q95:R95"/>
-    <mergeCell ref="T95:W95"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="H92:J92"/>
-    <mergeCell ref="K92:M92"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="Q92:R92"/>
-    <mergeCell ref="T92:W92"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="C93:D93"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="H93:J93"/>
-    <mergeCell ref="K93:M93"/>
-    <mergeCell ref="N93:O93"/>
-    <mergeCell ref="Q93:R93"/>
-    <mergeCell ref="T93:W93"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="H90:J90"/>
-    <mergeCell ref="K90:M90"/>
-    <mergeCell ref="N90:O90"/>
-    <mergeCell ref="Q90:R90"/>
-    <mergeCell ref="T90:W90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="C91:D91"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="H91:J91"/>
-    <mergeCell ref="K91:M91"/>
-    <mergeCell ref="N91:O91"/>
-    <mergeCell ref="Q91:R91"/>
-    <mergeCell ref="T91:W91"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="H88:J88"/>
-    <mergeCell ref="K88:M88"/>
-    <mergeCell ref="N88:O88"/>
-    <mergeCell ref="Q88:R88"/>
-    <mergeCell ref="T88:W88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="C89:D89"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="H89:J89"/>
-    <mergeCell ref="K89:M89"/>
-    <mergeCell ref="N89:O89"/>
-    <mergeCell ref="Q89:R89"/>
-    <mergeCell ref="T89:W89"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="H86:J86"/>
-    <mergeCell ref="K86:M86"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="Q86:R86"/>
-    <mergeCell ref="T86:W86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="C87:D87"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="H87:J87"/>
-    <mergeCell ref="K87:M87"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="Q87:R87"/>
-    <mergeCell ref="T87:W87"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="H84:J84"/>
-    <mergeCell ref="K84:M84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="Q84:R84"/>
-    <mergeCell ref="T84:W84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="C85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="K85:M85"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="Q85:R85"/>
-    <mergeCell ref="T85:W85"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="H82:J82"/>
-    <mergeCell ref="K82:M82"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="Q82:R82"/>
-    <mergeCell ref="T82:W82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="C83:D83"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="H83:J83"/>
-    <mergeCell ref="K83:M83"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="Q83:R83"/>
-    <mergeCell ref="T83:W83"/>
-    <mergeCell ref="W80:X80"/>
-    <mergeCell ref="A81:B81"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="H81:J81"/>
-    <mergeCell ref="K81:M81"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="Q81:R81"/>
-    <mergeCell ref="T81:W81"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="K77:M77"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="Q77:R77"/>
-    <mergeCell ref="T77:W77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="H78:J78"/>
-    <mergeCell ref="K78:M78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="Q78:R78"/>
-    <mergeCell ref="T78:W78"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="H75:J75"/>
-    <mergeCell ref="K75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="Q75:R75"/>
-    <mergeCell ref="T75:W75"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="K76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="Q76:R76"/>
-    <mergeCell ref="T76:W76"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="H73:J73"/>
-    <mergeCell ref="K73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="Q73:R73"/>
-    <mergeCell ref="T73:W73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="H74:J74"/>
-    <mergeCell ref="K74:M74"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="Q74:R74"/>
-    <mergeCell ref="T74:W74"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="H71:J71"/>
-    <mergeCell ref="K71:M71"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="Q71:R71"/>
-    <mergeCell ref="T71:W71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="H72:J72"/>
-    <mergeCell ref="K72:M72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="Q72:R72"/>
-    <mergeCell ref="T72:W72"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="K69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="Q69:R69"/>
-    <mergeCell ref="T69:W69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="K70:M70"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="Q70:R70"/>
-    <mergeCell ref="T70:W70"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="K67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="Q67:R67"/>
-    <mergeCell ref="T67:W67"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="H68:J68"/>
-    <mergeCell ref="K68:M68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="Q68:R68"/>
-    <mergeCell ref="T68:W68"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="K65:M65"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="Q65:R65"/>
-    <mergeCell ref="T65:W65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="K66:M66"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="Q66:R66"/>
-    <mergeCell ref="T66:W66"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="K63:M63"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="Q63:R63"/>
-    <mergeCell ref="T63:W63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="K64:M64"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="Q64:R64"/>
-    <mergeCell ref="T64:W64"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="K60:M60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="Q60:R60"/>
-    <mergeCell ref="T60:W60"/>
-    <mergeCell ref="W62:X62"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="K58:M58"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="Q58:R58"/>
-    <mergeCell ref="T58:W58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="K59:M59"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="Q59:R59"/>
-    <mergeCell ref="T59:W59"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="H56:J56"/>
-    <mergeCell ref="K56:M56"/>
-    <mergeCell ref="N56:O56"/>
-    <mergeCell ref="Q56:R56"/>
-    <mergeCell ref="T56:W56"/>
-    <mergeCell ref="A57:B57"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="H57:J57"/>
-    <mergeCell ref="K57:M57"/>
-    <mergeCell ref="N57:O57"/>
-    <mergeCell ref="Q57:R57"/>
-    <mergeCell ref="T57:W57"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="K54:M54"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="Q54:R54"/>
-    <mergeCell ref="T54:W54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="K55:M55"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="Q55:R55"/>
-    <mergeCell ref="T55:W55"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="K52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="Q52:R52"/>
-    <mergeCell ref="T52:W52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="Q53:R53"/>
-    <mergeCell ref="T53:W53"/>
-    <mergeCell ref="A50:B50"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="K50:M50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="Q50:R50"/>
-    <mergeCell ref="T50:W50"/>
-    <mergeCell ref="A51:B51"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="K51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="Q51:R51"/>
-    <mergeCell ref="T51:W51"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="E48:G48"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="K48:M48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="Q48:R48"/>
-    <mergeCell ref="T48:W48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="K49:M49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="Q49:R49"/>
-    <mergeCell ref="T49:W49"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="K46:M46"/>
-    <mergeCell ref="N46:O46"/>
-    <mergeCell ref="Q46:R46"/>
-    <mergeCell ref="T46:W46"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="K47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="Q47:R47"/>
-    <mergeCell ref="T47:W47"/>
-    <mergeCell ref="W44:X44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="E45:G45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:O45"/>
-    <mergeCell ref="Q45:R45"/>
-    <mergeCell ref="T45:W45"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="K41:M41"/>
-    <mergeCell ref="N41:O41"/>
-    <mergeCell ref="Q41:R41"/>
-    <mergeCell ref="T41:W41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="K42:M42"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="T42:W42"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="K39:M39"/>
-    <mergeCell ref="N39:O39"/>
-    <mergeCell ref="Q39:R39"/>
-    <mergeCell ref="T39:W39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="K40:M40"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="T40:W40"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="N37:O37"/>
-    <mergeCell ref="Q37:R37"/>
-    <mergeCell ref="T37:W37"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="K38:M38"/>
-    <mergeCell ref="N38:O38"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="T38:W38"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="K35:M35"/>
-    <mergeCell ref="N35:O35"/>
-    <mergeCell ref="Q35:R35"/>
-    <mergeCell ref="T35:W35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:M36"/>
-    <mergeCell ref="N36:O36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="T36:W36"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="T33:W33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="N34:O34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="T34:W34"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="K31:M31"/>
-    <mergeCell ref="N31:O31"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="T31:W31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="T32:W32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="T29:W29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="N30:O30"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="T30:W30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="Q27:R27"/>
-    <mergeCell ref="T27:W27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="N28:O28"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="N24:O24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="T24:W24"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="K22:M22"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="Q22:R22"/>
-    <mergeCell ref="T22:W22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="T23:W23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:M20"/>
-    <mergeCell ref="N20:O20"/>
-    <mergeCell ref="Q20:R20"/>
-    <mergeCell ref="T20:W20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:O21"/>
-    <mergeCell ref="Q21:R21"/>
-    <mergeCell ref="T21:W21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="T18:W18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="Q19:R19"/>
-    <mergeCell ref="T19:W19"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="T16:W16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="K14:M14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="T14:W14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="T15:W15"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:M12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="F6:Q6"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="F7:Q7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="F8:Q8"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="R1:X1"/>
-    <mergeCell ref="A1:E2"/>
-    <mergeCell ref="F1:Q2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="F3:Q3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:Q4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:Q5"/>
   </mergeCells>
   <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
